--- a/Cnl/Mapeos_CON_CNL_V1.xlsx
+++ b/Cnl/Mapeos_CON_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="735" windowWidth="9225" windowHeight="4290" tabRatio="583" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="285" yWindow="795" windowWidth="9225" windowHeight="4230" tabRatio="583" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T65SOLICITUD" sheetId="36" r:id="rId1"/>
@@ -1276,7 +1276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3612" uniqueCount="726">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3442,16 +3442,35 @@
   </si>
   <si>
     <t>Campos provenientes de T65SOLICITUD</t>
+  </si>
+  <si>
+    <t>CANT_PAG_ANT</t>
+  </si>
+  <si>
+    <t>FEC_DESEM</t>
+  </si>
+  <si>
+    <t>TIP_CART</t>
+  </si>
+  <si>
+    <t>CAL_CART</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -4367,204 +4386,206 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="86">
+  <cellStyleXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="34" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="34" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4579,11 +4600,11 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4593,36 +4614,36 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4631,79 +4652,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="0" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="33" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4712,83 +4766,53 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="0" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="87" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="33" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="86">
+  <cellStyles count="88">
     <cellStyle name="20% - Accent1" xfId="1"/>
     <cellStyle name="20% - Accent2" xfId="2"/>
     <cellStyle name="20% - Accent3" xfId="3"/>
@@ -4859,7 +4883,9 @@
     <cellStyle name="Neutral" xfId="68" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="69"/>
+    <cellStyle name="Normal 2 2" xfId="87"/>
     <cellStyle name="Normal 3" xfId="85"/>
+    <cellStyle name="Normal 4" xfId="86"/>
     <cellStyle name="Normal_Libro1" xfId="70"/>
     <cellStyle name="Normal_Planilla_Mapeo_CCCLTEMT" xfId="71"/>
     <cellStyle name="Notas" xfId="72" builtinId="10" customBuiltin="1"/>
@@ -5315,26 +5341,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="148" t="s">
+      <c r="D2" s="163" t="s">
         <v>319</v>
       </c>
-      <c r="E2" s="149"/>
-      <c r="F2" s="150"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="146"/>
-      <c r="J2" s="147"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="168"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="153"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="171"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -5347,11 +5373,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="174"/>
       <c r="G4" s="7"/>
       <c r="H4" s="63"/>
       <c r="I4" s="46" t="s">
@@ -5364,11 +5390,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="156"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5380,29 +5406,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="159" t="s">
+      <c r="I7" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="160"/>
-      <c r="K7" s="161"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="179"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="162" t="s">
+      <c r="M7" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6867,7 +6893,7 @@
       <c r="F45" s="65"/>
       <c r="G45" s="66"/>
       <c r="L45" s="45"/>
-      <c r="M45" s="172">
+      <c r="M45" s="150">
         <v>30</v>
       </c>
       <c r="N45" s="82" t="s">
@@ -7098,22 +7124,22 @@
       <c r="F52" s="65"/>
       <c r="G52" s="66"/>
       <c r="L52" s="45"/>
-      <c r="M52" s="169">
+      <c r="M52" s="147">
         <v>94</v>
       </c>
-      <c r="N52" s="170" t="s">
+      <c r="N52" s="148" t="s">
         <v>707</v>
       </c>
-      <c r="O52" s="170" t="s">
+      <c r="O52" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="170" t="s">
+      <c r="P52" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="Q52" s="170" t="s">
-        <v>20</v>
-      </c>
-      <c r="R52" s="171"/>
+      <c r="Q52" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="149"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53" s="49">
@@ -7329,22 +7355,22 @@
       <c r="F59" s="65"/>
       <c r="G59" s="66"/>
       <c r="L59" s="45"/>
-      <c r="M59" s="169">
+      <c r="M59" s="147">
         <v>94</v>
       </c>
-      <c r="N59" s="170" t="s">
+      <c r="N59" s="148" t="s">
         <v>710</v>
       </c>
-      <c r="O59" s="170" t="s">
+      <c r="O59" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="P59" s="170" t="s">
+      <c r="P59" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="Q59" s="170" t="s">
-        <v>20</v>
-      </c>
-      <c r="R59" s="171"/>
+      <c r="Q59" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="R59" s="149"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B60" s="49">
@@ -7560,22 +7586,22 @@
       <c r="F66" s="65"/>
       <c r="G66" s="66"/>
       <c r="L66" s="45"/>
-      <c r="M66" s="165">
+      <c r="M66" s="143">
         <v>94</v>
       </c>
-      <c r="N66" s="166" t="s">
+      <c r="N66" s="144" t="s">
         <v>713</v>
       </c>
-      <c r="O66" s="166" t="s">
+      <c r="O66" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="P66" s="166" t="s">
+      <c r="P66" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="Q66" s="166" t="s">
-        <v>20</v>
-      </c>
-      <c r="R66" s="167"/>
+      <c r="Q66" s="144" t="s">
+        <v>20</v>
+      </c>
+      <c r="R66" s="145"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B67" s="69">
@@ -8060,10 +8086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R208"/>
+  <dimension ref="B1:R212"/>
   <sheetViews>
-    <sheetView topLeftCell="L187" workbookViewId="0">
-      <selection activeCell="N201" sqref="N201"/>
+    <sheetView tabSelected="1" topLeftCell="L62" workbookViewId="0">
+      <selection activeCell="O136" sqref="O72:O136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8083,7 +8109,7 @@
     <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35.85546875" style="2" customWidth="1"/>
     <col min="15" max="15" width="39" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="11.42578125" style="2"/>
@@ -8102,28 +8128,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="148" t="s">
+      <c r="D2" s="163" t="s">
         <v>226</v>
       </c>
-      <c r="E2" s="149"/>
-      <c r="F2" s="150"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="146"/>
-      <c r="J2" s="147"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="168"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="153"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="171"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="176"/>
+      <c r="H3" s="154"/>
       <c r="I3" s="108" t="s">
         <v>44</v>
       </c>
@@ -8134,13 +8160,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="174"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="177"/>
+      <c r="H4" s="155"/>
       <c r="I4" s="25" t="s">
         <v>45</v>
       </c>
@@ -8151,37 +8177,37 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="156"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="178"/>
+      <c r="H5" s="156"/>
       <c r="I5" s="25" t="s">
         <v>718</v>
       </c>
       <c r="J5" s="35"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="173"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="179"/>
+      <c r="H6" s="157"/>
       <c r="I6" s="46" t="s">
         <v>719</v>
       </c>
       <c r="J6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="173"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8193,29 +8219,29 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="176"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="159" t="s">
+      <c r="I9" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="160"/>
-      <c r="K9" s="161"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="179"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="142" t="s">
+      <c r="M9" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="N9" s="143"/>
-      <c r="O9" s="143"/>
-      <c r="P9" s="143"/>
-      <c r="Q9" s="143"/>
-      <c r="R9" s="144"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="181"/>
+      <c r="R9" s="182"/>
     </row>
     <row r="10" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
@@ -12449,240 +12475,246 @@
       <c r="R130" s="35"/>
     </row>
     <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="49">
-        <v>121</v>
-      </c>
-      <c r="C131" s="109" t="s">
-        <v>265</v>
-      </c>
-      <c r="D131" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E131" s="39">
-        <v>22.19</v>
-      </c>
+      <c r="B131" s="49"/>
+      <c r="C131" s="109"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="39"/>
       <c r="F131" s="58"/>
       <c r="G131" s="51"/>
       <c r="L131" s="44"/>
       <c r="M131" s="34">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="N131" s="32" t="s">
         <v>409</v>
       </c>
       <c r="O131" s="32" t="s">
-        <v>407</v>
+        <v>722</v>
       </c>
       <c r="P131" s="32" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="Q131" s="32" t="s">
         <v>20</v>
       </c>
       <c r="R131" s="35"/>
     </row>
-    <row r="132" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="69">
-        <v>122</v>
-      </c>
-      <c r="C132" s="110" t="s">
-        <v>578</v>
+    <row r="132" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B132" s="49">
+        <v>121</v>
+      </c>
+      <c r="C132" s="109" t="s">
+        <v>265</v>
       </c>
       <c r="D132" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E132" s="117" t="s">
-        <v>573</v>
-      </c>
-      <c r="F132" s="70"/>
-      <c r="G132" s="71"/>
-      <c r="L132" s="45"/>
-      <c r="M132" s="75">
-        <v>51</v>
-      </c>
-      <c r="N132" s="82" t="s">
+      <c r="E132" s="39">
+        <v>22.19</v>
+      </c>
+      <c r="F132" s="58"/>
+      <c r="G132" s="51"/>
+      <c r="L132" s="44"/>
+      <c r="M132" s="34">
+        <v>131</v>
+      </c>
+      <c r="N132" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="O132" s="82" t="s">
-        <v>408</v>
-      </c>
-      <c r="P132" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q132" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="R132" s="76"/>
+      <c r="O132" s="183" t="s">
+        <v>723</v>
+      </c>
+      <c r="P132" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q132" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R132" s="35"/>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B133" s="69">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C133" s="110" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D133" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E133" s="117" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F133" s="70"/>
       <c r="G133" s="71"/>
-      <c r="L133" s="74"/>
-      <c r="M133" s="55">
-        <v>126</v>
-      </c>
-      <c r="N133" s="94" t="s">
-        <v>437</v>
-      </c>
-      <c r="O133" s="94" t="s">
-        <v>410</v>
-      </c>
-      <c r="P133" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q133" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="R133" s="72"/>
+      <c r="L133" s="44"/>
+      <c r="M133" s="34">
+        <v>131</v>
+      </c>
+      <c r="N133" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="O133" s="183" t="s">
+        <v>724</v>
+      </c>
+      <c r="P133" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q133" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R133" s="35"/>
     </row>
     <row r="134" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B134" s="69">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C134" s="110" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D134" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E134" s="117" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="F134" s="70"/>
       <c r="G134" s="71"/>
       <c r="L134" s="44"/>
       <c r="M134" s="34">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="N134" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="O134" s="32" t="s">
-        <v>411</v>
+        <v>409</v>
+      </c>
+      <c r="O134" s="183" t="s">
+        <v>725</v>
       </c>
       <c r="P134" s="32" t="s">
-        <v>24</v>
+        <v>402</v>
       </c>
       <c r="Q134" s="32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R134" s="35"/>
     </row>
-    <row r="135" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="47">
-        <v>129</v>
-      </c>
-      <c r="C135" s="111" t="s">
-        <v>581</v>
-      </c>
-      <c r="D135" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E135" s="53">
-        <v>7</v>
-      </c>
-      <c r="F135" s="124"/>
-      <c r="G135" s="125"/>
+    <row r="135" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B135" s="69">
+        <v>128</v>
+      </c>
+      <c r="C135" s="110" t="s">
+        <v>580</v>
+      </c>
+      <c r="D135" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E135" s="117" t="s">
+        <v>570</v>
+      </c>
+      <c r="F135" s="70"/>
+      <c r="G135" s="71"/>
       <c r="L135" s="44"/>
       <c r="M135" s="34">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="N135" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="O135" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="P135" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q135" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R135" s="35"/>
+    </row>
+    <row r="136" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="47">
+        <v>129</v>
+      </c>
+      <c r="C136" s="111" t="s">
+        <v>581</v>
+      </c>
+      <c r="D136" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" s="53">
+        <v>7</v>
+      </c>
+      <c r="F136" s="124"/>
+      <c r="G136" s="125"/>
+      <c r="L136" s="45"/>
+      <c r="M136" s="75">
+        <v>51</v>
+      </c>
+      <c r="N136" s="82" t="s">
+        <v>409</v>
+      </c>
+      <c r="O136" s="82" t="s">
+        <v>408</v>
+      </c>
+      <c r="P136" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q136" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="R136" s="76"/>
+    </row>
+    <row r="137" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L137" s="74"/>
+      <c r="M137" s="55">
+        <v>126</v>
+      </c>
+      <c r="N137" s="94" t="s">
         <v>437</v>
       </c>
-      <c r="O135" s="32" t="s">
-        <v>412</v>
-      </c>
-      <c r="P135" s="32" t="s">
+      <c r="O137" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="P137" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="Q135" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R135" s="35"/>
-    </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L136" s="44"/>
-      <c r="M136" s="34">
+      <c r="Q137" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="N136" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="O136" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="P136" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q136" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R136" s="35"/>
-    </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L137" s="44"/>
-      <c r="M137" s="34">
-        <v>131</v>
-      </c>
-      <c r="N137" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="O137" s="32" t="s">
-        <v>414</v>
-      </c>
-      <c r="P137" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q137" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R137" s="35"/>
+      <c r="R137" s="72"/>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L138" s="44"/>
       <c r="M138" s="34">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="N138" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O138" s="32" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P138" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q138" s="32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R138" s="35"/>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L139" s="44"/>
       <c r="M139" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N139" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O139" s="32" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P139" s="32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q139" s="32" t="s">
         <v>20</v>
@@ -12692,16 +12724,16 @@
     <row r="140" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L140" s="44"/>
       <c r="M140" s="34">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N140" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O140" s="32" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P140" s="32" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="Q140" s="32" t="s">
         <v>20</v>
@@ -12717,7 +12749,7 @@
         <v>437</v>
       </c>
       <c r="O141" s="32" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P141" s="32" t="s">
         <v>19</v>
@@ -12736,10 +12768,10 @@
         <v>437</v>
       </c>
       <c r="O142" s="32" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="P142" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q142" s="32" t="s">
         <v>20</v>
@@ -12755,10 +12787,10 @@
         <v>437</v>
       </c>
       <c r="O143" s="32" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P143" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q143" s="32" t="s">
         <v>20</v>
@@ -12768,16 +12800,16 @@
     <row r="144" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L144" s="44"/>
       <c r="M144" s="34">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="N144" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O144" s="32" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P144" s="32" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="Q144" s="32" t="s">
         <v>20</v>
@@ -12793,10 +12825,10 @@
         <v>437</v>
       </c>
       <c r="O145" s="32" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P145" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q145" s="32" t="s">
         <v>20</v>
@@ -12812,10 +12844,10 @@
         <v>437</v>
       </c>
       <c r="O146" s="32" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="P146" s="32" t="s">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="Q146" s="32" t="s">
         <v>20</v>
@@ -12831,10 +12863,10 @@
         <v>437</v>
       </c>
       <c r="O147" s="32" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P147" s="32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q147" s="32" t="s">
         <v>20</v>
@@ -12844,16 +12876,16 @@
     <row r="148" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L148" s="44"/>
       <c r="M148" s="34">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N148" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O148" s="32" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P148" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q148" s="32" t="s">
         <v>20</v>
@@ -12863,13 +12895,13 @@
     <row r="149" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L149" s="44"/>
       <c r="M149" s="34">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N149" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O149" s="32" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P149" s="32" t="s">
         <v>24</v>
@@ -12888,10 +12920,10 @@
         <v>437</v>
       </c>
       <c r="O150" s="32" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="P150" s="32" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="Q150" s="32" t="s">
         <v>20</v>
@@ -12907,10 +12939,10 @@
         <v>437</v>
       </c>
       <c r="O151" s="32" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P151" s="32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q151" s="32" t="s">
         <v>20</v>
@@ -12920,16 +12952,16 @@
     <row r="152" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L152" s="44"/>
       <c r="M152" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N152" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O152" s="32" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P152" s="32" t="s">
-        <v>402</v>
+        <v>24</v>
       </c>
       <c r="Q152" s="32" t="s">
         <v>20</v>
@@ -12938,17 +12970,17 @@
     </row>
     <row r="153" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L153" s="44"/>
-      <c r="M153" s="69">
-        <v>23</v>
+      <c r="M153" s="34">
+        <v>130</v>
       </c>
       <c r="N153" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O153" s="32" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P153" s="32" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q153" s="32" t="s">
         <v>20</v>
@@ -12958,16 +12990,16 @@
     <row r="154" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L154" s="44"/>
       <c r="M154" s="34">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="N154" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O154" s="32" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P154" s="32" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q154" s="32" t="s">
         <v>20</v>
@@ -12977,13 +13009,13 @@
     <row r="155" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L155" s="44"/>
       <c r="M155" s="34">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="N155" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O155" s="32" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="P155" s="32" t="s">
         <v>24</v>
@@ -12996,16 +13028,16 @@
     <row r="156" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L156" s="44"/>
       <c r="M156" s="34">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="N156" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O156" s="32" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="P156" s="32" t="s">
-        <v>24</v>
+        <v>402</v>
       </c>
       <c r="Q156" s="32" t="s">
         <v>20</v>
@@ -13014,213 +13046,213 @@
     </row>
     <row r="157" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L157" s="44"/>
-      <c r="M157" s="34">
-        <v>83</v>
-      </c>
-      <c r="N157" s="101" t="s">
+      <c r="M157" s="69">
+        <v>23</v>
+      </c>
+      <c r="N157" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="O157" s="101" t="s">
-        <v>434</v>
-      </c>
-      <c r="P157" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q157" s="102" t="s">
+      <c r="O157" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="P157" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q157" s="32" t="s">
         <v>20</v>
       </c>
       <c r="R157" s="35"/>
     </row>
     <row r="158" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L158" s="44"/>
-      <c r="M158" s="87">
-        <v>134</v>
-      </c>
-      <c r="N158" s="88" t="s">
+      <c r="M158" s="34">
+        <v>25</v>
+      </c>
+      <c r="N158" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="O158" s="88" t="s">
-        <v>435</v>
-      </c>
-      <c r="P158" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q158" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="R158" s="89"/>
-    </row>
-    <row r="159" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L159" s="45"/>
-      <c r="M159" s="103">
-        <v>134</v>
-      </c>
-      <c r="N159" s="104" t="s">
+      <c r="O158" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="P158" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q158" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R158" s="35"/>
+    </row>
+    <row r="159" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L159" s="44"/>
+      <c r="M159" s="34">
+        <v>143</v>
+      </c>
+      <c r="N159" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="O159" s="104" t="s">
-        <v>436</v>
-      </c>
-      <c r="P159" s="104" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q159" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="R159" s="105"/>
+      <c r="O159" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="P159" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q159" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R159" s="35"/>
     </row>
     <row r="160" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L160" s="74"/>
-      <c r="M160" s="55">
-        <v>126</v>
-      </c>
-      <c r="N160" s="94" t="s">
-        <v>488</v>
-      </c>
-      <c r="O160" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="P160" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q160" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="R160" s="121" t="s">
-        <v>48</v>
-      </c>
+      <c r="L160" s="44"/>
+      <c r="M160" s="34">
+        <v>144</v>
+      </c>
+      <c r="N160" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="O160" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="P160" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q160" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R160" s="35"/>
     </row>
     <row r="161" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L161" s="44"/>
       <c r="M161" s="34">
-        <v>130</v>
-      </c>
-      <c r="N161" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="O161" s="32" t="s">
-        <v>448</v>
-      </c>
-      <c r="P161" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q161" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="R161" s="54" t="s">
-        <v>48</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="N161" s="101" t="s">
+        <v>437</v>
+      </c>
+      <c r="O161" s="101" t="s">
+        <v>434</v>
+      </c>
+      <c r="P161" s="102" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q161" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="R161" s="35"/>
     </row>
     <row r="162" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L162" s="44"/>
-      <c r="M162" s="34">
-        <v>135</v>
-      </c>
-      <c r="N162" s="32" t="s">
+      <c r="M162" s="87">
+        <v>134</v>
+      </c>
+      <c r="N162" s="88" t="s">
+        <v>437</v>
+      </c>
+      <c r="O162" s="88" t="s">
+        <v>435</v>
+      </c>
+      <c r="P162" s="88" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q162" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="R162" s="89"/>
+    </row>
+    <row r="163" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L163" s="45"/>
+      <c r="M163" s="103">
+        <v>134</v>
+      </c>
+      <c r="N163" s="104" t="s">
+        <v>437</v>
+      </c>
+      <c r="O163" s="104" t="s">
+        <v>436</v>
+      </c>
+      <c r="P163" s="104" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q163" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="R163" s="105"/>
+    </row>
+    <row r="164" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L164" s="74"/>
+      <c r="M164" s="55">
+        <v>126</v>
+      </c>
+      <c r="N164" s="94" t="s">
         <v>488</v>
       </c>
-      <c r="O162" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="P162" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q162" s="32" t="s">
+      <c r="O164" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="P164" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q164" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="R162" s="54" t="s">
+      <c r="R164" s="121" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="163" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L163" s="44"/>
-      <c r="M163" s="34">
-        <v>127</v>
-      </c>
-      <c r="N163" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="O163" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="P163" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q163" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R163" s="35"/>
-    </row>
-    <row r="164" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L164" s="44"/>
-      <c r="M164" s="34">
-        <v>128</v>
-      </c>
-      <c r="N164" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="O164" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P164" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q164" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R164" s="35"/>
     </row>
     <row r="165" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L165" s="44"/>
       <c r="M165" s="34">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N165" s="32" t="s">
         <v>488</v>
       </c>
       <c r="O165" s="32" t="s">
-        <v>23</v>
+        <v>448</v>
       </c>
       <c r="P165" s="32" t="s">
         <v>24</v>
       </c>
       <c r="Q165" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R165" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="R165" s="54" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="166" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L166" s="44"/>
       <c r="M166" s="34">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="N166" s="32" t="s">
         <v>488</v>
       </c>
       <c r="O166" s="32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P166" s="32" t="s">
         <v>24</v>
       </c>
       <c r="Q166" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R166" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="R166" s="54" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="167" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L167" s="44"/>
       <c r="M167" s="34">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N167" s="32" t="s">
         <v>488</v>
       </c>
       <c r="O167" s="32" t="s">
-        <v>451</v>
+        <v>18</v>
       </c>
       <c r="P167" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q167" s="32" t="s">
         <v>20</v>
@@ -13230,16 +13262,16 @@
     <row r="168" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L168" s="44"/>
       <c r="M168" s="34">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N168" s="32" t="s">
         <v>488</v>
       </c>
       <c r="O168" s="32" t="s">
-        <v>452</v>
+        <v>21</v>
       </c>
       <c r="P168" s="32" t="s">
-        <v>453</v>
+        <v>22</v>
       </c>
       <c r="Q168" s="32" t="s">
         <v>20</v>
@@ -13249,16 +13281,16 @@
     <row r="169" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L169" s="44"/>
       <c r="M169" s="34">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N169" s="32" t="s">
         <v>488</v>
       </c>
       <c r="O169" s="32" t="s">
-        <v>454</v>
+        <v>23</v>
       </c>
       <c r="P169" s="32" t="s">
-        <v>455</v>
+        <v>24</v>
       </c>
       <c r="Q169" s="32" t="s">
         <v>20</v>
@@ -13268,13 +13300,13 @@
     <row r="170" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L170" s="44"/>
       <c r="M170" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N170" s="32" t="s">
         <v>488</v>
       </c>
       <c r="O170" s="32" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="P170" s="32" t="s">
         <v>24</v>
@@ -13287,16 +13319,16 @@
     <row r="171" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L171" s="44"/>
       <c r="M171" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N171" s="32" t="s">
         <v>488</v>
       </c>
       <c r="O171" s="32" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="P171" s="32" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="Q171" s="32" t="s">
         <v>20</v>
@@ -13312,10 +13344,10 @@
         <v>488</v>
       </c>
       <c r="O172" s="32" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P172" s="32" t="s">
-        <v>219</v>
+        <v>453</v>
       </c>
       <c r="Q172" s="32" t="s">
         <v>20</v>
@@ -13331,10 +13363,10 @@
         <v>488</v>
       </c>
       <c r="O173" s="32" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="P173" s="32" t="s">
-        <v>219</v>
+        <v>455</v>
       </c>
       <c r="Q173" s="32" t="s">
         <v>20</v>
@@ -13343,22 +13375,22 @@
     </row>
     <row r="174" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L174" s="44"/>
-      <c r="M174" s="87">
-        <v>134</v>
-      </c>
-      <c r="N174" s="88" t="s">
+      <c r="M174" s="34">
+        <v>131</v>
+      </c>
+      <c r="N174" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="O174" s="88" t="s">
-        <v>460</v>
-      </c>
-      <c r="P174" s="88" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q174" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="R174" s="89"/>
+      <c r="O174" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="P174" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q174" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R174" s="35"/>
     </row>
     <row r="175" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L175" s="44"/>
@@ -13369,10 +13401,10 @@
         <v>488</v>
       </c>
       <c r="O175" s="32" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="P175" s="32" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="Q175" s="32" t="s">
         <v>20</v>
@@ -13388,10 +13420,10 @@
         <v>488</v>
       </c>
       <c r="O176" s="32" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P176" s="32" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="Q176" s="32" t="s">
         <v>20</v>
@@ -13407,7 +13439,7 @@
         <v>488</v>
       </c>
       <c r="O177" s="32" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P177" s="32" t="s">
         <v>219</v>
@@ -13419,36 +13451,36 @@
     </row>
     <row r="178" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L178" s="44"/>
-      <c r="M178" s="34">
-        <v>131</v>
-      </c>
-      <c r="N178" s="32" t="s">
+      <c r="M178" s="87">
+        <v>134</v>
+      </c>
+      <c r="N178" s="88" t="s">
         <v>488</v>
       </c>
-      <c r="O178" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="P178" s="32" t="s">
+      <c r="O178" s="88" t="s">
+        <v>460</v>
+      </c>
+      <c r="P178" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="Q178" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R178" s="35"/>
+      <c r="Q178" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="R178" s="89"/>
     </row>
     <row r="179" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L179" s="44"/>
-      <c r="M179" s="69">
-        <v>136</v>
+      <c r="M179" s="34">
+        <v>131</v>
       </c>
       <c r="N179" s="32" t="s">
         <v>488</v>
       </c>
       <c r="O179" s="32" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="P179" s="32" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="Q179" s="32" t="s">
         <v>20</v>
@@ -13464,10 +13496,10 @@
         <v>488</v>
       </c>
       <c r="O180" s="32" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="P180" s="32" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="Q180" s="32" t="s">
         <v>20</v>
@@ -13483,7 +13515,7 @@
         <v>488</v>
       </c>
       <c r="O181" s="32" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P181" s="32" t="s">
         <v>219</v>
@@ -13502,10 +13534,10 @@
         <v>488</v>
       </c>
       <c r="O182" s="32" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P182" s="32" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="Q182" s="32" t="s">
         <v>20</v>
@@ -13514,14 +13546,14 @@
     </row>
     <row r="183" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L183" s="44"/>
-      <c r="M183" s="34">
-        <v>131</v>
+      <c r="M183" s="69">
+        <v>136</v>
       </c>
       <c r="N183" s="32" t="s">
         <v>488</v>
       </c>
       <c r="O183" s="32" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="P183" s="32" t="s">
         <v>219</v>
@@ -13534,13 +13566,13 @@
     <row r="184" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L184" s="44"/>
       <c r="M184" s="34">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="N184" s="32" t="s">
         <v>488</v>
       </c>
       <c r="O184" s="32" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="P184" s="32" t="s">
         <v>219</v>
@@ -13553,13 +13585,13 @@
     <row r="185" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L185" s="44"/>
       <c r="M185" s="34">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="N185" s="32" t="s">
         <v>488</v>
       </c>
       <c r="O185" s="32" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="P185" s="32" t="s">
         <v>219</v>
@@ -13572,16 +13604,16 @@
     <row r="186" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L186" s="44"/>
       <c r="M186" s="34">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="N186" s="32" t="s">
         <v>488</v>
       </c>
       <c r="O186" s="32" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="P186" s="32" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="Q186" s="32" t="s">
         <v>20</v>
@@ -13590,33 +13622,33 @@
     </row>
     <row r="187" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L187" s="44"/>
-      <c r="M187" s="87">
-        <v>134</v>
-      </c>
-      <c r="N187" s="88" t="s">
+      <c r="M187" s="34">
+        <v>131</v>
+      </c>
+      <c r="N187" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="O187" s="88" t="s">
-        <v>473</v>
-      </c>
-      <c r="P187" s="88" t="s">
+      <c r="O187" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="P187" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="Q187" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="R187" s="89"/>
+      <c r="Q187" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R187" s="35"/>
     </row>
     <row r="188" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L188" s="44"/>
       <c r="M188" s="34">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="N188" s="32" t="s">
         <v>488</v>
       </c>
       <c r="O188" s="32" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P188" s="32" t="s">
         <v>219</v>
@@ -13629,13 +13661,13 @@
     <row r="189" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L189" s="44"/>
       <c r="M189" s="34">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="N189" s="32" t="s">
         <v>488</v>
       </c>
       <c r="O189" s="32" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P189" s="32" t="s">
         <v>219</v>
@@ -13647,22 +13679,22 @@
     </row>
     <row r="190" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L190" s="44"/>
-      <c r="M190" s="87">
-        <v>134</v>
-      </c>
-      <c r="N190" s="88" t="s">
+      <c r="M190" s="34">
+        <v>81</v>
+      </c>
+      <c r="N190" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="O190" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="P190" s="88" t="s">
+      <c r="O190" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="P190" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="Q190" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="R190" s="89"/>
+      <c r="Q190" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R190" s="35"/>
     </row>
     <row r="191" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L191" s="44"/>
@@ -13673,10 +13705,10 @@
         <v>488</v>
       </c>
       <c r="O191" s="88" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="P191" s="88" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="Q191" s="88" t="s">
         <v>20</v>
@@ -13685,33 +13717,33 @@
     </row>
     <row r="192" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L192" s="44"/>
-      <c r="M192" s="87">
-        <v>134</v>
-      </c>
-      <c r="N192" s="88" t="s">
+      <c r="M192" s="34">
+        <v>90</v>
+      </c>
+      <c r="N192" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="O192" s="88" t="s">
-        <v>478</v>
-      </c>
-      <c r="P192" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q192" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="R192" s="89"/>
+      <c r="O192" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="P192" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q192" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R192" s="35"/>
     </row>
     <row r="193" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L193" s="44"/>
       <c r="M193" s="34">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="N193" s="32" t="s">
         <v>488</v>
       </c>
       <c r="O193" s="32" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P193" s="32" t="s">
         <v>219</v>
@@ -13730,7 +13762,7 @@
         <v>488</v>
       </c>
       <c r="O194" s="88" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P194" s="88" t="s">
         <v>219</v>
@@ -13742,52 +13774,52 @@
     </row>
     <row r="195" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L195" s="44"/>
-      <c r="M195" s="34">
-        <v>74</v>
-      </c>
-      <c r="N195" s="32" t="s">
+      <c r="M195" s="87">
+        <v>134</v>
+      </c>
+      <c r="N195" s="88" t="s">
         <v>488</v>
       </c>
-      <c r="O195" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="P195" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q195" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R195" s="35"/>
+      <c r="O195" s="88" t="s">
+        <v>477</v>
+      </c>
+      <c r="P195" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q195" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="R195" s="89"/>
     </row>
     <row r="196" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L196" s="44"/>
-      <c r="M196" s="34">
-        <v>138</v>
-      </c>
-      <c r="N196" s="32" t="s">
+      <c r="M196" s="87">
+        <v>134</v>
+      </c>
+      <c r="N196" s="88" t="s">
         <v>488</v>
       </c>
-      <c r="O196" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="P196" s="32" t="s">
+      <c r="O196" s="88" t="s">
+        <v>478</v>
+      </c>
+      <c r="P196" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="Q196" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R196" s="35"/>
+      <c r="Q196" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="R196" s="89"/>
     </row>
     <row r="197" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L197" s="44"/>
       <c r="M197" s="34">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N197" s="32" t="s">
         <v>488</v>
       </c>
       <c r="O197" s="32" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P197" s="32" t="s">
         <v>219</v>
@@ -13799,128 +13831,128 @@
     </row>
     <row r="198" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L198" s="44"/>
-      <c r="M198" s="34">
-        <v>89</v>
-      </c>
-      <c r="N198" s="32" t="s">
+      <c r="M198" s="87">
+        <v>134</v>
+      </c>
+      <c r="N198" s="88" t="s">
         <v>488</v>
       </c>
-      <c r="O198" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="P198" s="32" t="s">
+      <c r="O198" s="88" t="s">
+        <v>480</v>
+      </c>
+      <c r="P198" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="Q198" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R198" s="35"/>
+      <c r="Q198" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="R198" s="89"/>
     </row>
     <row r="199" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L199" s="44"/>
-      <c r="M199" s="87">
-        <v>134</v>
-      </c>
-      <c r="N199" s="88" t="s">
+      <c r="M199" s="34">
+        <v>74</v>
+      </c>
+      <c r="N199" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="O199" s="88" t="s">
-        <v>485</v>
-      </c>
-      <c r="P199" s="88" t="s">
+      <c r="O199" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="P199" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="Q199" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="R199" s="89"/>
+      <c r="Q199" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R199" s="35"/>
     </row>
     <row r="200" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L200" s="44"/>
       <c r="M200" s="34">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="N200" s="32" t="s">
         <v>488</v>
       </c>
       <c r="O200" s="32" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="P200" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q200" s="32" t="s">
         <v>20</v>
       </c>
       <c r="R200" s="35"/>
     </row>
-    <row r="201" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L201" s="45"/>
-      <c r="M201" s="103">
-        <v>134</v>
-      </c>
-      <c r="N201" s="104" t="s">
+    <row r="201" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L201" s="44"/>
+      <c r="M201" s="34">
+        <v>139</v>
+      </c>
+      <c r="N201" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="O201" s="104" t="s">
-        <v>487</v>
-      </c>
-      <c r="P201" s="104" t="s">
+      <c r="O201" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="P201" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="Q201" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="R201" s="105"/>
+      <c r="Q201" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R201" s="35"/>
     </row>
     <row r="202" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L202" s="74"/>
-      <c r="M202" s="37">
-        <v>126</v>
-      </c>
-      <c r="N202" s="94" t="s">
-        <v>685</v>
-      </c>
-      <c r="O202" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="P202" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q202" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="R202" s="72"/>
+      <c r="L202" s="44"/>
+      <c r="M202" s="34">
+        <v>89</v>
+      </c>
+      <c r="N202" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="O202" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="P202" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q202" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R202" s="35"/>
     </row>
     <row r="203" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L203" s="44"/>
-      <c r="M203" s="34">
-        <v>145</v>
-      </c>
-      <c r="N203" s="32" t="s">
-        <v>685</v>
-      </c>
-      <c r="O203" s="32" t="s">
-        <v>501</v>
-      </c>
-      <c r="P203" s="32" t="s">
-        <v>660</v>
-      </c>
-      <c r="Q203" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="R203" s="35"/>
+      <c r="M203" s="87">
+        <v>134</v>
+      </c>
+      <c r="N203" s="88" t="s">
+        <v>488</v>
+      </c>
+      <c r="O203" s="88" t="s">
+        <v>485</v>
+      </c>
+      <c r="P203" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q203" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="R203" s="89"/>
     </row>
     <row r="204" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L204" s="44"/>
       <c r="M204" s="34">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="N204" s="32" t="s">
-        <v>685</v>
+        <v>488</v>
       </c>
       <c r="O204" s="32" t="s">
-        <v>18</v>
+        <v>486</v>
       </c>
       <c r="P204" s="32" t="s">
         <v>19</v>
@@ -13930,81 +13962,157 @@
       </c>
       <c r="R204" s="35"/>
     </row>
-    <row r="205" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L205" s="44"/>
-      <c r="M205" s="34">
-        <v>128</v>
-      </c>
-      <c r="N205" s="32" t="s">
+    <row r="205" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L205" s="45"/>
+      <c r="M205" s="103">
+        <v>134</v>
+      </c>
+      <c r="N205" s="104" t="s">
+        <v>488</v>
+      </c>
+      <c r="O205" s="104" t="s">
+        <v>487</v>
+      </c>
+      <c r="P205" s="104" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q205" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="R205" s="105"/>
+    </row>
+    <row r="206" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L206" s="74"/>
+      <c r="M206" s="37">
+        <v>126</v>
+      </c>
+      <c r="N206" s="94" t="s">
         <v>685</v>
       </c>
-      <c r="O205" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P205" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q205" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R205" s="35"/>
-    </row>
-    <row r="206" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L206" s="44"/>
-      <c r="M206" s="34">
-        <v>127</v>
-      </c>
-      <c r="N206" s="32" t="s">
-        <v>685</v>
-      </c>
-      <c r="O206" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="P206" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q206" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R206" s="35"/>
+      <c r="O206" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="P206" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q206" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="R206" s="72"/>
     </row>
     <row r="207" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L207" s="44"/>
       <c r="M207" s="34">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N207" s="32" t="s">
         <v>685</v>
       </c>
       <c r="O207" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="P207" s="32" t="s">
+        <v>660</v>
+      </c>
+      <c r="Q207" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="R207" s="35"/>
+    </row>
+    <row r="208" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L208" s="44"/>
+      <c r="M208" s="34">
+        <v>127</v>
+      </c>
+      <c r="N208" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="O208" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="P208" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q208" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R208" s="35"/>
+    </row>
+    <row r="209" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L209" s="44"/>
+      <c r="M209" s="34">
+        <v>128</v>
+      </c>
+      <c r="N209" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="O209" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P209" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q209" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R209" s="35"/>
+    </row>
+    <row r="210" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L210" s="44"/>
+      <c r="M210" s="34">
+        <v>127</v>
+      </c>
+      <c r="N210" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="O210" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="P210" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q210" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R210" s="35"/>
+    </row>
+    <row r="211" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L211" s="44"/>
+      <c r="M211" s="34">
+        <v>146</v>
+      </c>
+      <c r="N211" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="O211" s="32" t="s">
         <v>678</v>
       </c>
-      <c r="P207" s="32" t="s">
+      <c r="P211" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Q207" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R207" s="35"/>
-    </row>
-    <row r="208" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L208" s="45"/>
-      <c r="M208" s="165">
+      <c r="Q211" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R211" s="35"/>
+    </row>
+    <row r="212" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L212" s="45"/>
+      <c r="M212" s="143">
         <v>131</v>
       </c>
-      <c r="N208" s="166" t="s">
+      <c r="N212" s="144" t="s">
         <v>685</v>
       </c>
-      <c r="O208" s="166" t="s">
+      <c r="O212" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="P208" s="166" t="s">
+      <c r="P212" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="Q208" s="166" t="s">
-        <v>20</v>
-      </c>
-      <c r="R208" s="167"/>
+      <c r="Q212" s="144" t="s">
+        <v>20</v>
+      </c>
+      <c r="R212" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14025,10 +14133,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R216"/>
+  <dimension ref="B1:R220"/>
   <sheetViews>
-    <sheetView topLeftCell="K200" workbookViewId="0">
-      <selection activeCell="N200" sqref="N200"/>
+    <sheetView topLeftCell="K68" workbookViewId="0">
+      <selection activeCell="O135" sqref="O71:O135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14048,7 +14156,7 @@
     <col min="13" max="13" width="5.42578125" style="2" customWidth="1"/>
     <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
     <col min="15" max="15" width="39" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="11.42578125" style="2"/>
@@ -14067,28 +14175,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="148" t="s">
+      <c r="D2" s="163" t="s">
         <v>322</v>
       </c>
-      <c r="E2" s="149"/>
-      <c r="F2" s="150"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="146"/>
-      <c r="J2" s="147"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="168"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="153"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="171"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="176"/>
+      <c r="H3" s="154"/>
       <c r="I3" s="108" t="s">
         <v>44</v>
       </c>
@@ -14099,13 +14207,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="174"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="177"/>
+      <c r="H4" s="155"/>
       <c r="I4" s="25" t="s">
         <v>45</v>
       </c>
@@ -14116,26 +14224,26 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="156"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="180"/>
+      <c r="H5" s="158"/>
       <c r="I5" s="25" t="s">
         <v>720</v>
       </c>
       <c r="J5" s="35"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="173"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="181"/>
+      <c r="H6" s="159"/>
       <c r="I6" s="46" t="s">
         <v>721</v>
       </c>
@@ -14150,29 +14258,29 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="159" t="s">
+      <c r="I8" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="160"/>
-      <c r="K8" s="161"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="179"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="162" t="s">
+      <c r="M8" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="163"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="162"/>
+      <c r="P8" s="162"/>
+      <c r="Q8" s="162"/>
+      <c r="R8" s="162"/>
     </row>
     <row r="9" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
@@ -17329,16 +17437,16 @@
     <row r="129" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L129" s="44"/>
       <c r="M129" s="34">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N129" s="32" t="s">
         <v>409</v>
       </c>
       <c r="O129" s="32" t="s">
-        <v>406</v>
+        <v>722</v>
       </c>
       <c r="P129" s="32" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="Q129" s="32" t="s">
         <v>20</v>
@@ -17348,168 +17456,168 @@
     <row r="130" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L130" s="44"/>
       <c r="M130" s="34">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N130" s="32" t="s">
         <v>409</v>
       </c>
       <c r="O130" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="P130" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q130" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R130" s="35"/>
+    </row>
+    <row r="131" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L131" s="44"/>
+      <c r="M131" s="34">
+        <v>50</v>
+      </c>
+      <c r="N131" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="O131" s="32" t="s">
         <v>407</v>
       </c>
-      <c r="P130" s="32" t="s">
+      <c r="P131" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Q130" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R130" s="35"/>
-    </row>
-    <row r="131" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L131" s="45"/>
-      <c r="M131" s="75">
-        <v>12</v>
-      </c>
-      <c r="N131" s="82" t="s">
+      <c r="Q131" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R131" s="35"/>
+    </row>
+    <row r="132" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L132" s="44"/>
+      <c r="M132" s="34">
+        <v>50</v>
+      </c>
+      <c r="N132" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="O131" s="82" t="s">
-        <v>408</v>
-      </c>
-      <c r="P131" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q131" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="R131" s="76"/>
-    </row>
-    <row r="132" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L132" s="74"/>
-      <c r="M132" s="55">
-        <v>44</v>
-      </c>
-      <c r="N132" s="94" t="s">
-        <v>437</v>
-      </c>
-      <c r="O132" s="94" t="s">
-        <v>410</v>
-      </c>
-      <c r="P132" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q132" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="R132" s="72"/>
+      <c r="O132" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="P132" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q132" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R132" s="35"/>
     </row>
     <row r="133" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L133" s="44"/>
       <c r="M133" s="34">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="N133" s="32" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="O133" s="32" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="P133" s="32" t="s">
         <v>24</v>
       </c>
       <c r="Q133" s="32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R133" s="35"/>
     </row>
     <row r="134" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L134" s="44"/>
       <c r="M134" s="34">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="N134" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="O134" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="P134" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q134" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R134" s="35"/>
+    </row>
+    <row r="135" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L135" s="45"/>
+      <c r="M135" s="75">
+        <v>12</v>
+      </c>
+      <c r="N135" s="82" t="s">
+        <v>409</v>
+      </c>
+      <c r="O135" s="82" t="s">
+        <v>408</v>
+      </c>
+      <c r="P135" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q135" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="R135" s="76"/>
+    </row>
+    <row r="136" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L136" s="74"/>
+      <c r="M136" s="55">
+        <v>44</v>
+      </c>
+      <c r="N136" s="94" t="s">
         <v>437</v>
       </c>
-      <c r="O134" s="32" t="s">
-        <v>412</v>
-      </c>
-      <c r="P134" s="32" t="s">
+      <c r="O136" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="P136" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="Q134" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R134" s="35"/>
-    </row>
-    <row r="135" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L135" s="44"/>
-      <c r="M135" s="34">
-        <v>49</v>
-      </c>
-      <c r="N135" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="O135" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="P135" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q135" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R135" s="35"/>
-    </row>
-    <row r="136" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L136" s="44"/>
-      <c r="M136" s="34">
-        <v>50</v>
-      </c>
-      <c r="N136" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="O136" s="32" t="s">
-        <v>414</v>
-      </c>
-      <c r="P136" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q136" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R136" s="35"/>
+      <c r="Q136" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="R136" s="72"/>
     </row>
     <row r="137" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L137" s="44"/>
       <c r="M137" s="34">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N137" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O137" s="32" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P137" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q137" s="32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R137" s="35"/>
     </row>
     <row r="138" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L138" s="44"/>
       <c r="M138" s="34">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N138" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O138" s="32" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P138" s="32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q138" s="32" t="s">
         <v>20</v>
@@ -17519,16 +17627,16 @@
     <row r="139" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L139" s="44"/>
       <c r="M139" s="34">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="N139" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O139" s="32" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P139" s="32" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="Q139" s="32" t="s">
         <v>20</v>
@@ -17544,7 +17652,7 @@
         <v>437</v>
       </c>
       <c r="O140" s="32" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P140" s="32" t="s">
         <v>19</v>
@@ -17563,10 +17671,10 @@
         <v>437</v>
       </c>
       <c r="O141" s="32" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="P141" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q141" s="32" t="s">
         <v>20</v>
@@ -17582,10 +17690,10 @@
         <v>437</v>
       </c>
       <c r="O142" s="32" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P142" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q142" s="32" t="s">
         <v>20</v>
@@ -17595,16 +17703,16 @@
     <row r="143" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L143" s="44"/>
       <c r="M143" s="34">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="N143" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O143" s="32" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P143" s="32" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="Q143" s="32" t="s">
         <v>20</v>
@@ -17620,10 +17728,10 @@
         <v>437</v>
       </c>
       <c r="O144" s="32" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P144" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q144" s="32" t="s">
         <v>20</v>
@@ -17639,10 +17747,10 @@
         <v>437</v>
       </c>
       <c r="O145" s="32" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="P145" s="32" t="s">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="Q145" s="32" t="s">
         <v>20</v>
@@ -17658,10 +17766,10 @@
         <v>437</v>
       </c>
       <c r="O146" s="32" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P146" s="32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q146" s="32" t="s">
         <v>20</v>
@@ -17671,16 +17779,16 @@
     <row r="147" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L147" s="44"/>
       <c r="M147" s="34">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N147" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O147" s="32" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P147" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q147" s="32" t="s">
         <v>20</v>
@@ -17690,13 +17798,13 @@
     <row r="148" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L148" s="44"/>
       <c r="M148" s="34">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N148" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O148" s="32" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P148" s="32" t="s">
         <v>24</v>
@@ -17715,10 +17823,10 @@
         <v>437</v>
       </c>
       <c r="O149" s="32" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="P149" s="32" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="Q149" s="32" t="s">
         <v>20</v>
@@ -17734,10 +17842,10 @@
         <v>437</v>
       </c>
       <c r="O150" s="32" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P150" s="32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q150" s="32" t="s">
         <v>20</v>
@@ -17747,16 +17855,16 @@
     <row r="151" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L151" s="44"/>
       <c r="M151" s="34">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N151" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O151" s="32" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P151" s="32" t="s">
-        <v>402</v>
+        <v>24</v>
       </c>
       <c r="Q151" s="32" t="s">
         <v>20</v>
@@ -17766,16 +17874,16 @@
     <row r="152" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L152" s="44"/>
       <c r="M152" s="34">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N152" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O152" s="32" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P152" s="32" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q152" s="32" t="s">
         <v>20</v>
@@ -17785,16 +17893,16 @@
     <row r="153" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L153" s="44"/>
       <c r="M153" s="34">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N153" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O153" s="32" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P153" s="32" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q153" s="32" t="s">
         <v>20</v>
@@ -17804,13 +17912,13 @@
     <row r="154" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L154" s="44"/>
       <c r="M154" s="34">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N154" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O154" s="32" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="P154" s="32" t="s">
         <v>24</v>
@@ -17823,16 +17931,16 @@
     <row r="155" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L155" s="44"/>
       <c r="M155" s="34">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="N155" s="32" t="s">
         <v>437</v>
       </c>
       <c r="O155" s="32" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="P155" s="32" t="s">
-        <v>24</v>
+        <v>402</v>
       </c>
       <c r="Q155" s="32" t="s">
         <v>20</v>
@@ -17842,206 +17950,206 @@
     <row r="156" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L156" s="44"/>
       <c r="M156" s="34">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N156" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="O156" s="101" t="s">
-        <v>434</v>
-      </c>
-      <c r="P156" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q156" s="102" t="s">
+      <c r="O156" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="P156" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q156" s="32" t="s">
         <v>20</v>
       </c>
       <c r="R156" s="35"/>
     </row>
     <row r="157" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L157" s="44"/>
-      <c r="M157" s="87">
-        <v>56</v>
-      </c>
-      <c r="N157" s="88" t="s">
+      <c r="M157" s="34">
+        <v>52</v>
+      </c>
+      <c r="N157" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="O157" s="88" t="s">
-        <v>435</v>
-      </c>
-      <c r="P157" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q157" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="R157" s="89"/>
-    </row>
-    <row r="158" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L158" s="45"/>
-      <c r="M158" s="103">
-        <v>56</v>
-      </c>
-      <c r="N158" s="104" t="s">
+      <c r="O157" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="P157" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q157" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R157" s="35"/>
+    </row>
+    <row r="158" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L158" s="44"/>
+      <c r="M158" s="34">
+        <v>62</v>
+      </c>
+      <c r="N158" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="O158" s="104" t="s">
-        <v>436</v>
-      </c>
-      <c r="P158" s="104" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q158" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="R158" s="105"/>
+      <c r="O158" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="P158" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q158" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R158" s="35"/>
     </row>
     <row r="159" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L159" s="74"/>
-      <c r="M159" s="55">
-        <v>44</v>
-      </c>
-      <c r="N159" s="108" t="s">
-        <v>488</v>
-      </c>
-      <c r="O159" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="P159" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q159" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="R159" s="72"/>
+      <c r="L159" s="44"/>
+      <c r="M159" s="34">
+        <v>63</v>
+      </c>
+      <c r="N159" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="O159" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="P159" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q159" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R159" s="35"/>
     </row>
     <row r="160" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L160" s="44"/>
       <c r="M160" s="34">
-        <v>49</v>
-      </c>
-      <c r="N160" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="O160" s="32" t="s">
-        <v>448</v>
-      </c>
-      <c r="P160" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q160" s="32" t="s">
-        <v>17</v>
+        <v>55</v>
+      </c>
+      <c r="N160" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="O160" s="101" t="s">
+        <v>434</v>
+      </c>
+      <c r="P160" s="102" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q160" s="102" t="s">
+        <v>20</v>
       </c>
       <c r="R160" s="35"/>
     </row>
     <row r="161" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L161" s="44"/>
-      <c r="M161" s="34">
-        <v>57</v>
-      </c>
-      <c r="N161" s="25" t="s">
+      <c r="M161" s="87">
+        <v>56</v>
+      </c>
+      <c r="N161" s="88" t="s">
+        <v>437</v>
+      </c>
+      <c r="O161" s="88" t="s">
+        <v>435</v>
+      </c>
+      <c r="P161" s="88" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q161" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="R161" s="89"/>
+    </row>
+    <row r="162" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L162" s="45"/>
+      <c r="M162" s="103">
+        <v>56</v>
+      </c>
+      <c r="N162" s="104" t="s">
+        <v>437</v>
+      </c>
+      <c r="O162" s="104" t="s">
+        <v>436</v>
+      </c>
+      <c r="P162" s="104" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q162" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="R162" s="105"/>
+    </row>
+    <row r="163" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L163" s="74"/>
+      <c r="M163" s="55">
+        <v>44</v>
+      </c>
+      <c r="N163" s="108" t="s">
         <v>488</v>
       </c>
-      <c r="O161" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="P161" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q161" s="32" t="s">
+      <c r="O163" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="P163" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q163" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="R161" s="35"/>
-    </row>
-    <row r="162" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L162" s="44"/>
-      <c r="M162" s="34">
-        <v>45</v>
-      </c>
-      <c r="N162" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="O162" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="P162" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q162" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R162" s="35"/>
-    </row>
-    <row r="163" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L163" s="44"/>
-      <c r="M163" s="34">
-        <v>46</v>
-      </c>
-      <c r="N163" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="O163" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P163" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q163" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R163" s="35"/>
+      <c r="R163" s="72"/>
     </row>
     <row r="164" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L164" s="44"/>
       <c r="M164" s="34">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N164" s="25" t="s">
         <v>488</v>
       </c>
       <c r="O164" s="32" t="s">
-        <v>23</v>
+        <v>448</v>
       </c>
       <c r="P164" s="32" t="s">
         <v>24</v>
       </c>
       <c r="Q164" s="32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R164" s="35"/>
     </row>
     <row r="165" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L165" s="44"/>
       <c r="M165" s="34">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="N165" s="25" t="s">
         <v>488</v>
       </c>
       <c r="O165" s="32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P165" s="32" t="s">
         <v>24</v>
       </c>
       <c r="Q165" s="32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R165" s="35"/>
     </row>
     <row r="166" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L166" s="44"/>
       <c r="M166" s="34">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N166" s="25" t="s">
         <v>488</v>
       </c>
       <c r="O166" s="32" t="s">
-        <v>451</v>
+        <v>18</v>
       </c>
       <c r="P166" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q166" s="32" t="s">
         <v>20</v>
@@ -18051,16 +18159,16 @@
     <row r="167" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L167" s="44"/>
       <c r="M167" s="34">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N167" s="25" t="s">
         <v>488</v>
       </c>
       <c r="O167" s="32" t="s">
-        <v>452</v>
+        <v>21</v>
       </c>
       <c r="P167" s="32" t="s">
-        <v>453</v>
+        <v>22</v>
       </c>
       <c r="Q167" s="32" t="s">
         <v>20</v>
@@ -18070,16 +18178,16 @@
     <row r="168" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L168" s="44"/>
       <c r="M168" s="34">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N168" s="25" t="s">
         <v>488</v>
       </c>
       <c r="O168" s="32" t="s">
-        <v>454</v>
+        <v>23</v>
       </c>
       <c r="P168" s="32" t="s">
-        <v>455</v>
+        <v>24</v>
       </c>
       <c r="Q168" s="32" t="s">
         <v>20</v>
@@ -18089,13 +18197,13 @@
     <row r="169" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L169" s="44"/>
       <c r="M169" s="34">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N169" s="25" t="s">
         <v>488</v>
       </c>
       <c r="O169" s="32" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="P169" s="32" t="s">
         <v>24</v>
@@ -18108,16 +18216,16 @@
     <row r="170" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L170" s="44"/>
       <c r="M170" s="34">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N170" s="25" t="s">
         <v>488</v>
       </c>
       <c r="O170" s="32" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="P170" s="32" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="Q170" s="32" t="s">
         <v>20</v>
@@ -18133,10 +18241,10 @@
         <v>488</v>
       </c>
       <c r="O171" s="32" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P171" s="32" t="s">
-        <v>219</v>
+        <v>453</v>
       </c>
       <c r="Q171" s="32" t="s">
         <v>20</v>
@@ -18152,10 +18260,10 @@
         <v>488</v>
       </c>
       <c r="O172" s="32" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="P172" s="32" t="s">
-        <v>219</v>
+        <v>455</v>
       </c>
       <c r="Q172" s="32" t="s">
         <v>20</v>
@@ -18164,22 +18272,22 @@
     </row>
     <row r="173" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L173" s="44"/>
-      <c r="M173" s="87">
-        <v>56</v>
-      </c>
-      <c r="N173" s="93" t="s">
+      <c r="M173" s="34">
+        <v>50</v>
+      </c>
+      <c r="N173" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="O173" s="88" t="s">
-        <v>460</v>
-      </c>
-      <c r="P173" s="88" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q173" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="R173" s="89"/>
+      <c r="O173" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="P173" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q173" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R173" s="35"/>
     </row>
     <row r="174" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L174" s="44"/>
@@ -18190,10 +18298,10 @@
         <v>488</v>
       </c>
       <c r="O174" s="32" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="P174" s="32" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="Q174" s="32" t="s">
         <v>20</v>
@@ -18209,10 +18317,10 @@
         <v>488</v>
       </c>
       <c r="O175" s="32" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P175" s="32" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="Q175" s="32" t="s">
         <v>20</v>
@@ -18228,7 +18336,7 @@
         <v>488</v>
       </c>
       <c r="O176" s="32" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P176" s="32" t="s">
         <v>219</v>
@@ -18240,36 +18348,36 @@
     </row>
     <row r="177" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L177" s="44"/>
-      <c r="M177" s="34">
-        <v>50</v>
-      </c>
-      <c r="N177" s="25" t="s">
+      <c r="M177" s="87">
+        <v>56</v>
+      </c>
+      <c r="N177" s="93" t="s">
         <v>488</v>
       </c>
-      <c r="O177" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="P177" s="32" t="s">
+      <c r="O177" s="88" t="s">
+        <v>460</v>
+      </c>
+      <c r="P177" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="Q177" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R177" s="35"/>
+      <c r="Q177" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="R177" s="89"/>
     </row>
     <row r="178" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L178" s="44"/>
-      <c r="M178" s="69">
-        <v>58</v>
+      <c r="M178" s="34">
+        <v>50</v>
       </c>
       <c r="N178" s="25" t="s">
         <v>488</v>
       </c>
       <c r="O178" s="32" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="P178" s="32" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="Q178" s="32" t="s">
         <v>20</v>
@@ -18285,10 +18393,10 @@
         <v>488</v>
       </c>
       <c r="O179" s="32" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="P179" s="32" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="Q179" s="32" t="s">
         <v>20</v>
@@ -18304,7 +18412,7 @@
         <v>488</v>
       </c>
       <c r="O180" s="32" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P180" s="32" t="s">
         <v>219</v>
@@ -18323,10 +18431,10 @@
         <v>488</v>
       </c>
       <c r="O181" s="32" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P181" s="32" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="Q181" s="32" t="s">
         <v>20</v>
@@ -18335,14 +18443,14 @@
     </row>
     <row r="182" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L182" s="44"/>
-      <c r="M182" s="34">
-        <v>50</v>
+      <c r="M182" s="69">
+        <v>58</v>
       </c>
       <c r="N182" s="25" t="s">
         <v>488</v>
       </c>
       <c r="O182" s="32" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="P182" s="32" t="s">
         <v>219</v>
@@ -18355,13 +18463,13 @@
     <row r="183" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L183" s="44"/>
       <c r="M183" s="34">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N183" s="25" t="s">
         <v>488</v>
       </c>
       <c r="O183" s="32" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="P183" s="32" t="s">
         <v>219</v>
@@ -18374,13 +18482,13 @@
     <row r="184" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L184" s="44"/>
       <c r="M184" s="34">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="N184" s="25" t="s">
         <v>488</v>
       </c>
       <c r="O184" s="32" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="P184" s="32" t="s">
         <v>219</v>
@@ -18393,16 +18501,16 @@
     <row r="185" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L185" s="44"/>
       <c r="M185" s="34">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N185" s="25" t="s">
         <v>488</v>
       </c>
       <c r="O185" s="32" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="P185" s="32" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="Q185" s="32" t="s">
         <v>20</v>
@@ -18411,33 +18519,33 @@
     </row>
     <row r="186" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L186" s="44"/>
-      <c r="M186" s="87">
-        <v>56</v>
-      </c>
-      <c r="N186" s="93" t="s">
+      <c r="M186" s="34">
+        <v>50</v>
+      </c>
+      <c r="N186" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="O186" s="88" t="s">
-        <v>473</v>
-      </c>
-      <c r="P186" s="88" t="s">
+      <c r="O186" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="P186" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="Q186" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="R186" s="89"/>
+      <c r="Q186" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R186" s="35"/>
     </row>
     <row r="187" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L187" s="44"/>
       <c r="M187" s="34">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N187" s="25" t="s">
         <v>488</v>
       </c>
       <c r="O187" s="32" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P187" s="32" t="s">
         <v>219</v>
@@ -18450,13 +18558,13 @@
     <row r="188" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L188" s="44"/>
       <c r="M188" s="34">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N188" s="25" t="s">
         <v>488</v>
       </c>
       <c r="O188" s="32" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P188" s="32" t="s">
         <v>219</v>
@@ -18468,22 +18576,22 @@
     </row>
     <row r="189" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L189" s="44"/>
-      <c r="M189" s="87">
-        <v>56</v>
-      </c>
-      <c r="N189" s="93" t="s">
+      <c r="M189" s="34">
+        <v>59</v>
+      </c>
+      <c r="N189" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="O189" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="P189" s="88" t="s">
+      <c r="O189" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="P189" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="Q189" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="R189" s="89"/>
+      <c r="Q189" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R189" s="35"/>
     </row>
     <row r="190" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L190" s="44"/>
@@ -18494,10 +18602,10 @@
         <v>488</v>
       </c>
       <c r="O190" s="88" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="P190" s="88" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="Q190" s="88" t="s">
         <v>20</v>
@@ -18506,33 +18614,33 @@
     </row>
     <row r="191" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L191" s="44"/>
-      <c r="M191" s="87">
-        <v>56</v>
-      </c>
-      <c r="N191" s="93" t="s">
+      <c r="M191" s="34">
+        <v>40</v>
+      </c>
+      <c r="N191" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="O191" s="88" t="s">
-        <v>478</v>
-      </c>
-      <c r="P191" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q191" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="R191" s="89"/>
+      <c r="O191" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="P191" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q191" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R191" s="35"/>
     </row>
     <row r="192" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L192" s="44"/>
       <c r="M192" s="34">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="N192" s="25" t="s">
         <v>488</v>
       </c>
       <c r="O192" s="32" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P192" s="32" t="s">
         <v>219</v>
@@ -18544,60 +18652,60 @@
     </row>
     <row r="193" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L193" s="44"/>
-      <c r="M193" s="34">
-        <v>17</v>
-      </c>
-      <c r="N193" s="25" t="s">
+      <c r="M193" s="87">
+        <v>56</v>
+      </c>
+      <c r="N193" s="93" t="s">
         <v>488</v>
       </c>
-      <c r="O193" s="32" t="s">
-        <v>480</v>
-      </c>
-      <c r="P193" s="32" t="s">
+      <c r="O193" s="88" t="s">
+        <v>476</v>
+      </c>
+      <c r="P193" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="Q193" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R193" s="35"/>
+      <c r="Q193" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="R193" s="89"/>
     </row>
     <row r="194" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L194" s="44"/>
-      <c r="M194" s="34">
-        <v>37</v>
-      </c>
-      <c r="N194" s="25" t="s">
+      <c r="M194" s="87">
+        <v>56</v>
+      </c>
+      <c r="N194" s="93" t="s">
         <v>488</v>
       </c>
-      <c r="O194" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="P194" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q194" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R194" s="35"/>
+      <c r="O194" s="88" t="s">
+        <v>477</v>
+      </c>
+      <c r="P194" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q194" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="R194" s="89"/>
     </row>
     <row r="195" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L195" s="44"/>
-      <c r="M195" s="34">
-        <v>60</v>
-      </c>
-      <c r="N195" s="25" t="s">
+      <c r="M195" s="87">
+        <v>56</v>
+      </c>
+      <c r="N195" s="93" t="s">
         <v>488</v>
       </c>
-      <c r="O195" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="P195" s="32" t="s">
+      <c r="O195" s="88" t="s">
+        <v>478</v>
+      </c>
+      <c r="P195" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="Q195" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R195" s="35"/>
+      <c r="Q195" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="R195" s="89"/>
     </row>
     <row r="196" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L196" s="44"/>
@@ -18608,7 +18716,7 @@
         <v>488</v>
       </c>
       <c r="O196" s="32" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P196" s="32" t="s">
         <v>219</v>
@@ -18621,13 +18729,13 @@
     <row r="197" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L197" s="44"/>
       <c r="M197" s="34">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N197" s="25" t="s">
         <v>488</v>
       </c>
       <c r="O197" s="32" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="P197" s="32" t="s">
         <v>219</v>
@@ -18639,109 +18747,109 @@
     </row>
     <row r="198" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L198" s="44"/>
-      <c r="M198" s="87">
-        <v>56</v>
-      </c>
-      <c r="N198" s="93" t="s">
+      <c r="M198" s="34">
+        <v>37</v>
+      </c>
+      <c r="N198" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="O198" s="88" t="s">
-        <v>485</v>
-      </c>
-      <c r="P198" s="88" t="s">
+      <c r="O198" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="P198" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="Q198" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="R198" s="89"/>
+      <c r="Q198" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R198" s="35"/>
     </row>
     <row r="199" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L199" s="44"/>
       <c r="M199" s="34">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="N199" s="25" t="s">
         <v>488</v>
       </c>
       <c r="O199" s="32" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="P199" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q199" s="32" t="s">
         <v>20</v>
       </c>
       <c r="R199" s="35"/>
     </row>
-    <row r="200" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L200" s="45"/>
-      <c r="M200" s="103">
-        <v>56</v>
-      </c>
-      <c r="N200" s="164" t="s">
+    <row r="200" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L200" s="44"/>
+      <c r="M200" s="34">
+        <v>7</v>
+      </c>
+      <c r="N200" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="O200" s="104" t="s">
-        <v>487</v>
-      </c>
-      <c r="P200" s="104" t="s">
+      <c r="O200" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="P200" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="Q200" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="R200" s="105"/>
+      <c r="Q200" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R200" s="35"/>
     </row>
     <row r="201" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L201" s="74"/>
-      <c r="M201" s="55">
-        <v>44</v>
-      </c>
-      <c r="N201" s="94" t="s">
-        <v>685</v>
-      </c>
-      <c r="O201" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="P201" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q201" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="R201" s="72"/>
+      <c r="L201" s="44"/>
+      <c r="M201" s="34">
+        <v>38</v>
+      </c>
+      <c r="N201" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="O201" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="P201" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q201" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R201" s="35"/>
     </row>
     <row r="202" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L202" s="44"/>
-      <c r="M202" s="34">
-        <v>64</v>
-      </c>
-      <c r="N202" s="32" t="s">
-        <v>685</v>
-      </c>
-      <c r="O202" s="32" t="s">
-        <v>501</v>
-      </c>
-      <c r="P202" s="32" t="s">
-        <v>660</v>
-      </c>
-      <c r="Q202" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="R202" s="35"/>
+      <c r="M202" s="87">
+        <v>56</v>
+      </c>
+      <c r="N202" s="93" t="s">
+        <v>488</v>
+      </c>
+      <c r="O202" s="88" t="s">
+        <v>485</v>
+      </c>
+      <c r="P202" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q202" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="R202" s="89"/>
     </row>
     <row r="203" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L203" s="44"/>
       <c r="M203" s="34">
-        <v>45</v>
-      </c>
-      <c r="N203" s="32" t="s">
-        <v>685</v>
+        <v>39</v>
+      </c>
+      <c r="N203" s="25" t="s">
+        <v>488</v>
       </c>
       <c r="O203" s="32" t="s">
-        <v>18</v>
+        <v>486</v>
       </c>
       <c r="P203" s="32" t="s">
         <v>19</v>
@@ -18751,252 +18859,328 @@
       </c>
       <c r="R203" s="35"/>
     </row>
-    <row r="204" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L204" s="44"/>
-      <c r="M204" s="34">
-        <v>46</v>
-      </c>
-      <c r="N204" s="32" t="s">
+    <row r="204" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L204" s="45"/>
+      <c r="M204" s="103">
+        <v>56</v>
+      </c>
+      <c r="N204" s="142" t="s">
+        <v>488</v>
+      </c>
+      <c r="O204" s="104" t="s">
+        <v>487</v>
+      </c>
+      <c r="P204" s="104" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q204" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="R204" s="105"/>
+    </row>
+    <row r="205" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L205" s="74"/>
+      <c r="M205" s="55">
+        <v>44</v>
+      </c>
+      <c r="N205" s="94" t="s">
         <v>685</v>
       </c>
-      <c r="O204" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P204" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q204" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R204" s="35"/>
-    </row>
-    <row r="205" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L205" s="44"/>
-      <c r="M205" s="34">
-        <v>45</v>
-      </c>
-      <c r="N205" s="32" t="s">
-        <v>685</v>
-      </c>
-      <c r="O205" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="P205" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q205" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R205" s="35"/>
+      <c r="O205" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="P205" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q205" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="R205" s="72"/>
     </row>
     <row r="206" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L206" s="44"/>
       <c r="M206" s="34">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N206" s="32" t="s">
         <v>685</v>
       </c>
       <c r="O206" s="32" t="s">
-        <v>678</v>
+        <v>501</v>
       </c>
       <c r="P206" s="32" t="s">
-        <v>16</v>
+        <v>660</v>
       </c>
       <c r="Q206" s="32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R206" s="35"/>
     </row>
-    <row r="207" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L207" s="45"/>
-      <c r="M207" s="169">
-        <v>50</v>
-      </c>
-      <c r="N207" s="170" t="s">
+    <row r="207" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L207" s="44"/>
+      <c r="M207" s="34">
+        <v>45</v>
+      </c>
+      <c r="N207" s="32" t="s">
         <v>685</v>
       </c>
-      <c r="O207" s="170" t="s">
-        <v>25</v>
-      </c>
-      <c r="P207" s="170" t="s">
+      <c r="O207" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="P207" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q207" s="170" t="s">
-        <v>20</v>
-      </c>
-      <c r="R207" s="171"/>
+      <c r="Q207" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R207" s="35"/>
     </row>
     <row r="208" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L208" s="74"/>
-      <c r="M208" s="55">
-        <v>66</v>
-      </c>
-      <c r="N208" s="50" t="s">
-        <v>693</v>
-      </c>
-      <c r="O208" s="59" t="s">
-        <v>687</v>
-      </c>
-      <c r="P208" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q208" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="R208" s="72"/>
+      <c r="L208" s="44"/>
+      <c r="M208" s="34">
+        <v>46</v>
+      </c>
+      <c r="N208" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="O208" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P208" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q208" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R208" s="35"/>
     </row>
     <row r="209" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L209" s="44"/>
       <c r="M209" s="34">
-        <v>44</v>
-      </c>
-      <c r="N209" s="57" t="s">
-        <v>693</v>
-      </c>
-      <c r="O209" s="57" t="s">
-        <v>688</v>
-      </c>
-      <c r="P209" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q209" s="57" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="N209" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="O209" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="P209" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q209" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="R209" s="35"/>
     </row>
     <row r="210" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L210" s="44"/>
       <c r="M210" s="34">
-        <v>67</v>
-      </c>
-      <c r="N210" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="N210" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="O210" s="32" t="s">
+        <v>678</v>
+      </c>
+      <c r="P210" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q210" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R210" s="35"/>
+    </row>
+    <row r="211" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L211" s="45"/>
+      <c r="M211" s="147">
+        <v>50</v>
+      </c>
+      <c r="N211" s="148" t="s">
+        <v>685</v>
+      </c>
+      <c r="O211" s="148" t="s">
+        <v>25</v>
+      </c>
+      <c r="P211" s="148" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q211" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="R211" s="149"/>
+    </row>
+    <row r="212" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L212" s="74"/>
+      <c r="M212" s="55">
+        <v>66</v>
+      </c>
+      <c r="N212" s="50" t="s">
         <v>693</v>
       </c>
-      <c r="O210" s="57" t="s">
-        <v>689</v>
-      </c>
-      <c r="P210" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q210" s="57" t="s">
+      <c r="O212" s="59" t="s">
+        <v>687</v>
+      </c>
+      <c r="P212" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q212" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="R210" s="35"/>
-    </row>
-    <row r="211" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L211" s="44"/>
-      <c r="M211" s="34">
-        <v>45</v>
-      </c>
-      <c r="N211" s="57" t="s">
-        <v>693</v>
-      </c>
-      <c r="O211" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="P211" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q211" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="R211" s="35"/>
-    </row>
-    <row r="212" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L212" s="44"/>
-      <c r="M212" s="34">
-        <v>57</v>
-      </c>
-      <c r="N212" s="39" t="s">
-        <v>693</v>
-      </c>
-      <c r="O212" s="57" t="s">
-        <v>690</v>
-      </c>
-      <c r="P212" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q212" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="R212" s="35"/>
+      <c r="R212" s="72"/>
     </row>
     <row r="213" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L213" s="44"/>
       <c r="M213" s="34">
-        <v>45</v>
-      </c>
-      <c r="N213" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="N213" s="57" t="s">
         <v>693</v>
       </c>
       <c r="O213" s="57" t="s">
-        <v>18</v>
+        <v>688</v>
       </c>
       <c r="P213" s="57" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q213" s="57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R213" s="35"/>
     </row>
     <row r="214" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L214" s="44"/>
       <c r="M214" s="34">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="N214" s="57" t="s">
         <v>693</v>
       </c>
       <c r="O214" s="57" t="s">
-        <v>21</v>
+        <v>689</v>
       </c>
       <c r="P214" s="57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q214" s="57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R214" s="35"/>
     </row>
     <row r="215" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L215" s="44"/>
       <c r="M215" s="34">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N215" s="57" t="s">
         <v>693</v>
       </c>
       <c r="O215" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="P215" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q215" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="R215" s="35"/>
+    </row>
+    <row r="216" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L216" s="44"/>
+      <c r="M216" s="34">
+        <v>57</v>
+      </c>
+      <c r="N216" s="39" t="s">
+        <v>693</v>
+      </c>
+      <c r="O216" s="57" t="s">
+        <v>690</v>
+      </c>
+      <c r="P216" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q216" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="R216" s="35"/>
+    </row>
+    <row r="217" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L217" s="44"/>
+      <c r="M217" s="34">
+        <v>45</v>
+      </c>
+      <c r="N217" s="39" t="s">
+        <v>693</v>
+      </c>
+      <c r="O217" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="P217" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q217" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="R217" s="35"/>
+    </row>
+    <row r="218" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L218" s="44"/>
+      <c r="M218" s="34">
+        <v>46</v>
+      </c>
+      <c r="N218" s="57" t="s">
+        <v>693</v>
+      </c>
+      <c r="O218" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="P218" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q218" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="R218" s="35"/>
+    </row>
+    <row r="219" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L219" s="44"/>
+      <c r="M219" s="34">
+        <v>47</v>
+      </c>
+      <c r="N219" s="57" t="s">
+        <v>693</v>
+      </c>
+      <c r="O219" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="P215" s="57" t="s">
+      <c r="P219" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="Q215" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="R215" s="35"/>
-    </row>
-    <row r="216" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L216" s="45"/>
-      <c r="M216" s="165">
+      <c r="Q219" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="R219" s="35"/>
+    </row>
+    <row r="220" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L220" s="45"/>
+      <c r="M220" s="143">
         <v>50</v>
       </c>
-      <c r="N216" s="182" t="s">
+      <c r="N220" s="160" t="s">
         <v>693</v>
       </c>
-      <c r="O216" s="168" t="s">
+      <c r="O220" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="P216" s="168" t="s">
+      <c r="P220" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="Q216" s="168" t="s">
-        <v>20</v>
-      </c>
-      <c r="R216" s="167"/>
+      <c r="Q220" s="146" t="s">
+        <v>20</v>
+      </c>
+      <c r="R220" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19019,7 +19203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R85"/>
   <sheetViews>
-    <sheetView topLeftCell="J65" workbookViewId="0">
+    <sheetView topLeftCell="J76" workbookViewId="0">
       <selection activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
@@ -19059,26 +19243,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="148" t="s">
+      <c r="D2" s="163" t="s">
         <v>338</v>
       </c>
-      <c r="E2" s="149"/>
-      <c r="F2" s="150"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="146"/>
-      <c r="J2" s="147"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="168"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="153"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="171"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -19091,11 +19275,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="174"/>
       <c r="G4" s="7"/>
       <c r="H4" s="63"/>
       <c r="I4" s="46" t="s">
@@ -19108,11 +19292,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="156"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -19124,29 +19308,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="159" t="s">
+      <c r="I7" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="160"/>
-      <c r="K7" s="161"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="179"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="162" t="s">
+      <c r="M7" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -20676,22 +20860,22 @@
     </row>
     <row r="76" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L76" s="45"/>
-      <c r="M76" s="169">
+      <c r="M76" s="147">
         <v>12</v>
       </c>
-      <c r="N76" s="170" t="s">
+      <c r="N76" s="148" t="s">
         <v>685</v>
       </c>
-      <c r="O76" s="170" t="s">
+      <c r="O76" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="P76" s="170" t="s">
+      <c r="P76" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="Q76" s="170" t="s">
-        <v>20</v>
-      </c>
-      <c r="R76" s="171"/>
+      <c r="Q76" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" s="149"/>
     </row>
     <row r="77" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L77" s="74"/>
@@ -20847,22 +21031,22 @@
     </row>
     <row r="85" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L85" s="45"/>
-      <c r="M85" s="165">
+      <c r="M85" s="143">
         <v>12</v>
       </c>
-      <c r="N85" s="168" t="s">
+      <c r="N85" s="146" t="s">
         <v>686</v>
       </c>
-      <c r="O85" s="168" t="s">
+      <c r="O85" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="P85" s="168" t="s">
+      <c r="P85" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="Q85" s="168" t="s">
-        <v>20</v>
-      </c>
-      <c r="R85" s="167"/>
+      <c r="Q85" s="146" t="s">
+        <v>20</v>
+      </c>
+      <c r="R85" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -20925,26 +21109,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="148" t="s">
+      <c r="D2" s="163" t="s">
         <v>583</v>
       </c>
-      <c r="E2" s="149"/>
-      <c r="F2" s="150"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="146"/>
-      <c r="J2" s="147"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="168"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="153"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="171"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -20957,11 +21141,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="174"/>
       <c r="G4" s="7"/>
       <c r="H4" s="63"/>
       <c r="I4" s="46" t="s">
@@ -20974,11 +21158,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="156"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20990,29 +21174,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="159" t="s">
+      <c r="I7" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="160"/>
-      <c r="K7" s="161"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="179"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="162" t="s">
+      <c r="M7" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -21749,26 +21933,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="148" t="s">
+      <c r="D2" s="163" t="s">
         <v>620</v>
       </c>
-      <c r="E2" s="149"/>
-      <c r="F2" s="150"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="146"/>
-      <c r="J2" s="147"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="168"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="153"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="171"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -21781,11 +21965,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="174"/>
       <c r="G4" s="7"/>
       <c r="H4" s="63"/>
       <c r="I4" s="46" t="s">
@@ -21798,11 +21982,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="156"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -21814,29 +21998,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="159" t="s">
+      <c r="I7" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="160"/>
-      <c r="K7" s="161"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="179"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="162" t="s">
+      <c r="M7" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -22316,7 +22500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
+    <sheetView topLeftCell="E22" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -22356,26 +22540,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="148" t="s">
+      <c r="D2" s="163" t="s">
         <v>632</v>
       </c>
-      <c r="E2" s="149"/>
-      <c r="F2" s="150"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="146"/>
-      <c r="J2" s="147"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="168"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="153"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="171"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -22388,11 +22572,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="174"/>
       <c r="G4" s="7"/>
       <c r="H4" s="63"/>
       <c r="I4" s="46" t="s">
@@ -22405,11 +22589,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="156"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -22421,31 +22605,31 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="159" t="s">
+      <c r="I7" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="160"/>
-      <c r="K7" s="161"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="179"/>
       <c r="L7" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="M7" s="162" t="s">
+      <c r="M7" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">

--- a/Cnl/Mapeos_CON_CNL_V1.xlsx
+++ b/Cnl/Mapeos_CON_CNL_V1.xlsx
@@ -1276,7 +1276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3831" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="739">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3481,6 +3481,18 @@
   </si>
   <si>
     <t>Fuente Relacionada</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Proceso</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Proceso (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Default</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
   </si>
 </sst>
 </file>
@@ -3822,7 +3834,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -4357,17 +4369,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -4407,15 +4408,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -4512,7 +4504,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -4712,7 +4704,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4726,9 +4717,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4739,12 +4730,9 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4779,9 +4767,9 @@
     <xf numFmtId="0" fontId="23" fillId="24" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4848,8 +4836,6 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="88">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -5330,7 +5316,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5340,8 +5326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5381,26 +5367,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="163" t="s">
         <v>319</v>
       </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="169"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="170" t="s">
+      <c r="H2" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="171"/>
-      <c r="J2" s="172"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="168"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="175"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="171"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -5413,11 +5399,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="176" t="s">
+      <c r="D4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="177"/>
-      <c r="F4" s="178"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="174"/>
       <c r="G4" s="7"/>
       <c r="H4" s="63"/>
       <c r="I4" s="46" t="s">
@@ -5430,11 +5416,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="176" t="s">
+      <c r="D5" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="177"/>
-      <c r="F5" s="178"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5446,30 +5432,30 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="181" t="s">
+      <c r="I7" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="182"/>
-      <c r="K7" s="183"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="179"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="165" t="s">
+      <c r="M7" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6403,7 +6389,7 @@
       </c>
       <c r="S28" s="81"/>
     </row>
-    <row r="29" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="49">
         <v>21</v>
       </c>
@@ -6418,14 +6404,14 @@
       </c>
       <c r="F29" s="65"/>
       <c r="G29" s="80"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="84">
+      <c r="H29" s="44"/>
+      <c r="I29" s="43">
         <v>108</v>
       </c>
-      <c r="J29" s="46" t="s">
+      <c r="J29" s="25" t="s">
         <v>711</v>
       </c>
-      <c r="K29" s="61" t="s">
+      <c r="K29" s="54" t="s">
         <v>716</v>
       </c>
       <c r="L29" s="113"/>
@@ -6461,8 +6447,18 @@
         <v>13</v>
       </c>
       <c r="F30" s="65"/>
-      <c r="G30" s="66"/>
-      <c r="L30" s="44"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="43">
+        <v>109</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>735</v>
+      </c>
+      <c r="K30" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="L30" s="113"/>
       <c r="M30" s="34">
         <v>102</v>
       </c>
@@ -6481,7 +6477,7 @@
       </c>
       <c r="S30" s="38"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="69">
         <v>23</v>
       </c>
@@ -6495,8 +6491,18 @@
         <v>576</v>
       </c>
       <c r="F31" s="65"/>
-      <c r="G31" s="66"/>
-      <c r="L31" s="44"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="84">
+        <v>110</v>
+      </c>
+      <c r="J31" s="110" t="s">
+        <v>737</v>
+      </c>
+      <c r="K31" s="61" t="s">
+        <v>738</v>
+      </c>
+      <c r="L31" s="113"/>
       <c r="M31" s="49">
         <v>48</v>
       </c>
@@ -6668,7 +6674,7 @@
       <c r="G36" s="66"/>
       <c r="L36" s="44"/>
       <c r="M36" s="73">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="N36" s="90" t="s">
         <v>539</v>
@@ -6683,7 +6689,7 @@
       <c r="R36" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="133"/>
+      <c r="S36" s="132"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="69">
@@ -6702,7 +6708,7 @@
       <c r="G37" s="66"/>
       <c r="L37" s="44"/>
       <c r="M37" s="111">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="N37" s="88" t="s">
         <v>539</v>
@@ -6973,7 +6979,7 @@
       <c r="F45" s="65"/>
       <c r="G45" s="66"/>
       <c r="L45" s="45"/>
-      <c r="M45" s="147">
+      <c r="M45" s="143">
         <v>30</v>
       </c>
       <c r="N45" s="82" t="s">
@@ -7144,7 +7150,7 @@
       <c r="G50" s="66"/>
       <c r="L50" s="44"/>
       <c r="M50" s="34">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="N50" s="32" t="s">
         <v>706</v>
@@ -7211,23 +7217,23 @@
       <c r="F52" s="65"/>
       <c r="G52" s="66"/>
       <c r="L52" s="45"/>
-      <c r="M52" s="144">
-        <v>94</v>
-      </c>
-      <c r="N52" s="145" t="s">
+      <c r="M52" s="140">
+        <v>110</v>
+      </c>
+      <c r="N52" s="141" t="s">
         <v>706</v>
       </c>
-      <c r="O52" s="145"/>
-      <c r="P52" s="145" t="s">
+      <c r="O52" s="141"/>
+      <c r="P52" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="Q52" s="145" t="s">
+      <c r="Q52" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="R52" s="145" t="s">
-        <v>20</v>
-      </c>
-      <c r="S52" s="146"/>
+      <c r="R52" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="S52" s="142"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B53" s="49">
@@ -7382,7 +7388,7 @@
       <c r="G57" s="66"/>
       <c r="L57" s="44"/>
       <c r="M57" s="34">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="N57" s="32" t="s">
         <v>709</v>
@@ -7449,23 +7455,23 @@
       <c r="F59" s="65"/>
       <c r="G59" s="66"/>
       <c r="L59" s="45"/>
-      <c r="M59" s="144">
-        <v>94</v>
-      </c>
-      <c r="N59" s="145" t="s">
+      <c r="M59" s="140">
+        <v>110</v>
+      </c>
+      <c r="N59" s="141" t="s">
         <v>709</v>
       </c>
-      <c r="O59" s="145"/>
-      <c r="P59" s="145" t="s">
+      <c r="O59" s="141"/>
+      <c r="P59" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="Q59" s="145" t="s">
+      <c r="Q59" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="R59" s="145" t="s">
-        <v>20</v>
-      </c>
-      <c r="S59" s="146"/>
+      <c r="R59" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="S59" s="142"/>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B60" s="49">
@@ -7620,7 +7626,7 @@
       <c r="G64" s="66"/>
       <c r="L64" s="44"/>
       <c r="M64" s="34">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="N64" s="32" t="s">
         <v>712</v>
@@ -7687,23 +7693,23 @@
       <c r="F66" s="65"/>
       <c r="G66" s="66"/>
       <c r="L66" s="45"/>
-      <c r="M66" s="140">
-        <v>94</v>
-      </c>
-      <c r="N66" s="141" t="s">
+      <c r="M66" s="136">
+        <v>110</v>
+      </c>
+      <c r="N66" s="137" t="s">
         <v>712</v>
       </c>
-      <c r="O66" s="141"/>
-      <c r="P66" s="141" t="s">
+      <c r="O66" s="137"/>
+      <c r="P66" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="Q66" s="141" t="s">
+      <c r="Q66" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="R66" s="141" t="s">
-        <v>20</v>
-      </c>
-      <c r="S66" s="142"/>
+      <c r="R66" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="S66" s="138"/>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B67" s="69">
@@ -8190,8 +8196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T212"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138:F138"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8232,19 +8238,19 @@
       <c r="B2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="159"/>
+      <c r="C2" s="155"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="167" t="s">
+      <c r="E2" s="163" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="165"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="170" t="s">
+      <c r="I2" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="171"/>
-      <c r="K2" s="172"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="168"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -8252,11 +8258,11 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="171"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="151"/>
+      <c r="I3" s="147"/>
       <c r="J3" s="106" t="s">
         <v>44</v>
       </c>
@@ -8266,15 +8272,15 @@
       <c r="B4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="160"/>
+      <c r="C4" s="156"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="176" t="s">
+      <c r="E4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="177"/>
-      <c r="G4" s="178"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="174"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="152"/>
+      <c r="I4" s="148"/>
       <c r="J4" s="25" t="s">
         <v>45</v>
       </c>
@@ -8284,41 +8290,41 @@
       <c r="B5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="160"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="176" t="s">
+      <c r="E5" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="177"/>
-      <c r="G5" s="178"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="174"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="153"/>
+      <c r="I5" s="149"/>
       <c r="J5" s="25" t="s">
         <v>717</v>
       </c>
       <c r="K5" s="35"/>
     </row>
     <row r="6" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="154"/>
+      <c r="I6" s="150"/>
       <c r="J6" s="46" t="s">
         <v>718</v>
       </c>
       <c r="K6" s="36"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="148"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8331,37 +8337,37 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="179" t="s">
+      <c r="B9" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="181" t="s">
+      <c r="J9" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="182"/>
-      <c r="L9" s="183"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="179"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="184" t="s">
+      <c r="N9" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="185"/>
-      <c r="P9" s="185"/>
-      <c r="Q9" s="185"/>
-      <c r="R9" s="185"/>
-      <c r="S9" s="185"/>
-      <c r="T9" s="186"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="181"/>
+      <c r="R9" s="181"/>
+      <c r="S9" s="181"/>
+      <c r="T9" s="182"/>
     </row>
     <row r="10" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="157" t="s">
         <v>734</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -8429,8 +8435,8 @@
         <v>4</v>
       </c>
       <c r="G11" s="50"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="113"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="44"/>
       <c r="J11" s="83">
         <v>126</v>
       </c>
@@ -8478,8 +8484,8 @@
         <v>1</v>
       </c>
       <c r="G12" s="39"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="113"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="43">
         <v>127</v>
       </c>
@@ -8525,8 +8531,8 @@
         <v>20</v>
       </c>
       <c r="G13" s="58"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="113"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="43">
         <v>128</v>
       </c>
@@ -8572,8 +8578,8 @@
         <v>1</v>
       </c>
       <c r="G14" s="58"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="113"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="43">
         <v>129</v>
       </c>
@@ -8619,8 +8625,8 @@
         <v>1</v>
       </c>
       <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="113"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="43">
         <v>130</v>
       </c>
@@ -8666,8 +8672,8 @@
         <v>3</v>
       </c>
       <c r="G16" s="70"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="113"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="44"/>
       <c r="J16" s="43">
         <v>131</v>
       </c>
@@ -8715,8 +8721,8 @@
         <v>20</v>
       </c>
       <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="113"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="43">
         <v>132</v>
       </c>
@@ -8762,8 +8768,8 @@
         <v>20</v>
       </c>
       <c r="G18" s="70"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="113"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="44"/>
       <c r="J18" s="43">
         <v>133</v>
       </c>
@@ -8809,8 +8815,8 @@
         <v>1</v>
       </c>
       <c r="G19" s="70"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="113"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="43">
         <v>134</v>
       </c>
@@ -8856,8 +8862,8 @@
         <v>20</v>
       </c>
       <c r="G20" s="70"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="113"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="43">
         <v>135</v>
       </c>
@@ -8903,8 +8909,8 @@
         <v>20</v>
       </c>
       <c r="G21" s="70"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="113"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="44"/>
       <c r="J21" s="43">
         <v>136</v>
       </c>
@@ -8950,10 +8956,10 @@
         <v>20</v>
       </c>
       <c r="G22" s="70"/>
-      <c r="H22" s="71" t="s">
+      <c r="H22" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="113"/>
+      <c r="I22" s="44"/>
       <c r="J22" s="43">
         <v>137</v>
       </c>
@@ -8999,8 +9005,8 @@
         <v>8</v>
       </c>
       <c r="G23" s="70"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="113"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="44"/>
       <c r="J23" s="43">
         <v>138</v>
       </c>
@@ -9046,8 +9052,8 @@
         <v>20</v>
       </c>
       <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="113"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="44"/>
       <c r="J24" s="43">
         <v>139</v>
       </c>
@@ -9093,8 +9099,8 @@
         <v>20</v>
       </c>
       <c r="G25" s="70"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="113"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="44"/>
       <c r="J25" s="43">
         <v>140</v>
       </c>
@@ -9140,8 +9146,8 @@
         <v>13</v>
       </c>
       <c r="G26" s="70"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="113"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="44"/>
       <c r="J26" s="43">
         <v>141</v>
       </c>
@@ -9187,8 +9193,8 @@
         <v>3</v>
       </c>
       <c r="G27" s="70"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="113"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="44"/>
       <c r="J27" s="43">
         <v>142</v>
       </c>
@@ -9234,8 +9240,8 @@
         <v>20</v>
       </c>
       <c r="G28" s="70"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="113"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="44"/>
       <c r="J28" s="43">
         <v>143</v>
       </c>
@@ -9281,8 +9287,8 @@
         <v>10</v>
       </c>
       <c r="G29" s="70"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="113"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="44"/>
       <c r="J29" s="43">
         <v>144</v>
       </c>
@@ -9328,8 +9334,8 @@
         <v>10</v>
       </c>
       <c r="G30" s="70"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="113"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="44"/>
       <c r="J30" s="43">
         <v>145</v>
       </c>
@@ -9358,7 +9364,7 @@
       </c>
       <c r="T30" s="81"/>
     </row>
-    <row r="31" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" s="49">
         <v>21</v>
       </c>
@@ -9375,15 +9381,15 @@
         <v>10</v>
       </c>
       <c r="G31" s="70"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="84">
+      <c r="H31" s="79"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="43">
         <v>146</v>
       </c>
-      <c r="K31" s="110" t="s">
+      <c r="K31" s="29" t="s">
         <v>680</v>
       </c>
-      <c r="L31" s="36" t="s">
+      <c r="L31" s="35" t="s">
         <v>682</v>
       </c>
       <c r="M31" s="86"/>
@@ -9405,7 +9411,7 @@
       </c>
       <c r="T31" s="38"/>
     </row>
-    <row r="32" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="49">
         <v>22</v>
       </c>
@@ -9422,17 +9428,18 @@
         <v>10</v>
       </c>
       <c r="G32" s="70"/>
-      <c r="H32" s="71"/>
-      <c r="J32" s="2">
+      <c r="H32" s="79"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="43">
         <v>147</v>
       </c>
-      <c r="K32" s="162" t="s">
+      <c r="K32" s="25" t="s">
         <v>726</v>
       </c>
-      <c r="L32" s="36" t="s">
+      <c r="L32" s="35" t="s">
         <v>727</v>
       </c>
-      <c r="M32" s="77"/>
+      <c r="M32" s="86"/>
       <c r="N32" s="34">
         <v>131</v>
       </c>
@@ -9468,8 +9475,18 @@
         <v>569</v>
       </c>
       <c r="G33" s="70"/>
-      <c r="H33" s="71"/>
-      <c r="M33" s="77"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="43">
+        <v>148</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>735</v>
+      </c>
+      <c r="L33" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="M33" s="86"/>
       <c r="N33" s="49">
         <v>130</v>
       </c>
@@ -9488,7 +9505,7 @@
       </c>
       <c r="T33" s="81"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="69">
         <v>24</v>
       </c>
@@ -9505,8 +9522,18 @@
         <v>569</v>
       </c>
       <c r="G34" s="70"/>
-      <c r="H34" s="71"/>
-      <c r="M34" s="77"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="84">
+        <v>149</v>
+      </c>
+      <c r="K34" s="110" t="s">
+        <v>737</v>
+      </c>
+      <c r="L34" s="61" t="s">
+        <v>738</v>
+      </c>
+      <c r="M34" s="86"/>
       <c r="N34" s="34">
         <v>131</v>
       </c>
@@ -10248,7 +10275,7 @@
       <c r="H54" s="71"/>
       <c r="M54" s="77"/>
       <c r="N54" s="34">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="O54" s="32" t="s">
         <v>318</v>
@@ -10324,7 +10351,7 @@
       <c r="H56" s="71"/>
       <c r="M56" s="77"/>
       <c r="N56" s="73">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="O56" s="90" t="s">
         <v>318</v>
@@ -10931,7 +10958,7 @@
       <c r="S72" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="T72" s="119" t="s">
+      <c r="T72" s="118" t="s">
         <v>48</v>
       </c>
     </row>
@@ -13146,7 +13173,7 @@
         <v>409</v>
       </c>
       <c r="P132" s="32"/>
-      <c r="Q132" s="158" t="s">
+      <c r="Q132" s="154" t="s">
         <v>722</v>
       </c>
       <c r="R132" s="32" t="s">
@@ -13183,7 +13210,7 @@
         <v>409</v>
       </c>
       <c r="P133" s="32"/>
-      <c r="Q133" s="158" t="s">
+      <c r="Q133" s="154" t="s">
         <v>723</v>
       </c>
       <c r="R133" s="32" t="s">
@@ -13220,7 +13247,7 @@
         <v>409</v>
       </c>
       <c r="P134" s="32"/>
-      <c r="Q134" s="158" t="s">
+      <c r="Q134" s="154" t="s">
         <v>724</v>
       </c>
       <c r="R134" s="32" t="s">
@@ -13281,7 +13308,7 @@
       <c r="E136" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F136" s="163" t="s">
+      <c r="F136" s="158" t="s">
         <v>569</v>
       </c>
       <c r="G136" s="70"/>
@@ -13318,7 +13345,7 @@
       <c r="E137" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F137" s="163" t="s">
+      <c r="F137" s="158" t="s">
         <v>569</v>
       </c>
       <c r="G137" s="70"/>
@@ -13355,11 +13382,11 @@
       <c r="E138" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="F138" s="164" t="s">
+      <c r="F138" s="159" t="s">
         <v>571</v>
       </c>
-      <c r="G138" s="122"/>
-      <c r="H138" s="123"/>
+      <c r="G138" s="121"/>
+      <c r="H138" s="122"/>
       <c r="M138" s="44"/>
       <c r="N138" s="34">
         <v>142</v>
@@ -13901,7 +13928,7 @@
       <c r="S164" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="T164" s="119" t="s">
+      <c r="T164" s="118" t="s">
         <v>48</v>
       </c>
     </row>
@@ -14719,7 +14746,7 @@
     </row>
     <row r="205" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M205" s="45"/>
-      <c r="N205" s="128">
+      <c r="N205" s="127">
         <v>126</v>
       </c>
       <c r="O205" s="82" t="s">
@@ -14735,7 +14762,7 @@
       <c r="S205" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="T205" s="129"/>
+      <c r="T205" s="128"/>
     </row>
     <row r="206" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M206" s="74"/>
@@ -14820,7 +14847,7 @@
     <row r="210" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M210" s="44"/>
       <c r="N210" s="34">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="O210" s="32" t="s">
         <v>685</v>
@@ -14859,23 +14886,23 @@
     </row>
     <row r="212" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M212" s="45"/>
-      <c r="N212" s="140">
-        <v>131</v>
-      </c>
-      <c r="O212" s="141" t="s">
+      <c r="N212" s="136">
+        <v>149</v>
+      </c>
+      <c r="O212" s="137" t="s">
         <v>685</v>
       </c>
-      <c r="P212" s="141"/>
-      <c r="Q212" s="141" t="s">
+      <c r="P212" s="137"/>
+      <c r="Q212" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="R212" s="141" t="s">
+      <c r="R212" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="S212" s="141" t="s">
-        <v>20</v>
-      </c>
-      <c r="T212" s="142"/>
+      <c r="S212" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="T212" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14898,8 +14925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T219"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="H15" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14940,19 +14967,19 @@
       <c r="B2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="159"/>
+      <c r="C2" s="155"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="167" t="s">
+      <c r="E2" s="163" t="s">
         <v>322</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="165"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="170" t="s">
+      <c r="I2" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="171"/>
-      <c r="K2" s="172"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="168"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -14960,11 +14987,11 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="171"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="151"/>
+      <c r="I3" s="147"/>
       <c r="J3" s="106" t="s">
         <v>44</v>
       </c>
@@ -14974,15 +15001,15 @@
       <c r="B4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="160"/>
+      <c r="C4" s="156"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="176" t="s">
+      <c r="E4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="177"/>
-      <c r="G4" s="178"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="174"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="152"/>
+      <c r="I4" s="148"/>
       <c r="J4" s="25" t="s">
         <v>45</v>
       </c>
@@ -14992,29 +15019,29 @@
       <c r="B5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="160"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="176" t="s">
+      <c r="E5" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="177"/>
-      <c r="G5" s="178"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="174"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="155"/>
+      <c r="I5" s="151"/>
       <c r="J5" s="25" t="s">
         <v>719</v>
       </c>
       <c r="K5" s="35"/>
     </row>
     <row r="6" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="156"/>
+      <c r="I6" s="152"/>
       <c r="J6" s="46" t="s">
         <v>720</v>
       </c>
@@ -15030,37 +15057,37 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="180"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="181" t="s">
+      <c r="J8" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="182"/>
-      <c r="L8" s="183"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="179"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="165" t="s">
+      <c r="N8" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="166"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="166"/>
-      <c r="S8" s="166"/>
-      <c r="T8" s="166"/>
+      <c r="O8" s="162"/>
+      <c r="P8" s="162"/>
+      <c r="Q8" s="162"/>
+      <c r="R8" s="162"/>
+      <c r="S8" s="162"/>
+      <c r="T8" s="162"/>
     </row>
     <row r="9" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="157" t="s">
         <v>734</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -15128,9 +15155,9 @@
         <v>20</v>
       </c>
       <c r="G10" s="50"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="55">
+      <c r="H10" s="60"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="83">
         <v>49</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -15175,9 +15202,9 @@
         <v>20</v>
       </c>
       <c r="G11" s="39"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="34">
+      <c r="H11" s="64"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="43">
         <v>50</v>
       </c>
       <c r="K11" s="39" t="s">
@@ -15222,9 +15249,9 @@
         <v>2</v>
       </c>
       <c r="G12" s="58"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="34">
+      <c r="H12" s="64"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="43">
         <v>51</v>
       </c>
       <c r="K12" s="25" t="s">
@@ -15269,9 +15296,9 @@
         <v>2</v>
       </c>
       <c r="G13" s="58"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="34">
+      <c r="H13" s="64"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="43">
         <v>52</v>
       </c>
       <c r="K13" s="39" t="s">
@@ -15316,9 +15343,9 @@
         <v>571</v>
       </c>
       <c r="G14" s="70"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="34">
+      <c r="H14" s="79"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="43">
         <v>53</v>
       </c>
       <c r="K14" s="25" t="s">
@@ -15363,9 +15390,9 @@
         <v>571</v>
       </c>
       <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="34">
+      <c r="H15" s="79"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="43">
         <v>54</v>
       </c>
       <c r="K15" s="29" t="s">
@@ -15410,9 +15437,9 @@
         <v>571</v>
       </c>
       <c r="G16" s="70"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="34">
+      <c r="H16" s="79"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="43">
         <v>55</v>
       </c>
       <c r="K16" s="25" t="s">
@@ -15457,9 +15484,9 @@
         <v>571</v>
       </c>
       <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="34">
+      <c r="H17" s="79"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="43">
         <v>56</v>
       </c>
       <c r="K17" s="25" t="s">
@@ -15504,9 +15531,9 @@
         <v>571</v>
       </c>
       <c r="G18" s="70"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="34">
+      <c r="H18" s="79"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="43">
         <v>57</v>
       </c>
       <c r="K18" s="25" t="s">
@@ -15551,9 +15578,9 @@
         <v>571</v>
       </c>
       <c r="G19" s="70"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="34">
+      <c r="H19" s="79"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="43">
         <v>58</v>
       </c>
       <c r="K19" s="25" t="s">
@@ -15598,9 +15625,9 @@
         <v>571</v>
       </c>
       <c r="G20" s="70"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="34">
+      <c r="H20" s="79"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="43">
         <v>59</v>
       </c>
       <c r="K20" s="25" t="s">
@@ -15645,9 +15672,9 @@
         <v>571</v>
       </c>
       <c r="G21" s="70"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="34">
+      <c r="H21" s="79"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="43">
         <v>60</v>
       </c>
       <c r="K21" s="25" t="s">
@@ -15692,9 +15719,9 @@
         <v>570</v>
       </c>
       <c r="G22" s="70"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="34">
+      <c r="H22" s="79"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="43">
         <v>61</v>
       </c>
       <c r="K22" s="25" t="s">
@@ -15739,9 +15766,9 @@
         <v>571</v>
       </c>
       <c r="G23" s="70"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="34">
+      <c r="H23" s="79"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="43">
         <v>62</v>
       </c>
       <c r="K23" s="25" t="s">
@@ -15786,9 +15813,9 @@
         <v>570</v>
       </c>
       <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="34">
+      <c r="H24" s="79"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="43">
         <v>63</v>
       </c>
       <c r="K24" s="25" t="s">
@@ -15833,9 +15860,9 @@
         <v>570</v>
       </c>
       <c r="G25" s="70"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="34">
+      <c r="H25" s="79"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="43">
         <v>64</v>
       </c>
       <c r="K25" s="25" t="s">
@@ -15880,9 +15907,9 @@
         <v>569</v>
       </c>
       <c r="G26" s="70"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="34">
+      <c r="H26" s="79"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="43">
         <v>65</v>
       </c>
       <c r="K26" s="25" t="s">
@@ -15927,9 +15954,9 @@
         <v>571</v>
       </c>
       <c r="G27" s="70"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="34">
+      <c r="H27" s="79"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="43">
         <v>66</v>
       </c>
       <c r="K27" s="29" t="s">
@@ -15974,9 +16001,9 @@
         <v>571</v>
       </c>
       <c r="G28" s="70"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="34">
+      <c r="H28" s="79"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="43">
         <v>67</v>
       </c>
       <c r="K28" s="29" t="s">
@@ -16021,9 +16048,9 @@
         <v>570</v>
       </c>
       <c r="G29" s="70"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="34">
+      <c r="H29" s="79"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="43">
         <v>68</v>
       </c>
       <c r="K29" s="29" t="s">
@@ -16068,9 +16095,9 @@
         <v>7</v>
       </c>
       <c r="G30" s="70"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="34">
+      <c r="H30" s="79"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="43">
         <v>69</v>
       </c>
       <c r="K30" s="25" t="s">
@@ -16115,9 +16142,9 @@
         <v>7</v>
       </c>
       <c r="G31" s="70"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="34">
+      <c r="H31" s="79"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="43">
         <v>70</v>
       </c>
       <c r="K31" s="25" t="s">
@@ -16162,9 +16189,9 @@
         <v>7</v>
       </c>
       <c r="G32" s="70"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="34">
+      <c r="H32" s="79"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="43">
         <v>71</v>
       </c>
       <c r="K32" s="25" t="s">
@@ -16192,7 +16219,7 @@
       </c>
       <c r="T32" s="81"/>
     </row>
-    <row r="33" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="69">
         <v>24</v>
       </c>
@@ -16209,15 +16236,15 @@
         <v>3</v>
       </c>
       <c r="G33" s="70"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="33">
+      <c r="H33" s="79"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="43">
         <v>72</v>
       </c>
-      <c r="K33" s="46" t="s">
+      <c r="K33" s="25" t="s">
         <v>691</v>
       </c>
-      <c r="L33" s="61" t="s">
+      <c r="L33" s="54" t="s">
         <v>697</v>
       </c>
       <c r="M33" s="86"/>
@@ -16256,8 +16283,18 @@
         <v>577</v>
       </c>
       <c r="G34" s="70"/>
-      <c r="H34" s="71"/>
-      <c r="M34" s="77"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="43">
+        <v>73</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>735</v>
+      </c>
+      <c r="L34" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="M34" s="86"/>
       <c r="N34" s="49">
         <v>54</v>
       </c>
@@ -16276,7 +16313,7 @@
       </c>
       <c r="T34" s="38"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="69">
         <v>26</v>
       </c>
@@ -16293,8 +16330,18 @@
         <v>571</v>
       </c>
       <c r="G35" s="70"/>
-      <c r="H35" s="71"/>
-      <c r="M35" s="77"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="84">
+        <v>74</v>
+      </c>
+      <c r="K35" s="110" t="s">
+        <v>737</v>
+      </c>
+      <c r="L35" s="61" t="s">
+        <v>738</v>
+      </c>
+      <c r="M35" s="86"/>
       <c r="N35" s="34">
         <v>55</v>
       </c>
@@ -17036,7 +17083,7 @@
       <c r="H55" s="71"/>
       <c r="M55" s="77"/>
       <c r="N55" s="73">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O55" s="90" t="s">
         <v>318</v>
@@ -17103,11 +17150,11 @@
       <c r="E57" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="164" t="s">
+      <c r="F57" s="159" t="s">
         <v>571</v>
       </c>
-      <c r="G57" s="122"/>
-      <c r="H57" s="123"/>
+      <c r="G57" s="121"/>
+      <c r="H57" s="122"/>
       <c r="M57" s="77"/>
       <c r="N57" s="34">
         <v>55</v>
@@ -20041,13 +20088,13 @@
     </row>
     <row r="203" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M203" s="45"/>
-      <c r="N203" s="128">
+      <c r="N203" s="127">
         <v>48</v>
       </c>
-      <c r="O203" s="188" t="s">
+      <c r="O203" s="160" t="s">
         <v>488</v>
       </c>
-      <c r="P203" s="188"/>
+      <c r="P203" s="160"/>
       <c r="Q203" s="82" t="s">
         <v>487</v>
       </c>
@@ -20057,7 +20104,7 @@
       <c r="S203" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="T203" s="129"/>
+      <c r="T203" s="128"/>
     </row>
     <row r="204" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M204" s="74"/>
@@ -20142,7 +20189,7 @@
     <row r="208" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M208" s="44"/>
       <c r="N208" s="34">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="O208" s="32" t="s">
         <v>685</v>
@@ -20181,23 +20228,23 @@
     </row>
     <row r="210" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M210" s="45"/>
-      <c r="N210" s="144">
-        <v>55</v>
-      </c>
-      <c r="O210" s="145" t="s">
+      <c r="N210" s="140">
+        <v>74</v>
+      </c>
+      <c r="O210" s="141" t="s">
         <v>685</v>
       </c>
-      <c r="P210" s="145"/>
-      <c r="Q210" s="145" t="s">
+      <c r="P210" s="141"/>
+      <c r="Q210" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="R210" s="145" t="s">
+      <c r="R210" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="S210" s="145" t="s">
-        <v>20</v>
-      </c>
-      <c r="T210" s="146"/>
+      <c r="S210" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="T210" s="142"/>
     </row>
     <row r="211" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M211" s="74"/>
@@ -20262,7 +20309,7 @@
     <row r="214" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M214" s="44"/>
       <c r="N214" s="34">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="O214" s="57" t="s">
         <v>692</v>
@@ -20361,23 +20408,23 @@
     </row>
     <row r="219" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M219" s="45"/>
-      <c r="N219" s="140">
-        <v>55</v>
-      </c>
-      <c r="O219" s="157" t="s">
+      <c r="N219" s="136">
+        <v>74</v>
+      </c>
+      <c r="O219" s="153" t="s">
         <v>692</v>
       </c>
-      <c r="P219" s="157"/>
-      <c r="Q219" s="143" t="s">
+      <c r="P219" s="153"/>
+      <c r="Q219" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="R219" s="143" t="s">
+      <c r="R219" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="S219" s="143" t="s">
-        <v>20</v>
-      </c>
-      <c r="T219" s="142"/>
+      <c r="S219" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="T219" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -20400,8 +20447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S85"/>
   <sheetViews>
-    <sheetView topLeftCell="J58" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="H11" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20441,26 +20488,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="163" t="s">
         <v>338</v>
       </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="169"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="170" t="s">
+      <c r="H2" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="171"/>
-      <c r="J2" s="172"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="168"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="175"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="171"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -20473,11 +20520,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="176" t="s">
+      <c r="D4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="177"/>
-      <c r="F4" s="178"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="174"/>
       <c r="G4" s="7"/>
       <c r="H4" s="63"/>
       <c r="I4" s="46" t="s">
@@ -20490,11 +20537,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="176" t="s">
+      <c r="D5" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="177"/>
-      <c r="F5" s="178"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20506,30 +20553,30 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="181" t="s">
+      <c r="I7" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="182"/>
-      <c r="K7" s="183"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="179"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="165" t="s">
+      <c r="M7" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -20997,15 +21044,15 @@
       </c>
       <c r="S19" s="38"/>
     </row>
-    <row r="20" spans="8:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="45"/>
-      <c r="I20" s="84">
+    <row r="20" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H20" s="44"/>
+      <c r="I20" s="43">
         <v>18</v>
       </c>
-      <c r="J20" s="46" t="s">
+      <c r="J20" s="25" t="s">
         <v>693</v>
       </c>
-      <c r="K20" s="61" t="s">
+      <c r="K20" s="54" t="s">
         <v>490</v>
       </c>
       <c r="L20" s="86"/>
@@ -21028,7 +21075,17 @@
       <c r="S20" s="81"/>
     </row>
     <row r="21" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="77"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="43">
+        <v>19</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>735</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="L21" s="86"/>
       <c r="M21" s="49">
         <v>11</v>
       </c>
@@ -21047,8 +21104,18 @@
       </c>
       <c r="S21" s="81"/>
     </row>
-    <row r="22" spans="8:19" x14ac:dyDescent="0.2">
-      <c r="L22" s="77"/>
+    <row r="22" spans="8:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="45"/>
+      <c r="I22" s="84">
+        <v>20</v>
+      </c>
+      <c r="J22" s="110" t="s">
+        <v>737</v>
+      </c>
+      <c r="K22" s="61" t="s">
+        <v>738</v>
+      </c>
+      <c r="L22" s="86"/>
       <c r="M22" s="34">
         <v>12</v>
       </c>
@@ -21650,7 +21717,7 @@
     <row r="52" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L52" s="77"/>
       <c r="M52" s="34">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N52" s="32" t="s">
         <v>318</v>
@@ -21690,7 +21757,7 @@
     <row r="54" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L54" s="77"/>
       <c r="M54" s="73">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N54" s="90" t="s">
         <v>318</v>
@@ -22090,7 +22157,7 @@
     <row r="74" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L74" s="44"/>
       <c r="M74" s="34">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N74" s="32" t="s">
         <v>685</v>
@@ -22129,23 +22196,23 @@
     </row>
     <row r="76" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L76" s="45"/>
-      <c r="M76" s="144">
-        <v>12</v>
-      </c>
-      <c r="N76" s="145" t="s">
+      <c r="M76" s="140">
+        <v>20</v>
+      </c>
+      <c r="N76" s="141" t="s">
         <v>685</v>
       </c>
-      <c r="O76" s="145"/>
-      <c r="P76" s="145" t="s">
+      <c r="O76" s="141"/>
+      <c r="P76" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="Q76" s="145" t="s">
+      <c r="Q76" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="R76" s="145" t="s">
-        <v>20</v>
-      </c>
-      <c r="S76" s="146"/>
+      <c r="R76" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="S76" s="142"/>
     </row>
     <row r="77" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L77" s="74"/>
@@ -22210,7 +22277,7 @@
     <row r="80" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L80" s="44"/>
       <c r="M80" s="34">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N80" s="57" t="s">
         <v>692</v>
@@ -22309,23 +22376,23 @@
     </row>
     <row r="85" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L85" s="45"/>
-      <c r="M85" s="140">
-        <v>12</v>
-      </c>
-      <c r="N85" s="143" t="s">
+      <c r="M85" s="136">
+        <v>20</v>
+      </c>
+      <c r="N85" s="139" t="s">
         <v>692</v>
       </c>
-      <c r="O85" s="143"/>
-      <c r="P85" s="143" t="s">
+      <c r="O85" s="139"/>
+      <c r="P85" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="Q85" s="143" t="s">
+      <c r="Q85" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="R85" s="143" t="s">
-        <v>20</v>
-      </c>
-      <c r="S85" s="142"/>
+      <c r="R85" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="S85" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -22389,26 +22456,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="163" t="s">
         <v>583</v>
       </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="169"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="170" t="s">
+      <c r="H2" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="171"/>
-      <c r="J2" s="172"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="168"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="175"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="171"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -22421,11 +22488,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="176" t="s">
+      <c r="D4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="177"/>
-      <c r="F4" s="178"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="174"/>
       <c r="G4" s="7"/>
       <c r="H4" s="63"/>
       <c r="I4" s="46" t="s">
@@ -22438,11 +22505,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="176" t="s">
+      <c r="D5" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="177"/>
-      <c r="F5" s="178"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -22454,30 +22521,30 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="181" t="s">
+      <c r="I7" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="182"/>
-      <c r="K7" s="183"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="179"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="165" t="s">
+      <c r="M7" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -22545,18 +22612,18 @@
         <v>20</v>
       </c>
       <c r="F9" s="50"/>
-      <c r="G9" s="118"/>
+      <c r="G9" s="117"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="125">
+      <c r="I9" s="124">
         <v>32</v>
       </c>
-      <c r="J9" s="126" t="s">
+      <c r="J9" s="125" t="s">
         <v>615</v>
       </c>
-      <c r="K9" s="127" t="s">
+      <c r="K9" s="126" t="s">
         <v>617</v>
       </c>
-      <c r="L9" s="121"/>
+      <c r="L9" s="120"/>
       <c r="M9" s="37">
         <v>32</v>
       </c>
@@ -22590,7 +22657,7 @@
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="51"/>
-      <c r="L10" s="121"/>
+      <c r="L10" s="120"/>
       <c r="M10" s="85">
         <v>14</v>
       </c>
@@ -22624,8 +22691,8 @@
       </c>
       <c r="F11" s="58"/>
       <c r="G11" s="51"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="128">
+      <c r="L11" s="123"/>
+      <c r="M11" s="127">
         <v>12</v>
       </c>
       <c r="N11" s="82" t="s">
@@ -22641,7 +22708,7 @@
       <c r="R11" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="129"/>
+      <c r="S11" s="128"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="49">
@@ -22777,7 +22844,7 @@
       <c r="R15" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="120"/>
+      <c r="S15" s="119"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="49">
@@ -23225,26 +23292,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="163" t="s">
         <v>620</v>
       </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="169"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="170" t="s">
+      <c r="H2" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="171"/>
-      <c r="J2" s="172"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="168"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="175"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="171"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -23257,11 +23324,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="176" t="s">
+      <c r="D4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="177"/>
-      <c r="F4" s="178"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="174"/>
       <c r="G4" s="7"/>
       <c r="H4" s="63"/>
       <c r="I4" s="46" t="s">
@@ -23274,11 +23341,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="176" t="s">
+      <c r="D5" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="177"/>
-      <c r="F5" s="178"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -23290,30 +23357,30 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="181" t="s">
+      <c r="I7" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="182"/>
-      <c r="K7" s="183"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="179"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="165" t="s">
+      <c r="M7" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -23800,8 +23867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H31" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="H22" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23841,26 +23908,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="163" t="s">
         <v>632</v>
       </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="169"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="170" t="s">
+      <c r="H2" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="171"/>
-      <c r="J2" s="172"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="168"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="175"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="171"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -23873,11 +23940,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="176" t="s">
+      <c r="D4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="177"/>
-      <c r="F4" s="178"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="174"/>
       <c r="G4" s="7"/>
       <c r="H4" s="63"/>
       <c r="I4" s="46" t="s">
@@ -23890,11 +23957,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="176" t="s">
+      <c r="D5" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="177"/>
-      <c r="F5" s="178"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -23906,32 +23973,32 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="181" t="s">
+      <c r="I7" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="182"/>
-      <c r="K7" s="183"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="179"/>
       <c r="L7" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="M7" s="165" t="s">
+      <c r="M7" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -23999,18 +24066,18 @@
         <v>10</v>
       </c>
       <c r="F9" s="50"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="113"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="44"/>
       <c r="I9" s="83">
         <v>20</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="K9" s="138" t="s">
+      <c r="K9" s="56" t="s">
         <v>675</v>
       </c>
-      <c r="L9" s="44"/>
+      <c r="L9" s="113"/>
       <c r="M9" s="55">
         <v>20</v>
       </c>
@@ -24043,18 +24110,18 @@
         <v>20</v>
       </c>
       <c r="F10" s="39"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="113"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="44"/>
       <c r="I10" s="43">
         <v>21</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="135" t="s">
+      <c r="K10" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="44"/>
+      <c r="L10" s="113"/>
       <c r="M10" s="34">
         <v>21</v>
       </c>
@@ -24087,18 +24154,18 @@
         <v>30</v>
       </c>
       <c r="F11" s="58"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="113"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="44"/>
       <c r="I11" s="43">
         <v>22</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="135" t="s">
+      <c r="K11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="44"/>
+      <c r="L11" s="113"/>
       <c r="M11" s="34">
         <v>22</v>
       </c>
@@ -24131,20 +24198,20 @@
         <v>19.399999999999999</v>
       </c>
       <c r="F12" s="58"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="113"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="44"/>
       <c r="I12" s="43">
         <v>23</v>
       </c>
       <c r="J12" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="136" t="s">
+      <c r="K12" s="54" t="s">
         <v>676</v>
       </c>
-      <c r="L12" s="44"/>
+      <c r="L12" s="113"/>
       <c r="M12" s="34">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N12" s="32" t="s">
         <v>673</v>
@@ -24175,18 +24242,18 @@
         <v>19.399999999999999</v>
       </c>
       <c r="F13" s="58"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="113"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="44"/>
       <c r="I13" s="43">
         <v>24</v>
       </c>
       <c r="J13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="136" t="s">
+      <c r="K13" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="44"/>
+      <c r="L13" s="113"/>
       <c r="M13" s="34">
         <v>2</v>
       </c>
@@ -24217,18 +24284,18 @@
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="58"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="113"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="44"/>
       <c r="I14" s="43">
         <v>25</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="136" t="s">
+      <c r="K14" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="44"/>
+      <c r="L14" s="113"/>
       <c r="M14" s="34">
         <v>1</v>
       </c>
@@ -24259,18 +24326,18 @@
       </c>
       <c r="E15" s="41"/>
       <c r="F15" s="58"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="113"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="44"/>
       <c r="I15" s="43">
         <v>26</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="K15" s="135" t="s">
+      <c r="K15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="44"/>
+      <c r="L15" s="113"/>
       <c r="M15" s="34">
         <v>6</v>
       </c>
@@ -24289,11 +24356,11 @@
       </c>
       <c r="S15" s="35"/>
     </row>
-    <row r="16" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="34">
         <v>8</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="130" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="39" t="s">
@@ -24303,18 +24370,18 @@
         <v>569</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="84">
+      <c r="G16" s="134"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="43">
         <v>27</v>
       </c>
-      <c r="J16" s="46" t="s">
+      <c r="J16" s="25" t="s">
         <v>672</v>
       </c>
-      <c r="K16" s="139" t="s">
+      <c r="K16" s="54" t="s">
         <v>677</v>
       </c>
-      <c r="L16" s="44"/>
+      <c r="L16" s="113"/>
       <c r="M16" s="85">
         <v>8</v>
       </c>
@@ -24337,7 +24404,7 @@
       <c r="B17" s="34">
         <v>9</v>
       </c>
-      <c r="C17" s="131" t="s">
+      <c r="C17" s="130" t="s">
         <v>75</v>
       </c>
       <c r="D17" s="39" t="s">
@@ -24347,8 +24414,18 @@
         <v>569</v>
       </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="35"/>
-      <c r="L17" s="44"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="43">
+        <v>28</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>735</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="L17" s="113"/>
       <c r="M17" s="85">
         <v>9</v>
       </c>
@@ -24367,11 +24444,11 @@
       </c>
       <c r="S17" s="38"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="34">
         <v>10</v>
       </c>
-      <c r="C18" s="132" t="s">
+      <c r="C18" s="131" t="s">
         <v>101</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -24381,8 +24458,18 @@
         <v>571</v>
       </c>
       <c r="F18" s="29"/>
-      <c r="G18" s="35"/>
-      <c r="L18" s="44"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="84">
+        <v>29</v>
+      </c>
+      <c r="J18" s="110" t="s">
+        <v>737</v>
+      </c>
+      <c r="K18" s="61" t="s">
+        <v>738</v>
+      </c>
+      <c r="L18" s="113"/>
       <c r="M18" s="85">
         <v>10</v>
       </c>
@@ -24405,7 +24492,7 @@
       <c r="B19" s="34">
         <v>11</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="131" t="s">
         <v>131</v>
       </c>
       <c r="D19" s="39" t="s">
@@ -24439,7 +24526,7 @@
       <c r="B20" s="34">
         <v>12</v>
       </c>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="131" t="s">
         <v>124</v>
       </c>
       <c r="D20" s="39" t="s">
@@ -24473,7 +24560,7 @@
       <c r="B21" s="34">
         <v>13</v>
       </c>
-      <c r="C21" s="131" t="s">
+      <c r="C21" s="130" t="s">
         <v>140</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -24507,7 +24594,7 @@
       <c r="B22" s="34">
         <v>14</v>
       </c>
-      <c r="C22" s="131" t="s">
+      <c r="C22" s="130" t="s">
         <v>142</v>
       </c>
       <c r="D22" s="39" t="s">
@@ -24541,7 +24628,7 @@
       <c r="B23" s="34">
         <v>15</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C23" s="130" t="s">
         <v>144</v>
       </c>
       <c r="D23" s="39" t="s">
@@ -24577,7 +24664,7 @@
       <c r="B24" s="34">
         <v>16</v>
       </c>
-      <c r="C24" s="131" t="s">
+      <c r="C24" s="130" t="s">
         <v>102</v>
       </c>
       <c r="D24" s="39" t="s">
@@ -24611,7 +24698,7 @@
       <c r="B25" s="34">
         <v>17</v>
       </c>
-      <c r="C25" s="131" t="s">
+      <c r="C25" s="130" t="s">
         <v>80</v>
       </c>
       <c r="D25" s="39" t="s">
@@ -24645,7 +24732,7 @@
       <c r="B26" s="34">
         <v>18</v>
       </c>
-      <c r="C26" s="131" t="s">
+      <c r="C26" s="130" t="s">
         <v>118</v>
       </c>
       <c r="D26" s="39" t="s">
@@ -24679,7 +24766,7 @@
       <c r="B27" s="33">
         <v>19</v>
       </c>
-      <c r="C27" s="137" t="s">
+      <c r="C27" s="135" t="s">
         <v>158</v>
       </c>
       <c r="D27" s="39" t="s">
@@ -25004,7 +25091,7 @@
       <c r="G40" s="2"/>
       <c r="L40" s="44"/>
       <c r="M40" s="73">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N40" s="90" t="s">
         <v>673</v>
@@ -25019,7 +25106,7 @@
       <c r="R40" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="S40" s="133"/>
+      <c r="S40" s="132"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
@@ -25034,13 +25121,13 @@
         <v>673</v>
       </c>
       <c r="O41" s="32"/>
-      <c r="P41" s="130" t="s">
+      <c r="P41" s="129" t="s">
         <v>667</v>
       </c>
-      <c r="Q41" s="130" t="s">
+      <c r="Q41" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="R41" s="130" t="s">
+      <c r="R41" s="129" t="s">
         <v>20</v>
       </c>
       <c r="S41" s="35"/>
@@ -25058,13 +25145,13 @@
         <v>673</v>
       </c>
       <c r="O42" s="32"/>
-      <c r="P42" s="130" t="s">
+      <c r="P42" s="129" t="s">
         <v>668</v>
       </c>
-      <c r="Q42" s="130" t="s">
+      <c r="Q42" s="129" t="s">
         <v>660</v>
       </c>
-      <c r="R42" s="130" t="s">
+      <c r="R42" s="129" t="s">
         <v>20</v>
       </c>
       <c r="S42" s="35"/>
@@ -25082,13 +25169,13 @@
         <v>673</v>
       </c>
       <c r="O43" s="32"/>
-      <c r="P43" s="130" t="s">
+      <c r="P43" s="129" t="s">
         <v>436</v>
       </c>
-      <c r="Q43" s="130" t="s">
+      <c r="Q43" s="129" t="s">
         <v>660</v>
       </c>
-      <c r="R43" s="130" t="s">
+      <c r="R43" s="129" t="s">
         <v>20</v>
       </c>
       <c r="S43" s="35"/>
@@ -25106,13 +25193,13 @@
         <v>673</v>
       </c>
       <c r="O44" s="40"/>
-      <c r="P44" s="134" t="s">
+      <c r="P44" s="133" t="s">
         <v>669</v>
       </c>
-      <c r="Q44" s="134" t="s">
+      <c r="Q44" s="133" t="s">
         <v>670</v>
       </c>
-      <c r="R44" s="134" t="s">
+      <c r="R44" s="133" t="s">
         <v>20</v>
       </c>
       <c r="S44" s="36"/>

--- a/Cnl/Mapeos_CON_CNL_V1.xlsx
+++ b/Cnl/Mapeos_CON_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="855" windowWidth="9225" windowHeight="4170" tabRatio="583" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="285" yWindow="855" windowWidth="9225" windowHeight="4170" tabRatio="583" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T65SOLICITUD" sheetId="36" r:id="rId1"/>
@@ -1276,7 +1276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="738">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -5335,7 +5335,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5345,8 +5345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N64" sqref="N64:S64"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S57" sqref="S57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5583,7 +5583,9 @@
       <c r="R9" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="42"/>
+      <c r="S9" s="42" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10" s="49">
@@ -6338,7 +6340,9 @@
         <v>20</v>
       </c>
       <c r="G26" s="67"/>
-      <c r="H26" s="68"/>
+      <c r="H26" s="68" t="s">
+        <v>47</v>
+      </c>
       <c r="I26" s="82"/>
       <c r="J26" s="34">
         <v>107</v>
@@ -7125,7 +7129,9 @@
       <c r="R46" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="S46" s="69"/>
+      <c r="S46" s="69" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" s="49">
@@ -7161,7 +7167,9 @@
       <c r="R47" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="S47" s="35"/>
+      <c r="S47" s="35" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="49">
@@ -7305,7 +7313,9 @@
       <c r="R51" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="S51" s="35"/>
+      <c r="S51" s="35" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="52" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="66">
@@ -7629,7 +7639,9 @@
       <c r="R60" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="S60" s="69"/>
+      <c r="S60" s="69" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B61" s="66">
@@ -7665,7 +7677,9 @@
       <c r="R61" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="S61" s="35"/>
+      <c r="S61" s="35" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B62" s="49">
@@ -7809,7 +7823,9 @@
       <c r="R65" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="S65" s="35"/>
+      <c r="S65" s="35" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="66" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B66" s="49">
@@ -8438,8 +8454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T212"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="O187" sqref="O187"/>
+    <sheetView tabSelected="1" topLeftCell="M189" workbookViewId="0">
+      <selection activeCell="M217" sqref="M217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8458,7 +8474,7 @@
     <col min="12" max="12" width="81.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2" style="2" customWidth="1"/>
     <col min="14" max="14" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="39" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -8679,7 +8695,7 @@
       <c r="H11" s="60"/>
       <c r="I11" s="44"/>
       <c r="J11" s="79">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="K11" s="23" t="s">
         <v>221</v>
@@ -8688,8 +8704,8 @@
         <v>226</v>
       </c>
       <c r="M11" s="88"/>
-      <c r="N11" s="37">
-        <v>126</v>
+      <c r="N11" s="55">
+        <v>150</v>
       </c>
       <c r="O11" s="90" t="s">
         <v>317</v>
@@ -8728,7 +8744,7 @@
       <c r="H12" s="63"/>
       <c r="I12" s="44"/>
       <c r="J12" s="43">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="K12" s="39" t="s">
         <v>33</v>
@@ -8738,7 +8754,7 @@
       </c>
       <c r="M12" s="88"/>
       <c r="N12" s="34">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="O12" s="32" t="s">
         <v>317</v>
@@ -8775,7 +8791,7 @@
       <c r="H13" s="63"/>
       <c r="I13" s="44"/>
       <c r="J13" s="43">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="K13" s="25" t="s">
         <v>34</v>
@@ -8785,7 +8801,7 @@
       </c>
       <c r="M13" s="88"/>
       <c r="N13" s="34">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="O13" s="32" t="s">
         <v>317</v>
@@ -8822,7 +8838,7 @@
       <c r="H14" s="63"/>
       <c r="I14" s="44"/>
       <c r="J14" s="43">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="K14" s="39" t="s">
         <v>46</v>
@@ -8831,8 +8847,8 @@
         <v>227</v>
       </c>
       <c r="M14" s="88"/>
-      <c r="N14" s="24">
-        <v>129</v>
+      <c r="N14" s="34">
+        <v>153</v>
       </c>
       <c r="O14" s="32" t="s">
         <v>317</v>
@@ -11146,23 +11162,23 @@
       <c r="G71" s="67"/>
       <c r="H71" s="68"/>
       <c r="M71" s="75"/>
-      <c r="N71" s="72">
+      <c r="N71" s="33">
         <v>58</v>
       </c>
-      <c r="O71" s="78" t="s">
+      <c r="O71" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="P71" s="78"/>
-      <c r="Q71" s="78" t="s">
+      <c r="P71" s="40"/>
+      <c r="Q71" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="R71" s="78" t="s">
+      <c r="R71" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="S71" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="T71" s="73"/>
+      <c r="S71" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="T71" s="36"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B72" s="49">
@@ -11184,7 +11200,7 @@
       <c r="H72" s="68"/>
       <c r="M72" s="71"/>
       <c r="N72" s="55">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="O72" s="90" t="s">
         <v>408</v>
@@ -13593,7 +13609,7 @@
       <c r="H137" s="68"/>
       <c r="M137" s="71"/>
       <c r="N137" s="55">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="O137" s="90" t="s">
         <v>436</v>
@@ -14154,7 +14170,7 @@
     <row r="164" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M164" s="71"/>
       <c r="N164" s="55">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="O164" s="90" t="s">
         <v>487</v>
@@ -14219,8 +14235,8 @@
     </row>
     <row r="167" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M167" s="44"/>
-      <c r="N167" s="34">
-        <v>127</v>
+      <c r="N167" s="43">
+        <v>151</v>
       </c>
       <c r="O167" s="32" t="s">
         <v>487</v>
@@ -14239,8 +14255,8 @@
     </row>
     <row r="168" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M168" s="44"/>
-      <c r="N168" s="34">
-        <v>128</v>
+      <c r="N168" s="43">
+        <v>152</v>
       </c>
       <c r="O168" s="32" t="s">
         <v>487</v>
@@ -14259,8 +14275,8 @@
     </row>
     <row r="169" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M169" s="44"/>
-      <c r="N169" s="34">
-        <v>129</v>
+      <c r="N169" s="43">
+        <v>153</v>
       </c>
       <c r="O169" s="32" t="s">
         <v>487</v>
@@ -15008,7 +15024,7 @@
     <row r="206" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M206" s="71"/>
       <c r="N206" s="37">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="O206" s="90" t="s">
         <v>684</v>
@@ -15047,8 +15063,8 @@
     </row>
     <row r="208" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M208" s="44"/>
-      <c r="N208" s="34">
-        <v>127</v>
+      <c r="N208" s="43">
+        <v>151</v>
       </c>
       <c r="O208" s="32" t="s">
         <v>684</v>
@@ -15067,8 +15083,8 @@
     </row>
     <row r="209" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M209" s="44"/>
-      <c r="N209" s="34">
-        <v>128</v>
+      <c r="N209" s="43">
+        <v>152</v>
       </c>
       <c r="O209" s="32" t="s">
         <v>684</v>
@@ -20686,7 +20702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>

--- a/Cnl/Mapeos_CON_CNL_V1.xlsx
+++ b/Cnl/Mapeos_CON_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="855" windowWidth="9225" windowHeight="4170" tabRatio="583" activeTab="1"/>
+    <workbookView xWindow="285" yWindow="915" windowWidth="9225" windowHeight="4110" tabRatio="583" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="T65SOLICITUD" sheetId="36" r:id="rId1"/>
@@ -3496,10 +3496,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3662,6 +3669,12 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3837,7 +3850,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -4436,204 +4449,287 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="88">
+  <cellStyleXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4642,11 +4738,11 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4656,155 +4752,155 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="28" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="28" borderId="0" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="0" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="33" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="33" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="87" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="87" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="30" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="28" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="30" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="28" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4813,50 +4909,62 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="88">
+  <cellStyles count="132">
     <cellStyle name="20% - Accent1" xfId="1"/>
     <cellStyle name="20% - Accent2" xfId="2"/>
     <cellStyle name="20% - Accent3" xfId="3"/>
@@ -4864,11 +4972,17 @@
     <cellStyle name="20% - Accent5" xfId="5"/>
     <cellStyle name="20% - Accent6" xfId="6"/>
     <cellStyle name="20% - Énfasis1" xfId="7" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1 2" xfId="90"/>
     <cellStyle name="20% - Énfasis2" xfId="8" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2 2" xfId="91"/>
     <cellStyle name="20% - Énfasis3" xfId="9" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3 2" xfId="92"/>
     <cellStyle name="20% - Énfasis4" xfId="10" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4 2" xfId="93"/>
     <cellStyle name="20% - Énfasis5" xfId="11" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5 2" xfId="94"/>
     <cellStyle name="20% - Énfasis6" xfId="12" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6 2" xfId="95"/>
     <cellStyle name="40% - Accent1" xfId="13"/>
     <cellStyle name="40% - Accent2" xfId="14"/>
     <cellStyle name="40% - Accent3" xfId="15"/>
@@ -4876,11 +4990,17 @@
     <cellStyle name="40% - Accent5" xfId="17"/>
     <cellStyle name="40% - Accent6" xfId="18"/>
     <cellStyle name="40% - Énfasis1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1 2" xfId="96"/>
     <cellStyle name="40% - Énfasis2" xfId="20" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2 2" xfId="97"/>
     <cellStyle name="40% - Énfasis3" xfId="21" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3 2" xfId="98"/>
     <cellStyle name="40% - Énfasis4" xfId="22" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4 2" xfId="99"/>
     <cellStyle name="40% - Énfasis5" xfId="23" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5 2" xfId="100"/>
     <cellStyle name="40% - Énfasis6" xfId="24" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6 2" xfId="101"/>
     <cellStyle name="60% - Accent1" xfId="25"/>
     <cellStyle name="60% - Accent2" xfId="26"/>
     <cellStyle name="60% - Accent3" xfId="27"/>
@@ -4888,11 +5008,17 @@
     <cellStyle name="60% - Accent5" xfId="29"/>
     <cellStyle name="60% - Accent6" xfId="30"/>
     <cellStyle name="60% - Énfasis1" xfId="31" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1 2" xfId="102"/>
     <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2 2" xfId="103"/>
     <cellStyle name="60% - Énfasis3" xfId="33" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3 2" xfId="104"/>
     <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4 2" xfId="105"/>
     <cellStyle name="60% - Énfasis5" xfId="35" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5 2" xfId="106"/>
     <cellStyle name="60% - Énfasis6" xfId="36" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6 2" xfId="107"/>
     <cellStyle name="Accent1" xfId="37"/>
     <cellStyle name="Accent2" xfId="38"/>
     <cellStyle name="Accent3" xfId="39"/>
@@ -4901,19 +5027,31 @@
     <cellStyle name="Accent6" xfId="42"/>
     <cellStyle name="Bad" xfId="43"/>
     <cellStyle name="Buena" xfId="44" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena 2" xfId="108"/>
     <cellStyle name="Calculation" xfId="45"/>
     <cellStyle name="Cálculo" xfId="46" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cálculo 2" xfId="109"/>
     <cellStyle name="Celda de comprobación" xfId="47" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación 2" xfId="110"/>
     <cellStyle name="Celda vinculada" xfId="48" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada 2" xfId="111"/>
     <cellStyle name="Check Cell" xfId="49"/>
     <cellStyle name="Encabezado 4" xfId="50" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4 2" xfId="112"/>
     <cellStyle name="Énfasis1" xfId="51" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis1 2" xfId="113"/>
     <cellStyle name="Énfasis2" xfId="52" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis2 2" xfId="114"/>
     <cellStyle name="Énfasis3" xfId="53" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis3 2" xfId="115"/>
     <cellStyle name="Énfasis4" xfId="54" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis4 2" xfId="116"/>
     <cellStyle name="Énfasis5" xfId="55" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis5 2" xfId="117"/>
     <cellStyle name="Énfasis6" xfId="56" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Énfasis6 2" xfId="118"/>
     <cellStyle name="Entrada" xfId="57" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Entrada 2" xfId="119"/>
     <cellStyle name="Explanatory Text" xfId="58"/>
     <cellStyle name="Good" xfId="59"/>
     <cellStyle name="Heading 1" xfId="60"/>
@@ -4921,29 +5059,43 @@
     <cellStyle name="Heading 3" xfId="62"/>
     <cellStyle name="Heading 4" xfId="63"/>
     <cellStyle name="Incorrecto" xfId="64" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Incorrecto 2" xfId="120"/>
     <cellStyle name="Input" xfId="65"/>
     <cellStyle name="l]_x000d__x000a_MultiplesUnidades=True_x000d__x000a_log=2_x000d__x000a_DistribucionForm=False_x000d__x000a_Novedades=proxy:8080/data/sim/sim44htm" xfId="66"/>
     <cellStyle name="Linked Cell" xfId="67"/>
     <cellStyle name="Neutral" xfId="68" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="121"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="69"/>
     <cellStyle name="Normal 2 2" xfId="87"/>
     <cellStyle name="Normal 3" xfId="85"/>
     <cellStyle name="Normal 4" xfId="86"/>
+    <cellStyle name="Normal 4 2" xfId="131"/>
+    <cellStyle name="Normal 5" xfId="89"/>
+    <cellStyle name="Normal 6" xfId="88"/>
     <cellStyle name="Normal_Libro1" xfId="70"/>
     <cellStyle name="Normal_Planilla_Mapeo_CCCLTEMT" xfId="71"/>
     <cellStyle name="Notas" xfId="72" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Notas 2" xfId="122"/>
     <cellStyle name="Note" xfId="73"/>
     <cellStyle name="Output" xfId="74"/>
     <cellStyle name="Salida" xfId="75" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Salida 2" xfId="123"/>
     <cellStyle name="Texto de advertencia" xfId="76" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia 2" xfId="124"/>
     <cellStyle name="Texto explicativo" xfId="77" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo 2" xfId="125"/>
     <cellStyle name="Title" xfId="78"/>
     <cellStyle name="Título" xfId="79" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 1" xfId="80"/>
+    <cellStyle name="Título 1 2" xfId="127"/>
     <cellStyle name="Título 2" xfId="81" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 2 2" xfId="128"/>
     <cellStyle name="Título 3" xfId="82" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 3 2" xfId="129"/>
+    <cellStyle name="Título 4" xfId="126"/>
     <cellStyle name="Total" xfId="83" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Total 2" xfId="130"/>
     <cellStyle name="Warning Text" xfId="84"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8454,8 +8606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M189" workbookViewId="0">
-      <selection activeCell="M217" sqref="M217"/>
+    <sheetView topLeftCell="M61" workbookViewId="0">
+      <selection activeCell="Q136" sqref="Q72:Q136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15182,8 +15334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T219"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P203" sqref="P203"/>
+    <sheetView topLeftCell="M190" workbookViewId="0">
+      <selection activeCell="S132" sqref="S132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15208,7 +15360,8 @@
     <col min="18" max="18" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="2"/>
+    <col min="21" max="21" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -17670,1324 +17823,1324 @@
       <c r="T69" s="73"/>
     </row>
     <row r="70" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M70" s="71"/>
-      <c r="N70" s="55">
+      <c r="M70" s="193"/>
+      <c r="N70" s="194">
         <v>49</v>
       </c>
-      <c r="O70" s="90" t="s">
+      <c r="O70" s="50" t="s">
         <v>408</v>
       </c>
-      <c r="P70" s="90"/>
-      <c r="Q70" s="90" t="s">
+      <c r="P70" s="50"/>
+      <c r="Q70" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="R70" s="90" t="s">
+      <c r="R70" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="S70" s="90" t="s">
+      <c r="S70" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="T70" s="69"/>
+      <c r="T70" s="110"/>
     </row>
     <row r="71" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M71" s="44"/>
-      <c r="N71" s="34">
+      <c r="M71" s="74"/>
+      <c r="N71" s="66">
         <v>54</v>
       </c>
-      <c r="O71" s="32" t="s">
+      <c r="O71" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P71" s="32"/>
-      <c r="Q71" s="32" t="s">
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39" t="s">
         <v>345</v>
       </c>
-      <c r="R71" s="32" t="s">
+      <c r="R71" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S71" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T71" s="35"/>
+      <c r="S71" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T71" s="54"/>
     </row>
     <row r="72" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M72" s="44"/>
-      <c r="N72" s="34">
+      <c r="M72" s="74"/>
+      <c r="N72" s="66">
         <v>55</v>
       </c>
-      <c r="O72" s="32" t="s">
+      <c r="O72" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="32" t="s">
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="R72" s="32" t="s">
+      <c r="R72" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="S72" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T72" s="35"/>
+      <c r="S72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T72" s="54"/>
     </row>
     <row r="73" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M73" s="44"/>
-      <c r="N73" s="34">
+      <c r="M73" s="74"/>
+      <c r="N73" s="66">
         <v>54</v>
       </c>
-      <c r="O73" s="32" t="s">
+      <c r="O73" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P73" s="32"/>
-      <c r="Q73" s="32" t="s">
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="R73" s="32" t="s">
+      <c r="R73" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S73" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T73" s="35"/>
+      <c r="S73" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T73" s="54"/>
     </row>
     <row r="74" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M74" s="44"/>
-      <c r="N74" s="34">
+      <c r="M74" s="74"/>
+      <c r="N74" s="66">
         <v>55</v>
       </c>
-      <c r="O74" s="32" t="s">
+      <c r="O74" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P74" s="32"/>
-      <c r="Q74" s="32" t="s">
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="R74" s="32" t="s">
+      <c r="R74" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="S74" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T74" s="35"/>
+      <c r="S74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T74" s="54"/>
     </row>
     <row r="75" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M75" s="44"/>
-      <c r="N75" s="34">
+      <c r="M75" s="74"/>
+      <c r="N75" s="66">
         <v>54</v>
       </c>
-      <c r="O75" s="32" t="s">
+      <c r="O75" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P75" s="32"/>
-      <c r="Q75" s="32" t="s">
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="R75" s="32" t="s">
+      <c r="R75" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S75" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T75" s="35"/>
+      <c r="S75" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T75" s="54"/>
     </row>
     <row r="76" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M76" s="44"/>
+      <c r="M76" s="74"/>
       <c r="N76" s="66">
         <v>22</v>
       </c>
-      <c r="O76" s="32" t="s">
+      <c r="O76" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P76" s="32"/>
-      <c r="Q76" s="32" t="s">
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39" t="s">
         <v>350</v>
       </c>
-      <c r="R76" s="32" t="s">
+      <c r="R76" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="S76" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T76" s="35"/>
+      <c r="S76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T76" s="54"/>
     </row>
     <row r="77" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M77" s="44"/>
-      <c r="N77" s="34">
+      <c r="M77" s="74"/>
+      <c r="N77" s="66">
         <v>54</v>
       </c>
-      <c r="O77" s="32" t="s">
+      <c r="O77" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P77" s="32"/>
-      <c r="Q77" s="32" t="s">
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="R77" s="32" t="s">
+      <c r="R77" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S77" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T77" s="35"/>
+      <c r="S77" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T77" s="54"/>
     </row>
     <row r="78" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M78" s="44"/>
-      <c r="N78" s="34">
+      <c r="M78" s="74"/>
+      <c r="N78" s="66">
         <v>55</v>
       </c>
-      <c r="O78" s="32" t="s">
+      <c r="O78" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P78" s="32"/>
-      <c r="Q78" s="32" t="s">
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="R78" s="32" t="s">
+      <c r="R78" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="S78" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T78" s="35"/>
+      <c r="S78" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T78" s="54"/>
     </row>
     <row r="79" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M79" s="44"/>
-      <c r="N79" s="34">
+      <c r="M79" s="74"/>
+      <c r="N79" s="66">
         <v>54</v>
       </c>
-      <c r="O79" s="32" t="s">
+      <c r="O79" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P79" s="32"/>
-      <c r="Q79" s="32" t="s">
+      <c r="P79" s="39"/>
+      <c r="Q79" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="R79" s="32" t="s">
+      <c r="R79" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S79" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T79" s="35"/>
+      <c r="S79" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T79" s="54"/>
     </row>
     <row r="80" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M80" s="44"/>
-      <c r="N80" s="34">
+      <c r="M80" s="74"/>
+      <c r="N80" s="66">
         <v>55</v>
       </c>
-      <c r="O80" s="32" t="s">
+      <c r="O80" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P80" s="32"/>
-      <c r="Q80" s="32" t="s">
+      <c r="P80" s="39"/>
+      <c r="Q80" s="39" t="s">
         <v>354</v>
       </c>
-      <c r="R80" s="32" t="s">
+      <c r="R80" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="S80" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T80" s="35"/>
+      <c r="S80" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T80" s="54"/>
     </row>
     <row r="81" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M81" s="44"/>
-      <c r="N81" s="34">
+      <c r="M81" s="74"/>
+      <c r="N81" s="66">
         <v>54</v>
       </c>
-      <c r="O81" s="32" t="s">
+      <c r="O81" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P81" s="32"/>
-      <c r="Q81" s="32" t="s">
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="R81" s="32" t="s">
+      <c r="R81" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S81" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T81" s="35"/>
+      <c r="S81" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T81" s="54"/>
     </row>
     <row r="82" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M82" s="44"/>
-      <c r="N82" s="34">
+      <c r="M82" s="74"/>
+      <c r="N82" s="66">
         <v>54</v>
       </c>
-      <c r="O82" s="32" t="s">
+      <c r="O82" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P82" s="32"/>
-      <c r="Q82" s="32" t="s">
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="R82" s="32" t="s">
+      <c r="R82" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S82" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T82" s="35"/>
+      <c r="S82" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T82" s="54"/>
     </row>
     <row r="83" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M83" s="44"/>
-      <c r="N83" s="34">
+      <c r="M83" s="74"/>
+      <c r="N83" s="66">
         <v>55</v>
       </c>
-      <c r="O83" s="32" t="s">
+      <c r="O83" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P83" s="32"/>
-      <c r="Q83" s="32" t="s">
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="R83" s="32" t="s">
+      <c r="R83" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="S83" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T83" s="35"/>
+      <c r="S83" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T83" s="54"/>
     </row>
     <row r="84" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M84" s="44"/>
-      <c r="N84" s="34">
+      <c r="M84" s="74"/>
+      <c r="N84" s="66">
         <v>54</v>
       </c>
-      <c r="O84" s="32" t="s">
+      <c r="O84" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P84" s="32"/>
-      <c r="Q84" s="32" t="s">
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="R84" s="32" t="s">
+      <c r="R84" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S84" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T84" s="35"/>
+      <c r="S84" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T84" s="54"/>
     </row>
     <row r="85" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M85" s="44"/>
-      <c r="N85" s="34">
+      <c r="M85" s="74"/>
+      <c r="N85" s="66">
         <v>55</v>
       </c>
-      <c r="O85" s="32" t="s">
+      <c r="O85" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P85" s="32"/>
-      <c r="Q85" s="32" t="s">
+      <c r="P85" s="39"/>
+      <c r="Q85" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="R85" s="32" t="s">
+      <c r="R85" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="S85" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T85" s="35"/>
+      <c r="S85" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T85" s="54"/>
     </row>
     <row r="86" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M86" s="44"/>
-      <c r="N86" s="34">
+      <c r="M86" s="74"/>
+      <c r="N86" s="66">
         <v>54</v>
       </c>
-      <c r="O86" s="32" t="s">
+      <c r="O86" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P86" s="32"/>
-      <c r="Q86" s="32" t="s">
+      <c r="P86" s="39"/>
+      <c r="Q86" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="R86" s="32" t="s">
+      <c r="R86" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S86" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T86" s="35"/>
+      <c r="S86" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T86" s="54"/>
     </row>
     <row r="87" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M87" s="44"/>
-      <c r="N87" s="34">
+      <c r="M87" s="74"/>
+      <c r="N87" s="66">
         <v>55</v>
       </c>
-      <c r="O87" s="32" t="s">
+      <c r="O87" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P87" s="32"/>
-      <c r="Q87" s="32" t="s">
+      <c r="P87" s="39"/>
+      <c r="Q87" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="R87" s="32" t="s">
+      <c r="R87" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="S87" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T87" s="35"/>
+      <c r="S87" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T87" s="54"/>
     </row>
     <row r="88" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M88" s="44"/>
-      <c r="N88" s="34">
+      <c r="M88" s="74"/>
+      <c r="N88" s="66">
         <v>54</v>
       </c>
-      <c r="O88" s="32" t="s">
+      <c r="O88" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P88" s="32"/>
-      <c r="Q88" s="32" t="s">
+      <c r="P88" s="39"/>
+      <c r="Q88" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="R88" s="32" t="s">
+      <c r="R88" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S88" s="32" t="s">
+      <c r="S88" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="T88" s="35"/>
+      <c r="T88" s="54"/>
     </row>
     <row r="89" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M89" s="44"/>
-      <c r="N89" s="34">
+      <c r="M89" s="74"/>
+      <c r="N89" s="66">
         <v>54</v>
       </c>
-      <c r="O89" s="32" t="s">
+      <c r="O89" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P89" s="32"/>
-      <c r="Q89" s="32" t="s">
+      <c r="P89" s="39"/>
+      <c r="Q89" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="R89" s="32" t="s">
+      <c r="R89" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S89" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T89" s="35"/>
+      <c r="S89" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T89" s="54"/>
     </row>
     <row r="90" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M90" s="44"/>
-      <c r="N90" s="34">
+      <c r="M90" s="74"/>
+      <c r="N90" s="66">
         <v>55</v>
       </c>
-      <c r="O90" s="32" t="s">
+      <c r="O90" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P90" s="32"/>
-      <c r="Q90" s="32" t="s">
+      <c r="P90" s="39"/>
+      <c r="Q90" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="R90" s="32" t="s">
+      <c r="R90" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="S90" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T90" s="35"/>
+      <c r="S90" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T90" s="54"/>
     </row>
     <row r="91" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M91" s="44"/>
-      <c r="N91" s="34">
+      <c r="M91" s="74"/>
+      <c r="N91" s="66">
         <v>54</v>
       </c>
-      <c r="O91" s="32" t="s">
+      <c r="O91" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P91" s="32"/>
-      <c r="Q91" s="32" t="s">
+      <c r="P91" s="39"/>
+      <c r="Q91" s="39" t="s">
         <v>365</v>
       </c>
-      <c r="R91" s="32" t="s">
+      <c r="R91" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S91" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T91" s="35"/>
+      <c r="S91" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T91" s="54"/>
     </row>
     <row r="92" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M92" s="44"/>
-      <c r="N92" s="34">
+      <c r="M92" s="74"/>
+      <c r="N92" s="66">
         <v>55</v>
       </c>
-      <c r="O92" s="32" t="s">
+      <c r="O92" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P92" s="32"/>
-      <c r="Q92" s="32" t="s">
+      <c r="P92" s="39"/>
+      <c r="Q92" s="39" t="s">
         <v>366</v>
       </c>
-      <c r="R92" s="32" t="s">
+      <c r="R92" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="S92" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T92" s="35"/>
+      <c r="S92" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T92" s="54"/>
     </row>
     <row r="93" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M93" s="44"/>
-      <c r="N93" s="34">
+      <c r="M93" s="74"/>
+      <c r="N93" s="66">
         <v>54</v>
       </c>
-      <c r="O93" s="32" t="s">
+      <c r="O93" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P93" s="32"/>
-      <c r="Q93" s="32" t="s">
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39" t="s">
         <v>367</v>
       </c>
-      <c r="R93" s="32" t="s">
+      <c r="R93" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S93" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T93" s="35"/>
+      <c r="S93" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T93" s="54"/>
     </row>
     <row r="94" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M94" s="44"/>
-      <c r="N94" s="34">
+      <c r="M94" s="74"/>
+      <c r="N94" s="66">
         <v>54</v>
       </c>
-      <c r="O94" s="32" t="s">
+      <c r="O94" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P94" s="32"/>
-      <c r="Q94" s="32" t="s">
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="R94" s="32" t="s">
+      <c r="R94" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S94" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T94" s="35"/>
+      <c r="S94" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T94" s="54"/>
     </row>
     <row r="95" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M95" s="44"/>
-      <c r="N95" s="34">
+      <c r="M95" s="74"/>
+      <c r="N95" s="66">
         <v>54</v>
       </c>
-      <c r="O95" s="32" t="s">
+      <c r="O95" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P95" s="32"/>
-      <c r="Q95" s="32" t="s">
+      <c r="P95" s="39"/>
+      <c r="Q95" s="39" t="s">
         <v>369</v>
       </c>
-      <c r="R95" s="32" t="s">
+      <c r="R95" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S95" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T95" s="35"/>
+      <c r="S95" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T95" s="54"/>
     </row>
     <row r="96" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M96" s="44"/>
-      <c r="N96" s="34">
+      <c r="M96" s="74"/>
+      <c r="N96" s="66">
         <v>55</v>
       </c>
-      <c r="O96" s="32" t="s">
+      <c r="O96" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P96" s="32"/>
-      <c r="Q96" s="32" t="s">
+      <c r="P96" s="39"/>
+      <c r="Q96" s="39" t="s">
         <v>370</v>
       </c>
-      <c r="R96" s="32" t="s">
+      <c r="R96" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="S96" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T96" s="35"/>
+      <c r="S96" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T96" s="54"/>
     </row>
     <row r="97" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M97" s="44"/>
-      <c r="N97" s="34">
+      <c r="M97" s="74"/>
+      <c r="N97" s="66">
         <v>54</v>
       </c>
-      <c r="O97" s="32" t="s">
+      <c r="O97" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P97" s="32"/>
-      <c r="Q97" s="32" t="s">
+      <c r="P97" s="39"/>
+      <c r="Q97" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="R97" s="32" t="s">
+      <c r="R97" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S97" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T97" s="35"/>
+      <c r="S97" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T97" s="54"/>
     </row>
     <row r="98" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M98" s="44"/>
-      <c r="N98" s="34">
+      <c r="M98" s="74"/>
+      <c r="N98" s="66">
         <v>55</v>
       </c>
-      <c r="O98" s="32" t="s">
+      <c r="O98" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P98" s="32"/>
-      <c r="Q98" s="32" t="s">
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39" t="s">
         <v>372</v>
       </c>
-      <c r="R98" s="32" t="s">
+      <c r="R98" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="S98" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T98" s="35"/>
+      <c r="S98" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T98" s="54"/>
     </row>
     <row r="99" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M99" s="44"/>
-      <c r="N99" s="34">
+      <c r="M99" s="74"/>
+      <c r="N99" s="66">
         <v>55</v>
       </c>
-      <c r="O99" s="32" t="s">
+      <c r="O99" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P99" s="32"/>
-      <c r="Q99" s="32" t="s">
+      <c r="P99" s="39"/>
+      <c r="Q99" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="R99" s="32" t="s">
+      <c r="R99" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S99" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T99" s="35"/>
+      <c r="S99" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T99" s="54"/>
     </row>
     <row r="100" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M100" s="44"/>
-      <c r="N100" s="34">
+      <c r="M100" s="74"/>
+      <c r="N100" s="66">
         <v>55</v>
       </c>
-      <c r="O100" s="32" t="s">
+      <c r="O100" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P100" s="32"/>
-      <c r="Q100" s="32" t="s">
+      <c r="P100" s="39"/>
+      <c r="Q100" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="R100" s="32" t="s">
+      <c r="R100" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S100" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T100" s="35"/>
+      <c r="S100" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T100" s="54"/>
     </row>
     <row r="101" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M101" s="44"/>
-      <c r="N101" s="34">
+      <c r="M101" s="74"/>
+      <c r="N101" s="66">
         <v>55</v>
       </c>
-      <c r="O101" s="32" t="s">
+      <c r="O101" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P101" s="32"/>
-      <c r="Q101" s="32" t="s">
+      <c r="P101" s="39"/>
+      <c r="Q101" s="39" t="s">
         <v>375</v>
       </c>
-      <c r="R101" s="32" t="s">
+      <c r="R101" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="S101" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T101" s="35"/>
+      <c r="S101" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T101" s="54"/>
     </row>
     <row r="102" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M102" s="44"/>
-      <c r="N102" s="34">
+      <c r="M102" s="74"/>
+      <c r="N102" s="66">
         <v>55</v>
       </c>
-      <c r="O102" s="32" t="s">
+      <c r="O102" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P102" s="32"/>
-      <c r="Q102" s="32" t="s">
+      <c r="P102" s="39"/>
+      <c r="Q102" s="39" t="s">
         <v>376</v>
       </c>
-      <c r="R102" s="32" t="s">
+      <c r="R102" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S102" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T102" s="35"/>
+      <c r="S102" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T102" s="54"/>
     </row>
     <row r="103" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M103" s="44"/>
-      <c r="N103" s="34">
+      <c r="M103" s="74"/>
+      <c r="N103" s="66">
         <v>55</v>
       </c>
-      <c r="O103" s="32" t="s">
+      <c r="O103" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P103" s="32"/>
-      <c r="Q103" s="32" t="s">
+      <c r="P103" s="39"/>
+      <c r="Q103" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="R103" s="32" t="s">
+      <c r="R103" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="S103" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T103" s="35"/>
+      <c r="S103" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T103" s="54"/>
     </row>
     <row r="104" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M104" s="44"/>
-      <c r="N104" s="34">
+      <c r="M104" s="74"/>
+      <c r="N104" s="66">
         <v>55</v>
       </c>
-      <c r="O104" s="32" t="s">
+      <c r="O104" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P104" s="32"/>
-      <c r="Q104" s="32" t="s">
+      <c r="P104" s="39"/>
+      <c r="Q104" s="39" t="s">
         <v>378</v>
       </c>
-      <c r="R104" s="32" t="s">
+      <c r="R104" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="S104" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T104" s="35"/>
+      <c r="S104" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T104" s="54"/>
     </row>
     <row r="105" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M105" s="44"/>
-      <c r="N105" s="34">
+      <c r="M105" s="74"/>
+      <c r="N105" s="66">
         <v>55</v>
       </c>
-      <c r="O105" s="32" t="s">
+      <c r="O105" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P105" s="32"/>
-      <c r="Q105" s="32" t="s">
+      <c r="P105" s="39"/>
+      <c r="Q105" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="R105" s="32" t="s">
+      <c r="R105" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S105" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T105" s="35"/>
+      <c r="S105" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T105" s="54"/>
     </row>
     <row r="106" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M106" s="44"/>
+      <c r="M106" s="74"/>
       <c r="N106" s="66">
         <v>15</v>
       </c>
-      <c r="O106" s="32" t="s">
+      <c r="O106" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P106" s="32"/>
-      <c r="Q106" s="32" t="s">
+      <c r="P106" s="39"/>
+      <c r="Q106" s="39" t="s">
         <v>380</v>
       </c>
-      <c r="R106" s="32" t="s">
+      <c r="R106" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S106" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T106" s="35"/>
+      <c r="S106" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T106" s="54"/>
     </row>
     <row r="107" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M107" s="44"/>
-      <c r="N107" s="34">
+      <c r="M107" s="74"/>
+      <c r="N107" s="66">
         <v>55</v>
       </c>
-      <c r="O107" s="32" t="s">
+      <c r="O107" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P107" s="32"/>
-      <c r="Q107" s="32" t="s">
+      <c r="P107" s="39"/>
+      <c r="Q107" s="39" t="s">
         <v>381</v>
       </c>
-      <c r="R107" s="32" t="s">
+      <c r="R107" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="S107" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T107" s="35"/>
+      <c r="S107" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T107" s="54"/>
     </row>
     <row r="108" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M108" s="44"/>
-      <c r="N108" s="34">
+      <c r="M108" s="74"/>
+      <c r="N108" s="66">
         <v>55</v>
       </c>
-      <c r="O108" s="32" t="s">
+      <c r="O108" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P108" s="32"/>
-      <c r="Q108" s="32" t="s">
+      <c r="P108" s="39"/>
+      <c r="Q108" s="39" t="s">
         <v>382</v>
       </c>
-      <c r="R108" s="32" t="s">
+      <c r="R108" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="S108" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T108" s="35"/>
+      <c r="S108" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T108" s="54"/>
     </row>
     <row r="109" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M109" s="44"/>
-      <c r="N109" s="34">
+      <c r="M109" s="74"/>
+      <c r="N109" s="66">
         <v>55</v>
       </c>
-      <c r="O109" s="32" t="s">
+      <c r="O109" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P109" s="32"/>
-      <c r="Q109" s="32" t="s">
+      <c r="P109" s="39"/>
+      <c r="Q109" s="39" t="s">
         <v>384</v>
       </c>
-      <c r="R109" s="32" t="s">
+      <c r="R109" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="S109" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T109" s="35"/>
+      <c r="S109" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T109" s="54"/>
     </row>
     <row r="110" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M110" s="44"/>
-      <c r="N110" s="34">
+      <c r="M110" s="74"/>
+      <c r="N110" s="66">
         <v>54</v>
       </c>
-      <c r="O110" s="32" t="s">
+      <c r="O110" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P110" s="32"/>
-      <c r="Q110" s="32" t="s">
+      <c r="P110" s="39"/>
+      <c r="Q110" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="R110" s="32" t="s">
+      <c r="R110" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S110" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T110" s="35"/>
+      <c r="S110" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T110" s="54"/>
     </row>
     <row r="111" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M111" s="44"/>
-      <c r="N111" s="34">
+      <c r="M111" s="74"/>
+      <c r="N111" s="66">
         <v>54</v>
       </c>
-      <c r="O111" s="32" t="s">
+      <c r="O111" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P111" s="32"/>
-      <c r="Q111" s="32" t="s">
+      <c r="P111" s="39"/>
+      <c r="Q111" s="39" t="s">
         <v>387</v>
       </c>
-      <c r="R111" s="32" t="s">
+      <c r="R111" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S111" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T111" s="35"/>
+      <c r="S111" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T111" s="54"/>
     </row>
     <row r="112" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M112" s="44"/>
-      <c r="N112" s="34">
+      <c r="M112" s="74"/>
+      <c r="N112" s="66">
         <v>54</v>
       </c>
-      <c r="O112" s="32" t="s">
+      <c r="O112" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P112" s="32"/>
-      <c r="Q112" s="32" t="s">
+      <c r="P112" s="39"/>
+      <c r="Q112" s="39" t="s">
         <v>388</v>
       </c>
-      <c r="R112" s="32" t="s">
+      <c r="R112" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="S112" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T112" s="35"/>
+      <c r="S112" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T112" s="54"/>
     </row>
     <row r="113" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M113" s="44"/>
-      <c r="N113" s="34">
+      <c r="M113" s="74"/>
+      <c r="N113" s="66">
         <v>54</v>
       </c>
-      <c r="O113" s="32" t="s">
+      <c r="O113" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P113" s="32"/>
-      <c r="Q113" s="32" t="s">
+      <c r="P113" s="39"/>
+      <c r="Q113" s="39" t="s">
         <v>389</v>
       </c>
-      <c r="R113" s="32" t="s">
+      <c r="R113" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="S113" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T113" s="35"/>
+      <c r="S113" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T113" s="54"/>
     </row>
     <row r="114" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M114" s="44"/>
-      <c r="N114" s="34">
+      <c r="M114" s="74"/>
+      <c r="N114" s="66">
         <v>19</v>
       </c>
-      <c r="O114" s="32" t="s">
+      <c r="O114" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P114" s="32"/>
-      <c r="Q114" s="32" t="s">
+      <c r="P114" s="39"/>
+      <c r="Q114" s="39" t="s">
         <v>390</v>
       </c>
-      <c r="R114" s="32" t="s">
+      <c r="R114" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="S114" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T114" s="35"/>
+      <c r="S114" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T114" s="54"/>
     </row>
     <row r="115" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M115" s="44"/>
-      <c r="N115" s="34">
+      <c r="M115" s="74"/>
+      <c r="N115" s="66">
         <v>55</v>
       </c>
-      <c r="O115" s="32" t="s">
+      <c r="O115" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P115" s="32"/>
-      <c r="Q115" s="32" t="s">
+      <c r="P115" s="39"/>
+      <c r="Q115" s="39" t="s">
         <v>391</v>
       </c>
-      <c r="R115" s="32" t="s">
+      <c r="R115" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S115" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T115" s="35"/>
+      <c r="S115" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T115" s="54"/>
     </row>
     <row r="116" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M116" s="44"/>
-      <c r="N116" s="34">
+      <c r="M116" s="74"/>
+      <c r="N116" s="66">
         <v>54</v>
       </c>
-      <c r="O116" s="32" t="s">
+      <c r="O116" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P116" s="32"/>
-      <c r="Q116" s="32" t="s">
+      <c r="P116" s="39"/>
+      <c r="Q116" s="39" t="s">
         <v>392</v>
       </c>
-      <c r="R116" s="32" t="s">
+      <c r="R116" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S116" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T116" s="35"/>
+      <c r="S116" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T116" s="54"/>
     </row>
     <row r="117" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M117" s="44"/>
-      <c r="N117" s="34">
+      <c r="M117" s="74"/>
+      <c r="N117" s="66">
         <v>26</v>
       </c>
-      <c r="O117" s="32" t="s">
+      <c r="O117" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P117" s="32"/>
-      <c r="Q117" s="32" t="s">
+      <c r="P117" s="39"/>
+      <c r="Q117" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="R117" s="32" t="s">
+      <c r="R117" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="S117" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T117" s="35"/>
+      <c r="S117" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T117" s="54"/>
     </row>
     <row r="118" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M118" s="44"/>
-      <c r="N118" s="34">
+      <c r="M118" s="74"/>
+      <c r="N118" s="66">
         <v>55</v>
       </c>
-      <c r="O118" s="32" t="s">
+      <c r="O118" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P118" s="32"/>
-      <c r="Q118" s="32" t="s">
+      <c r="P118" s="39"/>
+      <c r="Q118" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="R118" s="32" t="s">
+      <c r="R118" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="S118" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T118" s="35"/>
+      <c r="S118" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T118" s="54"/>
     </row>
     <row r="119" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M119" s="44"/>
-      <c r="N119" s="34">
+      <c r="M119" s="74"/>
+      <c r="N119" s="66">
         <v>55</v>
       </c>
-      <c r="O119" s="32" t="s">
+      <c r="O119" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P119" s="32"/>
-      <c r="Q119" s="32" t="s">
+      <c r="P119" s="39"/>
+      <c r="Q119" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="R119" s="32" t="s">
+      <c r="R119" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S119" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T119" s="35"/>
+      <c r="S119" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T119" s="54"/>
     </row>
     <row r="120" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M120" s="44"/>
-      <c r="N120" s="34">
+      <c r="M120" s="74"/>
+      <c r="N120" s="66">
         <v>55</v>
       </c>
-      <c r="O120" s="32" t="s">
+      <c r="O120" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P120" s="32"/>
-      <c r="Q120" s="32" t="s">
+      <c r="P120" s="39"/>
+      <c r="Q120" s="39" t="s">
         <v>396</v>
       </c>
-      <c r="R120" s="32" t="s">
+      <c r="R120" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S120" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T120" s="35"/>
+      <c r="S120" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T120" s="54"/>
     </row>
     <row r="121" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M121" s="44"/>
-      <c r="N121" s="34">
+      <c r="M121" s="74"/>
+      <c r="N121" s="66">
         <v>55</v>
       </c>
-      <c r="O121" s="32" t="s">
+      <c r="O121" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P121" s="32"/>
-      <c r="Q121" s="32" t="s">
+      <c r="P121" s="39"/>
+      <c r="Q121" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="R121" s="32" t="s">
+      <c r="R121" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S121" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T121" s="35"/>
+      <c r="S121" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T121" s="54"/>
     </row>
     <row r="122" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M122" s="44"/>
-      <c r="N122" s="34">
+      <c r="M122" s="74"/>
+      <c r="N122" s="66">
         <v>16</v>
       </c>
-      <c r="O122" s="32" t="s">
+      <c r="O122" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P122" s="32"/>
-      <c r="Q122" s="32" t="s">
+      <c r="P122" s="39"/>
+      <c r="Q122" s="39" t="s">
         <v>398</v>
       </c>
-      <c r="R122" s="32" t="s">
+      <c r="R122" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S122" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T122" s="35"/>
+      <c r="S122" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T122" s="54"/>
     </row>
     <row r="123" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M123" s="44"/>
-      <c r="N123" s="34">
+      <c r="M123" s="74"/>
+      <c r="N123" s="66">
         <v>55</v>
       </c>
-      <c r="O123" s="32" t="s">
+      <c r="O123" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P123" s="32"/>
-      <c r="Q123" s="32" t="s">
+      <c r="P123" s="39"/>
+      <c r="Q123" s="39" t="s">
         <v>399</v>
       </c>
-      <c r="R123" s="32" t="s">
+      <c r="R123" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S123" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T123" s="35"/>
+      <c r="S123" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T123" s="54"/>
     </row>
     <row r="124" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M124" s="44"/>
-      <c r="N124" s="34">
+      <c r="M124" s="74"/>
+      <c r="N124" s="66">
         <v>55</v>
       </c>
-      <c r="O124" s="32" t="s">
+      <c r="O124" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P124" s="32"/>
-      <c r="Q124" s="32" t="s">
+      <c r="P124" s="39"/>
+      <c r="Q124" s="39" t="s">
         <v>400</v>
       </c>
-      <c r="R124" s="32" t="s">
+      <c r="R124" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="S124" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T124" s="35"/>
+      <c r="S124" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T124" s="54"/>
     </row>
     <row r="125" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M125" s="44"/>
-      <c r="N125" s="34">
+      <c r="M125" s="74"/>
+      <c r="N125" s="66">
         <v>55</v>
       </c>
-      <c r="O125" s="32" t="s">
+      <c r="O125" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P125" s="32"/>
-      <c r="Q125" s="32" t="s">
+      <c r="P125" s="39"/>
+      <c r="Q125" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="R125" s="32" t="s">
+      <c r="R125" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S125" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T125" s="35"/>
+      <c r="S125" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T125" s="54"/>
     </row>
     <row r="126" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M126" s="44"/>
-      <c r="N126" s="34">
+      <c r="M126" s="74"/>
+      <c r="N126" s="66">
         <v>55</v>
       </c>
-      <c r="O126" s="32" t="s">
+      <c r="O126" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P126" s="32"/>
-      <c r="Q126" s="32" t="s">
+      <c r="P126" s="39"/>
+      <c r="Q126" s="39" t="s">
         <v>403</v>
       </c>
-      <c r="R126" s="32" t="s">
+      <c r="R126" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S126" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T126" s="35"/>
+      <c r="S126" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T126" s="54"/>
     </row>
     <row r="127" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M127" s="44"/>
-      <c r="N127" s="34">
+      <c r="M127" s="74"/>
+      <c r="N127" s="66">
         <v>55</v>
       </c>
-      <c r="O127" s="32" t="s">
+      <c r="O127" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P127" s="32"/>
-      <c r="Q127" s="32" t="s">
+      <c r="P127" s="39"/>
+      <c r="Q127" s="39" t="s">
         <v>404</v>
       </c>
-      <c r="R127" s="32" t="s">
+      <c r="R127" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="S127" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T127" s="35"/>
+      <c r="S127" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T127" s="54"/>
     </row>
     <row r="128" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M128" s="44"/>
-      <c r="N128" s="34">
+      <c r="M128" s="74"/>
+      <c r="N128" s="49">
         <v>55</v>
       </c>
-      <c r="O128" s="32" t="s">
+      <c r="O128" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P128" s="32"/>
-      <c r="Q128" s="32" t="s">
+      <c r="P128" s="39"/>
+      <c r="Q128" s="39" t="s">
         <v>716</v>
       </c>
-      <c r="R128" s="32" t="s">
+      <c r="R128" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="S128" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T128" s="35"/>
+      <c r="S128" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T128" s="77"/>
     </row>
     <row r="129" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M129" s="44"/>
-      <c r="N129" s="34">
+      <c r="M129" s="74"/>
+      <c r="N129" s="49">
+        <v>1</v>
+      </c>
+      <c r="O129" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="P129" s="39"/>
+      <c r="Q129" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="R129" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S129" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T129" s="77"/>
+    </row>
+    <row r="130" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M130" s="74"/>
+      <c r="N130" s="49">
+        <v>1</v>
+      </c>
+      <c r="O130" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="P130" s="39"/>
+      <c r="Q130" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="R130" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S130" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T130" s="77"/>
+    </row>
+    <row r="131" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M131" s="74"/>
+      <c r="N131" s="49">
+        <v>12</v>
+      </c>
+      <c r="O131" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="P131" s="39"/>
+      <c r="Q131" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="R131" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="S131" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T131" s="77"/>
+    </row>
+    <row r="132" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M132" s="74"/>
+      <c r="N132" s="49">
         <v>55</v>
       </c>
-      <c r="O129" s="32" t="s">
+      <c r="O132" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P129" s="32"/>
-      <c r="Q129" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="R129" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="S129" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T129" s="35"/>
-    </row>
-    <row r="130" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M130" s="44"/>
-      <c r="N130" s="34">
+      <c r="P132" s="39"/>
+      <c r="Q132" s="189" t="s">
+        <v>717</v>
+      </c>
+      <c r="R132" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="S132" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T132" s="77"/>
+    </row>
+    <row r="133" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M133" s="74"/>
+      <c r="N133" s="49">
         <v>55</v>
       </c>
-      <c r="O130" s="32" t="s">
+      <c r="O133" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P130" s="32"/>
-      <c r="Q130" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="R130" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S130" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T130" s="35"/>
-    </row>
-    <row r="131" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M131" s="44"/>
-      <c r="N131" s="34">
+      <c r="P133" s="39"/>
+      <c r="Q133" s="189" t="s">
+        <v>718</v>
+      </c>
+      <c r="R133" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="S133" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T133" s="77"/>
+    </row>
+    <row r="134" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M134" s="75"/>
+      <c r="N134" s="52">
         <v>55</v>
       </c>
-      <c r="O131" s="32" t="s">
+      <c r="O134" s="53" t="s">
         <v>408</v>
       </c>
-      <c r="P131" s="32"/>
-      <c r="Q131" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="R131" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S131" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T131" s="35"/>
-    </row>
-    <row r="132" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M132" s="44"/>
-      <c r="N132" s="34">
-        <v>1</v>
-      </c>
-      <c r="O132" s="32" t="s">
-        <v>408</v>
-      </c>
-      <c r="P132" s="32"/>
-      <c r="Q132" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="R132" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S132" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T132" s="35"/>
-    </row>
-    <row r="133" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M133" s="44"/>
-      <c r="N133" s="34">
-        <v>1</v>
-      </c>
-      <c r="O133" s="32" t="s">
-        <v>408</v>
-      </c>
-      <c r="P133" s="32"/>
-      <c r="Q133" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="R133" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S133" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T133" s="35"/>
-    </row>
-    <row r="134" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M134" s="45"/>
-      <c r="N134" s="72">
-        <v>12</v>
-      </c>
-      <c r="O134" s="78" t="s">
-        <v>408</v>
-      </c>
-      <c r="P134" s="78"/>
-      <c r="Q134" s="78" t="s">
-        <v>407</v>
-      </c>
-      <c r="R134" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="S134" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="T134" s="73"/>
+      <c r="P134" s="53"/>
+      <c r="Q134" s="188" t="s">
+        <v>719</v>
+      </c>
+      <c r="R134" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="S134" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="T134" s="187"/>
     </row>
     <row r="135" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M135" s="71"/>
-      <c r="N135" s="55">
+      <c r="N135" s="192">
         <v>49</v>
       </c>
-      <c r="O135" s="90" t="s">
+      <c r="O135" s="191" t="s">
         <v>436</v>
       </c>
-      <c r="P135" s="90"/>
-      <c r="Q135" s="90" t="s">
+      <c r="P135" s="191"/>
+      <c r="Q135" s="191" t="s">
         <v>409</v>
       </c>
-      <c r="R135" s="90" t="s">
+      <c r="R135" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="S135" s="90" t="s">
+      <c r="S135" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="T135" s="69"/>
+      <c r="T135" s="190"/>
     </row>
     <row r="136" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M136" s="44"/>
@@ -24063,7 +24216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T47"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="K30" sqref="K30:K31"/>
     </sheetView>
   </sheetViews>

--- a/Cnl/Mapeos_CON_CNL_V1.xlsx
+++ b/Cnl/Mapeos_CON_CNL_V1.xlsx
@@ -1276,7 +1276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4018" uniqueCount="738">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -4885,6 +4885,17 @@
     <xf numFmtId="0" fontId="4" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4951,18 +4962,7 @@
     <xf numFmtId="0" fontId="3" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="132">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -5487,7 +5487,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5497,7 +5497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S96"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="S57" sqref="S57"/>
     </sheetView>
   </sheetViews>
@@ -5540,17 +5540,17 @@
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="167" t="s">
+      <c r="E2" s="174" t="s">
         <v>318</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="176"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="170" t="s">
+      <c r="I2" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="171"/>
-      <c r="K2" s="172"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="179"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -5558,9 +5558,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="182"/>
       <c r="H3" s="10"/>
       <c r="I3" s="62"/>
       <c r="J3" s="25" t="s">
@@ -5574,11 +5574,11 @@
       </c>
       <c r="C4" s="143"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="176" t="s">
+      <c r="E4" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="177"/>
-      <c r="G4" s="178"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="185"/>
       <c r="H4" s="7"/>
       <c r="I4" s="148"/>
       <c r="J4" s="25" t="s">
@@ -5592,11 +5592,11 @@
       </c>
       <c r="C5" s="143"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="176" t="s">
+      <c r="E5" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="177"/>
-      <c r="G5" s="178"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="185"/>
       <c r="H5" s="7"/>
       <c r="I5" s="149"/>
       <c r="J5" s="29" t="s">
@@ -5614,30 +5614,30 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="181" t="s">
+      <c r="J7" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="182"/>
-      <c r="L7" s="183"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="190"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="165" t="s">
+      <c r="N7" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="173"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -8606,8 +8606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T212"/>
   <sheetViews>
-    <sheetView topLeftCell="M61" workbookViewId="0">
-      <selection activeCell="Q136" sqref="Q72:Q136"/>
+    <sheetView topLeftCell="M34" workbookViewId="0">
+      <selection activeCell="T73" sqref="T73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8650,17 +8650,17 @@
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="167" t="s">
+      <c r="E2" s="174" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="176"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="170" t="s">
+      <c r="I2" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="171"/>
-      <c r="K2" s="172"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="179"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -8668,9 +8668,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="182"/>
       <c r="H3" s="10"/>
       <c r="I3" s="139"/>
       <c r="J3" s="101" t="s">
@@ -8684,11 +8684,11 @@
       </c>
       <c r="C4" s="143"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="176" t="s">
+      <c r="E4" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="177"/>
-      <c r="G4" s="178"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="185"/>
       <c r="H4" s="7"/>
       <c r="I4" s="148"/>
       <c r="J4" s="25" t="s">
@@ -8702,11 +8702,11 @@
       </c>
       <c r="C5" s="143"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="176" t="s">
+      <c r="E5" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="177"/>
-      <c r="G5" s="178"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="185"/>
       <c r="H5" s="7"/>
       <c r="I5" s="149"/>
       <c r="J5" s="29" t="s">
@@ -8746,31 +8746,31 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="179" t="s">
+      <c r="B9" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="181" t="s">
+      <c r="J9" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="182"/>
-      <c r="L9" s="183"/>
+      <c r="K9" s="189"/>
+      <c r="L9" s="190"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="184" t="s">
+      <c r="N9" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="185"/>
-      <c r="P9" s="185"/>
-      <c r="Q9" s="185"/>
-      <c r="R9" s="185"/>
-      <c r="S9" s="185"/>
-      <c r="T9" s="186"/>
+      <c r="O9" s="192"/>
+      <c r="P9" s="192"/>
+      <c r="Q9" s="192"/>
+      <c r="R9" s="192"/>
+      <c r="S9" s="192"/>
+      <c r="T9" s="193"/>
     </row>
     <row r="10" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
@@ -12037,7 +12037,9 @@
       <c r="S90" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="T90" s="35"/>
+      <c r="T90" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B91" s="49">
@@ -13776,7 +13778,9 @@
       <c r="S137" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="T137" s="69"/>
+      <c r="T137" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="138" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B138" s="47">
@@ -13813,7 +13817,9 @@
       <c r="S138" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="T138" s="35"/>
+      <c r="T138" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="139" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M139" s="44"/>
@@ -15191,7 +15197,9 @@
       <c r="S206" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="T206" s="69"/>
+      <c r="T206" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="207" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M207" s="44"/>
@@ -15211,7 +15219,9 @@
       <c r="S207" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="T207" s="35"/>
+      <c r="T207" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="208" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M208" s="44"/>
@@ -15291,7 +15301,9 @@
       <c r="S211" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T211" s="35"/>
+      <c r="T211" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="212" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M212" s="45"/>
@@ -15334,8 +15346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T219"/>
   <sheetViews>
-    <sheetView topLeftCell="M190" workbookViewId="0">
-      <selection activeCell="S132" sqref="S132"/>
+    <sheetView topLeftCell="M40" workbookViewId="0">
+      <selection activeCell="T53" sqref="T53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15379,17 +15391,17 @@
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="167" t="s">
+      <c r="E2" s="174" t="s">
         <v>321</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="176"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="170" t="s">
+      <c r="I2" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="171"/>
-      <c r="K2" s="172"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="179"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -15397,9 +15409,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="182"/>
       <c r="H3" s="10"/>
       <c r="I3" s="139"/>
       <c r="J3" s="101" t="s">
@@ -15413,11 +15425,11 @@
       </c>
       <c r="C4" s="143"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="176" t="s">
+      <c r="E4" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="177"/>
-      <c r="G4" s="178"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="185"/>
       <c r="H4" s="7"/>
       <c r="I4" s="148"/>
       <c r="J4" s="25" t="s">
@@ -15431,11 +15443,11 @@
       </c>
       <c r="C5" s="143"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="176" t="s">
+      <c r="E5" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="177"/>
-      <c r="G5" s="178"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="185"/>
       <c r="H5" s="7"/>
       <c r="I5" s="149"/>
       <c r="J5" s="29" t="s">
@@ -15465,31 +15477,31 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="180"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="187"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="181" t="s">
+      <c r="J8" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="182"/>
-      <c r="L8" s="183"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="190"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="165" t="s">
+      <c r="N8" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="166"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="166"/>
-      <c r="S8" s="166"/>
-      <c r="T8" s="166"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="173"/>
+      <c r="Q8" s="173"/>
+      <c r="R8" s="173"/>
+      <c r="S8" s="173"/>
+      <c r="T8" s="173"/>
     </row>
     <row r="9" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
@@ -15563,7 +15575,9 @@
         <v>20</v>
       </c>
       <c r="G10" s="50"/>
-      <c r="H10" s="60"/>
+      <c r="H10" s="60" t="s">
+        <v>47</v>
+      </c>
       <c r="I10" s="44"/>
       <c r="J10" s="79">
         <v>49</v>
@@ -15591,7 +15605,9 @@
       <c r="S10" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="T10" s="42"/>
+      <c r="T10" s="42" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="49">
@@ -15826,7 +15842,9 @@
       <c r="S15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="38"/>
+      <c r="T15" s="77" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="49">
@@ -17432,7 +17450,9 @@
       <c r="S53" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="T53" s="157"/>
+      <c r="T53" s="164" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B54" s="66">
@@ -17823,8 +17843,8 @@
       <c r="T69" s="73"/>
     </row>
     <row r="70" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M70" s="193"/>
-      <c r="N70" s="194">
+      <c r="M70" s="170"/>
+      <c r="N70" s="171">
         <v>49</v>
       </c>
       <c r="O70" s="50" t="s">
@@ -17840,7 +17860,9 @@
       <c r="S70" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="T70" s="110"/>
+      <c r="T70" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="71" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M71" s="74"/>
@@ -17860,7 +17882,9 @@
       <c r="S71" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T71" s="54"/>
+      <c r="T71" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="72" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M72" s="74"/>
@@ -18200,7 +18224,9 @@
       <c r="S88" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="T88" s="54"/>
+      <c r="T88" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="89" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M89" s="74"/>
@@ -19071,7 +19097,7 @@
         <v>408</v>
       </c>
       <c r="P132" s="39"/>
-      <c r="Q132" s="189" t="s">
+      <c r="Q132" s="167" t="s">
         <v>717</v>
       </c>
       <c r="R132" s="39" t="s">
@@ -19091,7 +19117,7 @@
         <v>408</v>
       </c>
       <c r="P133" s="39"/>
-      <c r="Q133" s="189" t="s">
+      <c r="Q133" s="167" t="s">
         <v>718</v>
       </c>
       <c r="R133" s="39" t="s">
@@ -19111,7 +19137,7 @@
         <v>408</v>
       </c>
       <c r="P134" s="53"/>
-      <c r="Q134" s="188" t="s">
+      <c r="Q134" s="166" t="s">
         <v>719</v>
       </c>
       <c r="R134" s="53" t="s">
@@ -19120,27 +19146,29 @@
       <c r="S134" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="T134" s="187"/>
+      <c r="T134" s="165"/>
     </row>
     <row r="135" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M135" s="71"/>
-      <c r="N135" s="192">
+      <c r="N135" s="169">
         <v>49</v>
       </c>
-      <c r="O135" s="191" t="s">
+      <c r="O135" s="168" t="s">
         <v>436</v>
       </c>
-      <c r="P135" s="191"/>
-      <c r="Q135" s="191" t="s">
+      <c r="P135" s="168"/>
+      <c r="Q135" s="168" t="s">
         <v>409</v>
       </c>
-      <c r="R135" s="191" t="s">
+      <c r="R135" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="S135" s="191" t="s">
+      <c r="S135" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="T135" s="190"/>
+      <c r="T135" s="194" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="136" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M136" s="44"/>
@@ -19160,7 +19188,9 @@
       <c r="S136" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="T136" s="35"/>
+      <c r="T136" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="137" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M137" s="44"/>
@@ -19684,7 +19714,9 @@
       <c r="S162" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="T162" s="69"/>
+      <c r="T162" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="163" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M163" s="44"/>
@@ -19704,7 +19736,9 @@
       <c r="S163" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="T163" s="35"/>
+      <c r="T163" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="164" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M164" s="44"/>
@@ -19724,7 +19758,9 @@
       <c r="S164" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="T164" s="35"/>
+      <c r="T164" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="165" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M165" s="44"/>
@@ -20532,7 +20568,9 @@
       <c r="S204" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="T204" s="69"/>
+      <c r="T204" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="205" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M205" s="44"/>
@@ -20552,7 +20590,9 @@
       <c r="S205" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="T205" s="35"/>
+      <c r="T205" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="206" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M206" s="44"/>
@@ -20632,7 +20672,9 @@
       <c r="S209" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T209" s="35"/>
+      <c r="T209" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="210" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M210" s="45"/>
@@ -20672,7 +20714,9 @@
       <c r="S211" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="T211" s="69"/>
+      <c r="T211" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="212" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M212" s="44"/>
@@ -20692,7 +20736,9 @@
       <c r="S212" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="T212" s="35"/>
+      <c r="T212" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="213" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M213" s="44"/>
@@ -20712,7 +20758,9 @@
       <c r="S213" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="T213" s="35"/>
+      <c r="T213" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="214" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M214" s="44"/>
@@ -20855,8 +20903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="L61" workbookViewId="0">
+      <selection activeCell="Q83" sqref="Q83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20898,17 +20946,17 @@
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="167" t="s">
+      <c r="E2" s="174" t="s">
         <v>337</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="176"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="170" t="s">
+      <c r="I2" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="171"/>
-      <c r="K2" s="172"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="179"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -20916,9 +20964,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="182"/>
       <c r="H3" s="10"/>
       <c r="I3" s="62"/>
       <c r="J3" s="25" t="s">
@@ -20932,11 +20980,11 @@
       </c>
       <c r="C4" s="143"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="176" t="s">
+      <c r="E4" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="177"/>
-      <c r="G4" s="178"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="185"/>
       <c r="H4" s="7"/>
       <c r="I4" s="148"/>
       <c r="J4" s="25" t="s">
@@ -20950,11 +20998,11 @@
       </c>
       <c r="C5" s="143"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="176" t="s">
+      <c r="E5" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="177"/>
-      <c r="G5" s="178"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="185"/>
       <c r="H5" s="7"/>
       <c r="I5" s="149"/>
       <c r="J5" s="29" t="s">
@@ -20972,30 +21020,30 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="181" t="s">
+      <c r="J7" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="182"/>
-      <c r="L7" s="183"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="190"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="165" t="s">
+      <c r="N7" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="173"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -21066,7 +21114,9 @@
         <v>20</v>
       </c>
       <c r="G9" s="50"/>
-      <c r="H9" s="109"/>
+      <c r="H9" s="109" t="s">
+        <v>47</v>
+      </c>
       <c r="I9" s="106"/>
       <c r="J9" s="79">
         <v>7</v>
@@ -21093,7 +21143,9 @@
       <c r="R9" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="42"/>
+      <c r="S9" s="42" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10" s="49">
@@ -21323,7 +21375,9 @@
       <c r="R14" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="38"/>
+      <c r="S14" s="77" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="I15" s="44"/>
@@ -22125,7 +22179,9 @@
       <c r="R52" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="S52" s="157"/>
+      <c r="S52" s="164" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="53" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M53" s="74"/>
@@ -22467,7 +22523,9 @@
       <c r="R70" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="S70" s="69"/>
+      <c r="S70" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="71" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M71" s="44"/>
@@ -22486,7 +22544,9 @@
       <c r="R71" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="S71" s="35"/>
+      <c r="S71" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="72" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M72" s="44"/>
@@ -22562,7 +22622,9 @@
       <c r="R75" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="S75" s="35"/>
+      <c r="S75" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="76" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M76" s="45"/>
@@ -22600,7 +22662,9 @@
       <c r="R77" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="S77" s="69"/>
+      <c r="S77" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="78" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M78" s="44"/>
@@ -22619,7 +22683,9 @@
       <c r="R78" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="S78" s="35"/>
+      <c r="S78" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="79" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M79" s="44"/>
@@ -22638,7 +22704,9 @@
       <c r="R79" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="S79" s="35"/>
+      <c r="S79" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="80" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M80" s="44"/>
@@ -22775,8 +22843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R39"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22815,26 +22883,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="174" t="s">
         <v>582</v>
       </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="169"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="176"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="170" t="s">
+      <c r="H2" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="171"/>
-      <c r="J2" s="172"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="179"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="175"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="182"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -22847,11 +22915,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="176" t="s">
+      <c r="D4" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="177"/>
-      <c r="F4" s="178"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="185"/>
       <c r="G4" s="7"/>
       <c r="H4" s="148"/>
       <c r="I4" s="25" t="s">
@@ -22864,11 +22932,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="176" t="s">
+      <c r="D5" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="177"/>
-      <c r="F5" s="178"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="185"/>
       <c r="G5" s="7"/>
       <c r="H5" s="149"/>
       <c r="I5" s="29" t="s">
@@ -22885,29 +22953,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="181" t="s">
+      <c r="I7" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="182"/>
-      <c r="K7" s="183"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="190"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="165" t="s">
+      <c r="M7" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -22972,7 +23040,9 @@
         <v>20</v>
       </c>
       <c r="F9" s="50"/>
-      <c r="G9" s="109"/>
+      <c r="G9" s="109" t="s">
+        <v>47</v>
+      </c>
       <c r="H9" s="45"/>
       <c r="I9" s="116">
         <v>32</v>
@@ -22999,7 +23069,9 @@
       <c r="Q9" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="42"/>
+      <c r="R9" s="42" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="49">
@@ -23098,7 +23170,9 @@
       <c r="Q12" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="R12" s="69"/>
+      <c r="R12" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="49">
@@ -23164,7 +23238,9 @@
       <c r="Q14" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="R14" s="69"/>
+      <c r="R14" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="49">
@@ -23604,8 +23680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23644,26 +23720,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="174" t="s">
         <v>619</v>
       </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="169"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="176"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="170" t="s">
+      <c r="H2" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="171"/>
-      <c r="J2" s="172"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="179"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="175"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="182"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -23676,11 +23752,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="176" t="s">
+      <c r="D4" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="177"/>
-      <c r="F4" s="178"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="185"/>
       <c r="G4" s="7"/>
       <c r="H4" s="148"/>
       <c r="I4" s="25" t="s">
@@ -23693,11 +23769,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="176" t="s">
+      <c r="D5" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="177"/>
-      <c r="F5" s="178"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="185"/>
       <c r="G5" s="7"/>
       <c r="H5" s="149"/>
       <c r="I5" s="29" t="s">
@@ -23714,29 +23790,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="181" t="s">
+      <c r="I7" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="182"/>
-      <c r="K7" s="183"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="190"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="165" t="s">
+      <c r="M7" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -23801,7 +23877,9 @@
         <v>20</v>
       </c>
       <c r="F9" s="50"/>
-      <c r="G9" s="60"/>
+      <c r="G9" s="60" t="s">
+        <v>47</v>
+      </c>
       <c r="H9" s="74"/>
       <c r="I9" s="55">
         <v>9</v>
@@ -23828,7 +23906,9 @@
       <c r="Q9" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="69"/>
+      <c r="R9" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="49">
@@ -24001,7 +24081,9 @@
         <v>22</v>
       </c>
       <c r="F16" s="99"/>
-      <c r="G16" s="100"/>
+      <c r="G16" s="100" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
@@ -24216,8 +24298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30:K31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24260,17 +24342,17 @@
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="167" t="s">
+      <c r="E2" s="174" t="s">
         <v>631</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="176"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="170" t="s">
+      <c r="I2" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="171"/>
-      <c r="K2" s="172"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="179"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -24278,9 +24360,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="182"/>
       <c r="H3" s="10"/>
       <c r="I3" s="62"/>
       <c r="J3" s="25" t="s">
@@ -24294,11 +24376,11 @@
       </c>
       <c r="C4" s="143"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="176" t="s">
+      <c r="E4" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="177"/>
-      <c r="G4" s="178"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="185"/>
       <c r="H4" s="7"/>
       <c r="I4" s="148"/>
       <c r="J4" s="25" t="s">
@@ -24312,11 +24394,11 @@
       </c>
       <c r="C5" s="143"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="176" t="s">
+      <c r="E5" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="177"/>
-      <c r="G5" s="178"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="185"/>
       <c r="H5" s="7"/>
       <c r="I5" s="149"/>
       <c r="J5" s="29" t="s">
@@ -24334,33 +24416,33 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="181" t="s">
+      <c r="J7" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="182"/>
-      <c r="L7" s="183"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="190"/>
       <c r="M7" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="N7" s="165" t="s">
+      <c r="N7" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
-      <c r="T7" s="166"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="173"/>
+      <c r="T7" s="173"/>
     </row>
     <row r="8" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -24462,7 +24544,9 @@
       <c r="S9" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="69"/>
+      <c r="T9" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="49">
@@ -24481,7 +24565,9 @@
         <v>20</v>
       </c>
       <c r="G10" s="39"/>
-      <c r="H10" s="51"/>
+      <c r="H10" s="51" t="s">
+        <v>47</v>
+      </c>
       <c r="I10" s="106"/>
       <c r="J10" s="43">
         <v>21</v>
@@ -24603,7 +24689,9 @@
       <c r="S12" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="157"/>
+      <c r="T12" s="164" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="49">

--- a/Cnl/Mapeos_CON_CNL_V1.xlsx
+++ b/Cnl/Mapeos_CON_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="915" windowWidth="9225" windowHeight="4110" tabRatio="583" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="285" yWindow="915" windowWidth="9225" windowHeight="4110" tabRatio="583" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T65SOLICITUD" sheetId="36" r:id="rId1"/>
@@ -1276,7 +1276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4018" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4012" uniqueCount="733">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -2595,12 +2595,6 @@
     <t>Busqueda Tasa Interes Mora</t>
   </si>
   <si>
-    <t>Busqueda Tipo tasa interes corriente</t>
-  </si>
-  <si>
-    <t>Busqueda Tipo interes mora</t>
-  </si>
-  <si>
     <t>Busqueda Valor interes pagados</t>
   </si>
   <si>
@@ -2610,15 +2604,6 @@
     <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /5. Búsqueda Tasa Interés Mora</t>
   </si>
   <si>
-    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /6. Búsqueda Tipo tasa interés corriente</t>
-  </si>
-  <si>
-    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /7. Búsqueda Tipo interés mora</t>
-  </si>
-  <si>
-    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /8. Búsqueda Valor interés pagados</t>
-  </si>
-  <si>
     <t>ID_PDO_MED</t>
   </si>
   <si>
@@ -2877,15 +2862,6 @@
     <t>Busqueda del correlativo</t>
   </si>
   <si>
-    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /9. Calcular Monto Máximo Utilización</t>
-  </si>
-  <si>
-    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /10. Calcular Castigo Capital crédito castigado</t>
-  </si>
-  <si>
-    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /11. Calcular Numero obligación castigada</t>
-  </si>
-  <si>
     <t>Busqueda Tipo Solicitud</t>
   </si>
   <si>
@@ -2943,15 +2919,6 @@
     <t>Validaciones Generales T70OBLIGACION /13. Búsqueda tipo tasa interés mora</t>
   </si>
   <si>
-    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /12. Búsqueda Calificación Riesgo Crediticio</t>
-  </si>
-  <si>
-    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /13. Búsqueda tipo tasa interés corriente</t>
-  </si>
-  <si>
-    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /14. Búsqueda tipo tasa interés mora</t>
-  </si>
-  <si>
     <t>Validaciones Generales T65SOLICITUD /1. Búsqueda del correlativo</t>
   </si>
   <si>
@@ -3303,12 +3270,6 @@
     <t>Validaciones Generales T99CASTIGO /1. Búsqueda del contrato</t>
   </si>
   <si>
-    <t>Validaciones Generales T99CASTIGO /2. Búsqueda del id de la fuente</t>
-  </si>
-  <si>
-    <t>Validaciones Generales T99CASTIGO /3. Búsqueda Estado Ciclo Vida Castigo</t>
-  </si>
-  <si>
     <t>ID_TIP_REL_CON_SOL</t>
   </si>
   <si>
@@ -3357,18 +3318,6 @@
     <t>Asignar instancia</t>
   </si>
   <si>
-    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /15. Búsqueda de la solicitud</t>
-  </si>
-  <si>
-    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /16. Búsqueda Tipo Relación Contrato Solicitud</t>
-  </si>
-  <si>
-    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /17. Búsqueda de obligación principal</t>
-  </si>
-  <si>
-    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /18. Búsqueda Tipo Relación Entre Contratos</t>
-  </si>
-  <si>
     <t>Validaciones Generales T69OBLIGACIONESNOVA /6. Búsqueda de obligación principal</t>
   </si>
   <si>
@@ -3490,6 +3439,42 @@
   </si>
   <si>
     <t>T36ESTSOLICITUD</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T99CASTIGO /2. Búsqueda Estado Ciclo Vida Castigo</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /6. Búsqueda Valor interés pagados</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /7. Calcular Monto Máximo Utilización</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /8. Calcular Castigo Capital crédito castigado</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /9. Calcular Numero obligación castigada</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /10. Búsqueda Calificación Riesgo Crediticio</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /11. Búsqueda tipo tasa interés corriente</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /12. Búsqueda tipo tasa interés mora</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /13. Búsqueda de la solicitud</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /14. Búsqueda Tipo Relación Contrato Solicitud</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /15. Búsqueda de obligación principal</t>
+  </si>
+  <si>
+    <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /16. Búsqueda Tipo Relación Entre Contratos</t>
   </si>
 </sst>
 </file>
@@ -4896,6 +4881,7 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4962,7 +4948,6 @@
     <xf numFmtId="0" fontId="3" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="132">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -5487,7 +5472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5540,17 +5525,17 @@
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="174" t="s">
+      <c r="E2" s="175" t="s">
         <v>318</v>
       </c>
-      <c r="F2" s="175"/>
-      <c r="G2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="177"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="177" t="s">
+      <c r="I2" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="178"/>
-      <c r="K2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -5558,9 +5543,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="182"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="183"/>
       <c r="H3" s="10"/>
       <c r="I3" s="62"/>
       <c r="J3" s="25" t="s">
@@ -5574,15 +5559,15 @@
       </c>
       <c r="C4" s="143"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="183" t="s">
+      <c r="E4" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="184"/>
-      <c r="G4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="186"/>
       <c r="H4" s="7"/>
       <c r="I4" s="148"/>
       <c r="J4" s="25" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="K4" s="29"/>
     </row>
@@ -5592,15 +5577,15 @@
       </c>
       <c r="C5" s="143"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="183" t="s">
+      <c r="E5" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="184"/>
-      <c r="G5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="186"/>
       <c r="H5" s="7"/>
       <c r="I5" s="149"/>
       <c r="J5" s="29" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="K5" s="29"/>
     </row>
@@ -5614,37 +5599,37 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="186" t="s">
+      <c r="B7" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="188" t="s">
+      <c r="J7" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="189"/>
-      <c r="L7" s="190"/>
+      <c r="K7" s="190"/>
+      <c r="L7" s="191"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="172" t="s">
+      <c r="N7" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="174"/>
+      <c r="S7" s="174"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="144" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>2</v>
@@ -5714,20 +5699,20 @@
         <v>90</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="L9" s="160" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="M9" s="112"/>
       <c r="N9" s="37">
         <v>90</v>
       </c>
       <c r="O9" s="90" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P9" s="90" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="Q9" s="90" t="s">
         <v>16</v>
@@ -5762,20 +5747,20 @@
         <v>91</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="L10" s="126" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="M10" s="112"/>
       <c r="N10" s="81">
         <v>91</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="Q10" s="32" t="s">
         <v>16</v>
@@ -5811,17 +5796,17 @@
         <v>46</v>
       </c>
       <c r="L11" s="126" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="M11" s="112"/>
       <c r="N11" s="81">
         <v>92</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="Q11" s="32" t="s">
         <v>16</v>
@@ -5864,10 +5849,10 @@
         <v>18</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="Q12" s="32" t="s">
         <v>16</v>
@@ -5910,7 +5895,7 @@
         <v>110</v>
       </c>
       <c r="O13" s="156" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P13" s="156" t="s">
         <v>37</v>
@@ -5956,7 +5941,7 @@
         <v>93</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P14" s="32" t="s">
         <v>18</v>
@@ -6002,7 +5987,7 @@
         <v>94</v>
       </c>
       <c r="O15" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P15" s="32" t="s">
         <v>21</v>
@@ -6038,20 +6023,20 @@
         <v>97</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="L16" s="126" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="M16" s="44"/>
       <c r="N16" s="49">
         <v>81</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="Q16" s="32" t="s">
         <v>19</v>
@@ -6084,20 +6069,20 @@
         <v>98</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="L17" s="126" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="M17" s="44"/>
       <c r="N17" s="49">
         <v>35</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="Q17" s="32" t="s">
         <v>16</v>
@@ -6130,20 +6115,20 @@
         <v>99</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="L18" s="126" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="M18" s="44"/>
       <c r="N18" s="49">
         <v>10</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="Q18" s="32" t="s">
         <v>24</v>
@@ -6176,20 +6161,20 @@
         <v>100</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="L19" s="126" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="M19" s="44"/>
       <c r="N19" s="49">
         <v>97</v>
       </c>
       <c r="O19" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="Q19" s="32" t="s">
         <v>16</v>
@@ -6222,23 +6207,23 @@
         <v>101</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="L20" s="126" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="M20" s="44"/>
       <c r="N20" s="49">
         <v>83</v>
       </c>
       <c r="O20" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Q20" s="32" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="R20" s="32" t="s">
         <v>20</v>
@@ -6268,20 +6253,20 @@
         <v>102</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="L21" s="126" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="M21" s="44"/>
       <c r="N21" s="49">
         <v>98</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="Q21" s="32" t="s">
         <v>16</v>
@@ -6314,20 +6299,20 @@
         <v>103</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="L22" s="161" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="M22" s="44"/>
       <c r="N22" s="34">
         <v>99</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="Q22" s="32" t="s">
         <v>16</v>
@@ -6360,20 +6345,20 @@
         <v>104</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="L23" s="161" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="M23" s="44"/>
       <c r="N23" s="49">
         <v>100</v>
       </c>
       <c r="O23" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="Q23" s="32" t="s">
         <v>16</v>
@@ -6406,20 +6391,20 @@
         <v>105</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="L24" s="161" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="M24" s="44"/>
       <c r="N24" s="34">
         <v>101</v>
       </c>
       <c r="O24" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P24" s="32" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Q24" s="32" t="s">
         <v>16</v>
@@ -6452,20 +6437,20 @@
         <v>106</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="L25" s="161" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="M25" s="44"/>
       <c r="N25" s="49">
         <v>102</v>
       </c>
       <c r="O25" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P25" s="32" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="Q25" s="32" t="s">
         <v>16</v>
@@ -6500,20 +6485,20 @@
         <v>107</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="L26" s="161" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="M26" s="44"/>
       <c r="N26" s="34">
         <v>95</v>
       </c>
       <c r="O26" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P26" s="32" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="Q26" s="32" t="s">
         <v>16</v>
@@ -6546,23 +6531,23 @@
         <v>108</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="L27" s="161" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="M27" s="44"/>
       <c r="N27" s="49">
         <v>57</v>
       </c>
       <c r="O27" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P27" s="32" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="Q27" s="32" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="R27" s="32" t="s">
         <v>20</v>
@@ -6592,20 +6577,20 @@
         <v>109</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="L28" s="161" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="M28" s="44"/>
       <c r="N28" s="34">
         <v>54</v>
       </c>
       <c r="O28" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P28" s="32" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="Q28" s="32" t="s">
         <v>385</v>
@@ -6638,20 +6623,20 @@
         <v>110</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="L29" s="126" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="M29" s="44"/>
       <c r="N29" s="49">
         <v>55</v>
       </c>
       <c r="O29" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P29" s="32" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="Q29" s="32" t="s">
         <v>385</v>
@@ -6684,23 +6669,23 @@
         <v>111</v>
       </c>
       <c r="K30" s="105" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="L30" s="162" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="M30" s="44"/>
       <c r="N30" s="34">
         <v>103</v>
       </c>
       <c r="O30" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="Q30" s="32" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="R30" s="32" t="s">
         <v>20</v>
@@ -6721,7 +6706,7 @@
         <v>42</v>
       </c>
       <c r="F31" s="107" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
@@ -6730,10 +6715,10 @@
         <v>48</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="Q31" s="32" t="s">
         <v>49</v>
@@ -6757,7 +6742,7 @@
         <v>42</v>
       </c>
       <c r="F32" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
@@ -6766,10 +6751,10 @@
         <v>96</v>
       </c>
       <c r="O32" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="Q32" s="32" t="s">
         <v>24</v>
@@ -6793,7 +6778,7 @@
         <v>42</v>
       </c>
       <c r="F33" s="107" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
@@ -6802,10 +6787,10 @@
         <v>96</v>
       </c>
       <c r="O33" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="Q33" s="32" t="s">
         <v>24</v>
@@ -6829,7 +6814,7 @@
         <v>42</v>
       </c>
       <c r="F34" s="107" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="G34" s="67"/>
       <c r="H34" s="68"/>
@@ -6838,10 +6823,10 @@
         <v>96</v>
       </c>
       <c r="O34" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P34" s="32" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="Q34" s="32" t="s">
         <v>24</v>
@@ -6865,7 +6850,7 @@
         <v>42</v>
       </c>
       <c r="F35" s="107" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="G35" s="67"/>
       <c r="H35" s="68"/>
@@ -6874,10 +6859,10 @@
         <v>96</v>
       </c>
       <c r="O35" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P35" s="32" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="Q35" s="32" t="s">
         <v>19</v>
@@ -6901,7 +6886,7 @@
         <v>42</v>
       </c>
       <c r="F36" s="107" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="G36" s="67"/>
       <c r="H36" s="68"/>
@@ -6910,7 +6895,7 @@
         <v>111</v>
       </c>
       <c r="O36" s="86" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P36" s="86" t="s">
         <v>25</v>
@@ -6937,7 +6922,7 @@
         <v>42</v>
       </c>
       <c r="F37" s="107" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="G37" s="67"/>
       <c r="H37" s="68"/>
@@ -6946,10 +6931,10 @@
         <v>90</v>
       </c>
       <c r="O37" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P37" s="32" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="Q37" s="32" t="s">
         <v>24</v>
@@ -6973,7 +6958,7 @@
         <v>42</v>
       </c>
       <c r="F38" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G38" s="67"/>
       <c r="H38" s="68"/>
@@ -6982,10 +6967,10 @@
         <v>29</v>
       </c>
       <c r="O38" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P38" s="32" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="Q38" s="32" t="s">
         <v>24</v>
@@ -7009,7 +6994,7 @@
         <v>42</v>
       </c>
       <c r="F39" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G39" s="67"/>
       <c r="H39" s="68"/>
@@ -7018,7 +7003,7 @@
         <v>28</v>
       </c>
       <c r="O39" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P39" s="32" t="s">
         <v>220</v>
@@ -7045,7 +7030,7 @@
         <v>42</v>
       </c>
       <c r="F40" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G40" s="67"/>
       <c r="H40" s="68"/>
@@ -7054,10 +7039,10 @@
         <v>36</v>
       </c>
       <c r="O40" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P40" s="32" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="Q40" s="32" t="s">
         <v>16</v>
@@ -7081,7 +7066,7 @@
         <v>42</v>
       </c>
       <c r="F41" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G41" s="67"/>
       <c r="H41" s="68"/>
@@ -7090,10 +7075,10 @@
         <v>41</v>
       </c>
       <c r="O41" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P41" s="32" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="Q41" s="32" t="s">
         <v>48</v>
@@ -7117,7 +7102,7 @@
         <v>42</v>
       </c>
       <c r="F42" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G42" s="67"/>
       <c r="H42" s="68"/>
@@ -7126,10 +7111,10 @@
         <v>43</v>
       </c>
       <c r="O42" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P42" s="32" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="Q42" s="32" t="s">
         <v>385</v>
@@ -7153,7 +7138,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G43" s="67"/>
       <c r="H43" s="68"/>
@@ -7162,13 +7147,13 @@
         <v>19</v>
       </c>
       <c r="O43" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P43" s="32" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="Q43" s="32" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="R43" s="32" t="s">
         <v>20</v>
@@ -7189,7 +7174,7 @@
         <v>42</v>
       </c>
       <c r="F44" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G44" s="67"/>
       <c r="H44" s="68"/>
@@ -7198,10 +7183,10 @@
         <v>77</v>
       </c>
       <c r="O44" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P44" s="32" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="Q44" s="32" t="s">
         <v>24</v>
@@ -7225,7 +7210,7 @@
         <v>42</v>
       </c>
       <c r="F45" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G45" s="67"/>
       <c r="H45" s="68"/>
@@ -7234,10 +7219,10 @@
         <v>30</v>
       </c>
       <c r="O45" s="78" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P45" s="78" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="Q45" s="78" t="s">
         <v>218</v>
@@ -7261,7 +7246,7 @@
         <v>42</v>
       </c>
       <c r="F46" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G46" s="67"/>
       <c r="H46" s="68"/>
@@ -7270,10 +7255,10 @@
         <v>90</v>
       </c>
       <c r="O46" s="90" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="P46" s="90" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="Q46" s="90" t="s">
         <v>16</v>
@@ -7299,7 +7284,7 @@
         <v>42</v>
       </c>
       <c r="F47" s="107" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G47" s="67"/>
       <c r="H47" s="68"/>
@@ -7308,10 +7293,10 @@
         <v>104</v>
       </c>
       <c r="O47" s="32" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="P47" s="32" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="Q47" s="32" t="s">
         <v>16</v>
@@ -7337,7 +7322,7 @@
         <v>42</v>
       </c>
       <c r="F48" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G48" s="67"/>
       <c r="H48" s="68"/>
@@ -7346,7 +7331,7 @@
         <v>93</v>
       </c>
       <c r="O48" s="32" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="P48" s="32" t="s">
         <v>18</v>
@@ -7373,7 +7358,7 @@
         <v>42</v>
       </c>
       <c r="F49" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G49" s="67"/>
       <c r="H49" s="68"/>
@@ -7382,7 +7367,7 @@
         <v>94</v>
       </c>
       <c r="O49" s="32" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="P49" s="32" t="s">
         <v>21</v>
@@ -7409,7 +7394,7 @@
         <v>42</v>
       </c>
       <c r="F50" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G50" s="67"/>
       <c r="H50" s="68"/>
@@ -7418,7 +7403,7 @@
         <v>110</v>
       </c>
       <c r="O50" s="156" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="P50" s="156" t="s">
         <v>37</v>
@@ -7445,7 +7430,7 @@
         <v>42</v>
       </c>
       <c r="F51" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G51" s="67"/>
       <c r="H51" s="68"/>
@@ -7454,10 +7439,10 @@
         <v>105</v>
       </c>
       <c r="O51" s="32" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="P51" s="32" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="Q51" s="32" t="s">
         <v>16</v>
@@ -7483,7 +7468,7 @@
         <v>42</v>
       </c>
       <c r="F52" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G52" s="67"/>
       <c r="H52" s="68"/>
@@ -7492,7 +7477,7 @@
         <v>111</v>
       </c>
       <c r="O52" s="133" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="P52" s="133" t="s">
         <v>25</v>
@@ -7519,7 +7504,7 @@
         <v>42</v>
       </c>
       <c r="F53" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G53" s="67"/>
       <c r="H53" s="68"/>
@@ -7528,10 +7513,10 @@
         <v>90</v>
       </c>
       <c r="O53" s="90" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="P53" s="90" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="Q53" s="90" t="s">
         <v>16</v>
@@ -7555,7 +7540,7 @@
         <v>42</v>
       </c>
       <c r="F54" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G54" s="67"/>
       <c r="H54" s="68"/>
@@ -7564,10 +7549,10 @@
         <v>106</v>
       </c>
       <c r="O54" s="32" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="P54" s="32" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="Q54" s="32" t="s">
         <v>16</v>
@@ -7591,7 +7576,7 @@
         <v>42</v>
       </c>
       <c r="F55" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G55" s="67"/>
       <c r="H55" s="68"/>
@@ -7600,7 +7585,7 @@
         <v>93</v>
       </c>
       <c r="O55" s="32" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="P55" s="32" t="s">
         <v>18</v>
@@ -7627,7 +7612,7 @@
         <v>42</v>
       </c>
       <c r="F56" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G56" s="67"/>
       <c r="H56" s="68"/>
@@ -7636,7 +7621,7 @@
         <v>94</v>
       </c>
       <c r="O56" s="32" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="P56" s="32" t="s">
         <v>21</v>
@@ -7663,7 +7648,7 @@
         <v>42</v>
       </c>
       <c r="F57" s="107" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G57" s="67"/>
       <c r="H57" s="68"/>
@@ -7672,7 +7657,7 @@
         <v>110</v>
       </c>
       <c r="O57" s="156" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="P57" s="156" t="s">
         <v>37</v>
@@ -7699,7 +7684,7 @@
         <v>42</v>
       </c>
       <c r="F58" s="107" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G58" s="67"/>
       <c r="H58" s="68"/>
@@ -7708,10 +7693,10 @@
         <v>107</v>
       </c>
       <c r="O58" s="32" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="P58" s="32" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="Q58" s="32" t="s">
         <v>16</v>
@@ -7735,7 +7720,7 @@
         <v>42</v>
       </c>
       <c r="F59" s="107" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G59" s="67"/>
       <c r="H59" s="68"/>
@@ -7744,7 +7729,7 @@
         <v>111</v>
       </c>
       <c r="O59" s="133" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="P59" s="133" t="s">
         <v>25</v>
@@ -7771,7 +7756,7 @@
         <v>42</v>
       </c>
       <c r="F60" s="107" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="G60" s="67"/>
       <c r="H60" s="68"/>
@@ -7780,10 +7765,10 @@
         <v>90</v>
       </c>
       <c r="O60" s="90" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="P60" s="90" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="Q60" s="90" t="s">
         <v>16</v>
@@ -7809,7 +7794,7 @@
         <v>42</v>
       </c>
       <c r="F61" s="107" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G61" s="67"/>
       <c r="H61" s="68"/>
@@ -7818,10 +7803,10 @@
         <v>108</v>
       </c>
       <c r="O61" s="32" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="P61" s="32" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="Q61" s="32" t="s">
         <v>16</v>
@@ -7847,7 +7832,7 @@
         <v>42</v>
       </c>
       <c r="F62" s="107" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="G62" s="67"/>
       <c r="H62" s="68"/>
@@ -7856,7 +7841,7 @@
         <v>93</v>
       </c>
       <c r="O62" s="32" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="P62" s="32" t="s">
         <v>18</v>
@@ -7883,7 +7868,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="107" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="G63" s="67"/>
       <c r="H63" s="68"/>
@@ -7892,7 +7877,7 @@
         <v>94</v>
       </c>
       <c r="O63" s="32" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="P63" s="32" t="s">
         <v>21</v>
@@ -7919,7 +7904,7 @@
         <v>42</v>
       </c>
       <c r="F64" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G64" s="67"/>
       <c r="H64" s="68"/>
@@ -7928,7 +7913,7 @@
         <v>110</v>
       </c>
       <c r="O64" s="156" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="P64" s="156" t="s">
         <v>37</v>
@@ -7955,7 +7940,7 @@
         <v>42</v>
       </c>
       <c r="F65" s="107" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="G65" s="67"/>
       <c r="H65" s="68"/>
@@ -7964,10 +7949,10 @@
         <v>109</v>
       </c>
       <c r="O65" s="32" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="P65" s="32" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="Q65" s="32" t="s">
         <v>16</v>
@@ -7993,7 +7978,7 @@
         <v>42</v>
       </c>
       <c r="F66" s="107" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="G66" s="67"/>
       <c r="H66" s="68"/>
@@ -8002,7 +7987,7 @@
         <v>111</v>
       </c>
       <c r="O66" s="129" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="P66" s="129" t="s">
         <v>25</v>
@@ -8029,7 +8014,7 @@
         <v>42</v>
       </c>
       <c r="F67" s="107" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G67" s="67"/>
       <c r="H67" s="68"/>
@@ -8048,7 +8033,7 @@
         <v>42</v>
       </c>
       <c r="F68" s="107" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="G68" s="67"/>
       <c r="H68" s="68"/>
@@ -8067,7 +8052,7 @@
         <v>42</v>
       </c>
       <c r="F69" s="107" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="G69" s="67"/>
       <c r="H69" s="68"/>
@@ -8086,7 +8071,7 @@
         <v>42</v>
       </c>
       <c r="F70" s="107" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="G70" s="67"/>
       <c r="H70" s="68"/>
@@ -8105,7 +8090,7 @@
         <v>42</v>
       </c>
       <c r="F71" s="107" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="G71" s="67"/>
       <c r="H71" s="68"/>
@@ -8124,7 +8109,7 @@
         <v>42</v>
       </c>
       <c r="F72" s="107" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G72" s="67"/>
       <c r="H72" s="68"/>
@@ -8143,7 +8128,7 @@
         <v>42</v>
       </c>
       <c r="F73" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G73" s="67"/>
       <c r="H73" s="68"/>
@@ -8162,7 +8147,7 @@
         <v>42</v>
       </c>
       <c r="F74" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G74" s="67"/>
       <c r="H74" s="68"/>
@@ -8181,7 +8166,7 @@
         <v>42</v>
       </c>
       <c r="F75" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G75" s="67"/>
       <c r="H75" s="68"/>
@@ -8200,7 +8185,7 @@
         <v>42</v>
       </c>
       <c r="F76" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G76" s="67"/>
       <c r="H76" s="68"/>
@@ -8219,7 +8204,7 @@
         <v>42</v>
       </c>
       <c r="F77" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G77" s="67"/>
       <c r="H77" s="68"/>
@@ -8238,7 +8223,7 @@
         <v>42</v>
       </c>
       <c r="F78" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G78" s="67"/>
       <c r="H78" s="68"/>
@@ -8257,7 +8242,7 @@
         <v>42</v>
       </c>
       <c r="F79" s="107" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="G79" s="67"/>
       <c r="H79" s="68"/>
@@ -8276,7 +8261,7 @@
         <v>42</v>
       </c>
       <c r="F80" s="107" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="G80" s="67"/>
       <c r="H80" s="68"/>
@@ -8295,7 +8280,7 @@
         <v>42</v>
       </c>
       <c r="F81" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G81" s="67"/>
       <c r="H81" s="68"/>
@@ -8314,7 +8299,7 @@
         <v>42</v>
       </c>
       <c r="F82" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G82" s="67"/>
       <c r="H82" s="68"/>
@@ -8333,7 +8318,7 @@
         <v>42</v>
       </c>
       <c r="F83" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G83" s="67"/>
       <c r="H83" s="68"/>
@@ -8352,7 +8337,7 @@
         <v>42</v>
       </c>
       <c r="F84" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G84" s="67"/>
       <c r="H84" s="68"/>
@@ -8371,7 +8356,7 @@
         <v>42</v>
       </c>
       <c r="F85" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G85" s="67"/>
       <c r="H85" s="68"/>
@@ -8390,7 +8375,7 @@
         <v>42</v>
       </c>
       <c r="F86" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G86" s="67"/>
       <c r="H86" s="68"/>
@@ -8409,7 +8394,7 @@
         <v>42</v>
       </c>
       <c r="F87" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G87" s="67"/>
       <c r="H87" s="68"/>
@@ -8428,7 +8413,7 @@
         <v>42</v>
       </c>
       <c r="F88" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G88" s="67"/>
       <c r="H88" s="68"/>
@@ -8571,10 +8556,10 @@
         <v>88</v>
       </c>
       <c r="C96" s="153" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="D96" s="153" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="E96" s="153" t="s">
         <v>42</v>
@@ -8606,7 +8591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T212"/>
   <sheetViews>
-    <sheetView topLeftCell="M34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="T73" sqref="T73"/>
     </sheetView>
   </sheetViews>
@@ -8650,17 +8635,17 @@
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="174" t="s">
+      <c r="E2" s="175" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="175"/>
-      <c r="G2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="177"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="177" t="s">
+      <c r="I2" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="178"/>
-      <c r="K2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -8668,9 +8653,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="182"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="183"/>
       <c r="H3" s="10"/>
       <c r="I3" s="139"/>
       <c r="J3" s="101" t="s">
@@ -8684,15 +8669,15 @@
       </c>
       <c r="C4" s="143"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="183" t="s">
+      <c r="E4" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="184"/>
-      <c r="G4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="186"/>
       <c r="H4" s="7"/>
       <c r="I4" s="148"/>
       <c r="J4" s="25" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="K4" s="29"/>
     </row>
@@ -8702,15 +8687,15 @@
       </c>
       <c r="C5" s="143"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="183" t="s">
+      <c r="E5" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="184"/>
-      <c r="G5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="186"/>
       <c r="H5" s="7"/>
       <c r="I5" s="149"/>
       <c r="J5" s="29" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="K5" s="29"/>
     </row>
@@ -8746,38 +8731,38 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="186" t="s">
+      <c r="B9" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="187"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="188"/>
+      <c r="H9" s="188"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="188" t="s">
+      <c r="J9" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="189"/>
-      <c r="L9" s="190"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="191"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="191" t="s">
+      <c r="N9" s="192" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="192"/>
-      <c r="P9" s="192"/>
-      <c r="Q9" s="192"/>
-      <c r="R9" s="192"/>
-      <c r="S9" s="192"/>
-      <c r="T9" s="193"/>
+      <c r="O9" s="193"/>
+      <c r="P9" s="193"/>
+      <c r="Q9" s="193"/>
+      <c r="R9" s="193"/>
+      <c r="S9" s="193"/>
+      <c r="T9" s="194"/>
     </row>
     <row r="10" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="144" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>2</v>
@@ -8812,7 +8797,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="92" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="Q10" s="92" t="s">
         <v>1</v>
@@ -9054,7 +9039,7 @@
       </c>
       <c r="P15" s="32"/>
       <c r="Q15" s="32" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="R15" s="32" t="s">
         <v>45</v>
@@ -9277,10 +9262,10 @@
         <v>135</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L20" s="54" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="M20" s="82"/>
       <c r="N20" s="49">
@@ -9324,10 +9309,10 @@
         <v>136</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="L21" s="54" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M21" s="82"/>
       <c r="N21" s="49">
@@ -9373,10 +9358,10 @@
         <v>137</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="L22" s="54" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M22" s="82"/>
       <c r="N22" s="49">
@@ -9420,10 +9405,10 @@
         <v>138</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L23" s="54" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="M23" s="82"/>
       <c r="N23" s="49">
@@ -9467,10 +9452,10 @@
         <v>139</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="L24" s="54" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="M24" s="82"/>
       <c r="N24" s="34">
@@ -9514,10 +9499,10 @@
         <v>140</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="M25" s="82"/>
       <c r="N25" s="49">
@@ -9561,10 +9546,10 @@
         <v>141</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="L26" s="35" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="M26" s="82"/>
       <c r="N26" s="34">
@@ -9608,10 +9593,10 @@
         <v>142</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="M27" s="82"/>
       <c r="N27" s="49">
@@ -9655,10 +9640,10 @@
         <v>143</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="L28" s="35" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="M28" s="82"/>
       <c r="N28" s="34">
@@ -9702,10 +9687,10 @@
         <v>144</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="M29" s="82"/>
       <c r="N29" s="49">
@@ -9749,10 +9734,10 @@
         <v>145</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="M30" s="82"/>
       <c r="N30" s="34">
@@ -9796,10 +9781,10 @@
         <v>146</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="L31" s="35" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="M31" s="82"/>
       <c r="N31" s="49">
@@ -9843,10 +9828,10 @@
         <v>147</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="M32" s="82"/>
       <c r="N32" s="34">
@@ -9881,7 +9866,7 @@
         <v>42</v>
       </c>
       <c r="F33" s="108" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G33" s="67"/>
       <c r="H33" s="76"/>
@@ -9890,10 +9875,10 @@
         <v>148</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="L33" s="35" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="M33" s="82"/>
       <c r="N33" s="49">
@@ -9928,7 +9913,7 @@
         <v>42</v>
       </c>
       <c r="F34" s="107" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G34" s="67"/>
       <c r="H34" s="76"/>
@@ -9937,10 +9922,10 @@
         <v>149</v>
       </c>
       <c r="K34" s="105" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="L34" s="61" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="M34" s="82"/>
       <c r="N34" s="34">
@@ -9975,7 +9960,7 @@
         <v>42</v>
       </c>
       <c r="F35" s="107" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G35" s="67"/>
       <c r="H35" s="68"/>
@@ -10012,7 +9997,7 @@
         <v>42</v>
       </c>
       <c r="F36" s="107" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G36" s="67"/>
       <c r="H36" s="68"/>
@@ -10049,7 +10034,7 @@
         <v>42</v>
       </c>
       <c r="F37" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G37" s="67"/>
       <c r="H37" s="68"/>
@@ -10086,7 +10071,7 @@
         <v>42</v>
       </c>
       <c r="F38" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G38" s="67"/>
       <c r="H38" s="68"/>
@@ -10123,7 +10108,7 @@
         <v>42</v>
       </c>
       <c r="F39" s="107" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="G39" s="67"/>
       <c r="H39" s="68"/>
@@ -10160,7 +10145,7 @@
         <v>42</v>
       </c>
       <c r="F40" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G40" s="67"/>
       <c r="H40" s="68"/>
@@ -10197,7 +10182,7 @@
         <v>42</v>
       </c>
       <c r="F41" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G41" s="67"/>
       <c r="H41" s="68"/>
@@ -10234,7 +10219,7 @@
         <v>42</v>
       </c>
       <c r="F42" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G42" s="67"/>
       <c r="H42" s="68"/>
@@ -10271,7 +10256,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G43" s="67"/>
       <c r="H43" s="68"/>
@@ -10308,7 +10293,7 @@
         <v>42</v>
       </c>
       <c r="F44" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G44" s="67"/>
       <c r="H44" s="68"/>
@@ -10345,7 +10330,7 @@
         <v>42</v>
       </c>
       <c r="F45" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G45" s="67"/>
       <c r="H45" s="68"/>
@@ -10382,7 +10367,7 @@
         <v>42</v>
       </c>
       <c r="F46" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G46" s="67"/>
       <c r="H46" s="68"/>
@@ -10419,7 +10404,7 @@
         <v>42</v>
       </c>
       <c r="F47" s="107" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="G47" s="67"/>
       <c r="H47" s="68"/>
@@ -10456,7 +10441,7 @@
         <v>42</v>
       </c>
       <c r="F48" s="107" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G48" s="67"/>
       <c r="H48" s="68"/>
@@ -10493,7 +10478,7 @@
         <v>42</v>
       </c>
       <c r="F49" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G49" s="67"/>
       <c r="H49" s="68"/>
@@ -10530,7 +10515,7 @@
         <v>42</v>
       </c>
       <c r="F50" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G50" s="67"/>
       <c r="H50" s="68"/>
@@ -10567,7 +10552,7 @@
         <v>42</v>
       </c>
       <c r="F51" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G51" s="67"/>
       <c r="H51" s="68"/>
@@ -10604,7 +10589,7 @@
         <v>42</v>
       </c>
       <c r="F52" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G52" s="67"/>
       <c r="H52" s="68"/>
@@ -10641,7 +10626,7 @@
         <v>42</v>
       </c>
       <c r="F53" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G53" s="67"/>
       <c r="H53" s="68"/>
@@ -10678,7 +10663,7 @@
         <v>42</v>
       </c>
       <c r="F54" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G54" s="67"/>
       <c r="H54" s="68"/>
@@ -10717,7 +10702,7 @@
         <v>42</v>
       </c>
       <c r="F55" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G55" s="67"/>
       <c r="H55" s="68"/>
@@ -10754,7 +10739,7 @@
         <v>42</v>
       </c>
       <c r="F56" s="107" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="G56" s="67"/>
       <c r="H56" s="68"/>
@@ -10791,7 +10776,7 @@
         <v>42</v>
       </c>
       <c r="F57" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G57" s="67"/>
       <c r="H57" s="68"/>
@@ -10828,7 +10813,7 @@
         <v>42</v>
       </c>
       <c r="F58" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G58" s="67"/>
       <c r="H58" s="68"/>
@@ -10865,7 +10850,7 @@
         <v>42</v>
       </c>
       <c r="F59" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G59" s="67"/>
       <c r="H59" s="68"/>
@@ -10902,7 +10887,7 @@
         <v>42</v>
       </c>
       <c r="F60" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G60" s="67"/>
       <c r="H60" s="68"/>
@@ -10939,7 +10924,7 @@
         <v>42</v>
       </c>
       <c r="F61" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G61" s="67"/>
       <c r="H61" s="68"/>
@@ -10976,7 +10961,7 @@
         <v>42</v>
       </c>
       <c r="F62" s="107" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="G62" s="67"/>
       <c r="H62" s="68"/>
@@ -11013,7 +10998,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="107" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="G63" s="67"/>
       <c r="H63" s="68"/>
@@ -11050,7 +11035,7 @@
         <v>42</v>
       </c>
       <c r="F64" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G64" s="67"/>
       <c r="H64" s="68"/>
@@ -11087,7 +11072,7 @@
         <v>42</v>
       </c>
       <c r="F65" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G65" s="67"/>
       <c r="H65" s="68"/>
@@ -11124,7 +11109,7 @@
         <v>42</v>
       </c>
       <c r="F66" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G66" s="67"/>
       <c r="H66" s="68"/>
@@ -11161,7 +11146,7 @@
         <v>42</v>
       </c>
       <c r="F67" s="107" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="G67" s="67"/>
       <c r="H67" s="68"/>
@@ -11198,7 +11183,7 @@
         <v>42</v>
       </c>
       <c r="F68" s="107" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="G68" s="67"/>
       <c r="H68" s="68"/>
@@ -11235,7 +11220,7 @@
         <v>42</v>
       </c>
       <c r="F69" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G69" s="67"/>
       <c r="H69" s="68"/>
@@ -11272,7 +11257,7 @@
         <v>42</v>
       </c>
       <c r="F70" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G70" s="67"/>
       <c r="H70" s="68"/>
@@ -11309,7 +11294,7 @@
         <v>42</v>
       </c>
       <c r="F71" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G71" s="67"/>
       <c r="H71" s="68"/>
@@ -11346,7 +11331,7 @@
         <v>42</v>
       </c>
       <c r="F72" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G72" s="67"/>
       <c r="H72" s="68"/>
@@ -11385,7 +11370,7 @@
         <v>42</v>
       </c>
       <c r="F73" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G73" s="67"/>
       <c r="H73" s="68"/>
@@ -11424,7 +11409,7 @@
         <v>42</v>
       </c>
       <c r="F74" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G74" s="67"/>
       <c r="H74" s="68"/>
@@ -11461,7 +11446,7 @@
         <v>42</v>
       </c>
       <c r="F75" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G75" s="67"/>
       <c r="H75" s="68"/>
@@ -11498,7 +11483,7 @@
         <v>42</v>
       </c>
       <c r="F76" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G76" s="67"/>
       <c r="H76" s="68"/>
@@ -11535,7 +11520,7 @@
         <v>42</v>
       </c>
       <c r="F77" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G77" s="67"/>
       <c r="H77" s="68"/>
@@ -11572,7 +11557,7 @@
         <v>42</v>
       </c>
       <c r="F78" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G78" s="67"/>
       <c r="H78" s="68"/>
@@ -11609,7 +11594,7 @@
         <v>42</v>
       </c>
       <c r="F79" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G79" s="67"/>
       <c r="H79" s="68"/>
@@ -11646,7 +11631,7 @@
         <v>42</v>
       </c>
       <c r="F80" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G80" s="67"/>
       <c r="H80" s="68"/>
@@ -11683,7 +11668,7 @@
         <v>42</v>
       </c>
       <c r="F81" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G81" s="67"/>
       <c r="H81" s="68"/>
@@ -11720,7 +11705,7 @@
         <v>42</v>
       </c>
       <c r="F82" s="107" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G82" s="67"/>
       <c r="H82" s="68"/>
@@ -11757,7 +11742,7 @@
         <v>42</v>
       </c>
       <c r="F83" s="107" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G83" s="67"/>
       <c r="H83" s="68"/>
@@ -11794,7 +11779,7 @@
         <v>42</v>
       </c>
       <c r="F84" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G84" s="67"/>
       <c r="H84" s="68"/>
@@ -11831,7 +11816,7 @@
         <v>42</v>
       </c>
       <c r="F85" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G85" s="67"/>
       <c r="H85" s="68"/>
@@ -11868,7 +11853,7 @@
         <v>42</v>
       </c>
       <c r="F86" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G86" s="67"/>
       <c r="H86" s="68"/>
@@ -11905,7 +11890,7 @@
         <v>42</v>
       </c>
       <c r="F87" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G87" s="67"/>
       <c r="H87" s="68"/>
@@ -11942,7 +11927,7 @@
         <v>42</v>
       </c>
       <c r="F88" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G88" s="67"/>
       <c r="H88" s="68"/>
@@ -11979,7 +11964,7 @@
         <v>42</v>
       </c>
       <c r="F89" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G89" s="67"/>
       <c r="H89" s="68"/>
@@ -12016,7 +12001,7 @@
         <v>42</v>
       </c>
       <c r="F90" s="107" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="G90" s="67"/>
       <c r="H90" s="68"/>
@@ -12055,7 +12040,7 @@
         <v>42</v>
       </c>
       <c r="F91" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G91" s="67"/>
       <c r="H91" s="68"/>
@@ -12092,7 +12077,7 @@
         <v>42</v>
       </c>
       <c r="F92" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G92" s="67"/>
       <c r="H92" s="68"/>
@@ -12129,7 +12114,7 @@
         <v>42</v>
       </c>
       <c r="F93" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G93" s="67"/>
       <c r="H93" s="68"/>
@@ -12166,7 +12151,7 @@
         <v>42</v>
       </c>
       <c r="F94" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G94" s="67"/>
       <c r="H94" s="68"/>
@@ -12203,7 +12188,7 @@
         <v>42</v>
       </c>
       <c r="F95" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G95" s="67"/>
       <c r="H95" s="68"/>
@@ -12240,7 +12225,7 @@
         <v>42</v>
       </c>
       <c r="F96" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G96" s="67"/>
       <c r="H96" s="68"/>
@@ -12277,7 +12262,7 @@
         <v>42</v>
       </c>
       <c r="F97" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G97" s="67"/>
       <c r="H97" s="68"/>
@@ -12314,7 +12299,7 @@
         <v>42</v>
       </c>
       <c r="F98" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G98" s="67"/>
       <c r="H98" s="68"/>
@@ -12351,7 +12336,7 @@
         <v>42</v>
       </c>
       <c r="F99" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G99" s="67"/>
       <c r="H99" s="68"/>
@@ -12388,7 +12373,7 @@
         <v>42</v>
       </c>
       <c r="F100" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G100" s="67"/>
       <c r="H100" s="68"/>
@@ -12425,7 +12410,7 @@
         <v>42</v>
       </c>
       <c r="F101" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G101" s="67"/>
       <c r="H101" s="68"/>
@@ -12462,7 +12447,7 @@
         <v>42</v>
       </c>
       <c r="F102" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G102" s="67"/>
       <c r="H102" s="68"/>
@@ -12499,7 +12484,7 @@
         <v>42</v>
       </c>
       <c r="F103" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G103" s="67"/>
       <c r="H103" s="68"/>
@@ -12536,7 +12521,7 @@
         <v>42</v>
       </c>
       <c r="F104" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G104" s="67"/>
       <c r="H104" s="68"/>
@@ -12573,7 +12558,7 @@
         <v>42</v>
       </c>
       <c r="F105" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G105" s="67"/>
       <c r="H105" s="68"/>
@@ -12610,7 +12595,7 @@
         <v>42</v>
       </c>
       <c r="F106" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G106" s="67"/>
       <c r="H106" s="68"/>
@@ -12647,7 +12632,7 @@
         <v>42</v>
       </c>
       <c r="F107" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G107" s="67"/>
       <c r="H107" s="68"/>
@@ -12684,7 +12669,7 @@
         <v>42</v>
       </c>
       <c r="F108" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G108" s="67"/>
       <c r="H108" s="68"/>
@@ -13548,7 +13533,7 @@
       </c>
       <c r="P131" s="32"/>
       <c r="Q131" s="32" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="R131" s="32" t="s">
         <v>218</v>
@@ -13563,16 +13548,16 @@
         <v>122</v>
       </c>
       <c r="C132" s="41" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="D132" s="103" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="E132" s="39" t="s">
         <v>42</v>
       </c>
       <c r="F132" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G132" s="67"/>
       <c r="H132" s="68"/>
@@ -13585,7 +13570,7 @@
       </c>
       <c r="P132" s="32"/>
       <c r="Q132" s="141" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="R132" s="32" t="s">
         <v>19</v>
@@ -13600,16 +13585,16 @@
         <v>123</v>
       </c>
       <c r="C133" s="41" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="D133" s="103" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="E133" s="39" t="s">
         <v>42</v>
       </c>
       <c r="F133" s="107" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G133" s="67"/>
       <c r="H133" s="68"/>
@@ -13622,7 +13607,7 @@
       </c>
       <c r="P133" s="32"/>
       <c r="Q133" s="141" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="R133" s="32" t="s">
         <v>401</v>
@@ -13637,16 +13622,16 @@
         <v>128</v>
       </c>
       <c r="C134" s="41" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="D134" s="103" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="E134" s="39" t="s">
         <v>42</v>
       </c>
       <c r="F134" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G134" s="67"/>
       <c r="H134" s="68"/>
@@ -13659,7 +13644,7 @@
       </c>
       <c r="P134" s="32"/>
       <c r="Q134" s="141" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="R134" s="32" t="s">
         <v>401</v>
@@ -13674,10 +13659,10 @@
         <v>129</v>
       </c>
       <c r="C135" s="41" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="D135" s="103" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="E135" s="39" t="s">
         <v>19</v>
@@ -13711,16 +13696,16 @@
         <v>124</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="D136" s="102" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="E136" s="25" t="s">
         <v>42</v>
       </c>
       <c r="F136" s="145" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G136" s="67"/>
       <c r="H136" s="68"/>
@@ -13748,16 +13733,16 @@
         <v>125</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="D137" s="102" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="E137" s="25" t="s">
         <v>42</v>
       </c>
       <c r="F137" s="145" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G137" s="67"/>
       <c r="H137" s="68"/>
@@ -13787,16 +13772,16 @@
         <v>126</v>
       </c>
       <c r="C138" s="46" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="D138" s="104" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="E138" s="46" t="s">
         <v>42</v>
       </c>
       <c r="F138" s="146" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G138" s="113"/>
       <c r="H138" s="114"/>
@@ -14290,7 +14275,7 @@
         <v>436</v>
       </c>
       <c r="P162" s="84" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="Q162" s="84" t="s">
         <v>434</v>
@@ -14312,7 +14297,7 @@
         <v>436</v>
       </c>
       <c r="P163" s="97" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="Q163" s="97" t="s">
         <v>435</v>
@@ -14331,7 +14316,7 @@
         <v>150</v>
       </c>
       <c r="O164" s="90" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P164" s="90"/>
       <c r="Q164" s="90" t="s">
@@ -14353,11 +14338,11 @@
         <v>130</v>
       </c>
       <c r="O165" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P165" s="32"/>
       <c r="Q165" s="32" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="R165" s="32" t="s">
         <v>24</v>
@@ -14375,11 +14360,11 @@
         <v>135</v>
       </c>
       <c r="O166" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P166" s="32"/>
       <c r="Q166" s="32" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="R166" s="32" t="s">
         <v>24</v>
@@ -14397,7 +14382,7 @@
         <v>151</v>
       </c>
       <c r="O167" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P167" s="32"/>
       <c r="Q167" s="32" t="s">
@@ -14417,7 +14402,7 @@
         <v>152</v>
       </c>
       <c r="O168" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P168" s="32"/>
       <c r="Q168" s="32" t="s">
@@ -14437,7 +14422,7 @@
         <v>153</v>
       </c>
       <c r="O169" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P169" s="32"/>
       <c r="Q169" s="32" t="s">
@@ -14457,11 +14442,11 @@
         <v>130</v>
       </c>
       <c r="O170" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P170" s="32"/>
       <c r="Q170" s="32" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="R170" s="32" t="s">
         <v>24</v>
@@ -14477,11 +14462,11 @@
         <v>130</v>
       </c>
       <c r="O171" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P171" s="32"/>
       <c r="Q171" s="32" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="R171" s="32" t="s">
         <v>24</v>
@@ -14497,14 +14482,14 @@
         <v>131</v>
       </c>
       <c r="O172" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P172" s="32"/>
       <c r="Q172" s="32" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="R172" s="32" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="S172" s="32" t="s">
         <v>20</v>
@@ -14517,14 +14502,14 @@
         <v>131</v>
       </c>
       <c r="O173" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P173" s="32"/>
       <c r="Q173" s="32" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="R173" s="32" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="S173" s="32" t="s">
         <v>20</v>
@@ -14537,11 +14522,11 @@
         <v>131</v>
       </c>
       <c r="O174" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P174" s="32"/>
       <c r="Q174" s="32" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="R174" s="32" t="s">
         <v>24</v>
@@ -14557,11 +14542,11 @@
         <v>131</v>
       </c>
       <c r="O175" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P175" s="32"/>
       <c r="Q175" s="32" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="R175" s="32" t="s">
         <v>218</v>
@@ -14577,11 +14562,11 @@
         <v>131</v>
       </c>
       <c r="O176" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P176" s="32"/>
       <c r="Q176" s="32" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="R176" s="32" t="s">
         <v>218</v>
@@ -14597,11 +14582,11 @@
         <v>131</v>
       </c>
       <c r="O177" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P177" s="32"/>
       <c r="Q177" s="32" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="R177" s="32" t="s">
         <v>218</v>
@@ -14617,11 +14602,11 @@
         <v>123</v>
       </c>
       <c r="O178" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P178" s="32"/>
       <c r="Q178" s="32" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="R178" s="32" t="s">
         <v>218</v>
@@ -14637,11 +14622,11 @@
         <v>131</v>
       </c>
       <c r="O179" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P179" s="32"/>
       <c r="Q179" s="32" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="R179" s="32" t="s">
         <v>24</v>
@@ -14657,11 +14642,11 @@
         <v>131</v>
       </c>
       <c r="O180" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P180" s="32"/>
       <c r="Q180" s="32" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="R180" s="32" t="s">
         <v>24</v>
@@ -14677,11 +14662,11 @@
         <v>131</v>
       </c>
       <c r="O181" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P181" s="32"/>
       <c r="Q181" s="32" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R181" s="32" t="s">
         <v>218</v>
@@ -14697,11 +14682,11 @@
         <v>131</v>
       </c>
       <c r="O182" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P182" s="32"/>
       <c r="Q182" s="32" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="R182" s="32" t="s">
         <v>218</v>
@@ -14717,11 +14702,11 @@
         <v>136</v>
       </c>
       <c r="O183" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P183" s="32"/>
       <c r="Q183" s="32" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="R183" s="32" t="s">
         <v>218</v>
@@ -14737,11 +14722,11 @@
         <v>131</v>
       </c>
       <c r="O184" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P184" s="32"/>
       <c r="Q184" s="32" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="R184" s="32" t="s">
         <v>218</v>
@@ -14757,11 +14742,11 @@
         <v>131</v>
       </c>
       <c r="O185" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P185" s="32"/>
       <c r="Q185" s="32" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="R185" s="32" t="s">
         <v>218</v>
@@ -14777,11 +14762,11 @@
         <v>131</v>
       </c>
       <c r="O186" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P186" s="32"/>
       <c r="Q186" s="32" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="R186" s="32" t="s">
         <v>16</v>
@@ -14797,11 +14782,11 @@
         <v>131</v>
       </c>
       <c r="O187" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P187" s="32"/>
       <c r="Q187" s="32" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="R187" s="32" t="s">
         <v>218</v>
@@ -14817,11 +14802,11 @@
         <v>13</v>
       </c>
       <c r="O188" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P188" s="32"/>
       <c r="Q188" s="32" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="R188" s="32" t="s">
         <v>218</v>
@@ -14837,11 +14822,11 @@
         <v>79</v>
       </c>
       <c r="O189" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P189" s="32"/>
       <c r="Q189" s="32" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="R189" s="32" t="s">
         <v>218</v>
@@ -14857,11 +14842,11 @@
         <v>81</v>
       </c>
       <c r="O190" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P190" s="32"/>
       <c r="Q190" s="32" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="R190" s="32" t="s">
         <v>218</v>
@@ -14877,11 +14862,11 @@
         <v>128</v>
       </c>
       <c r="O191" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P191" s="32"/>
       <c r="Q191" s="32" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="R191" s="32" t="s">
         <v>218</v>
@@ -14897,11 +14882,11 @@
         <v>90</v>
       </c>
       <c r="O192" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P192" s="32"/>
       <c r="Q192" s="32" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="R192" s="32" t="s">
         <v>218</v>
@@ -14917,11 +14902,11 @@
         <v>50</v>
       </c>
       <c r="O193" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P193" s="32"/>
       <c r="Q193" s="32" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="R193" s="32" t="s">
         <v>218</v>
@@ -14937,13 +14922,13 @@
         <v>134</v>
       </c>
       <c r="O194" s="84" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P194" s="84" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="Q194" s="84" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="R194" s="84" t="s">
         <v>218</v>
@@ -14959,13 +14944,13 @@
         <v>134</v>
       </c>
       <c r="O195" s="84" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P195" s="84" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="Q195" s="84" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="R195" s="84" t="s">
         <v>24</v>
@@ -14981,13 +14966,13 @@
         <v>134</v>
       </c>
       <c r="O196" s="84" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P196" s="84" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="Q196" s="84" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="R196" s="84" t="s">
         <v>24</v>
@@ -15003,11 +14988,11 @@
         <v>137</v>
       </c>
       <c r="O197" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P197" s="32"/>
       <c r="Q197" s="32" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="R197" s="32" t="s">
         <v>218</v>
@@ -15023,11 +15008,11 @@
         <v>147</v>
       </c>
       <c r="O198" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P198" s="32"/>
       <c r="Q198" s="32" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="R198" s="32" t="s">
         <v>218</v>
@@ -15043,11 +15028,11 @@
         <v>74</v>
       </c>
       <c r="O199" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P199" s="32"/>
       <c r="Q199" s="32" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="R199" s="32" t="s">
         <v>218</v>
@@ -15063,11 +15048,11 @@
         <v>138</v>
       </c>
       <c r="O200" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P200" s="32"/>
       <c r="Q200" s="32" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="R200" s="32" t="s">
         <v>24</v>
@@ -15083,11 +15068,11 @@
         <v>139</v>
       </c>
       <c r="O201" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P201" s="32"/>
       <c r="Q201" s="32" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="R201" s="32" t="s">
         <v>218</v>
@@ -15103,11 +15088,11 @@
         <v>89</v>
       </c>
       <c r="O202" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P202" s="32"/>
       <c r="Q202" s="32" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="R202" s="32" t="s">
         <v>218</v>
@@ -15123,13 +15108,13 @@
         <v>134</v>
       </c>
       <c r="O203" s="84" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P203" s="84" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="Q203" s="84" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="R203" s="84" t="s">
         <v>218</v>
@@ -15145,11 +15130,11 @@
         <v>105</v>
       </c>
       <c r="O204" s="32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P204" s="32"/>
       <c r="Q204" s="32" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="R204" s="32" t="s">
         <v>19</v>
@@ -15165,11 +15150,11 @@
         <v>126</v>
       </c>
       <c r="O205" s="78" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P205" s="78"/>
       <c r="Q205" s="78" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="R205" s="78" t="s">
         <v>218</v>
@@ -15185,7 +15170,7 @@
         <v>150</v>
       </c>
       <c r="O206" s="90" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P206" s="90"/>
       <c r="Q206" s="90" t="s">
@@ -15207,14 +15192,14 @@
         <v>145</v>
       </c>
       <c r="O207" s="32" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P207" s="32"/>
       <c r="Q207" s="32" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="R207" s="32" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="S207" s="32" t="s">
         <v>17</v>
@@ -15229,7 +15214,7 @@
         <v>151</v>
       </c>
       <c r="O208" s="32" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P208" s="32"/>
       <c r="Q208" s="32" t="s">
@@ -15249,7 +15234,7 @@
         <v>152</v>
       </c>
       <c r="O209" s="32" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P209" s="32"/>
       <c r="Q209" s="32" t="s">
@@ -15269,7 +15254,7 @@
         <v>148</v>
       </c>
       <c r="O210" s="156" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P210" s="156"/>
       <c r="Q210" s="156" t="s">
@@ -15289,11 +15274,11 @@
         <v>146</v>
       </c>
       <c r="O211" s="32" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P211" s="32"/>
       <c r="Q211" s="32" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="R211" s="32" t="s">
         <v>16</v>
@@ -15311,7 +15296,7 @@
         <v>149</v>
       </c>
       <c r="O212" s="129" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P212" s="129"/>
       <c r="Q212" s="129" t="s">
@@ -15346,8 +15331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T219"/>
   <sheetViews>
-    <sheetView topLeftCell="M40" workbookViewId="0">
-      <selection activeCell="T53" sqref="T53"/>
+    <sheetView topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15391,17 +15376,17 @@
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="174" t="s">
+      <c r="E2" s="175" t="s">
         <v>321</v>
       </c>
-      <c r="F2" s="175"/>
-      <c r="G2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="177"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="177" t="s">
+      <c r="I2" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="178"/>
-      <c r="K2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -15409,9 +15394,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="182"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="183"/>
       <c r="H3" s="10"/>
       <c r="I3" s="139"/>
       <c r="J3" s="101" t="s">
@@ -15425,15 +15410,15 @@
       </c>
       <c r="C4" s="143"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="183" t="s">
+      <c r="E4" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="184"/>
-      <c r="G4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="186"/>
       <c r="H4" s="7"/>
       <c r="I4" s="148"/>
       <c r="J4" s="25" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="K4" s="29"/>
     </row>
@@ -15443,15 +15428,15 @@
       </c>
       <c r="C5" s="143"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="183" t="s">
+      <c r="E5" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="184"/>
-      <c r="G5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="186"/>
       <c r="H5" s="7"/>
       <c r="I5" s="149"/>
       <c r="J5" s="29" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="K5" s="29"/>
     </row>
@@ -15477,38 +15462,38 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="187"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="188" t="s">
+      <c r="J8" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="189"/>
-      <c r="L8" s="190"/>
+      <c r="K8" s="190"/>
+      <c r="L8" s="191"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="172" t="s">
+      <c r="N8" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="173"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="173"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="174"/>
+      <c r="Q8" s="174"/>
+      <c r="R8" s="174"/>
+      <c r="S8" s="174"/>
+      <c r="T8" s="174"/>
     </row>
     <row r="9" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="144" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>2</v>
@@ -15543,7 +15528,7 @@
         <v>13</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="Q9" s="20" t="s">
         <v>1</v>
@@ -15575,20 +15560,20 @@
         <v>20</v>
       </c>
       <c r="G10" s="50"/>
-      <c r="H10" s="60" t="s">
+      <c r="H10" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="44"/>
+      <c r="I10" s="106"/>
       <c r="J10" s="79">
         <v>49</v>
       </c>
       <c r="K10" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="L10" s="56" t="s">
+      <c r="L10" s="160" t="s">
         <v>334</v>
       </c>
-      <c r="M10" s="88"/>
+      <c r="M10" s="112"/>
       <c r="N10" s="37">
         <v>49</v>
       </c>
@@ -15626,18 +15611,18 @@
         <v>20</v>
       </c>
       <c r="G11" s="39"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="44"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="106"/>
       <c r="J11" s="43">
         <v>50</v>
       </c>
       <c r="K11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="35" t="s">
+      <c r="L11" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="88"/>
+      <c r="M11" s="112"/>
       <c r="N11" s="81">
         <v>50</v>
       </c>
@@ -15673,18 +15658,18 @@
         <v>2</v>
       </c>
       <c r="G12" s="58"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="44"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="106"/>
       <c r="J12" s="43">
         <v>51</v>
       </c>
       <c r="K12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="35" t="s">
+      <c r="L12" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="88"/>
+      <c r="M12" s="112"/>
       <c r="N12" s="81">
         <v>51</v>
       </c>
@@ -15720,18 +15705,18 @@
         <v>2</v>
       </c>
       <c r="G13" s="58"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="44"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="106"/>
       <c r="J13" s="43">
         <v>52</v>
       </c>
       <c r="K13" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="54" t="s">
+      <c r="L13" s="161" t="s">
         <v>335</v>
       </c>
-      <c r="M13" s="88"/>
+      <c r="M13" s="112"/>
       <c r="N13" s="24">
         <v>52</v>
       </c>
@@ -15764,21 +15749,21 @@
         <v>42</v>
       </c>
       <c r="F14" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G14" s="67"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="44"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="106"/>
       <c r="J14" s="43">
         <v>53</v>
       </c>
       <c r="K14" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="L14" s="54" t="s">
+      <c r="L14" s="161" t="s">
         <v>336</v>
       </c>
-      <c r="M14" s="82"/>
+      <c r="M14" s="44"/>
       <c r="N14" s="24">
         <v>1</v>
       </c>
@@ -15787,7 +15772,7 @@
       </c>
       <c r="P14" s="32"/>
       <c r="Q14" s="32" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="R14" s="32" t="s">
         <v>45</v>
@@ -15811,21 +15796,21 @@
         <v>42</v>
       </c>
       <c r="F15" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G15" s="67"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="44"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="106"/>
       <c r="J15" s="43">
         <v>54</v>
       </c>
       <c r="K15" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="54" t="s">
+      <c r="L15" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="82"/>
+      <c r="M15" s="44"/>
       <c r="N15" s="24">
         <v>53</v>
       </c>
@@ -15860,21 +15845,21 @@
         <v>42</v>
       </c>
       <c r="F16" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G16" s="67"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="44"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="106"/>
       <c r="J16" s="43">
         <v>55</v>
       </c>
       <c r="K16" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="54" t="s">
+      <c r="L16" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="82"/>
+      <c r="M16" s="44"/>
       <c r="N16" s="49">
         <v>54</v>
       </c>
@@ -15907,21 +15892,21 @@
         <v>42</v>
       </c>
       <c r="F17" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G17" s="67"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="44"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="106"/>
       <c r="J17" s="43">
         <v>56</v>
       </c>
       <c r="K17" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="L17" s="54" t="s">
-        <v>442</v>
-      </c>
-      <c r="M17" s="82"/>
+      <c r="L17" s="161" t="s">
+        <v>440</v>
+      </c>
+      <c r="M17" s="44"/>
       <c r="N17" s="49">
         <v>54</v>
       </c>
@@ -15954,21 +15939,21 @@
         <v>42</v>
       </c>
       <c r="F18" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G18" s="67"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="44"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="106"/>
       <c r="J18" s="43">
         <v>57</v>
       </c>
       <c r="K18" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="L18" s="54" t="s">
-        <v>443</v>
-      </c>
-      <c r="M18" s="82"/>
+      <c r="L18" s="161" t="s">
+        <v>441</v>
+      </c>
+      <c r="M18" s="44"/>
       <c r="N18" s="49">
         <v>54</v>
       </c>
@@ -16001,21 +15986,21 @@
         <v>42</v>
       </c>
       <c r="F19" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G19" s="67"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="44"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="106"/>
       <c r="J19" s="43">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K19" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="L19" s="54" t="s">
-        <v>444</v>
-      </c>
-      <c r="M19" s="82"/>
+      <c r="L19" s="161" t="s">
+        <v>722</v>
+      </c>
+      <c r="M19" s="44"/>
       <c r="N19" s="49">
         <v>54</v>
       </c>
@@ -16048,21 +16033,21 @@
         <v>42</v>
       </c>
       <c r="F20" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G20" s="67"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="44"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="106"/>
       <c r="J20" s="43">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="L20" s="54" t="s">
-        <v>445</v>
-      </c>
-      <c r="M20" s="82"/>
+        <v>224</v>
+      </c>
+      <c r="L20" s="126" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="44"/>
       <c r="N20" s="49">
         <v>54</v>
       </c>
@@ -16095,21 +16080,21 @@
         <v>42</v>
       </c>
       <c r="F21" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G21" s="67"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="44"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="106"/>
       <c r="J21" s="43">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="L21" s="54" t="s">
-        <v>446</v>
-      </c>
-      <c r="M21" s="82"/>
+        <v>483</v>
+      </c>
+      <c r="L21" s="161" t="s">
+        <v>484</v>
+      </c>
+      <c r="M21" s="44"/>
       <c r="N21" s="49">
         <v>54</v>
       </c>
@@ -16142,21 +16127,21 @@
         <v>42</v>
       </c>
       <c r="F22" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G22" s="67"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="44"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="106"/>
       <c r="J22" s="43">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="82"/>
+        <v>493</v>
+      </c>
+      <c r="L22" s="161" t="s">
+        <v>723</v>
+      </c>
+      <c r="M22" s="44"/>
       <c r="N22" s="49">
         <v>54</v>
       </c>
@@ -16189,21 +16174,21 @@
         <v>42</v>
       </c>
       <c r="F23" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G23" s="67"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="44"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="106"/>
       <c r="J23" s="43">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="L23" s="54" t="s">
-        <v>489</v>
-      </c>
-      <c r="M23" s="82"/>
+        <v>494</v>
+      </c>
+      <c r="L23" s="161" t="s">
+        <v>724</v>
+      </c>
+      <c r="M23" s="44"/>
       <c r="N23" s="34">
         <v>55</v>
       </c>
@@ -16236,21 +16221,21 @@
         <v>42</v>
       </c>
       <c r="F24" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G24" s="67"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="44"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="106"/>
       <c r="J24" s="43">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="L24" s="54" t="s">
-        <v>533</v>
-      </c>
-      <c r="M24" s="82"/>
+        <v>487</v>
+      </c>
+      <c r="L24" s="161" t="s">
+        <v>725</v>
+      </c>
+      <c r="M24" s="44"/>
       <c r="N24" s="49">
         <v>54</v>
       </c>
@@ -16283,21 +16268,21 @@
         <v>42</v>
       </c>
       <c r="F25" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G25" s="67"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="44"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="106"/>
       <c r="J25" s="43">
-        <v>64</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="L25" s="54" t="s">
-        <v>534</v>
-      </c>
-      <c r="M25" s="82"/>
+        <v>66</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="L25" s="161" t="s">
+        <v>726</v>
+      </c>
+      <c r="M25" s="44"/>
       <c r="N25" s="34">
         <v>55</v>
       </c>
@@ -16330,21 +16315,21 @@
         <v>42</v>
       </c>
       <c r="F26" s="107" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G26" s="67"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="44"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="106"/>
       <c r="J26" s="43">
-        <v>65</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>492</v>
-      </c>
-      <c r="L26" s="54" t="s">
-        <v>535</v>
-      </c>
-      <c r="M26" s="82"/>
+        <v>67</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="L26" s="161" t="s">
+        <v>727</v>
+      </c>
+      <c r="M26" s="44"/>
       <c r="N26" s="49">
         <v>54</v>
       </c>
@@ -16377,21 +16362,21 @@
         <v>42</v>
       </c>
       <c r="F27" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G27" s="67"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="44"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="106"/>
       <c r="J27" s="43">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>539</v>
-      </c>
-      <c r="L27" s="35" t="s">
-        <v>555</v>
-      </c>
-      <c r="M27" s="82"/>
+        <v>535</v>
+      </c>
+      <c r="L27" s="161" t="s">
+        <v>728</v>
+      </c>
+      <c r="M27" s="44"/>
       <c r="N27" s="34">
         <v>55</v>
       </c>
@@ -16424,21 +16409,21 @@
         <v>42</v>
       </c>
       <c r="F28" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G28" s="67"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="44"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="106"/>
       <c r="J28" s="43">
-        <v>67</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>542</v>
-      </c>
-      <c r="L28" s="35" t="s">
-        <v>556</v>
-      </c>
-      <c r="M28" s="82"/>
+        <v>69</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>665</v>
+      </c>
+      <c r="L28" s="161" t="s">
+        <v>729</v>
+      </c>
+      <c r="M28" s="44"/>
       <c r="N28" s="49">
         <v>54</v>
       </c>
@@ -16471,21 +16456,21 @@
         <v>42</v>
       </c>
       <c r="F29" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G29" s="67"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="44"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="106"/>
       <c r="J29" s="43">
-        <v>68</v>
-      </c>
-      <c r="K29" s="29" t="s">
-        <v>543</v>
-      </c>
-      <c r="L29" s="54" t="s">
-        <v>557</v>
-      </c>
-      <c r="M29" s="82"/>
+        <v>70</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>666</v>
+      </c>
+      <c r="L29" s="161" t="s">
+        <v>730</v>
+      </c>
+      <c r="M29" s="44"/>
       <c r="N29" s="34">
         <v>55</v>
       </c>
@@ -16521,18 +16506,18 @@
         <v>7</v>
       </c>
       <c r="G30" s="67"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="44"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="106"/>
       <c r="J30" s="43">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>678</v>
-      </c>
-      <c r="L30" s="54" t="s">
-        <v>693</v>
-      </c>
-      <c r="M30" s="82"/>
+        <v>676</v>
+      </c>
+      <c r="L30" s="161" t="s">
+        <v>731</v>
+      </c>
+      <c r="M30" s="44"/>
       <c r="N30" s="49">
         <v>54</v>
       </c>
@@ -16568,18 +16553,18 @@
         <v>7</v>
       </c>
       <c r="G31" s="67"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="44"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="106"/>
       <c r="J31" s="43">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>679</v>
-      </c>
-      <c r="L31" s="54" t="s">
-        <v>694</v>
-      </c>
-      <c r="M31" s="82"/>
+        <v>677</v>
+      </c>
+      <c r="L31" s="161" t="s">
+        <v>732</v>
+      </c>
+      <c r="M31" s="44"/>
       <c r="N31" s="34">
         <v>55</v>
       </c>
@@ -16615,18 +16600,18 @@
         <v>7</v>
       </c>
       <c r="G32" s="67"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="44"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="106"/>
       <c r="J32" s="43">
-        <v>71</v>
-      </c>
-      <c r="K32" s="25" t="s">
-        <v>689</v>
-      </c>
-      <c r="L32" s="54" t="s">
-        <v>695</v>
-      </c>
-      <c r="M32" s="82"/>
+        <v>73</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>713</v>
+      </c>
+      <c r="L32" s="126" t="s">
+        <v>714</v>
+      </c>
+      <c r="M32" s="44"/>
       <c r="N32" s="49">
         <v>54</v>
       </c>
@@ -16645,7 +16630,7 @@
       </c>
       <c r="T32" s="77"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="66">
         <v>24</v>
       </c>
@@ -16662,18 +16647,18 @@
         <v>3</v>
       </c>
       <c r="G33" s="67"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="43">
-        <v>72</v>
-      </c>
-      <c r="K33" s="25" t="s">
-        <v>690</v>
-      </c>
-      <c r="L33" s="54" t="s">
-        <v>696</v>
-      </c>
-      <c r="M33" s="82"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="80">
+        <v>74</v>
+      </c>
+      <c r="K33" s="105" t="s">
+        <v>715</v>
+      </c>
+      <c r="L33" s="162" t="s">
+        <v>716</v>
+      </c>
+      <c r="M33" s="44"/>
       <c r="N33" s="34">
         <v>55</v>
       </c>
@@ -16706,21 +16691,11 @@
         <v>42</v>
       </c>
       <c r="F34" s="107" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G34" s="67"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="43">
-        <v>73</v>
-      </c>
-      <c r="K34" s="29" t="s">
-        <v>730</v>
-      </c>
-      <c r="L34" s="35" t="s">
-        <v>731</v>
-      </c>
-      <c r="M34" s="82"/>
+      <c r="H34" s="68"/>
+      <c r="M34" s="44"/>
       <c r="N34" s="49">
         <v>54</v>
       </c>
@@ -16739,7 +16714,7 @@
       </c>
       <c r="T34" s="38"/>
     </row>
-    <row r="35" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" s="66">
         <v>26</v>
       </c>
@@ -16753,21 +16728,11 @@
         <v>42</v>
       </c>
       <c r="F35" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G35" s="67"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="80">
-        <v>74</v>
-      </c>
-      <c r="K35" s="105" t="s">
-        <v>732</v>
-      </c>
-      <c r="L35" s="61" t="s">
-        <v>733</v>
-      </c>
-      <c r="M35" s="82"/>
+      <c r="H35" s="68"/>
+      <c r="M35" s="44"/>
       <c r="N35" s="34">
         <v>55</v>
       </c>
@@ -16800,11 +16765,11 @@
         <v>42</v>
       </c>
       <c r="F36" s="108" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G36" s="67"/>
       <c r="H36" s="68"/>
-      <c r="M36" s="74"/>
+      <c r="M36" s="44"/>
       <c r="N36" s="66">
         <v>66</v>
       </c>
@@ -16837,11 +16802,11 @@
         <v>42</v>
       </c>
       <c r="F37" s="107" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G37" s="67"/>
       <c r="H37" s="68"/>
-      <c r="M37" s="74"/>
+      <c r="M37" s="44"/>
       <c r="N37" s="34">
         <v>55</v>
       </c>
@@ -16878,7 +16843,7 @@
       </c>
       <c r="G38" s="67"/>
       <c r="H38" s="68"/>
-      <c r="M38" s="74"/>
+      <c r="M38" s="44"/>
       <c r="N38" s="49">
         <v>54</v>
       </c>
@@ -16915,7 +16880,7 @@
       </c>
       <c r="G39" s="67"/>
       <c r="H39" s="68"/>
-      <c r="M39" s="74"/>
+      <c r="M39" s="44"/>
       <c r="N39" s="34">
         <v>55</v>
       </c>
@@ -16948,11 +16913,11 @@
         <v>42</v>
       </c>
       <c r="F40" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G40" s="67"/>
       <c r="H40" s="68"/>
-      <c r="M40" s="74"/>
+      <c r="M40" s="44"/>
       <c r="N40" s="49">
         <v>54</v>
       </c>
@@ -16985,11 +16950,11 @@
         <v>42</v>
       </c>
       <c r="F41" s="107" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="G41" s="67"/>
       <c r="H41" s="68"/>
-      <c r="M41" s="74"/>
+      <c r="M41" s="44"/>
       <c r="N41" s="34">
         <v>55</v>
       </c>
@@ -17022,11 +16987,11 @@
         <v>42</v>
       </c>
       <c r="F42" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G42" s="67"/>
       <c r="H42" s="68"/>
-      <c r="M42" s="74"/>
+      <c r="M42" s="44"/>
       <c r="N42" s="34">
         <v>54</v>
       </c>
@@ -17059,11 +17024,11 @@
         <v>42</v>
       </c>
       <c r="F43" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G43" s="67"/>
       <c r="H43" s="68"/>
-      <c r="M43" s="74"/>
+      <c r="M43" s="44"/>
       <c r="N43" s="34">
         <v>55</v>
       </c>
@@ -17100,7 +17065,7 @@
       </c>
       <c r="G44" s="67"/>
       <c r="H44" s="68"/>
-      <c r="M44" s="74"/>
+      <c r="M44" s="44"/>
       <c r="N44" s="49">
         <v>54</v>
       </c>
@@ -17133,11 +17098,11 @@
         <v>42</v>
       </c>
       <c r="F45" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G45" s="67"/>
       <c r="H45" s="68"/>
-      <c r="M45" s="74"/>
+      <c r="M45" s="44"/>
       <c r="N45" s="34">
         <v>55</v>
       </c>
@@ -17170,11 +17135,11 @@
         <v>42</v>
       </c>
       <c r="F46" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G46" s="67"/>
       <c r="H46" s="68"/>
-      <c r="M46" s="74"/>
+      <c r="M46" s="44"/>
       <c r="N46" s="49">
         <v>54</v>
       </c>
@@ -17207,11 +17172,11 @@
         <v>42</v>
       </c>
       <c r="F47" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G47" s="67"/>
       <c r="H47" s="68"/>
-      <c r="M47" s="74"/>
+      <c r="M47" s="44"/>
       <c r="N47" s="49">
         <v>54</v>
       </c>
@@ -17248,7 +17213,7 @@
       </c>
       <c r="G48" s="67"/>
       <c r="H48" s="68"/>
-      <c r="M48" s="74"/>
+      <c r="M48" s="44"/>
       <c r="N48" s="49">
         <v>24</v>
       </c>
@@ -17281,11 +17246,11 @@
         <v>42</v>
       </c>
       <c r="F49" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G49" s="67"/>
       <c r="H49" s="68"/>
-      <c r="M49" s="74"/>
+      <c r="M49" s="44"/>
       <c r="N49" s="34">
         <v>55</v>
       </c>
@@ -17318,11 +17283,11 @@
         <v>42</v>
       </c>
       <c r="F50" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G50" s="67"/>
       <c r="H50" s="68"/>
-      <c r="M50" s="74"/>
+      <c r="M50" s="44"/>
       <c r="N50" s="34">
         <v>55</v>
       </c>
@@ -17355,11 +17320,11 @@
         <v>42</v>
       </c>
       <c r="F51" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G51" s="67"/>
       <c r="H51" s="68"/>
-      <c r="M51" s="74"/>
+      <c r="M51" s="44"/>
       <c r="N51" s="81">
         <v>25</v>
       </c>
@@ -17396,7 +17361,7 @@
       </c>
       <c r="G52" s="67"/>
       <c r="H52" s="68"/>
-      <c r="M52" s="74"/>
+      <c r="M52" s="44"/>
       <c r="N52" s="81">
         <v>55</v>
       </c>
@@ -17420,20 +17385,20 @@
         <v>44</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="D53" s="102" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="E53" s="39" t="s">
         <v>42</v>
       </c>
       <c r="F53" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G53" s="67"/>
       <c r="H53" s="68"/>
-      <c r="M53" s="74"/>
+      <c r="M53" s="44"/>
       <c r="N53" s="163">
         <v>22</v>
       </c>
@@ -17459,20 +17424,20 @@
         <v>45</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="D54" s="102" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="E54" s="39" t="s">
         <v>42</v>
       </c>
       <c r="F54" s="107" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G54" s="67"/>
       <c r="H54" s="68"/>
-      <c r="M54" s="74"/>
+      <c r="M54" s="44"/>
       <c r="N54" s="34">
         <v>55</v>
       </c>
@@ -17496,20 +17461,20 @@
         <v>46</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="D55" s="102" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="E55" s="39" t="s">
         <v>42</v>
       </c>
       <c r="F55" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G55" s="67"/>
       <c r="H55" s="68"/>
-      <c r="M55" s="74"/>
+      <c r="M55" s="44"/>
       <c r="N55" s="70">
         <v>74</v>
       </c>
@@ -17533,10 +17498,10 @@
         <v>47</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="D56" s="102" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="E56" s="39" t="s">
         <v>19</v>
@@ -17546,7 +17511,7 @@
       </c>
       <c r="G56" s="67"/>
       <c r="H56" s="68"/>
-      <c r="M56" s="74"/>
+      <c r="M56" s="44"/>
       <c r="N56" s="34">
         <v>55</v>
       </c>
@@ -17570,20 +17535,20 @@
         <v>48</v>
       </c>
       <c r="C57" s="46" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="D57" s="104" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="E57" s="46" t="s">
         <v>42</v>
       </c>
       <c r="F57" s="146" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G57" s="113"/>
       <c r="H57" s="114"/>
-      <c r="M57" s="74"/>
+      <c r="M57" s="44"/>
       <c r="N57" s="34">
         <v>55</v>
       </c>
@@ -17603,7 +17568,7 @@
       <c r="T57" s="35"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="M58" s="74"/>
+      <c r="M58" s="44"/>
       <c r="N58" s="34">
         <v>55</v>
       </c>
@@ -17623,7 +17588,7 @@
       <c r="T58" s="35"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="M59" s="74"/>
+      <c r="M59" s="44"/>
       <c r="N59" s="34">
         <v>55</v>
       </c>
@@ -17643,7 +17608,7 @@
       <c r="T59" s="35"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="M60" s="74"/>
+      <c r="M60" s="44"/>
       <c r="N60" s="34">
         <v>55</v>
       </c>
@@ -17663,7 +17628,7 @@
       <c r="T60" s="35"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="M61" s="74"/>
+      <c r="M61" s="44"/>
       <c r="N61" s="34">
         <v>55</v>
       </c>
@@ -17683,7 +17648,7 @@
       <c r="T61" s="54"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="M62" s="74"/>
+      <c r="M62" s="44"/>
       <c r="N62" s="34">
         <v>55</v>
       </c>
@@ -17703,7 +17668,7 @@
       <c r="T62" s="38"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="M63" s="74"/>
+      <c r="M63" s="44"/>
       <c r="N63" s="34">
         <v>55</v>
       </c>
@@ -17723,7 +17688,7 @@
       <c r="T63" s="35"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="M64" s="74"/>
+      <c r="M64" s="44"/>
       <c r="N64" s="34">
         <v>54</v>
       </c>
@@ -17743,7 +17708,7 @@
       <c r="T64" s="54"/>
     </row>
     <row r="65" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M65" s="74"/>
+      <c r="M65" s="44"/>
       <c r="N65" s="34">
         <v>2</v>
       </c>
@@ -17763,7 +17728,7 @@
       <c r="T65" s="54"/>
     </row>
     <row r="66" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M66" s="74"/>
+      <c r="M66" s="44"/>
       <c r="N66" s="34">
         <v>55</v>
       </c>
@@ -17783,7 +17748,7 @@
       <c r="T66" s="35"/>
     </row>
     <row r="67" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M67" s="74"/>
+      <c r="M67" s="44"/>
       <c r="N67" s="34">
         <v>6</v>
       </c>
@@ -17803,7 +17768,7 @@
       <c r="T67" s="35"/>
     </row>
     <row r="68" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M68" s="74"/>
+      <c r="M68" s="44"/>
       <c r="N68" s="34">
         <v>55</v>
       </c>
@@ -17823,7 +17788,7 @@
       <c r="T68" s="35"/>
     </row>
     <row r="69" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M69" s="75"/>
+      <c r="M69" s="45"/>
       <c r="N69" s="72">
         <v>55</v>
       </c>
@@ -19018,7 +18983,7 @@
       </c>
       <c r="P128" s="39"/>
       <c r="Q128" s="39" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="R128" s="39" t="s">
         <v>218</v>
@@ -19098,7 +19063,7 @@
       </c>
       <c r="P132" s="39"/>
       <c r="Q132" s="167" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="R132" s="39" t="s">
         <v>19</v>
@@ -19118,7 +19083,7 @@
       </c>
       <c r="P133" s="39"/>
       <c r="Q133" s="167" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="R133" s="39" t="s">
         <v>401</v>
@@ -19138,7 +19103,7 @@
       </c>
       <c r="P134" s="53"/>
       <c r="Q134" s="166" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="R134" s="53" t="s">
         <v>401</v>
@@ -19166,7 +19131,7 @@
       <c r="S135" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="T135" s="194" t="s">
+      <c r="T135" s="172" t="s">
         <v>47</v>
       </c>
     </row>
@@ -19661,7 +19626,7 @@
         <v>436</v>
       </c>
       <c r="P160" s="84" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="Q160" s="84" t="s">
         <v>434</v>
@@ -19683,7 +19648,7 @@
         <v>436</v>
       </c>
       <c r="P161" s="97" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="Q161" s="97" t="s">
         <v>435</v>
@@ -19702,7 +19667,7 @@
         <v>49</v>
       </c>
       <c r="O162" s="101" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P162" s="101"/>
       <c r="Q162" s="90" t="s">
@@ -19724,11 +19689,11 @@
         <v>54</v>
       </c>
       <c r="O163" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P163" s="25"/>
       <c r="Q163" s="32" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="R163" s="32" t="s">
         <v>24</v>
@@ -19746,11 +19711,11 @@
         <v>62</v>
       </c>
       <c r="O164" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P164" s="25"/>
       <c r="Q164" s="32" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="R164" s="32" t="s">
         <v>24</v>
@@ -19768,7 +19733,7 @@
         <v>50</v>
       </c>
       <c r="O165" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P165" s="25"/>
       <c r="Q165" s="32" t="s">
@@ -19788,7 +19753,7 @@
         <v>51</v>
       </c>
       <c r="O166" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P166" s="25"/>
       <c r="Q166" s="32" t="s">
@@ -19808,7 +19773,7 @@
         <v>52</v>
       </c>
       <c r="O167" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P167" s="25"/>
       <c r="Q167" s="32" t="s">
@@ -19828,11 +19793,11 @@
         <v>54</v>
       </c>
       <c r="O168" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P168" s="25"/>
       <c r="Q168" s="32" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="R168" s="32" t="s">
         <v>24</v>
@@ -19848,11 +19813,11 @@
         <v>54</v>
       </c>
       <c r="O169" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P169" s="25"/>
       <c r="Q169" s="32" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="R169" s="32" t="s">
         <v>24</v>
@@ -19868,14 +19833,14 @@
         <v>55</v>
       </c>
       <c r="O170" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P170" s="25"/>
       <c r="Q170" s="32" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="R170" s="32" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="S170" s="32" t="s">
         <v>20</v>
@@ -19888,14 +19853,14 @@
         <v>55</v>
       </c>
       <c r="O171" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P171" s="25"/>
       <c r="Q171" s="32" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="R171" s="32" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="S171" s="32" t="s">
         <v>20</v>
@@ -19908,11 +19873,11 @@
         <v>55</v>
       </c>
       <c r="O172" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P172" s="25"/>
       <c r="Q172" s="32" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="R172" s="32" t="s">
         <v>24</v>
@@ -19928,11 +19893,11 @@
         <v>55</v>
       </c>
       <c r="O173" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P173" s="25"/>
       <c r="Q173" s="32" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="R173" s="32" t="s">
         <v>218</v>
@@ -19948,11 +19913,11 @@
         <v>55</v>
       </c>
       <c r="O174" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P174" s="25"/>
       <c r="Q174" s="32" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="R174" s="32" t="s">
         <v>218</v>
@@ -19968,11 +19933,11 @@
         <v>55</v>
       </c>
       <c r="O175" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P175" s="25"/>
       <c r="Q175" s="32" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="R175" s="32" t="s">
         <v>218</v>
@@ -19988,11 +19953,11 @@
         <v>45</v>
       </c>
       <c r="O176" s="39" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P176" s="39"/>
       <c r="Q176" s="32" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="R176" s="32" t="s">
         <v>218</v>
@@ -20008,11 +19973,11 @@
         <v>55</v>
       </c>
       <c r="O177" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P177" s="25"/>
       <c r="Q177" s="32" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="R177" s="32" t="s">
         <v>24</v>
@@ -20028,11 +19993,11 @@
         <v>55</v>
       </c>
       <c r="O178" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P178" s="25"/>
       <c r="Q178" s="32" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="R178" s="32" t="s">
         <v>24</v>
@@ -20048,11 +20013,11 @@
         <v>55</v>
       </c>
       <c r="O179" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P179" s="25"/>
       <c r="Q179" s="32" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R179" s="32" t="s">
         <v>218</v>
@@ -20068,11 +20033,11 @@
         <v>55</v>
       </c>
       <c r="O180" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P180" s="25"/>
       <c r="Q180" s="32" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="R180" s="32" t="s">
         <v>218</v>
@@ -20088,11 +20053,11 @@
         <v>63</v>
       </c>
       <c r="O181" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P181" s="25"/>
       <c r="Q181" s="32" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="R181" s="32" t="s">
         <v>218</v>
@@ -20108,11 +20073,11 @@
         <v>55</v>
       </c>
       <c r="O182" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P182" s="25"/>
       <c r="Q182" s="32" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="R182" s="32" t="s">
         <v>218</v>
@@ -20128,11 +20093,11 @@
         <v>55</v>
       </c>
       <c r="O183" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P183" s="25"/>
       <c r="Q183" s="32" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="R183" s="32" t="s">
         <v>218</v>
@@ -20148,11 +20113,11 @@
         <v>55</v>
       </c>
       <c r="O184" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P184" s="25"/>
       <c r="Q184" s="32" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="R184" s="32" t="s">
         <v>16</v>
@@ -20168,11 +20133,11 @@
         <v>55</v>
       </c>
       <c r="O185" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P185" s="25"/>
       <c r="Q185" s="32" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="R185" s="32" t="s">
         <v>218</v>
@@ -20188,11 +20153,11 @@
         <v>35</v>
       </c>
       <c r="O186" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P186" s="25"/>
       <c r="Q186" s="32" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="R186" s="32" t="s">
         <v>218</v>
@@ -20208,11 +20173,11 @@
         <v>36</v>
       </c>
       <c r="O187" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P187" s="25"/>
       <c r="Q187" s="32" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="R187" s="32" t="s">
         <v>218</v>
@@ -20228,11 +20193,11 @@
         <v>64</v>
       </c>
       <c r="O188" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P188" s="25"/>
       <c r="Q188" s="32" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="R188" s="32" t="s">
         <v>218</v>
@@ -20248,11 +20213,11 @@
         <v>46</v>
       </c>
       <c r="O189" s="39" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P189" s="39"/>
       <c r="Q189" s="32" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="R189" s="32" t="s">
         <v>218</v>
@@ -20268,11 +20233,11 @@
         <v>40</v>
       </c>
       <c r="O190" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P190" s="25"/>
       <c r="Q190" s="32" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="R190" s="32" t="s">
         <v>218</v>
@@ -20288,11 +20253,11 @@
         <v>41</v>
       </c>
       <c r="O191" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P191" s="25"/>
       <c r="Q191" s="32" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="R191" s="32" t="s">
         <v>218</v>
@@ -20308,13 +20273,13 @@
         <v>61</v>
       </c>
       <c r="O192" s="89" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P192" s="89" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="Q192" s="84" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="R192" s="84" t="s">
         <v>218</v>
@@ -20330,13 +20295,13 @@
         <v>61</v>
       </c>
       <c r="O193" s="89" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P193" s="89" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="Q193" s="84" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="R193" s="84" t="s">
         <v>24</v>
@@ -20352,13 +20317,13 @@
         <v>61</v>
       </c>
       <c r="O194" s="89" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P194" s="89" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="Q194" s="84" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="R194" s="84" t="s">
         <v>24</v>
@@ -20374,11 +20339,11 @@
         <v>7</v>
       </c>
       <c r="O195" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P195" s="25"/>
       <c r="Q195" s="32" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="R195" s="32" t="s">
         <v>218</v>
@@ -20394,11 +20359,11 @@
         <v>17</v>
       </c>
       <c r="O196" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P196" s="25"/>
       <c r="Q196" s="32" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="R196" s="32" t="s">
         <v>218</v>
@@ -20414,11 +20379,11 @@
         <v>37</v>
       </c>
       <c r="O197" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P197" s="25"/>
       <c r="Q197" s="32" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="R197" s="32" t="s">
         <v>218</v>
@@ -20434,11 +20399,11 @@
         <v>65</v>
       </c>
       <c r="O198" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P198" s="25"/>
       <c r="Q198" s="32" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="R198" s="32" t="s">
         <v>24</v>
@@ -20454,11 +20419,11 @@
         <v>7</v>
       </c>
       <c r="O199" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P199" s="25"/>
       <c r="Q199" s="32" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="R199" s="32" t="s">
         <v>218</v>
@@ -20474,11 +20439,11 @@
         <v>38</v>
       </c>
       <c r="O200" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P200" s="25"/>
       <c r="Q200" s="32" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="R200" s="32" t="s">
         <v>218</v>
@@ -20494,13 +20459,13 @@
         <v>61</v>
       </c>
       <c r="O201" s="89" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P201" s="89" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="Q201" s="84" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="R201" s="84" t="s">
         <v>218</v>
@@ -20516,11 +20481,11 @@
         <v>39</v>
       </c>
       <c r="O202" s="25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P202" s="25"/>
       <c r="Q202" s="32" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="R202" s="32" t="s">
         <v>19</v>
@@ -20536,11 +20501,11 @@
         <v>48</v>
       </c>
       <c r="O203" s="147" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P203" s="147"/>
       <c r="Q203" s="78" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="R203" s="78" t="s">
         <v>218</v>
@@ -20556,7 +20521,7 @@
         <v>49</v>
       </c>
       <c r="O204" s="90" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P204" s="90"/>
       <c r="Q204" s="90" t="s">
@@ -20578,14 +20543,14 @@
         <v>69</v>
       </c>
       <c r="O205" s="32" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P205" s="32"/>
       <c r="Q205" s="32" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="R205" s="32" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="S205" s="32" t="s">
         <v>17</v>
@@ -20600,7 +20565,7 @@
         <v>50</v>
       </c>
       <c r="O206" s="32" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P206" s="32"/>
       <c r="Q206" s="32" t="s">
@@ -20620,7 +20585,7 @@
         <v>51</v>
       </c>
       <c r="O207" s="32" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P207" s="32"/>
       <c r="Q207" s="32" t="s">
@@ -20640,7 +20605,7 @@
         <v>73</v>
       </c>
       <c r="O208" s="156" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P208" s="156"/>
       <c r="Q208" s="156" t="s">
@@ -20660,11 +20625,11 @@
         <v>70</v>
       </c>
       <c r="O209" s="32" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P209" s="32"/>
       <c r="Q209" s="32" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="R209" s="32" t="s">
         <v>16</v>
@@ -20682,7 +20647,7 @@
         <v>74</v>
       </c>
       <c r="O210" s="133" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P210" s="133"/>
       <c r="Q210" s="133" t="s">
@@ -20702,11 +20667,11 @@
         <v>71</v>
       </c>
       <c r="O211" s="50" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="P211" s="50"/>
       <c r="Q211" s="59" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="R211" s="59" t="s">
         <v>16</v>
@@ -20724,11 +20689,11 @@
         <v>49</v>
       </c>
       <c r="O212" s="57" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="P212" s="57"/>
       <c r="Q212" s="57" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="R212" s="57" t="s">
         <v>16</v>
@@ -20746,11 +20711,11 @@
         <v>72</v>
       </c>
       <c r="O213" s="57" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="P213" s="57"/>
       <c r="Q213" s="57" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="R213" s="57" t="s">
         <v>24</v>
@@ -20768,7 +20733,7 @@
         <v>73</v>
       </c>
       <c r="O214" s="149" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="P214" s="149"/>
       <c r="Q214" s="149" t="s">
@@ -20788,11 +20753,11 @@
         <v>62</v>
       </c>
       <c r="O215" s="39" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="P215" s="39"/>
       <c r="Q215" s="57" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="R215" s="57" t="s">
         <v>24</v>
@@ -20808,7 +20773,7 @@
         <v>50</v>
       </c>
       <c r="O216" s="39" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="P216" s="39"/>
       <c r="Q216" s="57" t="s">
@@ -20828,7 +20793,7 @@
         <v>51</v>
       </c>
       <c r="O217" s="57" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="P217" s="57"/>
       <c r="Q217" s="57" t="s">
@@ -20848,7 +20813,7 @@
         <v>52</v>
       </c>
       <c r="O218" s="57" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="P218" s="57"/>
       <c r="Q218" s="57" t="s">
@@ -20868,7 +20833,7 @@
         <v>74</v>
       </c>
       <c r="O219" s="140" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="P219" s="140"/>
       <c r="Q219" s="131" t="s">
@@ -20946,17 +20911,17 @@
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="174" t="s">
+      <c r="E2" s="175" t="s">
         <v>337</v>
       </c>
-      <c r="F2" s="175"/>
-      <c r="G2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="177"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="177" t="s">
+      <c r="I2" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="178"/>
-      <c r="K2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -20964,9 +20929,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="182"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="183"/>
       <c r="H3" s="10"/>
       <c r="I3" s="62"/>
       <c r="J3" s="25" t="s">
@@ -20980,15 +20945,15 @@
       </c>
       <c r="C4" s="143"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="183" t="s">
+      <c r="E4" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="184"/>
-      <c r="G4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="186"/>
       <c r="H4" s="7"/>
       <c r="I4" s="148"/>
       <c r="J4" s="25" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="K4" s="29"/>
     </row>
@@ -20998,15 +20963,15 @@
       </c>
       <c r="C5" s="143"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="183" t="s">
+      <c r="E5" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="184"/>
-      <c r="G5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="186"/>
       <c r="H5" s="7"/>
       <c r="I5" s="149"/>
       <c r="J5" s="29" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="K5" s="29"/>
     </row>
@@ -21020,37 +20985,37 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="186" t="s">
+      <c r="B7" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="188" t="s">
+      <c r="J7" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="189"/>
-      <c r="L7" s="190"/>
+      <c r="K7" s="190"/>
+      <c r="L7" s="191"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="172" t="s">
+      <c r="N7" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="174"/>
+      <c r="S7" s="174"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="144" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>2</v>
@@ -21253,7 +21218,7 @@
         <v>42</v>
       </c>
       <c r="F12" s="107" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G12" s="58"/>
       <c r="H12" s="51"/>
@@ -21321,7 +21286,7 @@
         <v>317</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="Q13" s="32" t="s">
         <v>45</v>
@@ -21345,7 +21310,7 @@
         <v>42</v>
       </c>
       <c r="F14" s="154" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G14" s="64"/>
       <c r="H14" s="65"/>
@@ -21414,10 +21379,10 @@
         <v>14</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="L16" s="54" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="M16" s="82"/>
       <c r="N16" s="49">
@@ -21443,10 +21408,10 @@
         <v>15</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="L17" s="54" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="M17" s="82"/>
       <c r="N17" s="49">
@@ -21472,10 +21437,10 @@
         <v>16</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="L18" s="54" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="M18" s="82"/>
       <c r="N18" s="49">
@@ -21501,10 +21466,10 @@
         <v>17</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="L19" s="54" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="M19" s="82"/>
       <c r="N19" s="49">
@@ -21530,10 +21495,10 @@
         <v>18</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="L20" s="54" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="M20" s="82"/>
       <c r="N20" s="49">
@@ -21559,10 +21524,10 @@
         <v>19</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="L21" s="35" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="M21" s="82"/>
       <c r="N21" s="49">
@@ -21588,10 +21553,10 @@
         <v>20</v>
       </c>
       <c r="K22" s="105" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="L22" s="61" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="M22" s="82"/>
       <c r="N22" s="34">
@@ -22512,7 +22477,7 @@
         <v>7</v>
       </c>
       <c r="O70" s="90" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P70" s="90" t="s">
         <v>164</v>
@@ -22533,13 +22498,13 @@
         <v>14</v>
       </c>
       <c r="O71" s="32" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P71" s="32" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="Q71" s="32" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="R71" s="32" t="s">
         <v>17</v>
@@ -22554,7 +22519,7 @@
         <v>8</v>
       </c>
       <c r="O72" s="32" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P72" s="32" t="s">
         <v>18</v>
@@ -22573,7 +22538,7 @@
         <v>9</v>
       </c>
       <c r="O73" s="32" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P73" s="32" t="s">
         <v>21</v>
@@ -22592,7 +22557,7 @@
         <v>19</v>
       </c>
       <c r="O74" s="156" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P74" s="156" t="s">
         <v>37</v>
@@ -22611,10 +22576,10 @@
         <v>15</v>
       </c>
       <c r="O75" s="32" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P75" s="32" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="Q75" s="32" t="s">
         <v>16</v>
@@ -22632,7 +22597,7 @@
         <v>20</v>
       </c>
       <c r="O76" s="133" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="P76" s="133" t="s">
         <v>25</v>
@@ -22651,10 +22616,10 @@
         <v>16</v>
       </c>
       <c r="O77" s="59" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="P77" s="59" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="Q77" s="59" t="s">
         <v>16</v>
@@ -22672,10 +22637,10 @@
         <v>7</v>
       </c>
       <c r="O78" s="57" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="P78" s="57" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="Q78" s="57" t="s">
         <v>16</v>
@@ -22693,10 +22658,10 @@
         <v>17</v>
       </c>
       <c r="O79" s="57" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="P79" s="57" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="Q79" s="57" t="s">
         <v>24</v>
@@ -22714,7 +22679,7 @@
         <v>19</v>
       </c>
       <c r="O80" s="149" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="P80" s="149" t="s">
         <v>37</v>
@@ -22733,10 +22698,10 @@
         <v>18</v>
       </c>
       <c r="O81" s="57" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="P81" s="57" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="Q81" s="57" t="s">
         <v>24</v>
@@ -22752,7 +22717,7 @@
         <v>8</v>
       </c>
       <c r="O82" s="57" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="P82" s="57" t="s">
         <v>18</v>
@@ -22771,7 +22736,7 @@
         <v>9</v>
       </c>
       <c r="O83" s="57" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="P83" s="57" t="s">
         <v>21</v>
@@ -22790,7 +22755,7 @@
         <v>10</v>
       </c>
       <c r="O84" s="57" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="P84" s="57" t="s">
         <v>23</v>
@@ -22809,7 +22774,7 @@
         <v>20</v>
       </c>
       <c r="O85" s="131" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="P85" s="131" t="s">
         <v>25</v>
@@ -22883,26 +22848,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="174" t="s">
-        <v>582</v>
-      </c>
-      <c r="E2" s="175"/>
-      <c r="F2" s="176"/>
+      <c r="D2" s="175" t="s">
+        <v>571</v>
+      </c>
+      <c r="E2" s="176"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="177" t="s">
+      <c r="H2" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="178"/>
-      <c r="J2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="180"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="182"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -22915,15 +22880,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="183" t="s">
+      <c r="D4" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="184"/>
-      <c r="F4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="186"/>
       <c r="G4" s="7"/>
       <c r="H4" s="148"/>
       <c r="I4" s="25" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -22932,15 +22897,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="183" t="s">
+      <c r="D5" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="184"/>
-      <c r="F5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="186"/>
       <c r="G5" s="7"/>
       <c r="H5" s="149"/>
       <c r="I5" s="29" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -22953,29 +22918,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="186" t="s">
+      <c r="B7" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="188" t="s">
+      <c r="I7" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="189"/>
-      <c r="K7" s="190"/>
+      <c r="J7" s="190"/>
+      <c r="K7" s="191"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="172" t="s">
+      <c r="M7" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="174"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -23031,7 +22996,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="D9" s="50" t="s">
         <v>41</v>
@@ -23048,17 +23013,17 @@
         <v>32</v>
       </c>
       <c r="J9" s="117" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="K9" s="118" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="L9" s="112"/>
       <c r="M9" s="37">
         <v>32</v>
       </c>
       <c r="N9" s="90" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="O9" s="90" t="s">
         <v>409</v>
@@ -23078,7 +23043,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>41</v>
@@ -23093,7 +23058,7 @@
         <v>14</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="O10" s="32" t="s">
         <v>434</v>
@@ -23111,7 +23076,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>41</v>
@@ -23126,7 +23091,7 @@
         <v>12</v>
       </c>
       <c r="N11" s="78" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="O11" s="78" t="s">
         <v>435</v>
@@ -23144,13 +23109,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F12" s="58"/>
       <c r="G12" s="51"/>
@@ -23159,7 +23124,7 @@
         <v>32</v>
       </c>
       <c r="N12" s="90" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="O12" s="90" t="s">
         <v>164</v>
@@ -23179,13 +23144,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F13" s="58"/>
       <c r="G13" s="51"/>
@@ -23194,10 +23159,10 @@
         <v>6</v>
       </c>
       <c r="N13" s="78" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="O13" s="78" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="P13" s="78" t="s">
         <v>218</v>
@@ -23212,13 +23177,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F14" s="58"/>
       <c r="G14" s="51"/>
@@ -23227,7 +23192,7 @@
         <v>32</v>
       </c>
       <c r="N14" s="90" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="O14" s="90" t="s">
         <v>164</v>
@@ -23247,13 +23212,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F15" s="58"/>
       <c r="G15" s="51"/>
@@ -23262,10 +23227,10 @@
         <v>16</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="O15" s="40" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="P15" s="40" t="s">
         <v>383</v>
@@ -23280,13 +23245,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F16" s="58"/>
       <c r="G16" s="51"/>
@@ -23296,13 +23261,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F17" s="58"/>
       <c r="G17" s="51"/>
@@ -23312,13 +23277,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F18" s="58"/>
       <c r="G18" s="51"/>
@@ -23328,13 +23293,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F19" s="58"/>
       <c r="G19" s="51"/>
@@ -23344,13 +23309,13 @@
         <v>12</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F20" s="58"/>
       <c r="G20" s="51"/>
@@ -23360,13 +23325,13 @@
         <v>13</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F21" s="58"/>
       <c r="G21" s="51"/>
@@ -23376,13 +23341,13 @@
         <v>14</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F22" s="58"/>
       <c r="G22" s="51"/>
@@ -23392,13 +23357,13 @@
         <v>15</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F23" s="58"/>
       <c r="G23" s="51"/>
@@ -23408,13 +23373,13 @@
         <v>16</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="D24" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F24" s="58"/>
       <c r="G24" s="51"/>
@@ -23424,13 +23389,13 @@
         <v>17</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="D25" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F25" s="58"/>
       <c r="G25" s="51"/>
@@ -23440,13 +23405,13 @@
         <v>18</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="107" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="F26" s="58"/>
       <c r="G26" s="51"/>
@@ -23456,13 +23421,13 @@
         <v>19</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="F27" s="58"/>
       <c r="G27" s="51"/>
@@ -23472,13 +23437,13 @@
         <v>20</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="F28" s="58"/>
       <c r="G28" s="51"/>
@@ -23488,13 +23453,13 @@
         <v>21</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="107" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="F29" s="58"/>
       <c r="G29" s="51"/>
@@ -23504,13 +23469,13 @@
         <v>22</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="107" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="F30" s="58"/>
       <c r="G30" s="51"/>
@@ -23520,13 +23485,13 @@
         <v>23</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="F31" s="58"/>
       <c r="G31" s="51"/>
@@ -23536,13 +23501,13 @@
         <v>24</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="107" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="F32" s="58"/>
       <c r="G32" s="51"/>
@@ -23552,13 +23517,13 @@
         <v>25</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="107" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="F33" s="58"/>
       <c r="G33" s="51"/>
@@ -23568,13 +23533,13 @@
         <v>26</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E34" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F34" s="58"/>
       <c r="G34" s="51"/>
@@ -23584,13 +23549,13 @@
         <v>27</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E35" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F35" s="58"/>
       <c r="G35" s="51"/>
@@ -23600,13 +23565,13 @@
         <v>28</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E36" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F36" s="58"/>
       <c r="G36" s="51"/>
@@ -23616,13 +23581,13 @@
         <v>29</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F37" s="58"/>
       <c r="G37" s="51"/>
@@ -23632,7 +23597,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>19</v>
@@ -23648,7 +23613,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="D39" s="53" t="s">
         <v>19</v>
@@ -23720,26 +23685,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="174" t="s">
-        <v>619</v>
-      </c>
-      <c r="E2" s="175"/>
-      <c r="F2" s="176"/>
+      <c r="D2" s="175" t="s">
+        <v>608</v>
+      </c>
+      <c r="E2" s="176"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="177" t="s">
+      <c r="H2" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="178"/>
-      <c r="J2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="180"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="182"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -23752,15 +23717,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="183" t="s">
+      <c r="D4" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="184"/>
-      <c r="F4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="186"/>
       <c r="G4" s="7"/>
       <c r="H4" s="148"/>
       <c r="I4" s="25" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -23769,15 +23734,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="183" t="s">
+      <c r="D5" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="184"/>
-      <c r="F5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="186"/>
       <c r="G5" s="7"/>
       <c r="H5" s="149"/>
       <c r="I5" s="29" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -23790,29 +23755,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="186" t="s">
+      <c r="B7" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="188" t="s">
+      <c r="I7" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="189"/>
-      <c r="K7" s="190"/>
+      <c r="J7" s="190"/>
+      <c r="K7" s="191"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="172" t="s">
+      <c r="M7" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="174"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -23868,7 +23833,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="D9" s="50" t="s">
         <v>41</v>
@@ -23885,17 +23850,17 @@
         <v>9</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="L9" s="106"/>
       <c r="M9" s="79">
         <v>9</v>
       </c>
       <c r="N9" s="90" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="O9" s="90" t="s">
         <v>164</v>
@@ -23915,7 +23880,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>41</v>
@@ -23930,20 +23895,20 @@
         <v>10</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="K10" s="61" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="L10" s="106"/>
       <c r="M10" s="43">
         <v>7</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="P10" s="32" t="s">
         <v>218</v>
@@ -23958,7 +23923,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>41</v>
@@ -23973,10 +23938,10 @@
         <v>5</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P11" s="32" t="s">
         <v>24</v>
@@ -23991,7 +23956,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>42</v>
@@ -24006,10 +23971,10 @@
         <v>10</v>
       </c>
       <c r="N12" s="40" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="O12" s="40" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="P12" s="40" t="s">
         <v>24</v>
@@ -24024,7 +23989,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>42</v>
@@ -24040,7 +24005,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>42</v>
@@ -24056,7 +24021,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>42</v>
@@ -24072,7 +24037,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="D16" s="53" t="s">
         <v>42</v>
@@ -24298,8 +24263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24342,17 +24307,17 @@
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="174" t="s">
-        <v>631</v>
-      </c>
-      <c r="F2" s="175"/>
-      <c r="G2" s="176"/>
+      <c r="E2" s="175" t="s">
+        <v>620</v>
+      </c>
+      <c r="F2" s="176"/>
+      <c r="G2" s="177"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="177" t="s">
+      <c r="I2" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="178"/>
-      <c r="K2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -24360,9 +24325,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="182"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="183"/>
       <c r="H3" s="10"/>
       <c r="I3" s="62"/>
       <c r="J3" s="25" t="s">
@@ -24376,15 +24341,15 @@
       </c>
       <c r="C4" s="143"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="183" t="s">
+      <c r="E4" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="184"/>
-      <c r="G4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="186"/>
       <c r="H4" s="7"/>
       <c r="I4" s="148"/>
       <c r="J4" s="25" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="K4" s="29"/>
     </row>
@@ -24394,15 +24359,15 @@
       </c>
       <c r="C5" s="143"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="183" t="s">
+      <c r="E5" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="184"/>
-      <c r="G5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="186"/>
       <c r="H5" s="7"/>
       <c r="I5" s="149"/>
       <c r="J5" s="29" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="K5" s="29"/>
     </row>
@@ -24416,40 +24381,40 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="186" t="s">
+      <c r="B7" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="188" t="s">
+      <c r="J7" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="189"/>
-      <c r="L7" s="190"/>
+      <c r="K7" s="190"/>
+      <c r="L7" s="191"/>
       <c r="M7" s="11" t="s">
-        <v>673</v>
-      </c>
-      <c r="N7" s="172" t="s">
+        <v>662</v>
+      </c>
+      <c r="N7" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="173"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="174"/>
+      <c r="S7" s="174"/>
+      <c r="T7" s="174"/>
     </row>
     <row r="8" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="144" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>2</v>
@@ -24484,7 +24449,7 @@
         <v>13</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="Q8" s="20" t="s">
         <v>1</v>
@@ -24504,10 +24469,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>41</v>
@@ -24522,17 +24487,17 @@
         <v>20</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="L9" s="56" t="s">
-        <v>674</v>
-      </c>
-      <c r="M9" s="106"/>
+        <v>527</v>
+      </c>
+      <c r="L9" s="160" t="s">
+        <v>663</v>
+      </c>
+      <c r="M9" s="44"/>
       <c r="N9" s="55">
         <v>20</v>
       </c>
       <c r="O9" s="90" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P9" s="90"/>
       <c r="Q9" s="90" t="s">
@@ -24553,10 +24518,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="E10" s="41" t="s">
         <v>41</v>
@@ -24575,15 +24540,15 @@
       <c r="K10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="L10" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="106"/>
+      <c r="M10" s="44"/>
       <c r="N10" s="34">
         <v>21</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P10" s="32"/>
       <c r="Q10" s="32" t="s">
@@ -24602,10 +24567,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="E11" s="41" t="s">
         <v>41</v>
@@ -24622,15 +24587,15 @@
       <c r="K11" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="35" t="s">
+      <c r="L11" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="106"/>
+      <c r="M11" s="44"/>
       <c r="N11" s="34">
         <v>22</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P11" s="32"/>
       <c r="Q11" s="32" t="s">
@@ -24649,10 +24614,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="E12" s="41" t="s">
         <v>42</v>
@@ -24664,20 +24629,20 @@
       <c r="H12" s="51"/>
       <c r="I12" s="106"/>
       <c r="J12" s="43">
-        <v>23</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="54" t="s">
-        <v>675</v>
-      </c>
-      <c r="M12" s="106"/>
+        <v>24</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="161" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="44"/>
       <c r="N12" s="163">
         <v>28</v>
       </c>
       <c r="O12" s="156" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P12" s="156"/>
       <c r="Q12" s="156" t="s">
@@ -24698,10 +24663,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="E13" s="41" t="s">
         <v>42</v>
@@ -24713,24 +24678,24 @@
       <c r="H13" s="51"/>
       <c r="I13" s="106"/>
       <c r="J13" s="43">
-        <v>24</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="106"/>
+        <v>25</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="161" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="44"/>
       <c r="N13" s="34">
         <v>2</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P13" s="32"/>
       <c r="Q13" s="32" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="R13" s="32" t="s">
         <v>16</v>
@@ -24745,10 +24710,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>19</v>
@@ -24758,27 +24723,27 @@
       <c r="H14" s="51"/>
       <c r="I14" s="106"/>
       <c r="J14" s="43">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="L14" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="106"/>
+      <c r="M14" s="44"/>
       <c r="N14" s="34">
         <v>1</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P14" s="32"/>
       <c r="Q14" s="32" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="R14" s="32" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="S14" s="32" t="s">
         <v>20</v>
@@ -24790,10 +24755,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="E15" s="41" t="s">
         <v>19</v>
@@ -24803,24 +24768,24 @@
       <c r="H15" s="51"/>
       <c r="I15" s="106"/>
       <c r="J15" s="43">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="106"/>
+        <v>660</v>
+      </c>
+      <c r="L15" s="161" t="s">
+        <v>721</v>
+      </c>
+      <c r="M15" s="44"/>
       <c r="N15" s="34">
         <v>6</v>
       </c>
       <c r="O15" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P15" s="32"/>
       <c r="Q15" s="32" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="R15" s="32" t="s">
         <v>19</v>
@@ -24844,40 +24809,40 @@
         <v>42</v>
       </c>
       <c r="F16" s="108" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="35"/>
       <c r="I16" s="106"/>
       <c r="J16" s="43">
-        <v>27</v>
-      </c>
-      <c r="K16" s="25" t="s">
-        <v>671</v>
-      </c>
-      <c r="L16" s="54" t="s">
-        <v>676</v>
-      </c>
-      <c r="M16" s="106"/>
+        <v>28</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>713</v>
+      </c>
+      <c r="L16" s="126" t="s">
+        <v>714</v>
+      </c>
+      <c r="M16" s="44"/>
       <c r="N16" s="81">
         <v>8</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P16" s="32"/>
       <c r="Q16" s="32" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="R16" s="32" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="S16" s="32" t="s">
         <v>20</v>
       </c>
       <c r="T16" s="38"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="34">
         <v>9</v>
       </c>
@@ -24891,40 +24856,40 @@
         <v>42</v>
       </c>
       <c r="F17" s="107" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="35"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="43">
-        <v>28</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>730</v>
-      </c>
-      <c r="L17" s="35" t="s">
-        <v>731</v>
-      </c>
-      <c r="M17" s="106"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="80">
+        <v>29</v>
+      </c>
+      <c r="K17" s="105" t="s">
+        <v>715</v>
+      </c>
+      <c r="L17" s="162" t="s">
+        <v>716</v>
+      </c>
+      <c r="M17" s="44"/>
       <c r="N17" s="81">
         <v>9</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P17" s="32"/>
       <c r="Q17" s="32" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="R17" s="32" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="S17" s="32" t="s">
         <v>20</v>
       </c>
       <c r="T17" s="38"/>
     </row>
-    <row r="18" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="34">
         <v>10</v>
       </c>
@@ -24938,30 +24903,20 @@
         <v>42</v>
       </c>
       <c r="F18" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="35"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="80">
-        <v>29</v>
-      </c>
-      <c r="K18" s="105" t="s">
-        <v>732</v>
-      </c>
-      <c r="L18" s="61" t="s">
-        <v>733</v>
-      </c>
-      <c r="M18" s="106"/>
+      <c r="M18" s="44"/>
       <c r="N18" s="81">
         <v>10</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P18" s="32"/>
       <c r="Q18" s="32" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="R18" s="32" t="s">
         <v>383</v>
@@ -24985,7 +24940,7 @@
         <v>42</v>
       </c>
       <c r="F19" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="35"/>
@@ -24994,11 +24949,11 @@
         <v>11</v>
       </c>
       <c r="O19" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P19" s="32"/>
       <c r="Q19" s="32" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="R19" s="32" t="s">
         <v>383</v>
@@ -25022,7 +24977,7 @@
         <v>42</v>
       </c>
       <c r="F20" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="35"/>
@@ -25031,11 +24986,11 @@
         <v>25</v>
       </c>
       <c r="O20" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P20" s="32"/>
       <c r="Q20" s="32" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="R20" s="32" t="s">
         <v>383</v>
@@ -25059,7 +25014,7 @@
         <v>42</v>
       </c>
       <c r="F21" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="35"/>
@@ -25068,11 +25023,11 @@
         <v>25</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P21" s="32"/>
       <c r="Q21" s="32" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="R21" s="32" t="s">
         <v>383</v>
@@ -25096,7 +25051,7 @@
         <v>42</v>
       </c>
       <c r="F22" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="35"/>
@@ -25105,11 +25060,11 @@
         <v>12</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P22" s="32"/>
       <c r="Q22" s="32" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="R22" s="32" t="s">
         <v>383</v>
@@ -25133,7 +25088,7 @@
         <v>42</v>
       </c>
       <c r="F23" s="107" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="35"/>
@@ -25142,13 +25097,13 @@
         <v>26</v>
       </c>
       <c r="O23" s="84" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P23" s="84" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="Q23" s="84" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="R23" s="84" t="s">
         <v>383</v>
@@ -25172,7 +25127,7 @@
         <v>42</v>
       </c>
       <c r="F24" s="107" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="35"/>
@@ -25181,11 +25136,11 @@
         <v>4</v>
       </c>
       <c r="O24" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P24" s="32"/>
       <c r="Q24" s="32" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="R24" s="32" t="s">
         <v>383</v>
@@ -25209,7 +25164,7 @@
         <v>42</v>
       </c>
       <c r="F25" s="107" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="35"/>
@@ -25218,11 +25173,11 @@
         <v>5</v>
       </c>
       <c r="O25" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P25" s="32"/>
       <c r="Q25" s="32" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="R25" s="32" t="s">
         <v>383</v>
@@ -25246,7 +25201,7 @@
         <v>42</v>
       </c>
       <c r="F26" s="107" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="35"/>
@@ -25255,11 +25210,11 @@
         <v>13</v>
       </c>
       <c r="O26" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P26" s="32"/>
       <c r="Q26" s="32" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="R26" s="32" t="s">
         <v>383</v>
@@ -25292,11 +25247,11 @@
         <v>14</v>
       </c>
       <c r="O27" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P27" s="32"/>
       <c r="Q27" s="32" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="R27" s="32" t="s">
         <v>383</v>
@@ -25317,11 +25272,11 @@
         <v>15</v>
       </c>
       <c r="O28" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P28" s="32"/>
       <c r="Q28" s="32" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="R28" s="32" t="s">
         <v>383</v>
@@ -25342,11 +25297,11 @@
         <v>16</v>
       </c>
       <c r="O29" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P29" s="32"/>
       <c r="Q29" s="32" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="R29" s="32" t="s">
         <v>383</v>
@@ -25367,17 +25322,17 @@
         <v>25</v>
       </c>
       <c r="O30" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P30" s="32"/>
       <c r="Q30" s="32" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="R30" s="32" t="s">
         <v>24</v>
       </c>
       <c r="S30" s="32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="T30" s="35"/>
     </row>
@@ -25392,11 +25347,11 @@
         <v>25</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P31" s="32"/>
       <c r="Q31" s="32" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="R31" s="32" t="s">
         <v>385</v>
@@ -25417,11 +25372,11 @@
         <v>25</v>
       </c>
       <c r="O32" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P32" s="32"/>
       <c r="Q32" s="32" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="R32" s="32" t="s">
         <v>19</v>
@@ -25442,14 +25397,14 @@
         <v>24</v>
       </c>
       <c r="O33" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P33" s="32"/>
       <c r="Q33" s="32" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="R33" s="32" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="S33" s="32" t="s">
         <v>17</v>
@@ -25467,14 +25422,14 @@
         <v>27</v>
       </c>
       <c r="O34" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P34" s="32"/>
       <c r="Q34" s="32" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="R34" s="32" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="S34" s="32" t="s">
         <v>17</v>
@@ -25492,17 +25447,17 @@
         <v>25</v>
       </c>
       <c r="O35" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P35" s="32"/>
       <c r="Q35" s="32" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="R35" s="32" t="s">
         <v>24</v>
       </c>
       <c r="S35" s="32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="T35" s="35"/>
     </row>
@@ -25517,14 +25472,14 @@
         <v>24</v>
       </c>
       <c r="O36" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P36" s="32"/>
       <c r="Q36" s="32" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="R36" s="32" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="S36" s="32" t="s">
         <v>17</v>
@@ -25542,11 +25497,11 @@
         <v>18</v>
       </c>
       <c r="O37" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P37" s="32"/>
       <c r="Q37" s="32" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="R37" s="32" t="s">
         <v>16</v>
@@ -25567,11 +25522,11 @@
         <v>19</v>
       </c>
       <c r="O38" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P38" s="32"/>
       <c r="Q38" s="32" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="R38" s="32" t="s">
         <v>19</v>
@@ -25592,11 +25547,11 @@
         <v>25</v>
       </c>
       <c r="O39" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P39" s="32"/>
       <c r="Q39" s="32" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="R39" s="32" t="s">
         <v>19</v>
@@ -25617,7 +25572,7 @@
         <v>29</v>
       </c>
       <c r="O40" s="86" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P40" s="86"/>
       <c r="Q40" s="86" t="s">
@@ -25642,11 +25597,11 @@
         <v>7</v>
       </c>
       <c r="O41" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P41" s="32"/>
       <c r="Q41" s="121" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="R41" s="121" t="s">
         <v>19</v>
@@ -25667,14 +25622,14 @@
         <v>4</v>
       </c>
       <c r="O42" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P42" s="32"/>
       <c r="Q42" s="121" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="R42" s="121" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="S42" s="121" t="s">
         <v>20</v>
@@ -25692,14 +25647,14 @@
         <v>5</v>
       </c>
       <c r="O43" s="32" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P43" s="32"/>
       <c r="Q43" s="121" t="s">
         <v>435</v>
       </c>
       <c r="R43" s="121" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="S43" s="121" t="s">
         <v>20</v>
@@ -25717,14 +25672,14 @@
         <v>3</v>
       </c>
       <c r="O44" s="40" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="P44" s="40"/>
       <c r="Q44" s="125" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="R44" s="125" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="S44" s="125" t="s">
         <v>20</v>

--- a/Cnl/Mapeos_CON_CNL_V1.xlsx
+++ b/Cnl/Mapeos_CON_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="915" windowWidth="9225" windowHeight="4110" tabRatio="583" activeTab="1"/>
+    <workbookView xWindow="285" yWindow="915" windowWidth="9225" windowHeight="4110" tabRatio="583" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T65SOLICITUD" sheetId="36" r:id="rId1"/>
@@ -5472,7 +5472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8591,8 +8591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T73" sqref="T73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20868,8 +20868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S85"/>
   <sheetViews>
-    <sheetView topLeftCell="L61" workbookViewId="0">
-      <selection activeCell="Q83" sqref="Q83"/>
+    <sheetView tabSelected="1" topLeftCell="L49" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56:S56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22207,8 +22207,8 @@
     </row>
     <row r="56" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M56" s="74"/>
-      <c r="N56" s="34">
-        <v>2</v>
+      <c r="N56" s="81">
+        <v>12</v>
       </c>
       <c r="O56" s="32" t="s">
         <v>317</v>
@@ -22222,7 +22222,7 @@
       <c r="R56" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="S56" s="35"/>
+      <c r="S56" s="38"/>
     </row>
     <row r="57" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M57" s="74"/>

--- a/Cnl/Mapeos_CON_CNL_V1.xlsx
+++ b/Cnl/Mapeos_CON_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="915" windowWidth="9225" windowHeight="4110" tabRatio="583" activeTab="3"/>
+    <workbookView xWindow="285" yWindow="915" windowWidth="9225" windowHeight="4110" tabRatio="583" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T65SOLICITUD" sheetId="36" r:id="rId1"/>
@@ -1276,7 +1276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4012" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4060" uniqueCount="738">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3475,6 +3475,21 @@
   </si>
   <si>
     <t>Validaciones Generales T70OBLIG_RESTRUCTURADA /16. Búsqueda Tipo Relación Entre Contratos</t>
+  </si>
+  <si>
+    <t>TSA_INTR_INICL</t>
+  </si>
+  <si>
+    <t>NRO_MSS_GRAC_PAG_CAP</t>
+  </si>
+  <si>
+    <t>NRO_MSS_GRAC_PAG_INT</t>
+  </si>
+  <si>
+    <t>ID_TIP_AMORT</t>
+  </si>
+  <si>
+    <t>NUMERIC(4,8)</t>
   </si>
 </sst>
 </file>
@@ -4608,7 +4623,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -4948,6 +4963,7 @@
     <xf numFmtId="0" fontId="3" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="132">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -5472,7 +5488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8589,10 +8605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T212"/>
+  <dimension ref="B1:T216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="M202" workbookViewId="0">
+      <selection activeCell="S212" sqref="S212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11226,17 +11242,17 @@
       <c r="H69" s="68"/>
       <c r="M69" s="74"/>
       <c r="N69" s="34">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="O69" s="32" t="s">
         <v>317</v>
       </c>
       <c r="P69" s="32"/>
       <c r="Q69" s="32" t="s">
-        <v>217</v>
+        <v>736</v>
       </c>
       <c r="R69" s="32" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="S69" s="32" t="s">
         <v>20</v>
@@ -11263,24 +11279,24 @@
       <c r="H70" s="68"/>
       <c r="M70" s="74"/>
       <c r="N70" s="34">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="O70" s="32" t="s">
         <v>317</v>
       </c>
       <c r="P70" s="32"/>
       <c r="Q70" s="32" t="s">
-        <v>219</v>
+        <v>735</v>
       </c>
       <c r="R70" s="32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="S70" s="32" t="s">
         <v>20</v>
       </c>
       <c r="T70" s="35"/>
     </row>
-    <row r="71" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B71" s="49">
         <v>61</v>
       </c>
@@ -11298,24 +11314,24 @@
       </c>
       <c r="G71" s="67"/>
       <c r="H71" s="68"/>
-      <c r="M71" s="75"/>
-      <c r="N71" s="33">
-        <v>58</v>
-      </c>
-      <c r="O71" s="40" t="s">
+      <c r="M71" s="74"/>
+      <c r="N71" s="34">
+        <v>131</v>
+      </c>
+      <c r="O71" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="R71" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="S71" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="T71" s="36"/>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="32" t="s">
+        <v>734</v>
+      </c>
+      <c r="R71" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S71" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T71" s="35"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B72" s="49">
@@ -11335,26 +11351,24 @@
       </c>
       <c r="G72" s="67"/>
       <c r="H72" s="68"/>
-      <c r="M72" s="71"/>
-      <c r="N72" s="55">
-        <v>150</v>
-      </c>
-      <c r="O72" s="90" t="s">
-        <v>408</v>
-      </c>
-      <c r="P72" s="90"/>
-      <c r="Q72" s="90" t="s">
-        <v>344</v>
-      </c>
-      <c r="R72" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="S72" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="T72" s="110" t="s">
-        <v>47</v>
-      </c>
+      <c r="M72" s="74"/>
+      <c r="N72" s="34">
+        <v>131</v>
+      </c>
+      <c r="O72" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="32" t="s">
+        <v>733</v>
+      </c>
+      <c r="R72" s="32" t="s">
+        <v>737</v>
+      </c>
+      <c r="S72" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T72" s="35"/>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B73" s="49">
@@ -11374,26 +11388,24 @@
       </c>
       <c r="G73" s="67"/>
       <c r="H73" s="68"/>
-      <c r="M73" s="44"/>
+      <c r="M73" s="74"/>
       <c r="N73" s="34">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="O73" s="32" t="s">
-        <v>408</v>
+        <v>317</v>
       </c>
       <c r="P73" s="32"/>
       <c r="Q73" s="32" t="s">
-        <v>345</v>
+        <v>217</v>
       </c>
       <c r="R73" s="32" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="S73" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T73" s="54" t="s">
-        <v>47</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="T73" s="35"/>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B74" s="66">
@@ -11413,26 +11425,26 @@
       </c>
       <c r="G74" s="67"/>
       <c r="H74" s="68"/>
-      <c r="M74" s="44"/>
+      <c r="M74" s="74"/>
       <c r="N74" s="34">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O74" s="32" t="s">
-        <v>408</v>
+        <v>317</v>
       </c>
       <c r="P74" s="32"/>
       <c r="Q74" s="32" t="s">
-        <v>346</v>
+        <v>219</v>
       </c>
       <c r="R74" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S74" s="32" t="s">
         <v>20</v>
       </c>
       <c r="T74" s="35"/>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B75" s="49">
         <v>65</v>
       </c>
@@ -11450,24 +11462,24 @@
       </c>
       <c r="G75" s="67"/>
       <c r="H75" s="68"/>
-      <c r="M75" s="44"/>
-      <c r="N75" s="34">
-        <v>131</v>
-      </c>
-      <c r="O75" s="32" t="s">
-        <v>408</v>
-      </c>
-      <c r="P75" s="32"/>
-      <c r="Q75" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="R75" s="32" t="s">
+      <c r="M75" s="75"/>
+      <c r="N75" s="33">
+        <v>58</v>
+      </c>
+      <c r="O75" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="R75" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="S75" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T75" s="35"/>
+      <c r="S75" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="T75" s="36"/>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B76" s="49">
@@ -11487,24 +11499,26 @@
       </c>
       <c r="G76" s="67"/>
       <c r="H76" s="68"/>
-      <c r="M76" s="44"/>
-      <c r="N76" s="34">
-        <v>131</v>
-      </c>
-      <c r="O76" s="32" t="s">
+      <c r="M76" s="71"/>
+      <c r="N76" s="55">
+        <v>150</v>
+      </c>
+      <c r="O76" s="90" t="s">
         <v>408</v>
       </c>
-      <c r="P76" s="32"/>
-      <c r="Q76" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="R76" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="S76" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T76" s="35"/>
+      <c r="P76" s="90"/>
+      <c r="Q76" s="90" t="s">
+        <v>344</v>
+      </c>
+      <c r="R76" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="S76" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="T76" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B77" s="49">
@@ -11526,22 +11540,24 @@
       <c r="H77" s="68"/>
       <c r="M77" s="44"/>
       <c r="N77" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O77" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P77" s="32"/>
       <c r="Q77" s="32" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="R77" s="32" t="s">
         <v>24</v>
       </c>
       <c r="S77" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T77" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="T77" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B78" s="66">
@@ -11563,14 +11579,14 @@
       <c r="H78" s="68"/>
       <c r="M78" s="44"/>
       <c r="N78" s="34">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="O78" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P78" s="32"/>
       <c r="Q78" s="32" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="R78" s="32" t="s">
         <v>19</v>
@@ -11600,14 +11616,14 @@
       <c r="H79" s="68"/>
       <c r="M79" s="44"/>
       <c r="N79" s="34">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O79" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P79" s="32"/>
       <c r="Q79" s="32" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="R79" s="32" t="s">
         <v>24</v>
@@ -11644,7 +11660,7 @@
       </c>
       <c r="P80" s="32"/>
       <c r="Q80" s="32" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="R80" s="32" t="s">
         <v>19</v>
@@ -11674,14 +11690,14 @@
       <c r="H81" s="68"/>
       <c r="M81" s="44"/>
       <c r="N81" s="34">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O81" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P81" s="32"/>
       <c r="Q81" s="32" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="R81" s="32" t="s">
         <v>24</v>
@@ -11718,7 +11734,7 @@
       </c>
       <c r="P82" s="32"/>
       <c r="Q82" s="32" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="R82" s="32" t="s">
         <v>19</v>
@@ -11755,7 +11771,7 @@
       </c>
       <c r="P83" s="32"/>
       <c r="Q83" s="32" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="R83" s="32" t="s">
         <v>24</v>
@@ -11785,17 +11801,17 @@
       <c r="H84" s="68"/>
       <c r="M84" s="44"/>
       <c r="N84" s="34">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O84" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P84" s="32"/>
       <c r="Q84" s="32" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="R84" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S84" s="32" t="s">
         <v>20</v>
@@ -11822,17 +11838,17 @@
       <c r="H85" s="68"/>
       <c r="M85" s="44"/>
       <c r="N85" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O85" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P85" s="32"/>
       <c r="Q85" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="R85" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S85" s="32" t="s">
         <v>20</v>
@@ -11859,17 +11875,17 @@
       <c r="H86" s="68"/>
       <c r="M86" s="44"/>
       <c r="N86" s="34">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O86" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P86" s="32"/>
       <c r="Q86" s="32" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="R86" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S86" s="32" t="s">
         <v>20</v>
@@ -11896,17 +11912,17 @@
       <c r="H87" s="68"/>
       <c r="M87" s="44"/>
       <c r="N87" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O87" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P87" s="32"/>
       <c r="Q87" s="32" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="R87" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S87" s="32" t="s">
         <v>20</v>
@@ -11940,7 +11956,7 @@
       </c>
       <c r="P88" s="32"/>
       <c r="Q88" s="32" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="R88" s="32" t="s">
         <v>24</v>
@@ -11977,7 +11993,7 @@
       </c>
       <c r="P89" s="32"/>
       <c r="Q89" s="32" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="R89" s="32" t="s">
         <v>19</v>
@@ -12014,17 +12030,15 @@
       </c>
       <c r="P90" s="32"/>
       <c r="Q90" s="32" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="R90" s="32" t="s">
         <v>24</v>
       </c>
       <c r="S90" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T90" s="54" t="s">
-        <v>47</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="T90" s="35"/>
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B91" s="49">
@@ -12046,17 +12060,17 @@
       <c r="H91" s="68"/>
       <c r="M91" s="44"/>
       <c r="N91" s="34">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O91" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P91" s="32"/>
       <c r="Q91" s="32" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="R91" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S91" s="32" t="s">
         <v>20</v>
@@ -12083,17 +12097,17 @@
       <c r="H92" s="68"/>
       <c r="M92" s="44"/>
       <c r="N92" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O92" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P92" s="32"/>
       <c r="Q92" s="32" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="R92" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S92" s="32" t="s">
         <v>20</v>
@@ -12120,17 +12134,17 @@
       <c r="H93" s="68"/>
       <c r="M93" s="44"/>
       <c r="N93" s="34">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O93" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P93" s="32"/>
       <c r="Q93" s="32" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="R93" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S93" s="32" t="s">
         <v>20</v>
@@ -12157,22 +12171,24 @@
       <c r="H94" s="68"/>
       <c r="M94" s="44"/>
       <c r="N94" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O94" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P94" s="32"/>
       <c r="Q94" s="32" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="R94" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S94" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T94" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="T94" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="95" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B95" s="49">
@@ -12193,15 +12209,15 @@
       <c r="G95" s="67"/>
       <c r="H95" s="68"/>
       <c r="M95" s="44"/>
-      <c r="N95" s="66">
-        <v>141</v>
+      <c r="N95" s="34">
+        <v>130</v>
       </c>
       <c r="O95" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P95" s="32"/>
       <c r="Q95" s="32" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="R95" s="32" t="s">
         <v>24</v>
@@ -12231,17 +12247,17 @@
       <c r="H96" s="68"/>
       <c r="M96" s="44"/>
       <c r="N96" s="34">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O96" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P96" s="32"/>
       <c r="Q96" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="R96" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S96" s="32" t="s">
         <v>20</v>
@@ -12275,7 +12291,7 @@
       </c>
       <c r="P97" s="32"/>
       <c r="Q97" s="32" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="R97" s="32" t="s">
         <v>24</v>
@@ -12312,7 +12328,7 @@
       </c>
       <c r="P98" s="32"/>
       <c r="Q98" s="32" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="R98" s="32" t="s">
         <v>19</v>
@@ -12341,15 +12357,15 @@
       <c r="G99" s="67"/>
       <c r="H99" s="68"/>
       <c r="M99" s="44"/>
-      <c r="N99" s="34">
-        <v>130</v>
+      <c r="N99" s="66">
+        <v>141</v>
       </c>
       <c r="O99" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P99" s="32"/>
       <c r="Q99" s="32" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="R99" s="32" t="s">
         <v>24</v>
@@ -12379,17 +12395,17 @@
       <c r="H100" s="68"/>
       <c r="M100" s="44"/>
       <c r="N100" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O100" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P100" s="32"/>
       <c r="Q100" s="32" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="R100" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S100" s="32" t="s">
         <v>20</v>
@@ -12416,14 +12432,14 @@
       <c r="H101" s="68"/>
       <c r="M101" s="44"/>
       <c r="N101" s="34">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="O101" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P101" s="32"/>
       <c r="Q101" s="32" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="R101" s="32" t="s">
         <v>24</v>
@@ -12460,10 +12476,10 @@
       </c>
       <c r="P102" s="32"/>
       <c r="Q102" s="32" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="R102" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S102" s="32" t="s">
         <v>20</v>
@@ -12489,23 +12505,23 @@
       <c r="G103" s="67"/>
       <c r="H103" s="68"/>
       <c r="M103" s="44"/>
-      <c r="N103" s="81">
-        <v>129</v>
+      <c r="N103" s="34">
+        <v>130</v>
       </c>
       <c r="O103" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P103" s="32"/>
       <c r="Q103" s="32" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="R103" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S103" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T103" s="77"/>
+      <c r="T103" s="35"/>
     </row>
     <row r="104" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B104" s="49">
@@ -12534,10 +12550,10 @@
       </c>
       <c r="P104" s="32"/>
       <c r="Q104" s="32" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="R104" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S104" s="32" t="s">
         <v>20</v>
@@ -12564,17 +12580,17 @@
       <c r="H105" s="68"/>
       <c r="M105" s="44"/>
       <c r="N105" s="34">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="O105" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P105" s="32"/>
       <c r="Q105" s="32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="R105" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S105" s="32" t="s">
         <v>20</v>
@@ -12608,10 +12624,10 @@
       </c>
       <c r="P106" s="32"/>
       <c r="Q106" s="32" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="R106" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S106" s="32" t="s">
         <v>20</v>
@@ -12637,23 +12653,23 @@
       <c r="G107" s="67"/>
       <c r="H107" s="68"/>
       <c r="M107" s="44"/>
-      <c r="N107" s="34">
-        <v>131</v>
+      <c r="N107" s="81">
+        <v>129</v>
       </c>
       <c r="O107" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P107" s="32"/>
       <c r="Q107" s="32" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="R107" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S107" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T107" s="35"/>
+      <c r="T107" s="77"/>
     </row>
     <row r="108" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B108" s="49">
@@ -12682,7 +12698,7 @@
       </c>
       <c r="P108" s="32"/>
       <c r="Q108" s="32" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="R108" s="32" t="s">
         <v>24</v>
@@ -12719,7 +12735,7 @@
       </c>
       <c r="P109" s="32"/>
       <c r="Q109" s="32" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="R109" s="32" t="s">
         <v>19</v>
@@ -12756,10 +12772,10 @@
       </c>
       <c r="P110" s="32"/>
       <c r="Q110" s="32" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="R110" s="32" t="s">
-        <v>383</v>
+        <v>19</v>
       </c>
       <c r="S110" s="32" t="s">
         <v>20</v>
@@ -12793,10 +12809,10 @@
       </c>
       <c r="P111" s="32"/>
       <c r="Q111" s="32" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="R111" s="32" t="s">
-        <v>385</v>
+        <v>24</v>
       </c>
       <c r="S111" s="32" t="s">
         <v>20</v>
@@ -12823,14 +12839,14 @@
       <c r="H112" s="68"/>
       <c r="M112" s="44"/>
       <c r="N112" s="34">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O112" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P112" s="32"/>
       <c r="Q112" s="32" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="R112" s="32" t="s">
         <v>24</v>
@@ -12860,17 +12876,17 @@
       <c r="H113" s="68"/>
       <c r="M113" s="44"/>
       <c r="N113" s="34">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O113" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P113" s="32"/>
       <c r="Q113" s="32" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="R113" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S113" s="32" t="s">
         <v>20</v>
@@ -12896,23 +12912,23 @@
       <c r="G114" s="67"/>
       <c r="H114" s="68"/>
       <c r="M114" s="44"/>
-      <c r="N114" s="81">
-        <v>122</v>
+      <c r="N114" s="34">
+        <v>131</v>
       </c>
       <c r="O114" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P114" s="32"/>
       <c r="Q114" s="32" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="R114" s="32" t="s">
-        <v>16</v>
+        <v>383</v>
       </c>
       <c r="S114" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T114" s="38"/>
+      <c r="T114" s="35"/>
     </row>
     <row r="115" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B115" s="49">
@@ -12934,17 +12950,17 @@
       <c r="H115" s="68"/>
       <c r="M115" s="44"/>
       <c r="N115" s="34">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O115" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P115" s="32"/>
       <c r="Q115" s="32" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="R115" s="32" t="s">
-        <v>16</v>
+        <v>385</v>
       </c>
       <c r="S115" s="32" t="s">
         <v>20</v>
@@ -12971,17 +12987,17 @@
       <c r="H116" s="68"/>
       <c r="M116" s="44"/>
       <c r="N116" s="34">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="O116" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P116" s="32"/>
       <c r="Q116" s="32" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="R116" s="32" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="S116" s="32" t="s">
         <v>20</v>
@@ -13008,14 +13024,14 @@
       <c r="H117" s="68"/>
       <c r="M117" s="44"/>
       <c r="N117" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O117" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P117" s="32"/>
       <c r="Q117" s="32" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="R117" s="32" t="s">
         <v>24</v>
@@ -13044,23 +13060,23 @@
       <c r="G118" s="58"/>
       <c r="H118" s="51"/>
       <c r="M118" s="44"/>
-      <c r="N118" s="34">
-        <v>130</v>
+      <c r="N118" s="81">
+        <v>122</v>
       </c>
       <c r="O118" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P118" s="32"/>
       <c r="Q118" s="32" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="R118" s="32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="S118" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T118" s="35"/>
+      <c r="T118" s="38"/>
     </row>
     <row r="119" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B119" s="49">
@@ -13082,17 +13098,17 @@
       <c r="H119" s="51"/>
       <c r="M119" s="44"/>
       <c r="N119" s="34">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="O119" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P119" s="32"/>
       <c r="Q119" s="32" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="R119" s="32" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="S119" s="32" t="s">
         <v>20</v>
@@ -13119,14 +13135,14 @@
       <c r="H120" s="51"/>
       <c r="M120" s="44"/>
       <c r="N120" s="34">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="O120" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P120" s="32"/>
       <c r="Q120" s="32" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="R120" s="32" t="s">
         <v>218</v>
@@ -13163,7 +13179,7 @@
       </c>
       <c r="P121" s="32"/>
       <c r="Q121" s="32" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R121" s="32" t="s">
         <v>24</v>
@@ -13193,14 +13209,14 @@
       <c r="H122" s="51"/>
       <c r="M122" s="44"/>
       <c r="N122" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O122" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P122" s="32"/>
       <c r="Q122" s="32" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="R122" s="32" t="s">
         <v>24</v>
@@ -13230,17 +13246,17 @@
       <c r="H123" s="51"/>
       <c r="M123" s="44"/>
       <c r="N123" s="34">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="O123" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P123" s="32"/>
       <c r="Q123" s="32" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R123" s="32" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="S123" s="32" t="s">
         <v>20</v>
@@ -13267,17 +13283,17 @@
       <c r="H124" s="51"/>
       <c r="M124" s="44"/>
       <c r="N124" s="34">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="O124" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P124" s="32"/>
       <c r="Q124" s="32" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="R124" s="32" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="S124" s="32" t="s">
         <v>20</v>
@@ -13311,7 +13327,7 @@
       </c>
       <c r="P125" s="32"/>
       <c r="Q125" s="32" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="R125" s="32" t="s">
         <v>24</v>
@@ -13348,10 +13364,10 @@
       </c>
       <c r="P126" s="32"/>
       <c r="Q126" s="32" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="R126" s="32" t="s">
-        <v>401</v>
+        <v>24</v>
       </c>
       <c r="S126" s="32" t="s">
         <v>20</v>
@@ -13385,7 +13401,7 @@
       </c>
       <c r="P127" s="32"/>
       <c r="Q127" s="32" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="R127" s="32" t="s">
         <v>24</v>
@@ -13415,14 +13431,14 @@
       <c r="H128" s="51"/>
       <c r="M128" s="44"/>
       <c r="N128" s="34">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="O128" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P128" s="32"/>
       <c r="Q128" s="32" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="R128" s="32" t="s">
         <v>24</v>
@@ -13459,10 +13475,10 @@
       </c>
       <c r="P129" s="32"/>
       <c r="Q129" s="32" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="R129" s="32" t="s">
-        <v>401</v>
+        <v>24</v>
       </c>
       <c r="S129" s="32" t="s">
         <v>20</v>
@@ -13496,10 +13512,10 @@
       </c>
       <c r="P130" s="32"/>
       <c r="Q130" s="32" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="R130" s="32" t="s">
-        <v>24</v>
+        <v>401</v>
       </c>
       <c r="S130" s="32" t="s">
         <v>20</v>
@@ -13533,10 +13549,10 @@
       </c>
       <c r="P131" s="32"/>
       <c r="Q131" s="32" t="s">
-        <v>699</v>
+        <v>402</v>
       </c>
       <c r="R131" s="32" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="S131" s="32" t="s">
         <v>20</v>
@@ -13569,11 +13585,11 @@
         <v>408</v>
       </c>
       <c r="P132" s="32"/>
-      <c r="Q132" s="141" t="s">
-        <v>700</v>
+      <c r="Q132" s="32" t="s">
+        <v>403</v>
       </c>
       <c r="R132" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S132" s="32" t="s">
         <v>20</v>
@@ -13606,8 +13622,8 @@
         <v>408</v>
       </c>
       <c r="P133" s="32"/>
-      <c r="Q133" s="141" t="s">
-        <v>701</v>
+      <c r="Q133" s="32" t="s">
+        <v>404</v>
       </c>
       <c r="R133" s="32" t="s">
         <v>401</v>
@@ -13643,11 +13659,11 @@
         <v>408</v>
       </c>
       <c r="P134" s="32"/>
-      <c r="Q134" s="141" t="s">
-        <v>702</v>
+      <c r="Q134" s="32" t="s">
+        <v>405</v>
       </c>
       <c r="R134" s="32" t="s">
-        <v>401</v>
+        <v>24</v>
       </c>
       <c r="S134" s="32" t="s">
         <v>20</v>
@@ -13674,24 +13690,24 @@
       <c r="H135" s="68"/>
       <c r="M135" s="44"/>
       <c r="N135" s="34">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="O135" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P135" s="32"/>
       <c r="Q135" s="32" t="s">
-        <v>406</v>
+        <v>699</v>
       </c>
       <c r="R135" s="32" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="S135" s="32" t="s">
         <v>20</v>
       </c>
       <c r="T135" s="35"/>
     </row>
-    <row r="136" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B136" s="66">
         <v>124</v>
       </c>
@@ -13709,24 +13725,24 @@
       </c>
       <c r="G136" s="67"/>
       <c r="H136" s="68"/>
-      <c r="M136" s="45"/>
-      <c r="N136" s="72">
-        <v>51</v>
-      </c>
-      <c r="O136" s="78" t="s">
+      <c r="M136" s="44"/>
+      <c r="N136" s="34">
+        <v>131</v>
+      </c>
+      <c r="O136" s="32" t="s">
         <v>408</v>
       </c>
-      <c r="P136" s="78"/>
-      <c r="Q136" s="78" t="s">
-        <v>407</v>
-      </c>
-      <c r="R136" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="S136" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="T136" s="73"/>
+      <c r="P136" s="32"/>
+      <c r="Q136" s="141" t="s">
+        <v>700</v>
+      </c>
+      <c r="R136" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="S136" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T136" s="35"/>
     </row>
     <row r="137" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B137" s="66">
@@ -13746,26 +13762,24 @@
       </c>
       <c r="G137" s="67"/>
       <c r="H137" s="68"/>
-      <c r="M137" s="71"/>
-      <c r="N137" s="55">
-        <v>150</v>
-      </c>
-      <c r="O137" s="90" t="s">
-        <v>436</v>
-      </c>
-      <c r="P137" s="90"/>
-      <c r="Q137" s="90" t="s">
-        <v>409</v>
-      </c>
-      <c r="R137" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="S137" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="T137" s="110" t="s">
-        <v>47</v>
-      </c>
+      <c r="M137" s="44"/>
+      <c r="N137" s="34">
+        <v>131</v>
+      </c>
+      <c r="O137" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="P137" s="32"/>
+      <c r="Q137" s="141" t="s">
+        <v>701</v>
+      </c>
+      <c r="R137" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="S137" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T137" s="35"/>
     </row>
     <row r="138" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B138" s="47">
@@ -13787,119 +13801,121 @@
       <c r="H138" s="114"/>
       <c r="M138" s="44"/>
       <c r="N138" s="34">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="O138" s="32" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="P138" s="32"/>
-      <c r="Q138" s="32" t="s">
-        <v>410</v>
+      <c r="Q138" s="141" t="s">
+        <v>702</v>
       </c>
       <c r="R138" s="32" t="s">
-        <v>24</v>
+        <v>401</v>
       </c>
       <c r="S138" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T138" s="54" t="s">
-        <v>47</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="T138" s="35"/>
     </row>
     <row r="139" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M139" s="44"/>
       <c r="N139" s="34">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="O139" s="32" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="P139" s="32"/>
       <c r="Q139" s="32" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="R139" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S139" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T139" s="35"/>
+    </row>
+    <row r="140" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M140" s="45"/>
+      <c r="N140" s="72">
+        <v>51</v>
+      </c>
+      <c r="O140" s="78" t="s">
+        <v>408</v>
+      </c>
+      <c r="P140" s="78"/>
+      <c r="Q140" s="78" t="s">
+        <v>407</v>
+      </c>
+      <c r="R140" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="S140" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="T140" s="73"/>
+    </row>
+    <row r="141" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="M141" s="71"/>
+      <c r="N141" s="55">
+        <v>150</v>
+      </c>
+      <c r="O141" s="90" t="s">
+        <v>436</v>
+      </c>
+      <c r="P141" s="90"/>
+      <c r="Q141" s="90" t="s">
+        <v>409</v>
+      </c>
+      <c r="R141" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="S139" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T139" s="35"/>
-    </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="M140" s="44"/>
-      <c r="N140" s="34">
+      <c r="S141" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="O140" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="P140" s="32"/>
-      <c r="Q140" s="32" t="s">
-        <v>412</v>
-      </c>
-      <c r="R140" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="S140" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T140" s="35"/>
-    </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="M141" s="44"/>
-      <c r="N141" s="34">
-        <v>131</v>
-      </c>
-      <c r="O141" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="P141" s="32"/>
-      <c r="Q141" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="R141" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="S141" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T141" s="35"/>
+      <c r="T141" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="142" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M142" s="44"/>
       <c r="N142" s="34">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="O142" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P142" s="32"/>
       <c r="Q142" s="32" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R142" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S142" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T142" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="T142" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="143" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M143" s="44"/>
       <c r="N143" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O143" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P143" s="32"/>
       <c r="Q143" s="32" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="R143" s="32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="S143" s="32" t="s">
         <v>20</v>
@@ -13909,17 +13925,17 @@
     <row r="144" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M144" s="44"/>
       <c r="N144" s="34">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O144" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P144" s="32"/>
       <c r="Q144" s="32" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="R144" s="32" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="S144" s="32" t="s">
         <v>20</v>
@@ -13936,7 +13952,7 @@
       </c>
       <c r="P145" s="32"/>
       <c r="Q145" s="32" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="R145" s="32" t="s">
         <v>19</v>
@@ -13956,10 +13972,10 @@
       </c>
       <c r="P146" s="32"/>
       <c r="Q146" s="32" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="R146" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S146" s="32" t="s">
         <v>20</v>
@@ -13976,10 +13992,10 @@
       </c>
       <c r="P147" s="32"/>
       <c r="Q147" s="32" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="R147" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S147" s="32" t="s">
         <v>20</v>
@@ -13989,17 +14005,17 @@
     <row r="148" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M148" s="44"/>
       <c r="N148" s="34">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="O148" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P148" s="32"/>
       <c r="Q148" s="32" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="R148" s="32" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="S148" s="32" t="s">
         <v>20</v>
@@ -14016,10 +14032,10 @@
       </c>
       <c r="P149" s="32"/>
       <c r="Q149" s="32" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="R149" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S149" s="32" t="s">
         <v>20</v>
@@ -14036,10 +14052,10 @@
       </c>
       <c r="P150" s="32"/>
       <c r="Q150" s="32" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="R150" s="32" t="s">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="S150" s="32" t="s">
         <v>20</v>
@@ -14056,10 +14072,10 @@
       </c>
       <c r="P151" s="32"/>
       <c r="Q151" s="32" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="R151" s="32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S151" s="32" t="s">
         <v>20</v>
@@ -14069,17 +14085,17 @@
     <row r="152" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M152" s="44"/>
       <c r="N152" s="34">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O152" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P152" s="32"/>
       <c r="Q152" s="32" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="R152" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S152" s="32" t="s">
         <v>20</v>
@@ -14089,14 +14105,14 @@
     <row r="153" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M153" s="44"/>
       <c r="N153" s="34">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O153" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P153" s="32"/>
       <c r="Q153" s="32" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="R153" s="32" t="s">
         <v>24</v>
@@ -14116,10 +14132,10 @@
       </c>
       <c r="P154" s="32"/>
       <c r="Q154" s="32" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="R154" s="32" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="S154" s="32" t="s">
         <v>20</v>
@@ -14136,10 +14152,10 @@
       </c>
       <c r="P155" s="32"/>
       <c r="Q155" s="32" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="R155" s="32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="S155" s="32" t="s">
         <v>20</v>
@@ -14149,17 +14165,17 @@
     <row r="156" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M156" s="44"/>
       <c r="N156" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O156" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P156" s="32"/>
       <c r="Q156" s="32" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="R156" s="32" t="s">
-        <v>401</v>
+        <v>24</v>
       </c>
       <c r="S156" s="32" t="s">
         <v>20</v>
@@ -14168,18 +14184,18 @@
     </row>
     <row r="157" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M157" s="44"/>
-      <c r="N157" s="66">
-        <v>23</v>
+      <c r="N157" s="34">
+        <v>130</v>
       </c>
       <c r="O157" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P157" s="32"/>
       <c r="Q157" s="32" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="R157" s="32" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S157" s="32" t="s">
         <v>20</v>
@@ -14189,17 +14205,17 @@
     <row r="158" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M158" s="44"/>
       <c r="N158" s="34">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="O158" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P158" s="32"/>
       <c r="Q158" s="32" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="R158" s="32" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S158" s="32" t="s">
         <v>20</v>
@@ -14209,14 +14225,14 @@
     <row r="159" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M159" s="44"/>
       <c r="N159" s="34">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="O159" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P159" s="32"/>
       <c r="Q159" s="32" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="R159" s="32" t="s">
         <v>24</v>
@@ -14229,17 +14245,17 @@
     <row r="160" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M160" s="44"/>
       <c r="N160" s="34">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="O160" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P160" s="32"/>
       <c r="Q160" s="32" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="R160" s="32" t="s">
-        <v>24</v>
+        <v>401</v>
       </c>
       <c r="S160" s="32" t="s">
         <v>20</v>
@@ -14248,228 +14264,228 @@
     </row>
     <row r="161" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M161" s="44"/>
-      <c r="N161" s="34">
-        <v>83</v>
-      </c>
-      <c r="O161" s="94" t="s">
+      <c r="N161" s="66">
+        <v>23</v>
+      </c>
+      <c r="O161" s="32" t="s">
         <v>436</v>
       </c>
-      <c r="P161" s="94"/>
-      <c r="Q161" s="94" t="s">
-        <v>433</v>
-      </c>
-      <c r="R161" s="95" t="s">
-        <v>203</v>
-      </c>
-      <c r="S161" s="95" t="s">
+      <c r="P161" s="32"/>
+      <c r="Q161" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="R161" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S161" s="32" t="s">
         <v>20</v>
       </c>
       <c r="T161" s="35"/>
     </row>
     <row r="162" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M162" s="44"/>
-      <c r="N162" s="83">
-        <v>134</v>
-      </c>
-      <c r="O162" s="84" t="s">
+      <c r="N162" s="34">
+        <v>25</v>
+      </c>
+      <c r="O162" s="32" t="s">
         <v>436</v>
       </c>
-      <c r="P162" s="84" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q162" s="84" t="s">
-        <v>434</v>
-      </c>
-      <c r="R162" s="84" t="s">
-        <v>203</v>
-      </c>
-      <c r="S162" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T162" s="85"/>
-    </row>
-    <row r="163" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M163" s="45"/>
-      <c r="N163" s="96">
-        <v>134</v>
-      </c>
-      <c r="O163" s="97" t="s">
+      <c r="P162" s="32"/>
+      <c r="Q162" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="R162" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S162" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T162" s="35"/>
+    </row>
+    <row r="163" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M163" s="44"/>
+      <c r="N163" s="34">
+        <v>143</v>
+      </c>
+      <c r="O163" s="32" t="s">
         <v>436</v>
       </c>
-      <c r="P163" s="97" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q163" s="97" t="s">
-        <v>435</v>
-      </c>
-      <c r="R163" s="97" t="s">
-        <v>203</v>
-      </c>
-      <c r="S163" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="T163" s="98"/>
+      <c r="P163" s="32"/>
+      <c r="Q163" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="R163" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S163" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T163" s="35"/>
     </row>
     <row r="164" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M164" s="71"/>
-      <c r="N164" s="55">
-        <v>150</v>
-      </c>
-      <c r="O164" s="90" t="s">
-        <v>482</v>
-      </c>
-      <c r="P164" s="90"/>
-      <c r="Q164" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="R164" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="S164" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="T164" s="110" t="s">
-        <v>47</v>
-      </c>
+      <c r="M164" s="44"/>
+      <c r="N164" s="34">
+        <v>144</v>
+      </c>
+      <c r="O164" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="P164" s="32"/>
+      <c r="Q164" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="R164" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S164" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T164" s="35"/>
     </row>
     <row r="165" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M165" s="44"/>
       <c r="N165" s="34">
-        <v>130</v>
-      </c>
-      <c r="O165" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="P165" s="32"/>
-      <c r="Q165" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="R165" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S165" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T165" s="54" t="s">
-        <v>47</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="O165" s="94" t="s">
+        <v>436</v>
+      </c>
+      <c r="P165" s="94"/>
+      <c r="Q165" s="94" t="s">
+        <v>433</v>
+      </c>
+      <c r="R165" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="S165" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="T165" s="35"/>
     </row>
     <row r="166" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M166" s="44"/>
-      <c r="N166" s="34">
-        <v>135</v>
-      </c>
-      <c r="O166" s="32" t="s">
+      <c r="N166" s="83">
+        <v>134</v>
+      </c>
+      <c r="O166" s="84" t="s">
+        <v>436</v>
+      </c>
+      <c r="P166" s="84" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q166" s="84" t="s">
+        <v>434</v>
+      </c>
+      <c r="R166" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="S166" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T166" s="85"/>
+    </row>
+    <row r="167" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M167" s="45"/>
+      <c r="N167" s="96">
+        <v>134</v>
+      </c>
+      <c r="O167" s="97" t="s">
+        <v>436</v>
+      </c>
+      <c r="P167" s="97" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q167" s="97" t="s">
+        <v>435</v>
+      </c>
+      <c r="R167" s="97" t="s">
+        <v>203</v>
+      </c>
+      <c r="S167" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="T167" s="98"/>
+    </row>
+    <row r="168" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M168" s="71"/>
+      <c r="N168" s="55">
+        <v>150</v>
+      </c>
+      <c r="O168" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="P166" s="32"/>
-      <c r="Q166" s="32" t="s">
-        <v>443</v>
-      </c>
-      <c r="R166" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S166" s="32" t="s">
+      <c r="P168" s="90"/>
+      <c r="Q168" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="R168" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="S168" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="T166" s="54" t="s">
+      <c r="T168" s="110" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="167" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M167" s="44"/>
-      <c r="N167" s="43">
-        <v>151</v>
-      </c>
-      <c r="O167" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="P167" s="32"/>
-      <c r="Q167" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="R167" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="S167" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T167" s="35"/>
-    </row>
-    <row r="168" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M168" s="44"/>
-      <c r="N168" s="43">
-        <v>152</v>
-      </c>
-      <c r="O168" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="P168" s="32"/>
-      <c r="Q168" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R168" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="S168" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T168" s="35"/>
     </row>
     <row r="169" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M169" s="44"/>
-      <c r="N169" s="43">
-        <v>153</v>
+      <c r="N169" s="34">
+        <v>130</v>
       </c>
       <c r="O169" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P169" s="32"/>
       <c r="Q169" s="32" t="s">
-        <v>23</v>
+        <v>442</v>
       </c>
       <c r="R169" s="32" t="s">
         <v>24</v>
       </c>
       <c r="S169" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T169" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="T169" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="170" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M170" s="44"/>
       <c r="N170" s="34">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O170" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P170" s="32"/>
       <c r="Q170" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R170" s="32" t="s">
         <v>24</v>
       </c>
       <c r="S170" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T170" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="T170" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="171" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M171" s="44"/>
-      <c r="N171" s="34">
-        <v>130</v>
+      <c r="N171" s="43">
+        <v>151</v>
       </c>
       <c r="O171" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P171" s="32"/>
       <c r="Q171" s="32" t="s">
-        <v>445</v>
+        <v>18</v>
       </c>
       <c r="R171" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S171" s="32" t="s">
         <v>20</v>
@@ -14478,18 +14494,18 @@
     </row>
     <row r="172" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M172" s="44"/>
-      <c r="N172" s="34">
-        <v>131</v>
+      <c r="N172" s="43">
+        <v>152</v>
       </c>
       <c r="O172" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P172" s="32"/>
       <c r="Q172" s="32" t="s">
-        <v>446</v>
+        <v>21</v>
       </c>
       <c r="R172" s="32" t="s">
-        <v>447</v>
+        <v>22</v>
       </c>
       <c r="S172" s="32" t="s">
         <v>20</v>
@@ -14498,18 +14514,18 @@
     </row>
     <row r="173" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M173" s="44"/>
-      <c r="N173" s="34">
-        <v>131</v>
+      <c r="N173" s="43">
+        <v>153</v>
       </c>
       <c r="O173" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P173" s="32"/>
       <c r="Q173" s="32" t="s">
-        <v>448</v>
+        <v>23</v>
       </c>
       <c r="R173" s="32" t="s">
-        <v>449</v>
+        <v>24</v>
       </c>
       <c r="S173" s="32" t="s">
         <v>20</v>
@@ -14519,14 +14535,14 @@
     <row r="174" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M174" s="44"/>
       <c r="N174" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O174" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P174" s="32"/>
       <c r="Q174" s="32" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="R174" s="32" t="s">
         <v>24</v>
@@ -14539,17 +14555,17 @@
     <row r="175" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M175" s="44"/>
       <c r="N175" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O175" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P175" s="32"/>
       <c r="Q175" s="32" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="R175" s="32" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="S175" s="32" t="s">
         <v>20</v>
@@ -14566,10 +14582,10 @@
       </c>
       <c r="P176" s="32"/>
       <c r="Q176" s="32" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="R176" s="32" t="s">
-        <v>218</v>
+        <v>447</v>
       </c>
       <c r="S176" s="32" t="s">
         <v>20</v>
@@ -14586,10 +14602,10 @@
       </c>
       <c r="P177" s="32"/>
       <c r="Q177" s="32" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="R177" s="32" t="s">
-        <v>218</v>
+        <v>449</v>
       </c>
       <c r="S177" s="32" t="s">
         <v>20</v>
@@ -14598,23 +14614,23 @@
     </row>
     <row r="178" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M178" s="44"/>
-      <c r="N178" s="81">
-        <v>123</v>
+      <c r="N178" s="34">
+        <v>131</v>
       </c>
       <c r="O178" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P178" s="32"/>
       <c r="Q178" s="32" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="R178" s="32" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="S178" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T178" s="38"/>
+      <c r="T178" s="35"/>
     </row>
     <row r="179" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M179" s="44"/>
@@ -14626,10 +14642,10 @@
       </c>
       <c r="P179" s="32"/>
       <c r="Q179" s="32" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="R179" s="32" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="S179" s="32" t="s">
         <v>20</v>
@@ -14646,10 +14662,10 @@
       </c>
       <c r="P180" s="32"/>
       <c r="Q180" s="32" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="R180" s="32" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="S180" s="32" t="s">
         <v>20</v>
@@ -14666,7 +14682,7 @@
       </c>
       <c r="P181" s="32"/>
       <c r="Q181" s="32" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="R181" s="32" t="s">
         <v>218</v>
@@ -14678,15 +14694,15 @@
     </row>
     <row r="182" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M182" s="44"/>
-      <c r="N182" s="34">
-        <v>131</v>
+      <c r="N182" s="81">
+        <v>123</v>
       </c>
       <c r="O182" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P182" s="32"/>
       <c r="Q182" s="32" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="R182" s="32" t="s">
         <v>218</v>
@@ -14694,22 +14710,22 @@
       <c r="S182" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T182" s="35"/>
+      <c r="T182" s="38"/>
     </row>
     <row r="183" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M183" s="44"/>
-      <c r="N183" s="66">
-        <v>136</v>
+      <c r="N183" s="34">
+        <v>131</v>
       </c>
       <c r="O183" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P183" s="32"/>
       <c r="Q183" s="32" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="R183" s="32" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="S183" s="32" t="s">
         <v>20</v>
@@ -14726,10 +14742,10 @@
       </c>
       <c r="P184" s="32"/>
       <c r="Q184" s="32" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="R184" s="32" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="S184" s="32" t="s">
         <v>20</v>
@@ -14746,7 +14762,7 @@
       </c>
       <c r="P185" s="32"/>
       <c r="Q185" s="32" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="R185" s="32" t="s">
         <v>218</v>
@@ -14766,10 +14782,10 @@
       </c>
       <c r="P186" s="32"/>
       <c r="Q186" s="32" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="R186" s="32" t="s">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="S186" s="32" t="s">
         <v>20</v>
@@ -14778,15 +14794,15 @@
     </row>
     <row r="187" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M187" s="44"/>
-      <c r="N187" s="34">
-        <v>131</v>
+      <c r="N187" s="66">
+        <v>136</v>
       </c>
       <c r="O187" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P187" s="32"/>
       <c r="Q187" s="32" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="R187" s="32" t="s">
         <v>218</v>
@@ -14799,14 +14815,14 @@
     <row r="188" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M188" s="44"/>
       <c r="N188" s="34">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="O188" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P188" s="32"/>
       <c r="Q188" s="32" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="R188" s="32" t="s">
         <v>218</v>
@@ -14819,14 +14835,14 @@
     <row r="189" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M189" s="44"/>
       <c r="N189" s="34">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="O189" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P189" s="32"/>
       <c r="Q189" s="32" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="R189" s="32" t="s">
         <v>218</v>
@@ -14839,17 +14855,17 @@
     <row r="190" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M190" s="44"/>
       <c r="N190" s="34">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="O190" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P190" s="32"/>
       <c r="Q190" s="32" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="R190" s="32" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="S190" s="32" t="s">
         <v>20</v>
@@ -14858,15 +14874,15 @@
     </row>
     <row r="191" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M191" s="44"/>
-      <c r="N191" s="81">
-        <v>128</v>
+      <c r="N191" s="34">
+        <v>131</v>
       </c>
       <c r="O191" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P191" s="32"/>
       <c r="Q191" s="32" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="R191" s="32" t="s">
         <v>218</v>
@@ -14874,19 +14890,19 @@
       <c r="S191" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T191" s="38"/>
+      <c r="T191" s="35"/>
     </row>
     <row r="192" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M192" s="44"/>
       <c r="N192" s="34">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="O192" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P192" s="32"/>
       <c r="Q192" s="32" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="R192" s="32" t="s">
         <v>218</v>
@@ -14899,14 +14915,14 @@
     <row r="193" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M193" s="44"/>
       <c r="N193" s="34">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="O193" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P193" s="32"/>
       <c r="Q193" s="32" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="R193" s="32" t="s">
         <v>218</v>
@@ -14918,81 +14934,75 @@
     </row>
     <row r="194" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M194" s="44"/>
-      <c r="N194" s="83">
-        <v>134</v>
-      </c>
-      <c r="O194" s="84" t="s">
+      <c r="N194" s="34">
+        <v>81</v>
+      </c>
+      <c r="O194" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="P194" s="84" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q194" s="84" t="s">
-        <v>470</v>
-      </c>
-      <c r="R194" s="84" t="s">
+      <c r="P194" s="32"/>
+      <c r="Q194" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="R194" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="S194" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T194" s="85"/>
+      <c r="S194" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T194" s="35"/>
     </row>
     <row r="195" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M195" s="44"/>
-      <c r="N195" s="83">
-        <v>134</v>
-      </c>
-      <c r="O195" s="84" t="s">
+      <c r="N195" s="81">
+        <v>128</v>
+      </c>
+      <c r="O195" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="P195" s="84" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q195" s="84" t="s">
-        <v>471</v>
-      </c>
-      <c r="R195" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="S195" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T195" s="85"/>
+      <c r="P195" s="32"/>
+      <c r="Q195" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="R195" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="S195" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T195" s="38"/>
     </row>
     <row r="196" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M196" s="44"/>
-      <c r="N196" s="83">
-        <v>134</v>
-      </c>
-      <c r="O196" s="84" t="s">
+      <c r="N196" s="34">
+        <v>90</v>
+      </c>
+      <c r="O196" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="P196" s="84" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q196" s="84" t="s">
-        <v>472</v>
-      </c>
-      <c r="R196" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="S196" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T196" s="85"/>
+      <c r="P196" s="32"/>
+      <c r="Q196" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="R196" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="S196" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T196" s="35"/>
     </row>
     <row r="197" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M197" s="44"/>
       <c r="N197" s="34">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="O197" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P197" s="32"/>
       <c r="Q197" s="32" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="R197" s="32" t="s">
         <v>218</v>
@@ -15004,75 +15014,81 @@
     </row>
     <row r="198" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M198" s="44"/>
-      <c r="N198" s="81">
-        <v>147</v>
-      </c>
-      <c r="O198" s="32" t="s">
+      <c r="N198" s="83">
+        <v>134</v>
+      </c>
+      <c r="O198" s="84" t="s">
         <v>482</v>
       </c>
-      <c r="P198" s="32"/>
-      <c r="Q198" s="32" t="s">
-        <v>474</v>
-      </c>
-      <c r="R198" s="32" t="s">
+      <c r="P198" s="84" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q198" s="84" t="s">
+        <v>470</v>
+      </c>
+      <c r="R198" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="S198" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T198" s="38"/>
+      <c r="S198" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T198" s="85"/>
     </row>
     <row r="199" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M199" s="44"/>
-      <c r="N199" s="34">
-        <v>74</v>
-      </c>
-      <c r="O199" s="32" t="s">
+      <c r="N199" s="83">
+        <v>134</v>
+      </c>
+      <c r="O199" s="84" t="s">
         <v>482</v>
       </c>
-      <c r="P199" s="32"/>
-      <c r="Q199" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="R199" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="S199" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T199" s="35"/>
+      <c r="P199" s="84" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q199" s="84" t="s">
+        <v>471</v>
+      </c>
+      <c r="R199" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="S199" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T199" s="85"/>
     </row>
     <row r="200" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M200" s="44"/>
-      <c r="N200" s="34">
-        <v>138</v>
-      </c>
-      <c r="O200" s="32" t="s">
+      <c r="N200" s="83">
+        <v>134</v>
+      </c>
+      <c r="O200" s="84" t="s">
         <v>482</v>
       </c>
-      <c r="P200" s="32"/>
-      <c r="Q200" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="R200" s="32" t="s">
+      <c r="P200" s="84" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q200" s="84" t="s">
+        <v>472</v>
+      </c>
+      <c r="R200" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="S200" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T200" s="35"/>
+      <c r="S200" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T200" s="85"/>
     </row>
     <row r="201" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M201" s="44"/>
       <c r="N201" s="34">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O201" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P201" s="32"/>
       <c r="Q201" s="32" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="R201" s="32" t="s">
         <v>218</v>
@@ -15084,15 +15100,15 @@
     </row>
     <row r="202" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M202" s="44"/>
-      <c r="N202" s="34">
-        <v>89</v>
+      <c r="N202" s="81">
+        <v>147</v>
       </c>
       <c r="O202" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P202" s="32"/>
       <c r="Q202" s="32" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="R202" s="32" t="s">
         <v>218</v>
@@ -15100,125 +15116,121 @@
       <c r="S202" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T202" s="35"/>
+      <c r="T202" s="38"/>
     </row>
     <row r="203" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M203" s="44"/>
-      <c r="N203" s="83">
-        <v>134</v>
-      </c>
-      <c r="O203" s="84" t="s">
+      <c r="N203" s="34">
+        <v>74</v>
+      </c>
+      <c r="O203" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="P203" s="84" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q203" s="84" t="s">
-        <v>479</v>
-      </c>
-      <c r="R203" s="84" t="s">
+      <c r="P203" s="32"/>
+      <c r="Q203" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="R203" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="S203" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T203" s="85"/>
+      <c r="S203" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T203" s="35"/>
     </row>
     <row r="204" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M204" s="44"/>
       <c r="N204" s="34">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="O204" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P204" s="32"/>
       <c r="Q204" s="32" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="R204" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S204" s="32" t="s">
         <v>20</v>
       </c>
       <c r="T204" s="35"/>
     </row>
-    <row r="205" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M205" s="45"/>
-      <c r="N205" s="119">
-        <v>126</v>
-      </c>
-      <c r="O205" s="78" t="s">
+    <row r="205" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M205" s="44"/>
+      <c r="N205" s="34">
+        <v>139</v>
+      </c>
+      <c r="O205" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="P205" s="78"/>
-      <c r="Q205" s="78" t="s">
-        <v>481</v>
-      </c>
-      <c r="R205" s="78" t="s">
+      <c r="P205" s="32"/>
+      <c r="Q205" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="R205" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="S205" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="T205" s="120"/>
+      <c r="S205" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T205" s="35"/>
     </row>
     <row r="206" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M206" s="71"/>
-      <c r="N206" s="37">
-        <v>150</v>
-      </c>
-      <c r="O206" s="90" t="s">
-        <v>671</v>
-      </c>
-      <c r="P206" s="90"/>
-      <c r="Q206" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="R206" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="S206" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="T206" s="110" t="s">
-        <v>47</v>
-      </c>
+      <c r="M206" s="44"/>
+      <c r="N206" s="34">
+        <v>89</v>
+      </c>
+      <c r="O206" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="P206" s="32"/>
+      <c r="Q206" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="R206" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="S206" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T206" s="35"/>
     </row>
     <row r="207" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M207" s="44"/>
-      <c r="N207" s="34">
-        <v>145</v>
-      </c>
-      <c r="O207" s="32" t="s">
-        <v>671</v>
-      </c>
-      <c r="P207" s="32"/>
-      <c r="Q207" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="R207" s="32" t="s">
-        <v>648</v>
-      </c>
-      <c r="S207" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T207" s="54" t="s">
-        <v>47</v>
-      </c>
+      <c r="N207" s="83">
+        <v>134</v>
+      </c>
+      <c r="O207" s="84" t="s">
+        <v>482</v>
+      </c>
+      <c r="P207" s="84" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q207" s="84" t="s">
+        <v>479</v>
+      </c>
+      <c r="R207" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="S207" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T207" s="85"/>
     </row>
     <row r="208" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M208" s="44"/>
-      <c r="N208" s="43">
-        <v>151</v>
+      <c r="N208" s="34">
+        <v>105</v>
       </c>
       <c r="O208" s="32" t="s">
-        <v>671</v>
+        <v>482</v>
       </c>
       <c r="P208" s="32"/>
       <c r="Q208" s="32" t="s">
-        <v>18</v>
+        <v>480</v>
       </c>
       <c r="R208" s="32" t="s">
         <v>19</v>
@@ -15228,87 +15240,171 @@
       </c>
       <c r="T208" s="35"/>
     </row>
-    <row r="209" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M209" s="44"/>
-      <c r="N209" s="43">
-        <v>152</v>
-      </c>
-      <c r="O209" s="32" t="s">
+    <row r="209" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M209" s="45"/>
+      <c r="N209" s="119">
+        <v>126</v>
+      </c>
+      <c r="O209" s="78" t="s">
+        <v>482</v>
+      </c>
+      <c r="P209" s="78"/>
+      <c r="Q209" s="78" t="s">
+        <v>481</v>
+      </c>
+      <c r="R209" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="S209" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="T209" s="120"/>
+    </row>
+    <row r="210" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M210" s="71"/>
+      <c r="N210" s="37">
+        <v>150</v>
+      </c>
+      <c r="O210" s="90" t="s">
         <v>671</v>
       </c>
-      <c r="P209" s="32"/>
-      <c r="Q209" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R209" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="S209" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T209" s="35"/>
-    </row>
-    <row r="210" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M210" s="44"/>
-      <c r="N210" s="163">
-        <v>148</v>
-      </c>
-      <c r="O210" s="156" t="s">
-        <v>671</v>
-      </c>
-      <c r="P210" s="156"/>
-      <c r="Q210" s="156" t="s">
-        <v>37</v>
-      </c>
-      <c r="R210" s="156" t="s">
-        <v>19</v>
-      </c>
-      <c r="S210" s="156" t="s">
-        <v>20</v>
-      </c>
-      <c r="T210" s="157"/>
+      <c r="P210" s="90"/>
+      <c r="Q210" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="R210" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="S210" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="T210" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="211" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M211" s="44"/>
       <c r="N211" s="34">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O211" s="32" t="s">
         <v>671</v>
       </c>
       <c r="P211" s="32"/>
       <c r="Q211" s="32" t="s">
-        <v>664</v>
+        <v>495</v>
       </c>
       <c r="R211" s="32" t="s">
-        <v>16</v>
+        <v>648</v>
       </c>
       <c r="S211" s="32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="T211" s="54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="212" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M212" s="45"/>
-      <c r="N212" s="128">
+    <row r="212" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M212" s="44"/>
+      <c r="N212" s="43">
+        <v>151</v>
+      </c>
+      <c r="O212" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="P212" s="32"/>
+      <c r="Q212" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="R212" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="S212" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T212" s="35"/>
+    </row>
+    <row r="213" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M213" s="44"/>
+      <c r="N213" s="43">
+        <v>152</v>
+      </c>
+      <c r="O213" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="P213" s="32"/>
+      <c r="Q213" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R213" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="S213" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T213" s="35"/>
+    </row>
+    <row r="214" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M214" s="44"/>
+      <c r="N214" s="163">
+        <v>148</v>
+      </c>
+      <c r="O214" s="156" t="s">
+        <v>671</v>
+      </c>
+      <c r="P214" s="156"/>
+      <c r="Q214" s="156" t="s">
+        <v>37</v>
+      </c>
+      <c r="R214" s="156" t="s">
+        <v>19</v>
+      </c>
+      <c r="S214" s="156" t="s">
+        <v>20</v>
+      </c>
+      <c r="T214" s="157"/>
+    </row>
+    <row r="215" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M215" s="44"/>
+      <c r="N215" s="34">
+        <v>146</v>
+      </c>
+      <c r="O215" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="P215" s="32"/>
+      <c r="Q215" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="R215" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S215" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T215" s="54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="216" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M216" s="45"/>
+      <c r="N216" s="128">
         <v>149</v>
       </c>
-      <c r="O212" s="129" t="s">
+      <c r="O216" s="129" t="s">
         <v>671</v>
       </c>
-      <c r="P212" s="129"/>
-      <c r="Q212" s="129" t="s">
+      <c r="P216" s="129"/>
+      <c r="Q216" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="R212" s="129" t="s">
+      <c r="R216" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="S212" s="129" t="s">
-        <v>20</v>
-      </c>
-      <c r="T212" s="130"/>
+      <c r="S216" s="129" t="s">
+        <v>20</v>
+      </c>
+      <c r="T216" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15329,10 +15425,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T219"/>
+  <dimension ref="B1:T223"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16954,24 +17050,24 @@
       </c>
       <c r="G41" s="67"/>
       <c r="H41" s="68"/>
-      <c r="M41" s="44"/>
+      <c r="M41" s="74"/>
       <c r="N41" s="34">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O41" s="32" t="s">
         <v>317</v>
       </c>
       <c r="P41" s="32"/>
       <c r="Q41" s="32" t="s">
-        <v>191</v>
+        <v>736</v>
       </c>
       <c r="R41" s="32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S41" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T41" s="38"/>
+      <c r="T41" s="35"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" s="66">
@@ -16991,19 +17087,19 @@
       </c>
       <c r="G42" s="67"/>
       <c r="H42" s="68"/>
-      <c r="M42" s="44"/>
+      <c r="M42" s="74"/>
       <c r="N42" s="34">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O42" s="32" t="s">
         <v>317</v>
       </c>
       <c r="P42" s="32"/>
       <c r="Q42" s="32" t="s">
-        <v>192</v>
+        <v>735</v>
       </c>
       <c r="R42" s="32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="S42" s="32" t="s">
         <v>20</v>
@@ -17028,7 +17124,7 @@
       </c>
       <c r="G43" s="67"/>
       <c r="H43" s="68"/>
-      <c r="M43" s="44"/>
+      <c r="M43" s="74"/>
       <c r="N43" s="34">
         <v>55</v>
       </c>
@@ -17037,15 +17133,15 @@
       </c>
       <c r="P43" s="32"/>
       <c r="Q43" s="32" t="s">
-        <v>193</v>
+        <v>734</v>
       </c>
       <c r="R43" s="32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S43" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T43" s="54"/>
+      <c r="T43" s="35"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B44" s="66">
@@ -17065,24 +17161,24 @@
       </c>
       <c r="G44" s="67"/>
       <c r="H44" s="68"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="49">
-        <v>54</v>
+      <c r="M44" s="74"/>
+      <c r="N44" s="34">
+        <v>55</v>
       </c>
       <c r="O44" s="32" t="s">
         <v>317</v>
       </c>
       <c r="P44" s="32"/>
       <c r="Q44" s="32" t="s">
-        <v>194</v>
+        <v>733</v>
       </c>
       <c r="R44" s="32" t="s">
-        <v>24</v>
+        <v>737</v>
       </c>
       <c r="S44" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T44" s="54"/>
+      <c r="T44" s="35"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45" s="66">
@@ -17111,7 +17207,7 @@
       </c>
       <c r="P45" s="32"/>
       <c r="Q45" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="R45" s="32" t="s">
         <v>19</v>
@@ -17119,7 +17215,7 @@
       <c r="S45" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T45" s="35"/>
+      <c r="T45" s="38"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46" s="66">
@@ -17140,7 +17236,7 @@
       <c r="G46" s="67"/>
       <c r="H46" s="68"/>
       <c r="M46" s="44"/>
-      <c r="N46" s="49">
+      <c r="N46" s="34">
         <v>54</v>
       </c>
       <c r="O46" s="32" t="s">
@@ -17148,7 +17244,7 @@
       </c>
       <c r="P46" s="32"/>
       <c r="Q46" s="32" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="R46" s="32" t="s">
         <v>24</v>
@@ -17177,23 +17273,23 @@
       <c r="G47" s="67"/>
       <c r="H47" s="68"/>
       <c r="M47" s="44"/>
-      <c r="N47" s="49">
-        <v>54</v>
+      <c r="N47" s="34">
+        <v>55</v>
       </c>
       <c r="O47" s="32" t="s">
         <v>317</v>
       </c>
       <c r="P47" s="32"/>
       <c r="Q47" s="32" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="R47" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S47" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T47" s="35"/>
+      <c r="T47" s="54"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B48" s="66">
@@ -17215,14 +17311,14 @@
       <c r="H48" s="68"/>
       <c r="M48" s="44"/>
       <c r="N48" s="49">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="O48" s="32" t="s">
         <v>317</v>
       </c>
       <c r="P48" s="32"/>
       <c r="Q48" s="32" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="R48" s="32" t="s">
         <v>24</v>
@@ -17230,7 +17326,7 @@
       <c r="S48" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T48" s="38"/>
+      <c r="T48" s="54"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B49" s="66">
@@ -17259,15 +17355,15 @@
       </c>
       <c r="P49" s="32"/>
       <c r="Q49" s="32" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="R49" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S49" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T49" s="38"/>
+      <c r="T49" s="35"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B50" s="66">
@@ -17288,15 +17384,15 @@
       <c r="G50" s="67"/>
       <c r="H50" s="68"/>
       <c r="M50" s="44"/>
-      <c r="N50" s="34">
-        <v>55</v>
+      <c r="N50" s="49">
+        <v>54</v>
       </c>
       <c r="O50" s="32" t="s">
         <v>317</v>
       </c>
       <c r="P50" s="32"/>
       <c r="Q50" s="32" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="R50" s="32" t="s">
         <v>24</v>
@@ -17304,7 +17400,7 @@
       <c r="S50" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T50" s="38"/>
+      <c r="T50" s="35"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B51" s="66">
@@ -17325,23 +17421,23 @@
       <c r="G51" s="67"/>
       <c r="H51" s="68"/>
       <c r="M51" s="44"/>
-      <c r="N51" s="81">
-        <v>25</v>
+      <c r="N51" s="49">
+        <v>54</v>
       </c>
       <c r="O51" s="32" t="s">
         <v>317</v>
       </c>
       <c r="P51" s="32"/>
       <c r="Q51" s="32" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="R51" s="32" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S51" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T51" s="77"/>
+      <c r="T51" s="35"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B52" s="66">
@@ -17362,18 +17458,18 @@
       <c r="G52" s="67"/>
       <c r="H52" s="68"/>
       <c r="M52" s="44"/>
-      <c r="N52" s="81">
-        <v>55</v>
+      <c r="N52" s="49">
+        <v>24</v>
       </c>
       <c r="O52" s="32" t="s">
         <v>317</v>
       </c>
       <c r="P52" s="32"/>
       <c r="Q52" s="32" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="R52" s="32" t="s">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="S52" s="32" t="s">
         <v>20</v>
@@ -17399,25 +17495,23 @@
       <c r="G53" s="67"/>
       <c r="H53" s="68"/>
       <c r="M53" s="44"/>
-      <c r="N53" s="163">
-        <v>22</v>
-      </c>
-      <c r="O53" s="156" t="s">
+      <c r="N53" s="34">
+        <v>55</v>
+      </c>
+      <c r="O53" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="P53" s="156"/>
-      <c r="Q53" s="156" t="s">
-        <v>37</v>
-      </c>
-      <c r="R53" s="156" t="s">
-        <v>19</v>
-      </c>
-      <c r="S53" s="156" t="s">
-        <v>20</v>
-      </c>
-      <c r="T53" s="164" t="s">
-        <v>47</v>
-      </c>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="R53" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S53" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T53" s="38"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B54" s="66">
@@ -17446,15 +17540,15 @@
       </c>
       <c r="P54" s="32"/>
       <c r="Q54" s="32" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="R54" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S54" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T54" s="54"/>
+      <c r="T54" s="38"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B55" s="66">
@@ -17475,23 +17569,23 @@
       <c r="G55" s="67"/>
       <c r="H55" s="68"/>
       <c r="M55" s="44"/>
-      <c r="N55" s="70">
-        <v>74</v>
-      </c>
-      <c r="O55" s="86" t="s">
+      <c r="N55" s="81">
+        <v>25</v>
+      </c>
+      <c r="O55" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="P55" s="86"/>
-      <c r="Q55" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="R55" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="S55" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="T55" s="87"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="R55" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S55" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T55" s="77"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B56" s="66">
@@ -17512,7 +17606,7 @@
       <c r="G56" s="67"/>
       <c r="H56" s="68"/>
       <c r="M56" s="44"/>
-      <c r="N56" s="34">
+      <c r="N56" s="81">
         <v>55</v>
       </c>
       <c r="O56" s="32" t="s">
@@ -17520,15 +17614,15 @@
       </c>
       <c r="P56" s="32"/>
       <c r="Q56" s="32" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R56" s="32" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="S56" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T56" s="35"/>
+      <c r="T56" s="38"/>
     </row>
     <row r="57" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="47">
@@ -17549,23 +17643,25 @@
       <c r="G57" s="113"/>
       <c r="H57" s="114"/>
       <c r="M57" s="44"/>
-      <c r="N57" s="34">
-        <v>55</v>
-      </c>
-      <c r="O57" s="32" t="s">
+      <c r="N57" s="163">
+        <v>22</v>
+      </c>
+      <c r="O57" s="156" t="s">
         <v>317</v>
       </c>
-      <c r="P57" s="32"/>
-      <c r="Q57" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="R57" s="32" t="s">
+      <c r="P57" s="156"/>
+      <c r="Q57" s="156" t="s">
+        <v>37</v>
+      </c>
+      <c r="R57" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="S57" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T57" s="35"/>
+      <c r="S57" s="156" t="s">
+        <v>20</v>
+      </c>
+      <c r="T57" s="164" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M58" s="44"/>
@@ -17577,7 +17673,7 @@
       </c>
       <c r="P58" s="32"/>
       <c r="Q58" s="32" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="R58" s="32" t="s">
         <v>19</v>
@@ -17585,27 +17681,27 @@
       <c r="S58" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T58" s="35"/>
+      <c r="T58" s="54"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M59" s="44"/>
-      <c r="N59" s="34">
-        <v>55</v>
-      </c>
-      <c r="O59" s="32" t="s">
+      <c r="N59" s="70">
+        <v>74</v>
+      </c>
+      <c r="O59" s="86" t="s">
         <v>317</v>
       </c>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="R59" s="32" t="s">
+      <c r="P59" s="86"/>
+      <c r="Q59" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="R59" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="S59" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T59" s="35"/>
+      <c r="S59" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="T59" s="87"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M60" s="44"/>
@@ -17617,10 +17713,10 @@
       </c>
       <c r="P60" s="32"/>
       <c r="Q60" s="32" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="R60" s="32" t="s">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="S60" s="32" t="s">
         <v>20</v>
@@ -17637,7 +17733,7 @@
       </c>
       <c r="P61" s="32"/>
       <c r="Q61" s="32" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="R61" s="32" t="s">
         <v>19</v>
@@ -17645,7 +17741,7 @@
       <c r="S61" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T61" s="54"/>
+      <c r="T61" s="35"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M62" s="44"/>
@@ -17657,15 +17753,15 @@
       </c>
       <c r="P62" s="32"/>
       <c r="Q62" s="32" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="R62" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S62" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T62" s="38"/>
+      <c r="T62" s="35"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M63" s="44"/>
@@ -17677,10 +17773,10 @@
       </c>
       <c r="P63" s="32"/>
       <c r="Q63" s="32" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="R63" s="32" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="S63" s="32" t="s">
         <v>20</v>
@@ -17690,37 +17786,37 @@
     <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M64" s="44"/>
       <c r="N64" s="34">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O64" s="32" t="s">
         <v>317</v>
       </c>
       <c r="P64" s="32"/>
       <c r="Q64" s="32" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R64" s="32" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="S64" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T64" s="54"/>
+      <c r="T64" s="35"/>
     </row>
     <row r="65" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M65" s="44"/>
       <c r="N65" s="34">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="O65" s="32" t="s">
         <v>317</v>
       </c>
       <c r="P65" s="32"/>
       <c r="Q65" s="32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="R65" s="32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S65" s="32" t="s">
         <v>20</v>
@@ -17737,7 +17833,7 @@
       </c>
       <c r="P66" s="32"/>
       <c r="Q66" s="32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="R66" s="32" t="s">
         <v>24</v>
@@ -17745,22 +17841,22 @@
       <c r="S66" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T66" s="35"/>
+      <c r="T66" s="38"/>
     </row>
     <row r="67" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M67" s="44"/>
       <c r="N67" s="34">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="O67" s="32" t="s">
         <v>317</v>
       </c>
       <c r="P67" s="32"/>
       <c r="Q67" s="32" t="s">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="R67" s="32" t="s">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="S67" s="32" t="s">
         <v>20</v>
@@ -17770,146 +17866,144 @@
     <row r="68" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M68" s="44"/>
       <c r="N68" s="34">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O68" s="32" t="s">
         <v>317</v>
       </c>
       <c r="P68" s="32"/>
       <c r="Q68" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="R68" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S68" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T68" s="54"/>
+    </row>
+    <row r="69" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M69" s="44"/>
+      <c r="N69" s="34">
+        <v>2</v>
+      </c>
+      <c r="O69" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="R69" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S69" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T69" s="54"/>
+    </row>
+    <row r="70" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M70" s="44"/>
+      <c r="N70" s="34">
+        <v>55</v>
+      </c>
+      <c r="O70" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="R70" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S70" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T70" s="35"/>
+    </row>
+    <row r="71" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M71" s="44"/>
+      <c r="N71" s="34">
+        <v>6</v>
+      </c>
+      <c r="O71" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="R71" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="S71" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T71" s="35"/>
+    </row>
+    <row r="72" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M72" s="44"/>
+      <c r="N72" s="34">
+        <v>55</v>
+      </c>
+      <c r="O72" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="R68" s="32" t="s">
+      <c r="R72" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="S68" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T68" s="35"/>
-    </row>
-    <row r="69" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M69" s="45"/>
-      <c r="N69" s="72">
+      <c r="S72" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T72" s="35"/>
+    </row>
+    <row r="73" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M73" s="45"/>
+      <c r="N73" s="72">
         <v>55</v>
       </c>
-      <c r="O69" s="78" t="s">
+      <c r="O73" s="78" t="s">
         <v>317</v>
       </c>
-      <c r="P69" s="78"/>
-      <c r="Q69" s="78" t="s">
+      <c r="P73" s="78"/>
+      <c r="Q73" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="R69" s="78" t="s">
+      <c r="R73" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="S69" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="T69" s="73"/>
-    </row>
-    <row r="70" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M70" s="170"/>
-      <c r="N70" s="171">
+      <c r="S73" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="T73" s="73"/>
+    </row>
+    <row r="74" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M74" s="170"/>
+      <c r="N74" s="171">
         <v>49</v>
       </c>
-      <c r="O70" s="50" t="s">
+      <c r="O74" s="50" t="s">
         <v>408</v>
       </c>
-      <c r="P70" s="50"/>
-      <c r="Q70" s="50" t="s">
+      <c r="P74" s="50"/>
+      <c r="Q74" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="R70" s="50" t="s">
+      <c r="R74" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="S70" s="50" t="s">
+      <c r="S74" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="T70" s="110" t="s">
+      <c r="T74" s="110" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="71" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M71" s="74"/>
-      <c r="N71" s="66">
-        <v>54</v>
-      </c>
-      <c r="O71" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="P71" s="39"/>
-      <c r="Q71" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="R71" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S71" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="T71" s="54" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M72" s="74"/>
-      <c r="N72" s="66">
-        <v>55</v>
-      </c>
-      <c r="O72" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="R72" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="S72" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="T72" s="54"/>
-    </row>
-    <row r="73" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M73" s="74"/>
-      <c r="N73" s="66">
-        <v>54</v>
-      </c>
-      <c r="O73" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="R73" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S73" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="T73" s="54"/>
-    </row>
-    <row r="74" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M74" s="74"/>
-      <c r="N74" s="66">
-        <v>55</v>
-      </c>
-      <c r="O74" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="R74" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="S74" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="T74" s="54"/>
     </row>
     <row r="75" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M75" s="74"/>
@@ -17921,7 +18015,7 @@
       </c>
       <c r="P75" s="39"/>
       <c r="Q75" s="39" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="R75" s="39" t="s">
         <v>24</v>
@@ -17929,19 +18023,21 @@
       <c r="S75" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T75" s="54"/>
+      <c r="T75" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="76" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M76" s="74"/>
       <c r="N76" s="66">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="O76" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P76" s="39"/>
       <c r="Q76" s="39" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="R76" s="39" t="s">
         <v>19</v>
@@ -17961,7 +18057,7 @@
       </c>
       <c r="P77" s="39"/>
       <c r="Q77" s="39" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="R77" s="39" t="s">
         <v>24</v>
@@ -17981,7 +18077,7 @@
       </c>
       <c r="P78" s="39"/>
       <c r="Q78" s="39" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="R78" s="39" t="s">
         <v>19</v>
@@ -18001,7 +18097,7 @@
       </c>
       <c r="P79" s="39"/>
       <c r="Q79" s="39" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="R79" s="39" t="s">
         <v>24</v>
@@ -18014,14 +18110,14 @@
     <row r="80" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M80" s="74"/>
       <c r="N80" s="66">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="O80" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P80" s="39"/>
       <c r="Q80" s="39" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="R80" s="39" t="s">
         <v>19</v>
@@ -18041,7 +18137,7 @@
       </c>
       <c r="P81" s="39"/>
       <c r="Q81" s="39" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="R81" s="39" t="s">
         <v>24</v>
@@ -18054,17 +18150,17 @@
     <row r="82" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M82" s="74"/>
       <c r="N82" s="66">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O82" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P82" s="39"/>
       <c r="Q82" s="39" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="R82" s="39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S82" s="39" t="s">
         <v>20</v>
@@ -18074,17 +18170,17 @@
     <row r="83" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M83" s="74"/>
       <c r="N83" s="66">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O83" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P83" s="39"/>
       <c r="Q83" s="39" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="R83" s="39" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S83" s="39" t="s">
         <v>20</v>
@@ -18094,17 +18190,17 @@
     <row r="84" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M84" s="74"/>
       <c r="N84" s="66">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O84" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P84" s="39"/>
       <c r="Q84" s="39" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="R84" s="39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S84" s="39" t="s">
         <v>20</v>
@@ -18114,17 +18210,17 @@
     <row r="85" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M85" s="74"/>
       <c r="N85" s="66">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O85" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P85" s="39"/>
       <c r="Q85" s="39" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="R85" s="39" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S85" s="39" t="s">
         <v>20</v>
@@ -18141,7 +18237,7 @@
       </c>
       <c r="P86" s="39"/>
       <c r="Q86" s="39" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="R86" s="39" t="s">
         <v>24</v>
@@ -18161,7 +18257,7 @@
       </c>
       <c r="P87" s="39"/>
       <c r="Q87" s="39" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="R87" s="39" t="s">
         <v>19</v>
@@ -18181,32 +18277,30 @@
       </c>
       <c r="P88" s="39"/>
       <c r="Q88" s="39" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="R88" s="39" t="s">
         <v>24</v>
       </c>
       <c r="S88" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="T88" s="54" t="s">
-        <v>47</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="T88" s="54"/>
     </row>
     <row r="89" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M89" s="74"/>
       <c r="N89" s="66">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O89" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P89" s="39"/>
       <c r="Q89" s="39" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="R89" s="39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S89" s="39" t="s">
         <v>20</v>
@@ -18216,17 +18310,17 @@
     <row r="90" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M90" s="74"/>
       <c r="N90" s="66">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O90" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P90" s="39"/>
       <c r="Q90" s="39" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="R90" s="39" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S90" s="39" t="s">
         <v>20</v>
@@ -18236,17 +18330,17 @@
     <row r="91" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M91" s="74"/>
       <c r="N91" s="66">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O91" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P91" s="39"/>
       <c r="Q91" s="39" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="R91" s="39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S91" s="39" t="s">
         <v>20</v>
@@ -18256,22 +18350,24 @@
     <row r="92" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M92" s="74"/>
       <c r="N92" s="66">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O92" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P92" s="39"/>
       <c r="Q92" s="39" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="R92" s="39" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S92" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="T92" s="54"/>
+        <v>17</v>
+      </c>
+      <c r="T92" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="93" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M93" s="74"/>
@@ -18283,7 +18379,7 @@
       </c>
       <c r="P93" s="39"/>
       <c r="Q93" s="39" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="R93" s="39" t="s">
         <v>24</v>
@@ -18296,17 +18392,17 @@
     <row r="94" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M94" s="74"/>
       <c r="N94" s="66">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O94" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P94" s="39"/>
       <c r="Q94" s="39" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="R94" s="39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S94" s="39" t="s">
         <v>20</v>
@@ -18323,7 +18419,7 @@
       </c>
       <c r="P95" s="39"/>
       <c r="Q95" s="39" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="R95" s="39" t="s">
         <v>24</v>
@@ -18343,7 +18439,7 @@
       </c>
       <c r="P96" s="39"/>
       <c r="Q96" s="39" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="R96" s="39" t="s">
         <v>19</v>
@@ -18363,7 +18459,7 @@
       </c>
       <c r="P97" s="39"/>
       <c r="Q97" s="39" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="R97" s="39" t="s">
         <v>24</v>
@@ -18376,17 +18472,17 @@
     <row r="98" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M98" s="74"/>
       <c r="N98" s="66">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O98" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P98" s="39"/>
       <c r="Q98" s="39" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="R98" s="39" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S98" s="39" t="s">
         <v>20</v>
@@ -18396,14 +18492,14 @@
     <row r="99" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M99" s="74"/>
       <c r="N99" s="66">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O99" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P99" s="39"/>
       <c r="Q99" s="39" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="R99" s="39" t="s">
         <v>24</v>
@@ -18423,10 +18519,10 @@
       </c>
       <c r="P100" s="39"/>
       <c r="Q100" s="39" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="R100" s="39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S100" s="39" t="s">
         <v>20</v>
@@ -18436,17 +18532,17 @@
     <row r="101" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M101" s="74"/>
       <c r="N101" s="66">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O101" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P101" s="39"/>
       <c r="Q101" s="39" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="R101" s="39" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S101" s="39" t="s">
         <v>20</v>
@@ -18463,10 +18559,10 @@
       </c>
       <c r="P102" s="39"/>
       <c r="Q102" s="39" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="R102" s="39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S102" s="39" t="s">
         <v>20</v>
@@ -18483,10 +18579,10 @@
       </c>
       <c r="P103" s="39"/>
       <c r="Q103" s="39" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="R103" s="39" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S103" s="39" t="s">
         <v>20</v>
@@ -18503,10 +18599,10 @@
       </c>
       <c r="P104" s="39"/>
       <c r="Q104" s="39" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="R104" s="39" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S104" s="39" t="s">
         <v>20</v>
@@ -18523,10 +18619,10 @@
       </c>
       <c r="P105" s="39"/>
       <c r="Q105" s="39" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="R105" s="39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S105" s="39" t="s">
         <v>20</v>
@@ -18536,14 +18632,14 @@
     <row r="106" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M106" s="74"/>
       <c r="N106" s="66">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="O106" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P106" s="39"/>
       <c r="Q106" s="39" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="R106" s="39" t="s">
         <v>24</v>
@@ -18563,7 +18659,7 @@
       </c>
       <c r="P107" s="39"/>
       <c r="Q107" s="39" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="R107" s="39" t="s">
         <v>19</v>
@@ -18583,10 +18679,10 @@
       </c>
       <c r="P108" s="39"/>
       <c r="Q108" s="39" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="R108" s="39" t="s">
-        <v>383</v>
+        <v>19</v>
       </c>
       <c r="S108" s="39" t="s">
         <v>20</v>
@@ -18603,10 +18699,10 @@
       </c>
       <c r="P109" s="39"/>
       <c r="Q109" s="39" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="R109" s="39" t="s">
-        <v>385</v>
+        <v>24</v>
       </c>
       <c r="S109" s="39" t="s">
         <v>20</v>
@@ -18616,14 +18712,14 @@
     <row r="110" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M110" s="74"/>
       <c r="N110" s="66">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="O110" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P110" s="39"/>
       <c r="Q110" s="39" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="R110" s="39" t="s">
         <v>24</v>
@@ -18636,17 +18732,17 @@
     <row r="111" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M111" s="74"/>
       <c r="N111" s="66">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O111" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P111" s="39"/>
       <c r="Q111" s="39" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="R111" s="39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S111" s="39" t="s">
         <v>20</v>
@@ -18656,17 +18752,17 @@
     <row r="112" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M112" s="74"/>
       <c r="N112" s="66">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O112" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P112" s="39"/>
       <c r="Q112" s="39" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="R112" s="39" t="s">
-        <v>16</v>
+        <v>383</v>
       </c>
       <c r="S112" s="39" t="s">
         <v>20</v>
@@ -18676,17 +18772,17 @@
     <row r="113" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M113" s="74"/>
       <c r="N113" s="66">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O113" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P113" s="39"/>
       <c r="Q113" s="39" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="R113" s="39" t="s">
-        <v>16</v>
+        <v>385</v>
       </c>
       <c r="S113" s="39" t="s">
         <v>20</v>
@@ -18696,17 +18792,17 @@
     <row r="114" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M114" s="74"/>
       <c r="N114" s="66">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="O114" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P114" s="39"/>
       <c r="Q114" s="39" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="R114" s="39" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="S114" s="39" t="s">
         <v>20</v>
@@ -18716,14 +18812,14 @@
     <row r="115" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M115" s="74"/>
       <c r="N115" s="66">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O115" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P115" s="39"/>
       <c r="Q115" s="39" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="R115" s="39" t="s">
         <v>24</v>
@@ -18743,10 +18839,10 @@
       </c>
       <c r="P116" s="39"/>
       <c r="Q116" s="39" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="R116" s="39" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="S116" s="39" t="s">
         <v>20</v>
@@ -18756,17 +18852,17 @@
     <row r="117" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M117" s="74"/>
       <c r="N117" s="66">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="O117" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P117" s="39"/>
       <c r="Q117" s="39" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="R117" s="39" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="S117" s="39" t="s">
         <v>20</v>
@@ -18776,14 +18872,14 @@
     <row r="118" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M118" s="74"/>
       <c r="N118" s="66">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="O118" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P118" s="39"/>
       <c r="Q118" s="39" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="R118" s="39" t="s">
         <v>218</v>
@@ -18803,7 +18899,7 @@
       </c>
       <c r="P119" s="39"/>
       <c r="Q119" s="39" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R119" s="39" t="s">
         <v>24</v>
@@ -18816,14 +18912,14 @@
     <row r="120" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M120" s="74"/>
       <c r="N120" s="66">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O120" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P120" s="39"/>
       <c r="Q120" s="39" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="R120" s="39" t="s">
         <v>24</v>
@@ -18836,17 +18932,17 @@
     <row r="121" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M121" s="74"/>
       <c r="N121" s="66">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="O121" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P121" s="39"/>
       <c r="Q121" s="39" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R121" s="39" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="S121" s="39" t="s">
         <v>20</v>
@@ -18856,17 +18952,17 @@
     <row r="122" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M122" s="74"/>
       <c r="N122" s="66">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="O122" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P122" s="39"/>
       <c r="Q122" s="39" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="R122" s="39" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="S122" s="39" t="s">
         <v>20</v>
@@ -18883,7 +18979,7 @@
       </c>
       <c r="P123" s="39"/>
       <c r="Q123" s="39" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="R123" s="39" t="s">
         <v>24</v>
@@ -18903,10 +18999,10 @@
       </c>
       <c r="P124" s="39"/>
       <c r="Q124" s="39" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="R124" s="39" t="s">
-        <v>401</v>
+        <v>24</v>
       </c>
       <c r="S124" s="39" t="s">
         <v>20</v>
@@ -18923,7 +19019,7 @@
       </c>
       <c r="P125" s="39"/>
       <c r="Q125" s="39" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="R125" s="39" t="s">
         <v>24</v>
@@ -18936,14 +19032,14 @@
     <row r="126" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M126" s="74"/>
       <c r="N126" s="66">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="O126" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P126" s="39"/>
       <c r="Q126" s="39" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="R126" s="39" t="s">
         <v>24</v>
@@ -18963,10 +19059,10 @@
       </c>
       <c r="P127" s="39"/>
       <c r="Q127" s="39" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="R127" s="39" t="s">
-        <v>401</v>
+        <v>24</v>
       </c>
       <c r="S127" s="39" t="s">
         <v>20</v>
@@ -18975,7 +19071,7 @@
     </row>
     <row r="128" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M128" s="74"/>
-      <c r="N128" s="49">
+      <c r="N128" s="66">
         <v>55</v>
       </c>
       <c r="O128" s="39" t="s">
@@ -18983,27 +19079,27 @@
       </c>
       <c r="P128" s="39"/>
       <c r="Q128" s="39" t="s">
-        <v>699</v>
+        <v>400</v>
       </c>
       <c r="R128" s="39" t="s">
-        <v>218</v>
+        <v>401</v>
       </c>
       <c r="S128" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T128" s="77"/>
+      <c r="T128" s="54"/>
     </row>
     <row r="129" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M129" s="74"/>
-      <c r="N129" s="49">
-        <v>1</v>
+      <c r="N129" s="66">
+        <v>55</v>
       </c>
       <c r="O129" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P129" s="39"/>
       <c r="Q129" s="39" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="R129" s="39" t="s">
         <v>24</v>
@@ -19011,19 +19107,19 @@
       <c r="S129" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T129" s="77"/>
+      <c r="T129" s="54"/>
     </row>
     <row r="130" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M130" s="74"/>
-      <c r="N130" s="49">
-        <v>1</v>
+      <c r="N130" s="66">
+        <v>55</v>
       </c>
       <c r="O130" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P130" s="39"/>
       <c r="Q130" s="39" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="R130" s="39" t="s">
         <v>24</v>
@@ -19031,27 +19127,27 @@
       <c r="S130" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T130" s="77"/>
+      <c r="T130" s="54"/>
     </row>
     <row r="131" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M131" s="74"/>
-      <c r="N131" s="49">
-        <v>12</v>
+      <c r="N131" s="66">
+        <v>55</v>
       </c>
       <c r="O131" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P131" s="39"/>
       <c r="Q131" s="39" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="R131" s="39" t="s">
-        <v>218</v>
+        <v>401</v>
       </c>
       <c r="S131" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T131" s="77"/>
+      <c r="T131" s="54"/>
     </row>
     <row r="132" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M132" s="74"/>
@@ -19062,11 +19158,11 @@
         <v>408</v>
       </c>
       <c r="P132" s="39"/>
-      <c r="Q132" s="167" t="s">
-        <v>700</v>
+      <c r="Q132" s="39" t="s">
+        <v>699</v>
       </c>
       <c r="R132" s="39" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="S132" s="39" t="s">
         <v>20</v>
@@ -19076,181 +19172,181 @@
     <row r="133" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M133" s="74"/>
       <c r="N133" s="49">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="O133" s="39" t="s">
         <v>408</v>
       </c>
       <c r="P133" s="39"/>
-      <c r="Q133" s="167" t="s">
+      <c r="Q133" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="R133" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S133" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T133" s="77"/>
+    </row>
+    <row r="134" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M134" s="74"/>
+      <c r="N134" s="49">
+        <v>1</v>
+      </c>
+      <c r="O134" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="P134" s="39"/>
+      <c r="Q134" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="R134" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S134" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T134" s="77"/>
+    </row>
+    <row r="135" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M135" s="74"/>
+      <c r="N135" s="49">
+        <v>12</v>
+      </c>
+      <c r="O135" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="P135" s="39"/>
+      <c r="Q135" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="R135" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="S135" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T135" s="77"/>
+    </row>
+    <row r="136" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M136" s="74"/>
+      <c r="N136" s="49">
+        <v>55</v>
+      </c>
+      <c r="O136" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="P136" s="39"/>
+      <c r="Q136" s="167" t="s">
+        <v>700</v>
+      </c>
+      <c r="R136" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="S136" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T136" s="77"/>
+    </row>
+    <row r="137" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M137" s="74"/>
+      <c r="N137" s="49">
+        <v>55</v>
+      </c>
+      <c r="O137" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="P137" s="39"/>
+      <c r="Q137" s="167" t="s">
         <v>701</v>
       </c>
-      <c r="R133" s="39" t="s">
+      <c r="R137" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="S133" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="T133" s="77"/>
-    </row>
-    <row r="134" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M134" s="75"/>
-      <c r="N134" s="52">
+      <c r="S137" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T137" s="77"/>
+    </row>
+    <row r="138" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M138" s="75"/>
+      <c r="N138" s="52">
         <v>55</v>
       </c>
-      <c r="O134" s="53" t="s">
+      <c r="O138" s="53" t="s">
         <v>408</v>
       </c>
-      <c r="P134" s="53"/>
-      <c r="Q134" s="166" t="s">
+      <c r="P138" s="53"/>
+      <c r="Q138" s="166" t="s">
         <v>702</v>
       </c>
-      <c r="R134" s="53" t="s">
+      <c r="R138" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="S134" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="T134" s="165"/>
-    </row>
-    <row r="135" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M135" s="71"/>
-      <c r="N135" s="169">
+      <c r="S138" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="T138" s="165"/>
+    </row>
+    <row r="139" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M139" s="71"/>
+      <c r="N139" s="169">
         <v>49</v>
       </c>
-      <c r="O135" s="168" t="s">
+      <c r="O139" s="168" t="s">
         <v>436</v>
       </c>
-      <c r="P135" s="168"/>
-      <c r="Q135" s="168" t="s">
+      <c r="P139" s="168"/>
+      <c r="Q139" s="168" t="s">
         <v>409</v>
       </c>
-      <c r="R135" s="168" t="s">
+      <c r="R139" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="S135" s="168" t="s">
+      <c r="S139" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="T135" s="172" t="s">
+      <c r="T139" s="172" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="136" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M136" s="44"/>
-      <c r="N136" s="34">
-        <v>54</v>
-      </c>
-      <c r="O136" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="P136" s="32"/>
-      <c r="Q136" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="R136" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S136" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T136" s="54" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="137" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M137" s="44"/>
-      <c r="N137" s="34">
-        <v>54</v>
-      </c>
-      <c r="O137" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="P137" s="32"/>
-      <c r="Q137" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="R137" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="S137" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T137" s="35"/>
-    </row>
-    <row r="138" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M138" s="44"/>
-      <c r="N138" s="34">
-        <v>54</v>
-      </c>
-      <c r="O138" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="P138" s="32"/>
-      <c r="Q138" s="32" t="s">
-        <v>412</v>
-      </c>
-      <c r="R138" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="S138" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T138" s="35"/>
-    </row>
-    <row r="139" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M139" s="44"/>
-      <c r="N139" s="34">
-        <v>55</v>
-      </c>
-      <c r="O139" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="P139" s="32"/>
-      <c r="Q139" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="R139" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="S139" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T139" s="35"/>
     </row>
     <row r="140" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M140" s="44"/>
       <c r="N140" s="34">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O140" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P140" s="32"/>
       <c r="Q140" s="32" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R140" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S140" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T140" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="T140" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="141" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M141" s="44"/>
       <c r="N141" s="34">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O141" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P141" s="32"/>
       <c r="Q141" s="32" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="R141" s="32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="S141" s="32" t="s">
         <v>20</v>
@@ -19260,17 +19356,17 @@
     <row r="142" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M142" s="44"/>
       <c r="N142" s="34">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="O142" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P142" s="32"/>
       <c r="Q142" s="32" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="R142" s="32" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="S142" s="32" t="s">
         <v>20</v>
@@ -19287,7 +19383,7 @@
       </c>
       <c r="P143" s="32"/>
       <c r="Q143" s="32" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="R143" s="32" t="s">
         <v>19</v>
@@ -19307,10 +19403,10 @@
       </c>
       <c r="P144" s="32"/>
       <c r="Q144" s="32" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="R144" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S144" s="32" t="s">
         <v>20</v>
@@ -19327,10 +19423,10 @@
       </c>
       <c r="P145" s="32"/>
       <c r="Q145" s="32" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="R145" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S145" s="32" t="s">
         <v>20</v>
@@ -19340,17 +19436,17 @@
     <row r="146" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M146" s="44"/>
       <c r="N146" s="34">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="O146" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P146" s="32"/>
       <c r="Q146" s="32" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="R146" s="32" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="S146" s="32" t="s">
         <v>20</v>
@@ -19367,10 +19463,10 @@
       </c>
       <c r="P147" s="32"/>
       <c r="Q147" s="32" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="R147" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S147" s="32" t="s">
         <v>20</v>
@@ -19387,10 +19483,10 @@
       </c>
       <c r="P148" s="32"/>
       <c r="Q148" s="32" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="R148" s="32" t="s">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="S148" s="32" t="s">
         <v>20</v>
@@ -19407,10 +19503,10 @@
       </c>
       <c r="P149" s="32"/>
       <c r="Q149" s="32" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="R149" s="32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S149" s="32" t="s">
         <v>20</v>
@@ -19420,17 +19516,17 @@
     <row r="150" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M150" s="44"/>
       <c r="N150" s="34">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O150" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P150" s="32"/>
       <c r="Q150" s="32" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="R150" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S150" s="32" t="s">
         <v>20</v>
@@ -19440,14 +19536,14 @@
     <row r="151" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M151" s="44"/>
       <c r="N151" s="34">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O151" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P151" s="32"/>
       <c r="Q151" s="32" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="R151" s="32" t="s">
         <v>24</v>
@@ -19467,10 +19563,10 @@
       </c>
       <c r="P152" s="32"/>
       <c r="Q152" s="32" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="R152" s="32" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="S152" s="32" t="s">
         <v>20</v>
@@ -19487,10 +19583,10 @@
       </c>
       <c r="P153" s="32"/>
       <c r="Q153" s="32" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="R153" s="32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="S153" s="32" t="s">
         <v>20</v>
@@ -19500,17 +19596,17 @@
     <row r="154" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M154" s="44"/>
       <c r="N154" s="34">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O154" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P154" s="32"/>
       <c r="Q154" s="32" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="R154" s="32" t="s">
-        <v>401</v>
+        <v>24</v>
       </c>
       <c r="S154" s="32" t="s">
         <v>20</v>
@@ -19520,17 +19616,17 @@
     <row r="155" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M155" s="44"/>
       <c r="N155" s="34">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O155" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P155" s="32"/>
       <c r="Q155" s="32" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="R155" s="32" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S155" s="32" t="s">
         <v>20</v>
@@ -19540,17 +19636,17 @@
     <row r="156" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M156" s="44"/>
       <c r="N156" s="34">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O156" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P156" s="32"/>
       <c r="Q156" s="32" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="R156" s="32" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S156" s="32" t="s">
         <v>20</v>
@@ -19560,14 +19656,14 @@
     <row r="157" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M157" s="44"/>
       <c r="N157" s="34">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="O157" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P157" s="32"/>
       <c r="Q157" s="32" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="R157" s="32" t="s">
         <v>24</v>
@@ -19580,17 +19676,17 @@
     <row r="158" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M158" s="44"/>
       <c r="N158" s="34">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O158" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P158" s="32"/>
       <c r="Q158" s="32" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="R158" s="32" t="s">
-        <v>24</v>
+        <v>401</v>
       </c>
       <c r="S158" s="32" t="s">
         <v>20</v>
@@ -19600,227 +19696,227 @@
     <row r="159" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M159" s="44"/>
       <c r="N159" s="34">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O159" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P159" s="32"/>
-      <c r="Q159" s="94" t="s">
-        <v>433</v>
-      </c>
-      <c r="R159" s="95" t="s">
-        <v>203</v>
-      </c>
-      <c r="S159" s="95" t="s">
+      <c r="Q159" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="R159" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S159" s="32" t="s">
         <v>20</v>
       </c>
       <c r="T159" s="35"/>
     </row>
     <row r="160" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M160" s="44"/>
-      <c r="N160" s="83">
-        <v>61</v>
-      </c>
-      <c r="O160" s="84" t="s">
+      <c r="N160" s="34">
+        <v>57</v>
+      </c>
+      <c r="O160" s="32" t="s">
         <v>436</v>
       </c>
-      <c r="P160" s="84" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q160" s="84" t="s">
-        <v>434</v>
-      </c>
-      <c r="R160" s="84" t="s">
-        <v>203</v>
-      </c>
-      <c r="S160" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T160" s="85"/>
-    </row>
-    <row r="161" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M161" s="45"/>
-      <c r="N161" s="96">
-        <v>61</v>
-      </c>
-      <c r="O161" s="97" t="s">
+      <c r="P160" s="32"/>
+      <c r="Q160" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="R160" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S160" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T160" s="35"/>
+    </row>
+    <row r="161" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M161" s="44"/>
+      <c r="N161" s="34">
+        <v>67</v>
+      </c>
+      <c r="O161" s="32" t="s">
         <v>436</v>
       </c>
-      <c r="P161" s="97" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q161" s="97" t="s">
-        <v>435</v>
-      </c>
-      <c r="R161" s="97" t="s">
-        <v>203</v>
-      </c>
-      <c r="S161" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="T161" s="98"/>
+      <c r="P161" s="32"/>
+      <c r="Q161" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="R161" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S161" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T161" s="35"/>
     </row>
     <row r="162" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M162" s="71"/>
-      <c r="N162" s="55">
-        <v>49</v>
-      </c>
-      <c r="O162" s="101" t="s">
-        <v>482</v>
-      </c>
-      <c r="P162" s="101"/>
-      <c r="Q162" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="R162" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="S162" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="T162" s="110" t="s">
-        <v>47</v>
-      </c>
+      <c r="M162" s="44"/>
+      <c r="N162" s="34">
+        <v>68</v>
+      </c>
+      <c r="O162" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="P162" s="32"/>
+      <c r="Q162" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="R162" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S162" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T162" s="35"/>
     </row>
     <row r="163" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M163" s="44"/>
       <c r="N163" s="34">
-        <v>54</v>
-      </c>
-      <c r="O163" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="P163" s="25"/>
-      <c r="Q163" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="R163" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S163" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T163" s="54" t="s">
-        <v>47</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="O163" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="P163" s="32"/>
+      <c r="Q163" s="94" t="s">
+        <v>433</v>
+      </c>
+      <c r="R163" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="S163" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="T163" s="35"/>
     </row>
     <row r="164" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M164" s="44"/>
-      <c r="N164" s="34">
-        <v>62</v>
-      </c>
-      <c r="O164" s="25" t="s">
+      <c r="N164" s="83">
+        <v>61</v>
+      </c>
+      <c r="O164" s="84" t="s">
+        <v>436</v>
+      </c>
+      <c r="P164" s="84" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q164" s="84" t="s">
+        <v>434</v>
+      </c>
+      <c r="R164" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="S164" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T164" s="85"/>
+    </row>
+    <row r="165" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M165" s="45"/>
+      <c r="N165" s="96">
+        <v>61</v>
+      </c>
+      <c r="O165" s="97" t="s">
+        <v>436</v>
+      </c>
+      <c r="P165" s="97" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q165" s="97" t="s">
+        <v>435</v>
+      </c>
+      <c r="R165" s="97" t="s">
+        <v>203</v>
+      </c>
+      <c r="S165" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="T165" s="98"/>
+    </row>
+    <row r="166" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M166" s="71"/>
+      <c r="N166" s="55">
+        <v>49</v>
+      </c>
+      <c r="O166" s="101" t="s">
         <v>482</v>
       </c>
-      <c r="P164" s="25"/>
-      <c r="Q164" s="32" t="s">
-        <v>443</v>
-      </c>
-      <c r="R164" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S164" s="32" t="s">
+      <c r="P166" s="101"/>
+      <c r="Q166" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="R166" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="S166" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="T164" s="54" t="s">
+      <c r="T166" s="110" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="165" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M165" s="44"/>
-      <c r="N165" s="34">
-        <v>50</v>
-      </c>
-      <c r="O165" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="P165" s="25"/>
-      <c r="Q165" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="R165" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="S165" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T165" s="35"/>
-    </row>
-    <row r="166" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M166" s="44"/>
-      <c r="N166" s="34">
-        <v>51</v>
-      </c>
-      <c r="O166" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="P166" s="25"/>
-      <c r="Q166" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R166" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="S166" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T166" s="35"/>
     </row>
     <row r="167" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M167" s="44"/>
       <c r="N167" s="34">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O167" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P167" s="25"/>
       <c r="Q167" s="32" t="s">
-        <v>23</v>
+        <v>442</v>
       </c>
       <c r="R167" s="32" t="s">
         <v>24</v>
       </c>
       <c r="S167" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T167" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="T167" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="168" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M168" s="44"/>
       <c r="N168" s="34">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="O168" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P168" s="25"/>
       <c r="Q168" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R168" s="32" t="s">
         <v>24</v>
       </c>
       <c r="S168" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T168" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="T168" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="169" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M169" s="44"/>
       <c r="N169" s="34">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O169" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P169" s="25"/>
       <c r="Q169" s="32" t="s">
-        <v>445</v>
+        <v>18</v>
       </c>
       <c r="R169" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S169" s="32" t="s">
         <v>20</v>
@@ -19830,17 +19926,17 @@
     <row r="170" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M170" s="44"/>
       <c r="N170" s="34">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O170" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P170" s="25"/>
       <c r="Q170" s="32" t="s">
-        <v>446</v>
+        <v>21</v>
       </c>
       <c r="R170" s="32" t="s">
-        <v>447</v>
+        <v>22</v>
       </c>
       <c r="S170" s="32" t="s">
         <v>20</v>
@@ -19850,17 +19946,17 @@
     <row r="171" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M171" s="44"/>
       <c r="N171" s="34">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O171" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P171" s="25"/>
       <c r="Q171" s="32" t="s">
-        <v>448</v>
+        <v>23</v>
       </c>
       <c r="R171" s="32" t="s">
-        <v>449</v>
+        <v>24</v>
       </c>
       <c r="S171" s="32" t="s">
         <v>20</v>
@@ -19870,14 +19966,14 @@
     <row r="172" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M172" s="44"/>
       <c r="N172" s="34">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O172" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P172" s="25"/>
       <c r="Q172" s="32" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="R172" s="32" t="s">
         <v>24</v>
@@ -19890,17 +19986,17 @@
     <row r="173" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M173" s="44"/>
       <c r="N173" s="34">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O173" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P173" s="25"/>
       <c r="Q173" s="32" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="R173" s="32" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="S173" s="32" t="s">
         <v>20</v>
@@ -19917,10 +20013,10 @@
       </c>
       <c r="P174" s="25"/>
       <c r="Q174" s="32" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="R174" s="32" t="s">
-        <v>218</v>
+        <v>447</v>
       </c>
       <c r="S174" s="32" t="s">
         <v>20</v>
@@ -19937,10 +20033,10 @@
       </c>
       <c r="P175" s="25"/>
       <c r="Q175" s="32" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="R175" s="32" t="s">
-        <v>218</v>
+        <v>449</v>
       </c>
       <c r="S175" s="32" t="s">
         <v>20</v>
@@ -19949,23 +20045,23 @@
     </row>
     <row r="176" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M176" s="44"/>
-      <c r="N176" s="81">
-        <v>45</v>
-      </c>
-      <c r="O176" s="39" t="s">
+      <c r="N176" s="34">
+        <v>55</v>
+      </c>
+      <c r="O176" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="P176" s="39"/>
+      <c r="P176" s="25"/>
       <c r="Q176" s="32" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="R176" s="32" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="S176" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T176" s="38"/>
+      <c r="T176" s="35"/>
     </row>
     <row r="177" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M177" s="44"/>
@@ -19977,10 +20073,10 @@
       </c>
       <c r="P177" s="25"/>
       <c r="Q177" s="32" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="R177" s="32" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="S177" s="32" t="s">
         <v>20</v>
@@ -19997,10 +20093,10 @@
       </c>
       <c r="P178" s="25"/>
       <c r="Q178" s="32" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="R178" s="32" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="S178" s="32" t="s">
         <v>20</v>
@@ -20017,7 +20113,7 @@
       </c>
       <c r="P179" s="25"/>
       <c r="Q179" s="32" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="R179" s="32" t="s">
         <v>218</v>
@@ -20029,15 +20125,15 @@
     </row>
     <row r="180" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M180" s="44"/>
-      <c r="N180" s="34">
-        <v>55</v>
-      </c>
-      <c r="O180" s="25" t="s">
+      <c r="N180" s="81">
+        <v>45</v>
+      </c>
+      <c r="O180" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="P180" s="25"/>
+      <c r="P180" s="39"/>
       <c r="Q180" s="32" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="R180" s="32" t="s">
         <v>218</v>
@@ -20045,22 +20141,22 @@
       <c r="S180" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T180" s="35"/>
+      <c r="T180" s="38"/>
     </row>
     <row r="181" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M181" s="44"/>
-      <c r="N181" s="66">
-        <v>63</v>
+      <c r="N181" s="34">
+        <v>55</v>
       </c>
       <c r="O181" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P181" s="25"/>
       <c r="Q181" s="32" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="R181" s="32" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="S181" s="32" t="s">
         <v>20</v>
@@ -20077,10 +20173,10 @@
       </c>
       <c r="P182" s="25"/>
       <c r="Q182" s="32" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="R182" s="32" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="S182" s="32" t="s">
         <v>20</v>
@@ -20097,7 +20193,7 @@
       </c>
       <c r="P183" s="25"/>
       <c r="Q183" s="32" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="R183" s="32" t="s">
         <v>218</v>
@@ -20117,10 +20213,10 @@
       </c>
       <c r="P184" s="25"/>
       <c r="Q184" s="32" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="R184" s="32" t="s">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="S184" s="32" t="s">
         <v>20</v>
@@ -20129,15 +20225,15 @@
     </row>
     <row r="185" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M185" s="44"/>
-      <c r="N185" s="34">
-        <v>55</v>
+      <c r="N185" s="66">
+        <v>63</v>
       </c>
       <c r="O185" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P185" s="25"/>
       <c r="Q185" s="32" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="R185" s="32" t="s">
         <v>218</v>
@@ -20150,14 +20246,14 @@
     <row r="186" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M186" s="44"/>
       <c r="N186" s="34">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="O186" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P186" s="25"/>
       <c r="Q186" s="32" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="R186" s="32" t="s">
         <v>218</v>
@@ -20170,14 +20266,14 @@
     <row r="187" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M187" s="44"/>
       <c r="N187" s="34">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="O187" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P187" s="25"/>
       <c r="Q187" s="32" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="R187" s="32" t="s">
         <v>218</v>
@@ -20190,17 +20286,17 @@
     <row r="188" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M188" s="44"/>
       <c r="N188" s="34">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="O188" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P188" s="25"/>
       <c r="Q188" s="32" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="R188" s="32" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="S188" s="32" t="s">
         <v>20</v>
@@ -20209,15 +20305,15 @@
     </row>
     <row r="189" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M189" s="44"/>
-      <c r="N189" s="81">
-        <v>46</v>
-      </c>
-      <c r="O189" s="39" t="s">
+      <c r="N189" s="34">
+        <v>55</v>
+      </c>
+      <c r="O189" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="P189" s="39"/>
+      <c r="P189" s="25"/>
       <c r="Q189" s="32" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="R189" s="32" t="s">
         <v>218</v>
@@ -20225,19 +20321,19 @@
       <c r="S189" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T189" s="38"/>
+      <c r="T189" s="35"/>
     </row>
     <row r="190" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M190" s="44"/>
       <c r="N190" s="34">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O190" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P190" s="25"/>
       <c r="Q190" s="32" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="R190" s="32" t="s">
         <v>218</v>
@@ -20250,14 +20346,14 @@
     <row r="191" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M191" s="44"/>
       <c r="N191" s="34">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O191" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P191" s="25"/>
       <c r="Q191" s="32" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="R191" s="32" t="s">
         <v>218</v>
@@ -20269,81 +20365,75 @@
     </row>
     <row r="192" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M192" s="44"/>
-      <c r="N192" s="83">
-        <v>61</v>
-      </c>
-      <c r="O192" s="89" t="s">
+      <c r="N192" s="34">
+        <v>64</v>
+      </c>
+      <c r="O192" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="P192" s="89" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q192" s="84" t="s">
-        <v>470</v>
-      </c>
-      <c r="R192" s="84" t="s">
+      <c r="P192" s="25"/>
+      <c r="Q192" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="R192" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="S192" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T192" s="85"/>
+      <c r="S192" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T192" s="35"/>
     </row>
     <row r="193" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M193" s="44"/>
-      <c r="N193" s="83">
-        <v>61</v>
-      </c>
-      <c r="O193" s="89" t="s">
+      <c r="N193" s="81">
+        <v>46</v>
+      </c>
+      <c r="O193" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="P193" s="89" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q193" s="84" t="s">
-        <v>471</v>
-      </c>
-      <c r="R193" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="S193" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T193" s="85"/>
+      <c r="P193" s="39"/>
+      <c r="Q193" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="R193" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="S193" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T193" s="38"/>
     </row>
     <row r="194" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M194" s="44"/>
-      <c r="N194" s="83">
-        <v>61</v>
-      </c>
-      <c r="O194" s="89" t="s">
+      <c r="N194" s="34">
+        <v>40</v>
+      </c>
+      <c r="O194" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="P194" s="89" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q194" s="84" t="s">
-        <v>472</v>
-      </c>
-      <c r="R194" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="S194" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T194" s="85"/>
+      <c r="P194" s="25"/>
+      <c r="Q194" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="R194" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="S194" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T194" s="35"/>
     </row>
     <row r="195" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M195" s="44"/>
       <c r="N195" s="34">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="O195" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P195" s="25"/>
       <c r="Q195" s="32" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="R195" s="32" t="s">
         <v>218</v>
@@ -20355,63 +20445,69 @@
     </row>
     <row r="196" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M196" s="44"/>
-      <c r="N196" s="34">
-        <v>17</v>
-      </c>
-      <c r="O196" s="25" t="s">
+      <c r="N196" s="83">
+        <v>61</v>
+      </c>
+      <c r="O196" s="89" t="s">
         <v>482</v>
       </c>
-      <c r="P196" s="25"/>
-      <c r="Q196" s="32" t="s">
-        <v>474</v>
-      </c>
-      <c r="R196" s="32" t="s">
+      <c r="P196" s="89" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q196" s="84" t="s">
+        <v>470</v>
+      </c>
+      <c r="R196" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="S196" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T196" s="35"/>
+      <c r="S196" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T196" s="85"/>
     </row>
     <row r="197" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M197" s="44"/>
-      <c r="N197" s="34">
-        <v>37</v>
-      </c>
-      <c r="O197" s="25" t="s">
+      <c r="N197" s="83">
+        <v>61</v>
+      </c>
+      <c r="O197" s="89" t="s">
         <v>482</v>
       </c>
-      <c r="P197" s="25"/>
-      <c r="Q197" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="R197" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="S197" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T197" s="35"/>
+      <c r="P197" s="89" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q197" s="84" t="s">
+        <v>471</v>
+      </c>
+      <c r="R197" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="S197" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T197" s="85"/>
     </row>
     <row r="198" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M198" s="44"/>
-      <c r="N198" s="34">
-        <v>65</v>
-      </c>
-      <c r="O198" s="25" t="s">
+      <c r="N198" s="83">
+        <v>61</v>
+      </c>
+      <c r="O198" s="89" t="s">
         <v>482</v>
       </c>
-      <c r="P198" s="25"/>
-      <c r="Q198" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="R198" s="32" t="s">
+      <c r="P198" s="89" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q198" s="84" t="s">
+        <v>472</v>
+      </c>
+      <c r="R198" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="S198" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T198" s="35"/>
+      <c r="S198" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T198" s="85"/>
     </row>
     <row r="199" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M199" s="44"/>
@@ -20423,7 +20519,7 @@
       </c>
       <c r="P199" s="25"/>
       <c r="Q199" s="32" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="R199" s="32" t="s">
         <v>218</v>
@@ -20436,14 +20532,14 @@
     <row r="200" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M200" s="44"/>
       <c r="N200" s="34">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="O200" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P200" s="25"/>
       <c r="Q200" s="32" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="R200" s="32" t="s">
         <v>218</v>
@@ -20455,121 +20551,117 @@
     </row>
     <row r="201" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M201" s="44"/>
-      <c r="N201" s="83">
-        <v>61</v>
-      </c>
-      <c r="O201" s="89" t="s">
+      <c r="N201" s="34">
+        <v>37</v>
+      </c>
+      <c r="O201" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="P201" s="89" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q201" s="84" t="s">
-        <v>479</v>
-      </c>
-      <c r="R201" s="84" t="s">
+      <c r="P201" s="25"/>
+      <c r="Q201" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="R201" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="S201" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T201" s="85"/>
+      <c r="S201" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T201" s="35"/>
     </row>
     <row r="202" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M202" s="44"/>
       <c r="N202" s="34">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="O202" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P202" s="25"/>
       <c r="Q202" s="32" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="R202" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S202" s="32" t="s">
         <v>20</v>
       </c>
       <c r="T202" s="35"/>
     </row>
-    <row r="203" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M203" s="45"/>
-      <c r="N203" s="119">
-        <v>48</v>
-      </c>
-      <c r="O203" s="147" t="s">
+    <row r="203" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M203" s="44"/>
+      <c r="N203" s="34">
+        <v>7</v>
+      </c>
+      <c r="O203" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="P203" s="147"/>
-      <c r="Q203" s="78" t="s">
-        <v>481</v>
-      </c>
-      <c r="R203" s="78" t="s">
+      <c r="P203" s="25"/>
+      <c r="Q203" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="R203" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="S203" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="T203" s="120"/>
+      <c r="S203" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T203" s="35"/>
     </row>
     <row r="204" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M204" s="71"/>
-      <c r="N204" s="55">
-        <v>49</v>
-      </c>
-      <c r="O204" s="90" t="s">
-        <v>671</v>
-      </c>
-      <c r="P204" s="90"/>
-      <c r="Q204" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="R204" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="S204" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="T204" s="110" t="s">
-        <v>47</v>
-      </c>
+      <c r="M204" s="44"/>
+      <c r="N204" s="34">
+        <v>38</v>
+      </c>
+      <c r="O204" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="P204" s="25"/>
+      <c r="Q204" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="R204" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="S204" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T204" s="35"/>
     </row>
     <row r="205" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M205" s="44"/>
-      <c r="N205" s="34">
-        <v>69</v>
-      </c>
-      <c r="O205" s="32" t="s">
-        <v>671</v>
-      </c>
-      <c r="P205" s="32"/>
-      <c r="Q205" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="R205" s="32" t="s">
-        <v>648</v>
-      </c>
-      <c r="S205" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T205" s="54" t="s">
-        <v>47</v>
-      </c>
+      <c r="N205" s="83">
+        <v>61</v>
+      </c>
+      <c r="O205" s="89" t="s">
+        <v>482</v>
+      </c>
+      <c r="P205" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q205" s="84" t="s">
+        <v>479</v>
+      </c>
+      <c r="R205" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="S205" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T205" s="85"/>
     </row>
     <row r="206" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M206" s="44"/>
       <c r="N206" s="34">
-        <v>50</v>
-      </c>
-      <c r="O206" s="32" t="s">
-        <v>671</v>
-      </c>
-      <c r="P206" s="32"/>
+        <v>39</v>
+      </c>
+      <c r="O206" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="P206" s="25"/>
       <c r="Q206" s="32" t="s">
-        <v>18</v>
+        <v>480</v>
       </c>
       <c r="R206" s="32" t="s">
         <v>19</v>
@@ -20579,273 +20671,357 @@
       </c>
       <c r="T206" s="35"/>
     </row>
-    <row r="207" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M207" s="44"/>
-      <c r="N207" s="34">
-        <v>51</v>
-      </c>
-      <c r="O207" s="32" t="s">
+    <row r="207" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M207" s="45"/>
+      <c r="N207" s="119">
+        <v>48</v>
+      </c>
+      <c r="O207" s="147" t="s">
+        <v>482</v>
+      </c>
+      <c r="P207" s="147"/>
+      <c r="Q207" s="78" t="s">
+        <v>481</v>
+      </c>
+      <c r="R207" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="S207" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="T207" s="120"/>
+    </row>
+    <row r="208" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M208" s="71"/>
+      <c r="N208" s="55">
+        <v>49</v>
+      </c>
+      <c r="O208" s="90" t="s">
         <v>671</v>
       </c>
-      <c r="P207" s="32"/>
-      <c r="Q207" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R207" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="S207" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T207" s="35"/>
-    </row>
-    <row r="208" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M208" s="44"/>
-      <c r="N208" s="163">
-        <v>73</v>
-      </c>
-      <c r="O208" s="156" t="s">
-        <v>671</v>
-      </c>
-      <c r="P208" s="156"/>
-      <c r="Q208" s="156" t="s">
-        <v>37</v>
-      </c>
-      <c r="R208" s="156" t="s">
-        <v>19</v>
-      </c>
-      <c r="S208" s="156" t="s">
-        <v>20</v>
-      </c>
-      <c r="T208" s="157"/>
+      <c r="P208" s="90"/>
+      <c r="Q208" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="R208" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="S208" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="T208" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="209" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M209" s="44"/>
       <c r="N209" s="34">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O209" s="32" t="s">
         <v>671</v>
       </c>
       <c r="P209" s="32"/>
       <c r="Q209" s="32" t="s">
-        <v>664</v>
+        <v>495</v>
       </c>
       <c r="R209" s="32" t="s">
-        <v>16</v>
+        <v>648</v>
       </c>
       <c r="S209" s="32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="T209" s="54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="210" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M210" s="45"/>
-      <c r="N210" s="132">
-        <v>74</v>
-      </c>
-      <c r="O210" s="133" t="s">
+    <row r="210" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M210" s="44"/>
+      <c r="N210" s="34">
+        <v>50</v>
+      </c>
+      <c r="O210" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="P210" s="133"/>
-      <c r="Q210" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="R210" s="133" t="s">
+      <c r="P210" s="32"/>
+      <c r="Q210" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="R210" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="S210" s="133" t="s">
-        <v>20</v>
-      </c>
-      <c r="T210" s="134"/>
+      <c r="S210" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T210" s="35"/>
     </row>
     <row r="211" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M211" s="71"/>
-      <c r="N211" s="55">
-        <v>71</v>
-      </c>
-      <c r="O211" s="50" t="s">
-        <v>678</v>
-      </c>
-      <c r="P211" s="50"/>
-      <c r="Q211" s="59" t="s">
-        <v>672</v>
-      </c>
-      <c r="R211" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="S211" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="T211" s="110" t="s">
-        <v>47</v>
-      </c>
+      <c r="M211" s="44"/>
+      <c r="N211" s="34">
+        <v>51</v>
+      </c>
+      <c r="O211" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="P211" s="32"/>
+      <c r="Q211" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R211" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="S211" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T211" s="35"/>
     </row>
     <row r="212" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M212" s="44"/>
-      <c r="N212" s="34">
-        <v>49</v>
-      </c>
-      <c r="O212" s="57" t="s">
-        <v>678</v>
-      </c>
-      <c r="P212" s="57"/>
-      <c r="Q212" s="57" t="s">
-        <v>673</v>
-      </c>
-      <c r="R212" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="S212" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="T212" s="54" t="s">
-        <v>47</v>
-      </c>
+      <c r="N212" s="163">
+        <v>73</v>
+      </c>
+      <c r="O212" s="156" t="s">
+        <v>671</v>
+      </c>
+      <c r="P212" s="156"/>
+      <c r="Q212" s="156" t="s">
+        <v>37</v>
+      </c>
+      <c r="R212" s="156" t="s">
+        <v>19</v>
+      </c>
+      <c r="S212" s="156" t="s">
+        <v>20</v>
+      </c>
+      <c r="T212" s="157"/>
     </row>
     <row r="213" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M213" s="44"/>
       <c r="N213" s="34">
-        <v>72</v>
-      </c>
-      <c r="O213" s="57" t="s">
-        <v>678</v>
-      </c>
-      <c r="P213" s="57"/>
-      <c r="Q213" s="57" t="s">
-        <v>674</v>
-      </c>
-      <c r="R213" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="S213" s="57" t="s">
-        <v>17</v>
+        <v>70</v>
+      </c>
+      <c r="O213" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="P213" s="32"/>
+      <c r="Q213" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="R213" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S213" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="T213" s="54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="214" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M214" s="44"/>
-      <c r="N214" s="163">
-        <v>73</v>
-      </c>
-      <c r="O214" s="149" t="s">
+    <row r="214" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M214" s="45"/>
+      <c r="N214" s="132">
+        <v>74</v>
+      </c>
+      <c r="O214" s="133" t="s">
+        <v>671</v>
+      </c>
+      <c r="P214" s="133"/>
+      <c r="Q214" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="R214" s="133" t="s">
+        <v>19</v>
+      </c>
+      <c r="S214" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="T214" s="134"/>
+    </row>
+    <row r="215" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M215" s="71"/>
+      <c r="N215" s="55">
+        <v>71</v>
+      </c>
+      <c r="O215" s="50" t="s">
         <v>678</v>
       </c>
-      <c r="P214" s="149"/>
-      <c r="Q214" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="R214" s="149" t="s">
-        <v>19</v>
-      </c>
-      <c r="S214" s="149" t="s">
+      <c r="P215" s="50"/>
+      <c r="Q215" s="59" t="s">
+        <v>672</v>
+      </c>
+      <c r="R215" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="S215" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="T214" s="157"/>
-    </row>
-    <row r="215" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M215" s="44"/>
-      <c r="N215" s="34">
-        <v>62</v>
-      </c>
-      <c r="O215" s="39" t="s">
-        <v>678</v>
-      </c>
-      <c r="P215" s="39"/>
-      <c r="Q215" s="57" t="s">
-        <v>675</v>
-      </c>
-      <c r="R215" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="S215" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="T215" s="35"/>
+      <c r="T215" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="216" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M216" s="44"/>
       <c r="N216" s="34">
-        <v>50</v>
-      </c>
-      <c r="O216" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="O216" s="57" t="s">
         <v>678</v>
       </c>
-      <c r="P216" s="39"/>
+      <c r="P216" s="57"/>
       <c r="Q216" s="57" t="s">
-        <v>18</v>
+        <v>673</v>
       </c>
       <c r="R216" s="57" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S216" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="T216" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="T216" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="217" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M217" s="44"/>
       <c r="N217" s="34">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="O217" s="57" t="s">
         <v>678</v>
       </c>
       <c r="P217" s="57"/>
       <c r="Q217" s="57" t="s">
-        <v>21</v>
+        <v>674</v>
       </c>
       <c r="R217" s="57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S217" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="T217" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="T217" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="218" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M218" s="44"/>
-      <c r="N218" s="34">
+      <c r="N218" s="163">
+        <v>73</v>
+      </c>
+      <c r="O218" s="149" t="s">
+        <v>678</v>
+      </c>
+      <c r="P218" s="149"/>
+      <c r="Q218" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="R218" s="149" t="s">
+        <v>19</v>
+      </c>
+      <c r="S218" s="149" t="s">
+        <v>17</v>
+      </c>
+      <c r="T218" s="157"/>
+    </row>
+    <row r="219" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M219" s="44"/>
+      <c r="N219" s="34">
+        <v>62</v>
+      </c>
+      <c r="O219" s="39" t="s">
+        <v>678</v>
+      </c>
+      <c r="P219" s="39"/>
+      <c r="Q219" s="57" t="s">
+        <v>675</v>
+      </c>
+      <c r="R219" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="S219" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="T219" s="35"/>
+    </row>
+    <row r="220" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M220" s="44"/>
+      <c r="N220" s="34">
+        <v>50</v>
+      </c>
+      <c r="O220" s="39" t="s">
+        <v>678</v>
+      </c>
+      <c r="P220" s="39"/>
+      <c r="Q220" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="R220" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="S220" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="T220" s="35"/>
+    </row>
+    <row r="221" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M221" s="44"/>
+      <c r="N221" s="34">
+        <v>51</v>
+      </c>
+      <c r="O221" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="P221" s="57"/>
+      <c r="Q221" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R221" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="S221" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="T221" s="35"/>
+    </row>
+    <row r="222" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M222" s="44"/>
+      <c r="N222" s="34">
         <v>52</v>
       </c>
-      <c r="O218" s="57" t="s">
+      <c r="O222" s="57" t="s">
         <v>678</v>
       </c>
-      <c r="P218" s="57"/>
-      <c r="Q218" s="57" t="s">
+      <c r="P222" s="57"/>
+      <c r="Q222" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="R218" s="57" t="s">
+      <c r="R222" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="S218" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="T218" s="35"/>
-    </row>
-    <row r="219" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M219" s="45"/>
-      <c r="N219" s="128">
+      <c r="S222" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="T222" s="35"/>
+    </row>
+    <row r="223" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M223" s="45"/>
+      <c r="N223" s="128">
         <v>74</v>
       </c>
-      <c r="O219" s="140" t="s">
+      <c r="O223" s="140" t="s">
         <v>678</v>
       </c>
-      <c r="P219" s="140"/>
-      <c r="Q219" s="131" t="s">
+      <c r="P223" s="140"/>
+      <c r="Q223" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="R219" s="131" t="s">
+      <c r="R223" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="S219" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="T219" s="130"/>
+      <c r="S223" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="T223" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -20866,10 +21042,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S85"/>
+  <dimension ref="B1:T89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L49" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56:S56"/>
+    <sheetView topLeftCell="L13" workbookViewId="0">
+      <selection activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22070,7 +22246,7 @@
       </c>
       <c r="S48" s="38"/>
     </row>
-    <row r="49" spans="13:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M49" s="74"/>
       <c r="N49" s="34">
         <v>12</v>
@@ -22089,7 +22265,7 @@
       </c>
       <c r="S49" s="38"/>
     </row>
-    <row r="50" spans="13:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M50" s="74"/>
       <c r="N50" s="81">
         <v>4</v>
@@ -22108,7 +22284,7 @@
       </c>
       <c r="S50" s="77"/>
     </row>
-    <row r="51" spans="13:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M51" s="74"/>
       <c r="N51" s="81">
         <v>12</v>
@@ -22127,7 +22303,7 @@
       </c>
       <c r="S51" s="38"/>
     </row>
-    <row r="52" spans="13:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M52" s="74"/>
       <c r="N52" s="163">
         <v>19</v>
@@ -22148,7 +22324,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="13:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M53" s="74"/>
       <c r="N53" s="34">
         <v>12</v>
@@ -22167,7 +22343,7 @@
       </c>
       <c r="S53" s="54"/>
     </row>
-    <row r="54" spans="13:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M54" s="74"/>
       <c r="N54" s="70">
         <v>20</v>
@@ -22186,7 +22362,7 @@
       </c>
       <c r="S54" s="87"/>
     </row>
-    <row r="55" spans="13:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M55" s="74"/>
       <c r="N55" s="34">
         <v>12</v>
@@ -22205,7 +22381,7 @@
       </c>
       <c r="S55" s="35"/>
     </row>
-    <row r="56" spans="13:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M56" s="74"/>
       <c r="N56" s="81">
         <v>12</v>
@@ -22224,7 +22400,7 @@
       </c>
       <c r="S56" s="38"/>
     </row>
-    <row r="57" spans="13:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M57" s="74"/>
       <c r="N57" s="34">
         <v>12</v>
@@ -22243,7 +22419,7 @@
       </c>
       <c r="S57" s="35"/>
     </row>
-    <row r="58" spans="13:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M58" s="74"/>
       <c r="N58" s="34">
         <v>12</v>
@@ -22262,7 +22438,7 @@
       </c>
       <c r="S58" s="35"/>
     </row>
-    <row r="59" spans="13:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M59" s="74"/>
       <c r="N59" s="34">
         <v>12</v>
@@ -22281,7 +22457,7 @@
       </c>
       <c r="S59" s="35"/>
     </row>
-    <row r="60" spans="13:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M60" s="74"/>
       <c r="N60" s="34">
         <v>12</v>
@@ -22300,7 +22476,7 @@
       </c>
       <c r="S60" s="35"/>
     </row>
-    <row r="61" spans="13:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M61" s="74"/>
       <c r="N61" s="34">
         <v>12</v>
@@ -22319,7 +22495,7 @@
       </c>
       <c r="S61" s="54"/>
     </row>
-    <row r="62" spans="13:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M62" s="74"/>
       <c r="N62" s="34">
         <v>12</v>
@@ -22338,7 +22514,7 @@
       </c>
       <c r="S62" s="38"/>
     </row>
-    <row r="63" spans="13:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M63" s="74"/>
       <c r="N63" s="34">
         <v>12</v>
@@ -22357,7 +22533,7 @@
       </c>
       <c r="S63" s="35"/>
     </row>
-    <row r="64" spans="13:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M64" s="74"/>
       <c r="N64" s="34">
         <v>11</v>
@@ -22374,18 +22550,19 @@
       <c r="R64" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="S64" s="54"/>
-    </row>
-    <row r="65" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="S64" s="35"/>
+      <c r="T64" s="195"/>
+    </row>
+    <row r="65" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M65" s="74"/>
       <c r="N65" s="34">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O65" s="32" t="s">
         <v>317</v>
       </c>
       <c r="P65" s="32" t="s">
-        <v>215</v>
+        <v>736</v>
       </c>
       <c r="Q65" s="32" t="s">
         <v>16</v>
@@ -22393,9 +22570,10 @@
       <c r="R65" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="S65" s="54"/>
-    </row>
-    <row r="66" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="S65" s="35"/>
+      <c r="T65" s="195"/>
+    </row>
+    <row r="66" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M66" s="74"/>
       <c r="N66" s="34">
         <v>12</v>
@@ -22404,36 +22582,38 @@
         <v>317</v>
       </c>
       <c r="P66" s="32" t="s">
-        <v>216</v>
+        <v>735</v>
       </c>
       <c r="Q66" s="32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R66" s="32" t="s">
         <v>20</v>
       </c>
       <c r="S66" s="35"/>
-    </row>
-    <row r="67" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="195"/>
+    </row>
+    <row r="67" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M67" s="74"/>
       <c r="N67" s="34">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O67" s="32" t="s">
         <v>317</v>
       </c>
       <c r="P67" s="32" t="s">
-        <v>217</v>
+        <v>734</v>
       </c>
       <c r="Q67" s="32" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="R67" s="32" t="s">
         <v>20</v>
       </c>
       <c r="S67" s="35"/>
-    </row>
-    <row r="68" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="195"/>
+    </row>
+    <row r="68" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M68" s="74"/>
       <c r="N68" s="34">
         <v>12</v>
@@ -22442,350 +22622,430 @@
         <v>317</v>
       </c>
       <c r="P68" s="32" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q68" s="32" t="s">
+        <v>737</v>
+      </c>
+      <c r="R68" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S68" s="35"/>
+      <c r="T68" s="195"/>
+    </row>
+    <row r="69" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M69" s="74"/>
+      <c r="N69" s="34">
+        <v>5</v>
+      </c>
+      <c r="O69" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="P69" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q69" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="R69" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S69" s="35"/>
+      <c r="T69" s="195"/>
+    </row>
+    <row r="70" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M70" s="74"/>
+      <c r="N70" s="34">
+        <v>12</v>
+      </c>
+      <c r="O70" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="P70" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q70" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="R70" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S70" s="35"/>
+      <c r="T70" s="195"/>
+    </row>
+    <row r="71" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M71" s="74"/>
+      <c r="N71" s="34">
+        <v>6</v>
+      </c>
+      <c r="O71" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="P71" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q71" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="R71" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S71" s="35"/>
+      <c r="T71" s="195"/>
+    </row>
+    <row r="72" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M72" s="74"/>
+      <c r="N72" s="34">
+        <v>12</v>
+      </c>
+      <c r="O72" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="P72" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="Q68" s="32" t="s">
+      <c r="Q72" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="R68" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S68" s="35"/>
-    </row>
-    <row r="69" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M69" s="75"/>
-      <c r="N69" s="72">
+      <c r="R72" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S72" s="35"/>
+    </row>
+    <row r="73" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M73" s="75"/>
+      <c r="N73" s="72">
         <v>12</v>
       </c>
-      <c r="O69" s="78" t="s">
+      <c r="O73" s="78" t="s">
         <v>317</v>
       </c>
-      <c r="P69" s="78" t="s">
+      <c r="P73" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="Q69" s="78" t="s">
+      <c r="Q73" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="R69" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="S69" s="73"/>
-    </row>
-    <row r="70" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M70" s="71"/>
-      <c r="N70" s="55">
+      <c r="R73" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="S73" s="73"/>
+    </row>
+    <row r="74" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M74" s="71"/>
+      <c r="N74" s="55">
         <v>7</v>
       </c>
-      <c r="O70" s="90" t="s">
+      <c r="O74" s="90" t="s">
         <v>671</v>
       </c>
-      <c r="P70" s="90" t="s">
+      <c r="P74" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="Q70" s="90" t="s">
+      <c r="Q74" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="R70" s="90" t="s">
+      <c r="R74" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="S70" s="110" t="s">
+      <c r="S74" s="110" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M71" s="44"/>
-      <c r="N71" s="34">
-        <v>14</v>
-      </c>
-      <c r="O71" s="32" t="s">
-        <v>671</v>
-      </c>
-      <c r="P71" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q71" s="32" t="s">
-        <v>648</v>
-      </c>
-      <c r="R71" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="S71" s="54" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M72" s="44"/>
-      <c r="N72" s="34">
-        <v>8</v>
-      </c>
-      <c r="O72" s="32" t="s">
-        <v>671</v>
-      </c>
-      <c r="P72" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q72" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="R72" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S72" s="35"/>
-    </row>
-    <row r="73" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M73" s="44"/>
-      <c r="N73" s="34">
-        <v>9</v>
-      </c>
-      <c r="O73" s="32" t="s">
-        <v>671</v>
-      </c>
-      <c r="P73" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q73" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="R73" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S73" s="35"/>
-    </row>
-    <row r="74" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M74" s="44"/>
-      <c r="N74" s="163">
-        <v>19</v>
-      </c>
-      <c r="O74" s="156" t="s">
-        <v>671</v>
-      </c>
-      <c r="P74" s="156" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q74" s="156" t="s">
-        <v>19</v>
-      </c>
-      <c r="R74" s="156" t="s">
-        <v>20</v>
-      </c>
-      <c r="S74" s="157"/>
-    </row>
-    <row r="75" spans="13:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M75" s="44"/>
       <c r="N75" s="34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O75" s="32" t="s">
         <v>671</v>
       </c>
       <c r="P75" s="32" t="s">
-        <v>664</v>
+        <v>495</v>
       </c>
       <c r="Q75" s="32" t="s">
-        <v>16</v>
+        <v>648</v>
       </c>
       <c r="R75" s="32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S75" s="54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M76" s="45"/>
-      <c r="N76" s="132">
-        <v>20</v>
-      </c>
-      <c r="O76" s="133" t="s">
+    <row r="76" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M76" s="44"/>
+      <c r="N76" s="34">
+        <v>8</v>
+      </c>
+      <c r="O76" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="P76" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q76" s="133" t="s">
+      <c r="P76" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q76" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="R76" s="133" t="s">
-        <v>20</v>
-      </c>
-      <c r="S76" s="134"/>
-    </row>
-    <row r="77" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M77" s="71"/>
-      <c r="N77" s="55">
-        <v>16</v>
-      </c>
-      <c r="O77" s="59" t="s">
-        <v>678</v>
-      </c>
-      <c r="P77" s="59" t="s">
-        <v>672</v>
-      </c>
-      <c r="Q77" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="R77" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="S77" s="110" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="R76" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S76" s="35"/>
+    </row>
+    <row r="77" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M77" s="44"/>
+      <c r="N77" s="34">
+        <v>9</v>
+      </c>
+      <c r="O77" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="P77" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q77" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="R77" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S77" s="35"/>
+    </row>
+    <row r="78" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M78" s="44"/>
-      <c r="N78" s="34">
-        <v>7</v>
-      </c>
-      <c r="O78" s="57" t="s">
-        <v>678</v>
-      </c>
-      <c r="P78" s="57" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q78" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="R78" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="S78" s="54" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="79" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="N78" s="163">
+        <v>19</v>
+      </c>
+      <c r="O78" s="156" t="s">
+        <v>671</v>
+      </c>
+      <c r="P78" s="156" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q78" s="156" t="s">
+        <v>19</v>
+      </c>
+      <c r="R78" s="156" t="s">
+        <v>20</v>
+      </c>
+      <c r="S78" s="157"/>
+    </row>
+    <row r="79" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M79" s="44"/>
       <c r="N79" s="34">
-        <v>17</v>
-      </c>
-      <c r="O79" s="57" t="s">
-        <v>678</v>
-      </c>
-      <c r="P79" s="57" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q79" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="R79" s="57" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="O79" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="P79" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q79" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="R79" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="S79" s="54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M80" s="44"/>
-      <c r="N80" s="163">
+    <row r="80" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M80" s="45"/>
+      <c r="N80" s="132">
+        <v>20</v>
+      </c>
+      <c r="O80" s="133" t="s">
+        <v>671</v>
+      </c>
+      <c r="P80" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q80" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="O80" s="149" t="s">
+      <c r="R80" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="S80" s="134"/>
+    </row>
+    <row r="81" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M81" s="71"/>
+      <c r="N81" s="55">
+        <v>16</v>
+      </c>
+      <c r="O81" s="59" t="s">
         <v>678</v>
       </c>
-      <c r="P80" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q80" s="149" t="s">
-        <v>19</v>
-      </c>
-      <c r="R80" s="149" t="s">
+      <c r="P81" s="59" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q81" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="R81" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="S80" s="157"/>
-    </row>
-    <row r="81" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M81" s="44"/>
-      <c r="N81" s="34">
-        <v>18</v>
-      </c>
-      <c r="O81" s="57" t="s">
-        <v>678</v>
-      </c>
-      <c r="P81" s="57" t="s">
-        <v>675</v>
-      </c>
-      <c r="Q81" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="R81" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="S81" s="35"/>
+      <c r="S81" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="82" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M82" s="44"/>
       <c r="N82" s="34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O82" s="57" t="s">
         <v>678</v>
       </c>
       <c r="P82" s="57" t="s">
-        <v>18</v>
+        <v>673</v>
       </c>
       <c r="Q82" s="57" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R82" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="S82" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="S82" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="83" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M83" s="44"/>
       <c r="N83" s="34">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O83" s="57" t="s">
         <v>678</v>
       </c>
       <c r="P83" s="57" t="s">
-        <v>21</v>
+        <v>674</v>
       </c>
       <c r="Q83" s="57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R83" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="S83" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="S83" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="84" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M84" s="44"/>
-      <c r="N84" s="34">
+      <c r="N84" s="163">
+        <v>19</v>
+      </c>
+      <c r="O84" s="149" t="s">
+        <v>678</v>
+      </c>
+      <c r="P84" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q84" s="149" t="s">
+        <v>19</v>
+      </c>
+      <c r="R84" s="149" t="s">
+        <v>17</v>
+      </c>
+      <c r="S84" s="157"/>
+    </row>
+    <row r="85" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M85" s="44"/>
+      <c r="N85" s="34">
+        <v>18</v>
+      </c>
+      <c r="O85" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="P85" s="57" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q85" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="R85" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="S85" s="35"/>
+    </row>
+    <row r="86" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M86" s="44"/>
+      <c r="N86" s="34">
+        <v>8</v>
+      </c>
+      <c r="O86" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="P86" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q86" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="R86" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="S86" s="35"/>
+    </row>
+    <row r="87" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M87" s="44"/>
+      <c r="N87" s="34">
+        <v>9</v>
+      </c>
+      <c r="O87" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="P87" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q87" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="R87" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="S87" s="35"/>
+    </row>
+    <row r="88" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M88" s="44"/>
+      <c r="N88" s="34">
         <v>10</v>
       </c>
-      <c r="O84" s="57" t="s">
+      <c r="O88" s="57" t="s">
         <v>678</v>
       </c>
-      <c r="P84" s="57" t="s">
+      <c r="P88" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="Q84" s="57" t="s">
+      <c r="Q88" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="R84" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="S84" s="35"/>
-    </row>
-    <row r="85" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M85" s="45"/>
-      <c r="N85" s="128">
-        <v>20</v>
-      </c>
-      <c r="O85" s="131" t="s">
+      <c r="R88" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="S88" s="35"/>
+    </row>
+    <row r="89" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M89" s="45"/>
+      <c r="N89" s="128">
+        <v>20</v>
+      </c>
+      <c r="O89" s="131" t="s">
         <v>678</v>
       </c>
-      <c r="P85" s="131" t="s">
+      <c r="P89" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="Q85" s="131" t="s">
+      <c r="Q89" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="R85" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="S85" s="130"/>
+      <c r="R89" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="S89" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Cnl/Mapeos_CON_CNL_V1.xlsx
+++ b/Cnl/Mapeos_CON_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="915" windowWidth="9225" windowHeight="4110" tabRatio="583" activeTab="1"/>
+    <workbookView xWindow="285" yWindow="915" windowWidth="9225" windowHeight="4110" tabRatio="583" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T65SOLICITUD" sheetId="36" r:id="rId1"/>
@@ -1276,7 +1276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4060" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="744">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3489,7 +3489,25 @@
     <t>ID_TIP_AMORT</t>
   </si>
   <si>
-    <t>NUMERIC(4,8)</t>
+    <t>ID_PRCDD_FREC_PAG_CAP</t>
+  </si>
+  <si>
+    <t>ID_PRCDD_FREC_PAG_INTR</t>
+  </si>
+  <si>
+    <t>ID_TIP_PLZ</t>
+  </si>
+  <si>
+    <t>MOD_INTR</t>
+  </si>
+  <si>
+    <t>FEC_ESP_TER_CON</t>
+  </si>
+  <si>
+    <t>NUMERIC(6,0)</t>
+  </si>
+  <si>
+    <t>NUMERIC(8,4)</t>
   </si>
 </sst>
 </file>
@@ -4897,6 +4915,7 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4963,7 +4982,6 @@
     <xf numFmtId="0" fontId="3" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="132">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -5541,17 +5559,17 @@
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="175" t="s">
+      <c r="E2" s="176" t="s">
         <v>318</v>
       </c>
-      <c r="F2" s="176"/>
-      <c r="G2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="178"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="178" t="s">
+      <c r="I2" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="179"/>
-      <c r="K2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -5559,9 +5577,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="183"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="184"/>
       <c r="H3" s="10"/>
       <c r="I3" s="62"/>
       <c r="J3" s="25" t="s">
@@ -5575,11 +5593,11 @@
       </c>
       <c r="C4" s="143"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="184" t="s">
+      <c r="E4" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="185"/>
-      <c r="G4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="187"/>
       <c r="H4" s="7"/>
       <c r="I4" s="148"/>
       <c r="J4" s="25" t="s">
@@ -5593,11 +5611,11 @@
       </c>
       <c r="C5" s="143"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="184" t="s">
+      <c r="E5" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="185"/>
-      <c r="G5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="187"/>
       <c r="H5" s="7"/>
       <c r="I5" s="149"/>
       <c r="J5" s="29" t="s">
@@ -5615,30 +5633,30 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="189" t="s">
+      <c r="J7" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="190"/>
-      <c r="L7" s="191"/>
+      <c r="K7" s="191"/>
+      <c r="L7" s="192"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="173" t="s">
+      <c r="N7" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="174"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="174"/>
-      <c r="R7" s="174"/>
-      <c r="S7" s="174"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="175"/>
+      <c r="R7" s="175"/>
+      <c r="S7" s="175"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -8605,10 +8623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T216"/>
+  <dimension ref="B1:T222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M202" workbookViewId="0">
-      <selection activeCell="S212" sqref="S212"/>
+    <sheetView topLeftCell="M58" workbookViewId="0">
+      <selection activeCell="R72" sqref="R72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8651,17 +8669,17 @@
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="175" t="s">
+      <c r="E2" s="176" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="176"/>
-      <c r="G2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="178"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="178" t="s">
+      <c r="I2" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="179"/>
-      <c r="K2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -8669,9 +8687,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="183"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="184"/>
       <c r="H3" s="10"/>
       <c r="I3" s="139"/>
       <c r="J3" s="101" t="s">
@@ -8685,11 +8703,11 @@
       </c>
       <c r="C4" s="143"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="184" t="s">
+      <c r="E4" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="185"/>
-      <c r="G4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="187"/>
       <c r="H4" s="7"/>
       <c r="I4" s="148"/>
       <c r="J4" s="25" t="s">
@@ -8703,11 +8721,11 @@
       </c>
       <c r="C5" s="143"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="184" t="s">
+      <c r="E5" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="185"/>
-      <c r="G5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="187"/>
       <c r="H5" s="7"/>
       <c r="I5" s="149"/>
       <c r="J5" s="29" t="s">
@@ -8747,31 +8765,31 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="187" t="s">
+      <c r="B9" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="188"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="188"/>
-      <c r="F9" s="188"/>
-      <c r="G9" s="188"/>
-      <c r="H9" s="188"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="189" t="s">
+      <c r="J9" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="190"/>
-      <c r="L9" s="191"/>
+      <c r="K9" s="191"/>
+      <c r="L9" s="192"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="192" t="s">
+      <c r="N9" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="193"/>
-      <c r="P9" s="193"/>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="193"/>
-      <c r="S9" s="193"/>
-      <c r="T9" s="194"/>
+      <c r="O9" s="194"/>
+      <c r="P9" s="194"/>
+      <c r="Q9" s="194"/>
+      <c r="R9" s="194"/>
+      <c r="S9" s="194"/>
+      <c r="T9" s="195"/>
     </row>
     <row r="10" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
@@ -11363,7 +11381,7 @@
         <v>733</v>
       </c>
       <c r="R72" s="32" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="S72" s="32" t="s">
         <v>20</v>
@@ -13764,17 +13782,17 @@
       <c r="H137" s="68"/>
       <c r="M137" s="44"/>
       <c r="N137" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O137" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P137" s="32"/>
       <c r="Q137" s="141" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="R137" s="32" t="s">
-        <v>401</v>
+        <v>16</v>
       </c>
       <c r="S137" s="32" t="s">
         <v>20</v>
@@ -13801,17 +13819,17 @@
       <c r="H138" s="114"/>
       <c r="M138" s="44"/>
       <c r="N138" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O138" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P138" s="32"/>
       <c r="Q138" s="141" t="s">
-        <v>702</v>
+        <v>738</v>
       </c>
       <c r="R138" s="32" t="s">
-        <v>401</v>
+        <v>16</v>
       </c>
       <c r="S138" s="32" t="s">
         <v>20</v>
@@ -13821,101 +13839,97 @@
     <row r="139" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M139" s="44"/>
       <c r="N139" s="34">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="O139" s="32" t="s">
         <v>408</v>
       </c>
       <c r="P139" s="32"/>
-      <c r="Q139" s="32" t="s">
-        <v>406</v>
+      <c r="Q139" s="141" t="s">
+        <v>739</v>
       </c>
       <c r="R139" s="32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="S139" s="32" t="s">
         <v>20</v>
       </c>
       <c r="T139" s="35"/>
     </row>
-    <row r="140" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M140" s="45"/>
-      <c r="N140" s="72">
-        <v>51</v>
-      </c>
-      <c r="O140" s="78" t="s">
+    <row r="140" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="M140" s="44"/>
+      <c r="N140" s="34">
+        <v>131</v>
+      </c>
+      <c r="O140" s="32" t="s">
         <v>408</v>
       </c>
-      <c r="P140" s="78"/>
-      <c r="Q140" s="78" t="s">
-        <v>407</v>
-      </c>
-      <c r="R140" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="S140" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="T140" s="73"/>
+      <c r="P140" s="32"/>
+      <c r="Q140" s="141" t="s">
+        <v>500</v>
+      </c>
+      <c r="R140" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="S140" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T140" s="35"/>
     </row>
     <row r="141" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="M141" s="71"/>
-      <c r="N141" s="55">
-        <v>150</v>
-      </c>
-      <c r="O141" s="90" t="s">
-        <v>436</v>
-      </c>
-      <c r="P141" s="90"/>
-      <c r="Q141" s="90" t="s">
-        <v>409</v>
-      </c>
-      <c r="R141" s="90" t="s">
+      <c r="M141" s="44"/>
+      <c r="N141" s="34">
+        <v>131</v>
+      </c>
+      <c r="O141" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="P141" s="32"/>
+      <c r="Q141" s="141" t="s">
+        <v>740</v>
+      </c>
+      <c r="R141" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="S141" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="T141" s="110" t="s">
-        <v>47</v>
-      </c>
+      <c r="S141" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T141" s="35"/>
     </row>
     <row r="142" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M142" s="44"/>
       <c r="N142" s="34">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="O142" s="32" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="P142" s="32"/>
-      <c r="Q142" s="32" t="s">
-        <v>410</v>
+      <c r="Q142" s="141" t="s">
+        <v>741</v>
       </c>
       <c r="R142" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S142" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T142" s="54" t="s">
-        <v>47</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="T142" s="35"/>
     </row>
     <row r="143" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M143" s="44"/>
       <c r="N143" s="34">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O143" s="32" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="P143" s="32"/>
-      <c r="Q143" s="32" t="s">
-        <v>411</v>
+      <c r="Q143" s="141" t="s">
+        <v>701</v>
       </c>
       <c r="R143" s="32" t="s">
-        <v>16</v>
+        <v>401</v>
       </c>
       <c r="S143" s="32" t="s">
         <v>20</v>
@@ -13925,17 +13939,17 @@
     <row r="144" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M144" s="44"/>
       <c r="N144" s="34">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="O144" s="32" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="P144" s="32"/>
-      <c r="Q144" s="32" t="s">
-        <v>412</v>
+      <c r="Q144" s="141" t="s">
+        <v>702</v>
       </c>
       <c r="R144" s="32" t="s">
-        <v>16</v>
+        <v>401</v>
       </c>
       <c r="S144" s="32" t="s">
         <v>20</v>
@@ -13945,97 +13959,101 @@
     <row r="145" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M145" s="44"/>
       <c r="N145" s="34">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="O145" s="32" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="P145" s="32"/>
       <c r="Q145" s="32" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="R145" s="32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S145" s="32" t="s">
         <v>20</v>
       </c>
       <c r="T145" s="35"/>
     </row>
-    <row r="146" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M146" s="44"/>
-      <c r="N146" s="34">
-        <v>131</v>
-      </c>
-      <c r="O146" s="32" t="s">
+    <row r="146" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M146" s="45"/>
+      <c r="N146" s="72">
+        <v>51</v>
+      </c>
+      <c r="O146" s="78" t="s">
+        <v>408</v>
+      </c>
+      <c r="P146" s="78"/>
+      <c r="Q146" s="78" t="s">
+        <v>407</v>
+      </c>
+      <c r="R146" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="S146" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="T146" s="73"/>
+    </row>
+    <row r="147" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M147" s="71"/>
+      <c r="N147" s="55">
+        <v>150</v>
+      </c>
+      <c r="O147" s="90" t="s">
         <v>436</v>
       </c>
-      <c r="P146" s="32"/>
-      <c r="Q146" s="32" t="s">
-        <v>414</v>
-      </c>
-      <c r="R146" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="S146" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T146" s="35"/>
-    </row>
-    <row r="147" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M147" s="44"/>
-      <c r="N147" s="34">
-        <v>131</v>
-      </c>
-      <c r="O147" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="P147" s="32"/>
-      <c r="Q147" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="R147" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S147" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T147" s="35"/>
+      <c r="P147" s="90"/>
+      <c r="Q147" s="90" t="s">
+        <v>409</v>
+      </c>
+      <c r="R147" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="S147" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="T147" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="148" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M148" s="44"/>
       <c r="N148" s="34">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="O148" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P148" s="32"/>
       <c r="Q148" s="32" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="R148" s="32" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="S148" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T148" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="T148" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="149" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M149" s="44"/>
       <c r="N149" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O149" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P149" s="32"/>
       <c r="Q149" s="32" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="R149" s="32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S149" s="32" t="s">
         <v>20</v>
@@ -14045,17 +14063,17 @@
     <row r="150" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M150" s="44"/>
       <c r="N150" s="34">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="O150" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P150" s="32"/>
       <c r="Q150" s="32" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="R150" s="32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="S150" s="32" t="s">
         <v>20</v>
@@ -14072,7 +14090,7 @@
       </c>
       <c r="P151" s="32"/>
       <c r="Q151" s="32" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="R151" s="32" t="s">
         <v>19</v>
@@ -14092,7 +14110,7 @@
       </c>
       <c r="P152" s="32"/>
       <c r="Q152" s="32" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="R152" s="32" t="s">
         <v>19</v>
@@ -14112,7 +14130,7 @@
       </c>
       <c r="P153" s="32"/>
       <c r="Q153" s="32" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="R153" s="32" t="s">
         <v>24</v>
@@ -14125,17 +14143,17 @@
     <row r="154" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M154" s="44"/>
       <c r="N154" s="34">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="O154" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P154" s="32"/>
       <c r="Q154" s="32" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="R154" s="32" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="S154" s="32" t="s">
         <v>20</v>
@@ -14152,10 +14170,10 @@
       </c>
       <c r="P155" s="32"/>
       <c r="Q155" s="32" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="R155" s="32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S155" s="32" t="s">
         <v>20</v>
@@ -14165,14 +14183,14 @@
     <row r="156" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M156" s="44"/>
       <c r="N156" s="34">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O156" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P156" s="32"/>
       <c r="Q156" s="32" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="R156" s="32" t="s">
         <v>24</v>
@@ -14185,17 +14203,17 @@
     <row r="157" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M157" s="44"/>
       <c r="N157" s="34">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O157" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P157" s="32"/>
       <c r="Q157" s="32" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="R157" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S157" s="32" t="s">
         <v>20</v>
@@ -14212,10 +14230,10 @@
       </c>
       <c r="P158" s="32"/>
       <c r="Q158" s="32" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="R158" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S158" s="32" t="s">
         <v>20</v>
@@ -14232,7 +14250,7 @@
       </c>
       <c r="P159" s="32"/>
       <c r="Q159" s="32" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="R159" s="32" t="s">
         <v>24</v>
@@ -14252,10 +14270,10 @@
       </c>
       <c r="P160" s="32"/>
       <c r="Q160" s="32" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="R160" s="32" t="s">
-        <v>401</v>
+        <v>203</v>
       </c>
       <c r="S160" s="32" t="s">
         <v>20</v>
@@ -14264,15 +14282,15 @@
     </row>
     <row r="161" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M161" s="44"/>
-      <c r="N161" s="66">
-        <v>23</v>
+      <c r="N161" s="34">
+        <v>131</v>
       </c>
       <c r="O161" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P161" s="32"/>
       <c r="Q161" s="32" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="R161" s="32" t="s">
         <v>16</v>
@@ -14285,17 +14303,17 @@
     <row r="162" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M162" s="44"/>
       <c r="N162" s="34">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="O162" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P162" s="32"/>
       <c r="Q162" s="32" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="R162" s="32" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S162" s="32" t="s">
         <v>20</v>
@@ -14305,14 +14323,14 @@
     <row r="163" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M163" s="44"/>
       <c r="N163" s="34">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="O163" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P163" s="32"/>
       <c r="Q163" s="32" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="R163" s="32" t="s">
         <v>24</v>
@@ -14325,14 +14343,14 @@
     <row r="164" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M164" s="44"/>
       <c r="N164" s="34">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="O164" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P164" s="32"/>
       <c r="Q164" s="32" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="R164" s="32" t="s">
         <v>24</v>
@@ -14345,212 +14363,208 @@
     <row r="165" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M165" s="44"/>
       <c r="N165" s="34">
-        <v>83</v>
-      </c>
-      <c r="O165" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="O165" s="32" t="s">
         <v>436</v>
       </c>
-      <c r="P165" s="94"/>
-      <c r="Q165" s="94" t="s">
-        <v>433</v>
-      </c>
-      <c r="R165" s="95" t="s">
-        <v>203</v>
-      </c>
-      <c r="S165" s="95" t="s">
+      <c r="P165" s="32"/>
+      <c r="Q165" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="R165" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S165" s="32" t="s">
         <v>20</v>
       </c>
       <c r="T165" s="35"/>
     </row>
     <row r="166" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M166" s="44"/>
-      <c r="N166" s="83">
-        <v>134</v>
-      </c>
-      <c r="O166" s="84" t="s">
+      <c r="N166" s="34">
+        <v>131</v>
+      </c>
+      <c r="O166" s="32" t="s">
         <v>436</v>
       </c>
-      <c r="P166" s="84" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q166" s="84" t="s">
-        <v>434</v>
-      </c>
-      <c r="R166" s="84" t="s">
-        <v>203</v>
-      </c>
-      <c r="S166" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T166" s="85"/>
-    </row>
-    <row r="167" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M167" s="45"/>
-      <c r="N167" s="96">
-        <v>134</v>
-      </c>
-      <c r="O167" s="97" t="s">
+      <c r="P166" s="32"/>
+      <c r="Q166" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="R166" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="S166" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T166" s="35"/>
+    </row>
+    <row r="167" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M167" s="44"/>
+      <c r="N167" s="66">
+        <v>23</v>
+      </c>
+      <c r="O167" s="32" t="s">
         <v>436</v>
       </c>
-      <c r="P167" s="97" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q167" s="97" t="s">
-        <v>435</v>
-      </c>
-      <c r="R167" s="97" t="s">
-        <v>203</v>
-      </c>
-      <c r="S167" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="T167" s="98"/>
+      <c r="P167" s="32"/>
+      <c r="Q167" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="R167" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S167" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T167" s="35"/>
     </row>
     <row r="168" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M168" s="71"/>
-      <c r="N168" s="55">
-        <v>150</v>
-      </c>
-      <c r="O168" s="90" t="s">
-        <v>482</v>
-      </c>
-      <c r="P168" s="90"/>
-      <c r="Q168" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="R168" s="90" t="s">
+      <c r="M168" s="44"/>
+      <c r="N168" s="34">
+        <v>25</v>
+      </c>
+      <c r="O168" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="P168" s="32"/>
+      <c r="Q168" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="R168" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="S168" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="T168" s="110" t="s">
-        <v>47</v>
-      </c>
+      <c r="S168" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T168" s="35"/>
     </row>
     <row r="169" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M169" s="44"/>
       <c r="N169" s="34">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O169" s="32" t="s">
-        <v>482</v>
+        <v>436</v>
       </c>
       <c r="P169" s="32"/>
       <c r="Q169" s="32" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="R169" s="32" t="s">
         <v>24</v>
       </c>
       <c r="S169" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T169" s="54" t="s">
-        <v>47</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="T169" s="35"/>
     </row>
     <row r="170" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M170" s="44"/>
       <c r="N170" s="34">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="O170" s="32" t="s">
-        <v>482</v>
+        <v>436</v>
       </c>
       <c r="P170" s="32"/>
       <c r="Q170" s="32" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="R170" s="32" t="s">
         <v>24</v>
       </c>
       <c r="S170" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T170" s="54" t="s">
-        <v>47</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="T170" s="35"/>
     </row>
     <row r="171" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M171" s="44"/>
-      <c r="N171" s="43">
-        <v>151</v>
-      </c>
-      <c r="O171" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="P171" s="32"/>
-      <c r="Q171" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="R171" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="S171" s="32" t="s">
+      <c r="N171" s="34">
+        <v>83</v>
+      </c>
+      <c r="O171" s="94" t="s">
+        <v>436</v>
+      </c>
+      <c r="P171" s="94"/>
+      <c r="Q171" s="94" t="s">
+        <v>433</v>
+      </c>
+      <c r="R171" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="S171" s="95" t="s">
         <v>20</v>
       </c>
       <c r="T171" s="35"/>
     </row>
     <row r="172" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M172" s="44"/>
-      <c r="N172" s="43">
-        <v>152</v>
-      </c>
-      <c r="O172" s="32" t="s">
+      <c r="N172" s="83">
+        <v>134</v>
+      </c>
+      <c r="O172" s="84" t="s">
+        <v>436</v>
+      </c>
+      <c r="P172" s="84" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q172" s="84" t="s">
+        <v>434</v>
+      </c>
+      <c r="R172" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="S172" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T172" s="85"/>
+    </row>
+    <row r="173" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M173" s="45"/>
+      <c r="N173" s="96">
+        <v>134</v>
+      </c>
+      <c r="O173" s="97" t="s">
+        <v>436</v>
+      </c>
+      <c r="P173" s="97" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q173" s="97" t="s">
+        <v>435</v>
+      </c>
+      <c r="R173" s="97" t="s">
+        <v>203</v>
+      </c>
+      <c r="S173" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="T173" s="98"/>
+    </row>
+    <row r="174" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M174" s="71"/>
+      <c r="N174" s="55">
+        <v>150</v>
+      </c>
+      <c r="O174" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="P172" s="32"/>
-      <c r="Q172" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R172" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="S172" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T172" s="35"/>
-    </row>
-    <row r="173" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M173" s="44"/>
-      <c r="N173" s="43">
-        <v>153</v>
-      </c>
-      <c r="O173" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="P173" s="32"/>
-      <c r="Q173" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="R173" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S173" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T173" s="35"/>
-    </row>
-    <row r="174" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M174" s="44"/>
-      <c r="N174" s="34">
-        <v>130</v>
-      </c>
-      <c r="O174" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="P174" s="32"/>
-      <c r="Q174" s="32" t="s">
-        <v>444</v>
-      </c>
-      <c r="R174" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S174" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T174" s="35"/>
+      <c r="P174" s="90"/>
+      <c r="Q174" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="R174" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="S174" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="T174" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="175" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M175" s="44"/>
@@ -14562,50 +14576,54 @@
       </c>
       <c r="P175" s="32"/>
       <c r="Q175" s="32" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="R175" s="32" t="s">
         <v>24</v>
       </c>
       <c r="S175" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T175" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="T175" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="176" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M176" s="44"/>
       <c r="N176" s="34">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O176" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P176" s="32"/>
       <c r="Q176" s="32" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="R176" s="32" t="s">
-        <v>447</v>
+        <v>24</v>
       </c>
       <c r="S176" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T176" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="T176" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="177" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M177" s="44"/>
-      <c r="N177" s="34">
-        <v>131</v>
+      <c r="N177" s="43">
+        <v>151</v>
       </c>
       <c r="O177" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P177" s="32"/>
       <c r="Q177" s="32" t="s">
-        <v>448</v>
+        <v>18</v>
       </c>
       <c r="R177" s="32" t="s">
-        <v>449</v>
+        <v>19</v>
       </c>
       <c r="S177" s="32" t="s">
         <v>20</v>
@@ -14614,18 +14632,18 @@
     </row>
     <row r="178" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M178" s="44"/>
-      <c r="N178" s="34">
-        <v>131</v>
+      <c r="N178" s="43">
+        <v>152</v>
       </c>
       <c r="O178" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P178" s="32"/>
       <c r="Q178" s="32" t="s">
-        <v>450</v>
+        <v>21</v>
       </c>
       <c r="R178" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S178" s="32" t="s">
         <v>20</v>
@@ -14634,18 +14652,18 @@
     </row>
     <row r="179" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M179" s="44"/>
-      <c r="N179" s="34">
-        <v>131</v>
+      <c r="N179" s="43">
+        <v>153</v>
       </c>
       <c r="O179" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P179" s="32"/>
       <c r="Q179" s="32" t="s">
-        <v>451</v>
+        <v>23</v>
       </c>
       <c r="R179" s="32" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="S179" s="32" t="s">
         <v>20</v>
@@ -14655,17 +14673,17 @@
     <row r="180" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M180" s="44"/>
       <c r="N180" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O180" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P180" s="32"/>
       <c r="Q180" s="32" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="R180" s="32" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="S180" s="32" t="s">
         <v>20</v>
@@ -14675,17 +14693,17 @@
     <row r="181" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M181" s="44"/>
       <c r="N181" s="34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O181" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P181" s="32"/>
       <c r="Q181" s="32" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="R181" s="32" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="S181" s="32" t="s">
         <v>20</v>
@@ -14694,23 +14712,23 @@
     </row>
     <row r="182" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M182" s="44"/>
-      <c r="N182" s="81">
-        <v>123</v>
+      <c r="N182" s="34">
+        <v>131</v>
       </c>
       <c r="O182" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P182" s="32"/>
       <c r="Q182" s="32" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="R182" s="32" t="s">
-        <v>218</v>
+        <v>447</v>
       </c>
       <c r="S182" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T182" s="38"/>
+      <c r="T182" s="35"/>
     </row>
     <row r="183" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M183" s="44"/>
@@ -14722,10 +14740,10 @@
       </c>
       <c r="P183" s="32"/>
       <c r="Q183" s="32" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="R183" s="32" t="s">
-        <v>24</v>
+        <v>449</v>
       </c>
       <c r="S183" s="32" t="s">
         <v>20</v>
@@ -14742,7 +14760,7 @@
       </c>
       <c r="P184" s="32"/>
       <c r="Q184" s="32" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="R184" s="32" t="s">
         <v>24</v>
@@ -14762,7 +14780,7 @@
       </c>
       <c r="P185" s="32"/>
       <c r="Q185" s="32" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="R185" s="32" t="s">
         <v>218</v>
@@ -14782,7 +14800,7 @@
       </c>
       <c r="P186" s="32"/>
       <c r="Q186" s="32" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="R186" s="32" t="s">
         <v>218</v>
@@ -14794,15 +14812,15 @@
     </row>
     <row r="187" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M187" s="44"/>
-      <c r="N187" s="66">
-        <v>136</v>
+      <c r="N187" s="34">
+        <v>131</v>
       </c>
       <c r="O187" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P187" s="32"/>
       <c r="Q187" s="32" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="R187" s="32" t="s">
         <v>218</v>
@@ -14814,15 +14832,15 @@
     </row>
     <row r="188" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M188" s="44"/>
-      <c r="N188" s="34">
-        <v>131</v>
+      <c r="N188" s="81">
+        <v>123</v>
       </c>
       <c r="O188" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P188" s="32"/>
       <c r="Q188" s="32" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="R188" s="32" t="s">
         <v>218</v>
@@ -14830,7 +14848,7 @@
       <c r="S188" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T188" s="35"/>
+      <c r="T188" s="38"/>
     </row>
     <row r="189" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M189" s="44"/>
@@ -14842,10 +14860,10 @@
       </c>
       <c r="P189" s="32"/>
       <c r="Q189" s="32" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="R189" s="32" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="S189" s="32" t="s">
         <v>20</v>
@@ -14862,10 +14880,10 @@
       </c>
       <c r="P190" s="32"/>
       <c r="Q190" s="32" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="R190" s="32" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S190" s="32" t="s">
         <v>20</v>
@@ -14882,7 +14900,7 @@
       </c>
       <c r="P191" s="32"/>
       <c r="Q191" s="32" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="R191" s="32" t="s">
         <v>218</v>
@@ -14895,14 +14913,14 @@
     <row r="192" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M192" s="44"/>
       <c r="N192" s="34">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="O192" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P192" s="32"/>
       <c r="Q192" s="32" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="R192" s="32" t="s">
         <v>218</v>
@@ -14914,15 +14932,15 @@
     </row>
     <row r="193" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M193" s="44"/>
-      <c r="N193" s="34">
-        <v>79</v>
+      <c r="N193" s="66">
+        <v>136</v>
       </c>
       <c r="O193" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P193" s="32"/>
       <c r="Q193" s="32" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="R193" s="32" t="s">
         <v>218</v>
@@ -14935,14 +14953,14 @@
     <row r="194" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M194" s="44"/>
       <c r="N194" s="34">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="O194" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P194" s="32"/>
       <c r="Q194" s="32" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="R194" s="32" t="s">
         <v>218</v>
@@ -14954,15 +14972,15 @@
     </row>
     <row r="195" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M195" s="44"/>
-      <c r="N195" s="81">
-        <v>128</v>
+      <c r="N195" s="34">
+        <v>131</v>
       </c>
       <c r="O195" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P195" s="32"/>
       <c r="Q195" s="32" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="R195" s="32" t="s">
         <v>218</v>
@@ -14970,22 +14988,22 @@
       <c r="S195" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T195" s="38"/>
+      <c r="T195" s="35"/>
     </row>
     <row r="196" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M196" s="44"/>
       <c r="N196" s="34">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="O196" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P196" s="32"/>
       <c r="Q196" s="32" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="R196" s="32" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="S196" s="32" t="s">
         <v>20</v>
@@ -14995,14 +15013,14 @@
     <row r="197" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M197" s="44"/>
       <c r="N197" s="34">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="O197" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P197" s="32"/>
       <c r="Q197" s="32" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="R197" s="32" t="s">
         <v>218</v>
@@ -15014,81 +15032,75 @@
     </row>
     <row r="198" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M198" s="44"/>
-      <c r="N198" s="83">
-        <v>134</v>
-      </c>
-      <c r="O198" s="84" t="s">
+      <c r="N198" s="34">
+        <v>13</v>
+      </c>
+      <c r="O198" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="P198" s="84" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q198" s="84" t="s">
-        <v>470</v>
-      </c>
-      <c r="R198" s="84" t="s">
+      <c r="P198" s="32"/>
+      <c r="Q198" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="R198" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="S198" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T198" s="85"/>
+      <c r="S198" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T198" s="35"/>
     </row>
     <row r="199" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M199" s="44"/>
-      <c r="N199" s="83">
-        <v>134</v>
-      </c>
-      <c r="O199" s="84" t="s">
+      <c r="N199" s="34">
+        <v>79</v>
+      </c>
+      <c r="O199" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="P199" s="84" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q199" s="84" t="s">
-        <v>471</v>
-      </c>
-      <c r="R199" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="S199" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T199" s="85"/>
+      <c r="P199" s="32"/>
+      <c r="Q199" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="R199" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="S199" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T199" s="35"/>
     </row>
     <row r="200" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M200" s="44"/>
-      <c r="N200" s="83">
-        <v>134</v>
-      </c>
-      <c r="O200" s="84" t="s">
+      <c r="N200" s="34">
+        <v>81</v>
+      </c>
+      <c r="O200" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="P200" s="84" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q200" s="84" t="s">
-        <v>472</v>
-      </c>
-      <c r="R200" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="S200" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T200" s="85"/>
+      <c r="P200" s="32"/>
+      <c r="Q200" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="R200" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="S200" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T200" s="35"/>
     </row>
     <row r="201" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M201" s="44"/>
-      <c r="N201" s="34">
-        <v>137</v>
+      <c r="N201" s="81">
+        <v>128</v>
       </c>
       <c r="O201" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P201" s="32"/>
       <c r="Q201" s="32" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="R201" s="32" t="s">
         <v>218</v>
@@ -15096,19 +15108,19 @@
       <c r="S201" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T201" s="35"/>
+      <c r="T201" s="38"/>
     </row>
     <row r="202" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M202" s="44"/>
-      <c r="N202" s="81">
-        <v>147</v>
+      <c r="N202" s="34">
+        <v>90</v>
       </c>
       <c r="O202" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P202" s="32"/>
       <c r="Q202" s="32" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="R202" s="32" t="s">
         <v>218</v>
@@ -15116,19 +15128,19 @@
       <c r="S202" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T202" s="38"/>
+      <c r="T202" s="35"/>
     </row>
     <row r="203" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M203" s="44"/>
       <c r="N203" s="34">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="O203" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P203" s="32"/>
       <c r="Q203" s="32" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="R203" s="32" t="s">
         <v>218</v>
@@ -15140,184 +15152,184 @@
     </row>
     <row r="204" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M204" s="44"/>
-      <c r="N204" s="34">
-        <v>138</v>
-      </c>
-      <c r="O204" s="32" t="s">
+      <c r="N204" s="83">
+        <v>134</v>
+      </c>
+      <c r="O204" s="84" t="s">
         <v>482</v>
       </c>
-      <c r="P204" s="32"/>
-      <c r="Q204" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="R204" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S204" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T204" s="35"/>
+      <c r="P204" s="84" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q204" s="84" t="s">
+        <v>470</v>
+      </c>
+      <c r="R204" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="S204" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T204" s="85"/>
     </row>
     <row r="205" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M205" s="44"/>
-      <c r="N205" s="34">
-        <v>139</v>
-      </c>
-      <c r="O205" s="32" t="s">
+      <c r="N205" s="83">
+        <v>134</v>
+      </c>
+      <c r="O205" s="84" t="s">
         <v>482</v>
       </c>
-      <c r="P205" s="32"/>
-      <c r="Q205" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="R205" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="S205" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T205" s="35"/>
+      <c r="P205" s="84" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q205" s="84" t="s">
+        <v>471</v>
+      </c>
+      <c r="R205" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="S205" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T205" s="85"/>
     </row>
     <row r="206" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M206" s="44"/>
-      <c r="N206" s="34">
-        <v>89</v>
-      </c>
-      <c r="O206" s="32" t="s">
+      <c r="N206" s="83">
+        <v>134</v>
+      </c>
+      <c r="O206" s="84" t="s">
         <v>482</v>
       </c>
-      <c r="P206" s="32"/>
-      <c r="Q206" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="R206" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="S206" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T206" s="35"/>
+      <c r="P206" s="84" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q206" s="84" t="s">
+        <v>472</v>
+      </c>
+      <c r="R206" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="S206" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T206" s="85"/>
     </row>
     <row r="207" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M207" s="44"/>
-      <c r="N207" s="83">
-        <v>134</v>
-      </c>
-      <c r="O207" s="84" t="s">
+      <c r="N207" s="34">
+        <v>137</v>
+      </c>
+      <c r="O207" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="P207" s="84" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q207" s="84" t="s">
-        <v>479</v>
-      </c>
-      <c r="R207" s="84" t="s">
+      <c r="P207" s="32"/>
+      <c r="Q207" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="R207" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="S207" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T207" s="85"/>
+      <c r="S207" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T207" s="35"/>
     </row>
     <row r="208" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M208" s="44"/>
-      <c r="N208" s="34">
-        <v>105</v>
+      <c r="N208" s="81">
+        <v>147</v>
       </c>
       <c r="O208" s="32" t="s">
         <v>482</v>
       </c>
       <c r="P208" s="32"/>
       <c r="Q208" s="32" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="R208" s="32" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="S208" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T208" s="35"/>
-    </row>
-    <row r="209" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M209" s="45"/>
-      <c r="N209" s="119">
-        <v>126</v>
-      </c>
-      <c r="O209" s="78" t="s">
+      <c r="T208" s="38"/>
+    </row>
+    <row r="209" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M209" s="44"/>
+      <c r="N209" s="34">
+        <v>74</v>
+      </c>
+      <c r="O209" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="P209" s="78"/>
-      <c r="Q209" s="78" t="s">
-        <v>481</v>
-      </c>
-      <c r="R209" s="78" t="s">
+      <c r="P209" s="32"/>
+      <c r="Q209" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="R209" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="S209" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="T209" s="120"/>
+      <c r="S209" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T209" s="35"/>
     </row>
     <row r="210" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M210" s="71"/>
-      <c r="N210" s="37">
-        <v>150</v>
-      </c>
-      <c r="O210" s="90" t="s">
-        <v>671</v>
-      </c>
-      <c r="P210" s="90"/>
-      <c r="Q210" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="R210" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="S210" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="T210" s="110" t="s">
-        <v>47</v>
-      </c>
+      <c r="M210" s="44"/>
+      <c r="N210" s="34">
+        <v>138</v>
+      </c>
+      <c r="O210" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="P210" s="32"/>
+      <c r="Q210" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="R210" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S210" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T210" s="35"/>
     </row>
     <row r="211" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M211" s="44"/>
       <c r="N211" s="34">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O211" s="32" t="s">
-        <v>671</v>
+        <v>482</v>
       </c>
       <c r="P211" s="32"/>
       <c r="Q211" s="32" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="R211" s="32" t="s">
-        <v>648</v>
+        <v>218</v>
       </c>
       <c r="S211" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T211" s="54" t="s">
-        <v>47</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="T211" s="35"/>
     </row>
     <row r="212" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M212" s="44"/>
-      <c r="N212" s="43">
-        <v>151</v>
+      <c r="N212" s="34">
+        <v>89</v>
       </c>
       <c r="O212" s="32" t="s">
-        <v>671</v>
+        <v>482</v>
       </c>
       <c r="P212" s="32"/>
       <c r="Q212" s="32" t="s">
-        <v>18</v>
+        <v>478</v>
       </c>
       <c r="R212" s="32" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="S212" s="32" t="s">
         <v>20</v>
@@ -15326,85 +15338,211 @@
     </row>
     <row r="213" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M213" s="44"/>
-      <c r="N213" s="43">
-        <v>152</v>
-      </c>
-      <c r="O213" s="32" t="s">
-        <v>671</v>
-      </c>
-      <c r="P213" s="32"/>
-      <c r="Q213" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R213" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="S213" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T213" s="35"/>
+      <c r="N213" s="83">
+        <v>134</v>
+      </c>
+      <c r="O213" s="84" t="s">
+        <v>482</v>
+      </c>
+      <c r="P213" s="84" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q213" s="84" t="s">
+        <v>479</v>
+      </c>
+      <c r="R213" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="S213" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T213" s="85"/>
     </row>
     <row r="214" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M214" s="44"/>
-      <c r="N214" s="163">
+      <c r="N214" s="34">
+        <v>105</v>
+      </c>
+      <c r="O214" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="P214" s="32"/>
+      <c r="Q214" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="R214" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="S214" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T214" s="35"/>
+    </row>
+    <row r="215" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M215" s="45"/>
+      <c r="N215" s="119">
+        <v>126</v>
+      </c>
+      <c r="O215" s="78" t="s">
+        <v>482</v>
+      </c>
+      <c r="P215" s="78"/>
+      <c r="Q215" s="78" t="s">
+        <v>481</v>
+      </c>
+      <c r="R215" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="S215" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="T215" s="120"/>
+    </row>
+    <row r="216" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M216" s="71"/>
+      <c r="N216" s="37">
+        <v>150</v>
+      </c>
+      <c r="O216" s="90" t="s">
+        <v>671</v>
+      </c>
+      <c r="P216" s="90"/>
+      <c r="Q216" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="R216" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="S216" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="T216" s="110" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="217" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M217" s="44"/>
+      <c r="N217" s="34">
+        <v>145</v>
+      </c>
+      <c r="O217" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="P217" s="32"/>
+      <c r="Q217" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="R217" s="32" t="s">
+        <v>648</v>
+      </c>
+      <c r="S217" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T217" s="54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="218" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M218" s="44"/>
+      <c r="N218" s="43">
+        <v>151</v>
+      </c>
+      <c r="O218" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="P218" s="32"/>
+      <c r="Q218" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="R218" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="S218" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T218" s="35"/>
+    </row>
+    <row r="219" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M219" s="44"/>
+      <c r="N219" s="43">
+        <v>152</v>
+      </c>
+      <c r="O219" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="P219" s="32"/>
+      <c r="Q219" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R219" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="S219" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T219" s="35"/>
+    </row>
+    <row r="220" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M220" s="44"/>
+      <c r="N220" s="163">
         <v>148</v>
       </c>
-      <c r="O214" s="156" t="s">
+      <c r="O220" s="156" t="s">
         <v>671</v>
       </c>
-      <c r="P214" s="156"/>
-      <c r="Q214" s="156" t="s">
+      <c r="P220" s="156"/>
+      <c r="Q220" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="R214" s="156" t="s">
+      <c r="R220" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="S214" s="156" t="s">
-        <v>20</v>
-      </c>
-      <c r="T214" s="157"/>
-    </row>
-    <row r="215" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M215" s="44"/>
-      <c r="N215" s="34">
+      <c r="S220" s="156" t="s">
+        <v>20</v>
+      </c>
+      <c r="T220" s="157"/>
+    </row>
+    <row r="221" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M221" s="44"/>
+      <c r="N221" s="34">
         <v>146</v>
       </c>
-      <c r="O215" s="32" t="s">
+      <c r="O221" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="P215" s="32"/>
-      <c r="Q215" s="32" t="s">
+      <c r="P221" s="32"/>
+      <c r="Q221" s="32" t="s">
         <v>664</v>
       </c>
-      <c r="R215" s="32" t="s">
+      <c r="R221" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="S215" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T215" s="54" t="s">
+      <c r="S221" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T221" s="54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="216" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M216" s="45"/>
-      <c r="N216" s="128">
+    <row r="222" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M222" s="45"/>
+      <c r="N222" s="128">
         <v>149</v>
       </c>
-      <c r="O216" s="129" t="s">
+      <c r="O222" s="129" t="s">
         <v>671</v>
       </c>
-      <c r="P216" s="129"/>
-      <c r="Q216" s="129" t="s">
+      <c r="P222" s="129"/>
+      <c r="Q222" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="R216" s="129" t="s">
+      <c r="R222" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="S216" s="129" t="s">
-        <v>20</v>
-      </c>
-      <c r="T216" s="130"/>
+      <c r="S222" s="129" t="s">
+        <v>20</v>
+      </c>
+      <c r="T222" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15425,10 +15563,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T223"/>
+  <dimension ref="B1:T229"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView topLeftCell="M34" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15472,17 +15610,17 @@
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="175" t="s">
+      <c r="E2" s="176" t="s">
         <v>321</v>
       </c>
-      <c r="F2" s="176"/>
-      <c r="G2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="178"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="178" t="s">
+      <c r="I2" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="179"/>
-      <c r="K2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -15490,9 +15628,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="183"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="184"/>
       <c r="H3" s="10"/>
       <c r="I3" s="139"/>
       <c r="J3" s="101" t="s">
@@ -15506,11 +15644,11 @@
       </c>
       <c r="C4" s="143"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="184" t="s">
+      <c r="E4" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="185"/>
-      <c r="G4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="187"/>
       <c r="H4" s="7"/>
       <c r="I4" s="148"/>
       <c r="J4" s="25" t="s">
@@ -15524,11 +15662,11 @@
       </c>
       <c r="C5" s="143"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="184" t="s">
+      <c r="E5" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="185"/>
-      <c r="G5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="187"/>
       <c r="H5" s="7"/>
       <c r="I5" s="149"/>
       <c r="J5" s="29" t="s">
@@ -15558,31 +15696,31 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="187" t="s">
+      <c r="B8" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="188"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="189" t="s">
+      <c r="J8" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="190"/>
-      <c r="L8" s="191"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="192"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="173" t="s">
+      <c r="N8" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="174"/>
-      <c r="P8" s="174"/>
-      <c r="Q8" s="174"/>
-      <c r="R8" s="174"/>
-      <c r="S8" s="174"/>
-      <c r="T8" s="174"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="175"/>
+      <c r="R8" s="175"/>
+      <c r="S8" s="175"/>
+      <c r="T8" s="175"/>
     </row>
     <row r="9" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
@@ -17173,7 +17311,7 @@
         <v>733</v>
       </c>
       <c r="R44" s="32" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="S44" s="32" t="s">
         <v>20</v>
@@ -19170,303 +19308,303 @@
       <c r="T132" s="77"/>
     </row>
     <row r="133" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M133" s="74"/>
-      <c r="N133" s="49">
-        <v>1</v>
+      <c r="M133" s="44"/>
+      <c r="N133" s="34">
+        <v>54</v>
       </c>
       <c r="O133" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P133" s="39"/>
-      <c r="Q133" s="39" t="s">
-        <v>405</v>
-      </c>
-      <c r="R133" s="39" t="s">
-        <v>24</v>
+      <c r="P133" s="32"/>
+      <c r="Q133" s="141" t="s">
+        <v>737</v>
+      </c>
+      <c r="R133" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="S133" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T133" s="77"/>
+      <c r="T133" s="35"/>
     </row>
     <row r="134" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M134" s="74"/>
-      <c r="N134" s="49">
-        <v>1</v>
+      <c r="M134" s="44"/>
+      <c r="N134" s="34">
+        <v>54</v>
       </c>
       <c r="O134" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P134" s="39"/>
-      <c r="Q134" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="R134" s="39" t="s">
-        <v>24</v>
+      <c r="P134" s="32"/>
+      <c r="Q134" s="141" t="s">
+        <v>738</v>
+      </c>
+      <c r="R134" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="S134" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T134" s="77"/>
+      <c r="T134" s="35"/>
     </row>
     <row r="135" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M135" s="74"/>
-      <c r="N135" s="49">
-        <v>12</v>
+      <c r="M135" s="44"/>
+      <c r="N135" s="34">
+        <v>54</v>
       </c>
       <c r="O135" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P135" s="39"/>
-      <c r="Q135" s="39" t="s">
-        <v>407</v>
-      </c>
-      <c r="R135" s="39" t="s">
-        <v>218</v>
+      <c r="P135" s="32"/>
+      <c r="Q135" s="141" t="s">
+        <v>739</v>
+      </c>
+      <c r="R135" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="S135" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T135" s="77"/>
+      <c r="T135" s="35"/>
     </row>
     <row r="136" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M136" s="74"/>
-      <c r="N136" s="49">
+      <c r="M136" s="44"/>
+      <c r="N136" s="34">
         <v>55</v>
       </c>
       <c r="O136" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P136" s="39"/>
-      <c r="Q136" s="167" t="s">
-        <v>700</v>
-      </c>
-      <c r="R136" s="39" t="s">
-        <v>19</v>
+      <c r="P136" s="32"/>
+      <c r="Q136" s="141" t="s">
+        <v>500</v>
+      </c>
+      <c r="R136" s="32" t="s">
+        <v>742</v>
       </c>
       <c r="S136" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T136" s="77"/>
+      <c r="T136" s="35"/>
     </row>
     <row r="137" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M137" s="74"/>
-      <c r="N137" s="49">
+      <c r="M137" s="44"/>
+      <c r="N137" s="34">
         <v>55</v>
       </c>
       <c r="O137" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="P137" s="39"/>
-      <c r="Q137" s="167" t="s">
+      <c r="P137" s="32"/>
+      <c r="Q137" s="141" t="s">
+        <v>740</v>
+      </c>
+      <c r="R137" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S137" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T137" s="35"/>
+    </row>
+    <row r="138" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M138" s="44"/>
+      <c r="N138" s="34">
+        <v>55</v>
+      </c>
+      <c r="O138" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="P138" s="32"/>
+      <c r="Q138" s="141" t="s">
+        <v>741</v>
+      </c>
+      <c r="R138" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="S138" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T138" s="35"/>
+    </row>
+    <row r="139" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M139" s="74"/>
+      <c r="N139" s="49">
+        <v>1</v>
+      </c>
+      <c r="O139" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="P139" s="39"/>
+      <c r="Q139" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="R139" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S139" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T139" s="77"/>
+    </row>
+    <row r="140" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M140" s="74"/>
+      <c r="N140" s="49">
+        <v>1</v>
+      </c>
+      <c r="O140" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="P140" s="39"/>
+      <c r="Q140" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="R140" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S140" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T140" s="77"/>
+    </row>
+    <row r="141" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M141" s="74"/>
+      <c r="N141" s="49">
+        <v>12</v>
+      </c>
+      <c r="O141" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="P141" s="39"/>
+      <c r="Q141" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="R141" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="S141" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T141" s="77"/>
+    </row>
+    <row r="142" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M142" s="74"/>
+      <c r="N142" s="49">
+        <v>55</v>
+      </c>
+      <c r="O142" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="P142" s="39"/>
+      <c r="Q142" s="167" t="s">
+        <v>700</v>
+      </c>
+      <c r="R142" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="S142" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T142" s="77"/>
+    </row>
+    <row r="143" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M143" s="74"/>
+      <c r="N143" s="49">
+        <v>55</v>
+      </c>
+      <c r="O143" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="P143" s="39"/>
+      <c r="Q143" s="167" t="s">
         <v>701</v>
       </c>
-      <c r="R137" s="39" t="s">
+      <c r="R143" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="S137" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="T137" s="77"/>
-    </row>
-    <row r="138" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M138" s="75"/>
-      <c r="N138" s="52">
+      <c r="S143" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T143" s="77"/>
+    </row>
+    <row r="144" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M144" s="75"/>
+      <c r="N144" s="52">
         <v>55</v>
       </c>
-      <c r="O138" s="53" t="s">
+      <c r="O144" s="53" t="s">
         <v>408</v>
       </c>
-      <c r="P138" s="53"/>
-      <c r="Q138" s="166" t="s">
+      <c r="P144" s="53"/>
+      <c r="Q144" s="166" t="s">
         <v>702</v>
       </c>
-      <c r="R138" s="53" t="s">
+      <c r="R144" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="S138" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="T138" s="165"/>
-    </row>
-    <row r="139" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M139" s="71"/>
-      <c r="N139" s="169">
+      <c r="S144" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="T144" s="165"/>
+    </row>
+    <row r="145" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M145" s="71"/>
+      <c r="N145" s="169">
         <v>49</v>
       </c>
-      <c r="O139" s="168" t="s">
+      <c r="O145" s="168" t="s">
         <v>436</v>
       </c>
-      <c r="P139" s="168"/>
-      <c r="Q139" s="168" t="s">
+      <c r="P145" s="168"/>
+      <c r="Q145" s="168" t="s">
         <v>409</v>
       </c>
-      <c r="R139" s="168" t="s">
+      <c r="R145" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="S139" s="168" t="s">
+      <c r="S145" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="T139" s="172" t="s">
+      <c r="T145" s="172" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="140" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M140" s="44"/>
-      <c r="N140" s="34">
-        <v>54</v>
-      </c>
-      <c r="O140" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="P140" s="32"/>
-      <c r="Q140" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="R140" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S140" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T140" s="54" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="141" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M141" s="44"/>
-      <c r="N141" s="34">
-        <v>54</v>
-      </c>
-      <c r="O141" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="P141" s="32"/>
-      <c r="Q141" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="R141" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="S141" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T141" s="35"/>
-    </row>
-    <row r="142" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M142" s="44"/>
-      <c r="N142" s="34">
-        <v>54</v>
-      </c>
-      <c r="O142" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="P142" s="32"/>
-      <c r="Q142" s="32" t="s">
-        <v>412</v>
-      </c>
-      <c r="R142" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="S142" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T142" s="35"/>
-    </row>
-    <row r="143" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M143" s="44"/>
-      <c r="N143" s="34">
-        <v>55</v>
-      </c>
-      <c r="O143" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="P143" s="32"/>
-      <c r="Q143" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="R143" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="S143" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T143" s="35"/>
-    </row>
-    <row r="144" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M144" s="44"/>
-      <c r="N144" s="34">
-        <v>55</v>
-      </c>
-      <c r="O144" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="P144" s="32"/>
-      <c r="Q144" s="32" t="s">
-        <v>414</v>
-      </c>
-      <c r="R144" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="S144" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T144" s="35"/>
-    </row>
-    <row r="145" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M145" s="44"/>
-      <c r="N145" s="34">
-        <v>55</v>
-      </c>
-      <c r="O145" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="P145" s="32"/>
-      <c r="Q145" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="R145" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S145" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T145" s="35"/>
     </row>
     <row r="146" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M146" s="44"/>
       <c r="N146" s="34">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="O146" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P146" s="32"/>
       <c r="Q146" s="32" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="R146" s="32" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="S146" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T146" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="T146" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="147" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M147" s="44"/>
       <c r="N147" s="34">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O147" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P147" s="32"/>
       <c r="Q147" s="32" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="R147" s="32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S147" s="32" t="s">
         <v>20</v>
@@ -19476,17 +19614,17 @@
     <row r="148" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M148" s="44"/>
       <c r="N148" s="34">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O148" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P148" s="32"/>
       <c r="Q148" s="32" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="R148" s="32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="S148" s="32" t="s">
         <v>20</v>
@@ -19503,7 +19641,7 @@
       </c>
       <c r="P149" s="32"/>
       <c r="Q149" s="32" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="R149" s="32" t="s">
         <v>19</v>
@@ -19523,7 +19661,7 @@
       </c>
       <c r="P150" s="32"/>
       <c r="Q150" s="32" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="R150" s="32" t="s">
         <v>19</v>
@@ -19543,7 +19681,7 @@
       </c>
       <c r="P151" s="32"/>
       <c r="Q151" s="32" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="R151" s="32" t="s">
         <v>24</v>
@@ -19556,17 +19694,17 @@
     <row r="152" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M152" s="44"/>
       <c r="N152" s="34">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="O152" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P152" s="32"/>
       <c r="Q152" s="32" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="R152" s="32" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="S152" s="32" t="s">
         <v>20</v>
@@ -19583,10 +19721,10 @@
       </c>
       <c r="P153" s="32"/>
       <c r="Q153" s="32" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="R153" s="32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S153" s="32" t="s">
         <v>20</v>
@@ -19596,14 +19734,14 @@
     <row r="154" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M154" s="44"/>
       <c r="N154" s="34">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O154" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P154" s="32"/>
       <c r="Q154" s="32" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="R154" s="32" t="s">
         <v>24</v>
@@ -19616,17 +19754,17 @@
     <row r="155" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M155" s="44"/>
       <c r="N155" s="34">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O155" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P155" s="32"/>
       <c r="Q155" s="32" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="R155" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S155" s="32" t="s">
         <v>20</v>
@@ -19643,10 +19781,10 @@
       </c>
       <c r="P156" s="32"/>
       <c r="Q156" s="32" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="R156" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S156" s="32" t="s">
         <v>20</v>
@@ -19663,7 +19801,7 @@
       </c>
       <c r="P157" s="32"/>
       <c r="Q157" s="32" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="R157" s="32" t="s">
         <v>24</v>
@@ -19683,10 +19821,10 @@
       </c>
       <c r="P158" s="32"/>
       <c r="Q158" s="32" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="R158" s="32" t="s">
-        <v>401</v>
+        <v>203</v>
       </c>
       <c r="S158" s="32" t="s">
         <v>20</v>
@@ -19696,14 +19834,14 @@
     <row r="159" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M159" s="44"/>
       <c r="N159" s="34">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O159" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P159" s="32"/>
       <c r="Q159" s="32" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="R159" s="32" t="s">
         <v>16</v>
@@ -19716,17 +19854,17 @@
     <row r="160" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M160" s="44"/>
       <c r="N160" s="34">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O160" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P160" s="32"/>
       <c r="Q160" s="32" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="R160" s="32" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S160" s="32" t="s">
         <v>20</v>
@@ -19736,14 +19874,14 @@
     <row r="161" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M161" s="44"/>
       <c r="N161" s="34">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="O161" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P161" s="32"/>
       <c r="Q161" s="32" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="R161" s="32" t="s">
         <v>24</v>
@@ -19756,14 +19894,14 @@
     <row r="162" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M162" s="44"/>
       <c r="N162" s="34">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O162" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P162" s="32"/>
       <c r="Q162" s="32" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="R162" s="32" t="s">
         <v>24</v>
@@ -19776,212 +19914,208 @@
     <row r="163" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M163" s="44"/>
       <c r="N163" s="34">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O163" s="32" t="s">
         <v>436</v>
       </c>
       <c r="P163" s="32"/>
-      <c r="Q163" s="94" t="s">
-        <v>433</v>
-      </c>
-      <c r="R163" s="95" t="s">
-        <v>203</v>
-      </c>
-      <c r="S163" s="95" t="s">
+      <c r="Q163" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="R163" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S163" s="32" t="s">
         <v>20</v>
       </c>
       <c r="T163" s="35"/>
     </row>
     <row r="164" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M164" s="44"/>
-      <c r="N164" s="83">
-        <v>61</v>
-      </c>
-      <c r="O164" s="84" t="s">
+      <c r="N164" s="34">
+        <v>55</v>
+      </c>
+      <c r="O164" s="32" t="s">
         <v>436</v>
       </c>
-      <c r="P164" s="84" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q164" s="84" t="s">
-        <v>434</v>
-      </c>
-      <c r="R164" s="84" t="s">
-        <v>203</v>
-      </c>
-      <c r="S164" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T164" s="85"/>
-    </row>
-    <row r="165" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M165" s="45"/>
-      <c r="N165" s="96">
-        <v>61</v>
-      </c>
-      <c r="O165" s="97" t="s">
+      <c r="P164" s="32"/>
+      <c r="Q164" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="R164" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="S164" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T164" s="35"/>
+    </row>
+    <row r="165" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M165" s="44"/>
+      <c r="N165" s="34">
+        <v>56</v>
+      </c>
+      <c r="O165" s="32" t="s">
         <v>436</v>
       </c>
-      <c r="P165" s="97" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q165" s="97" t="s">
-        <v>435</v>
-      </c>
-      <c r="R165" s="97" t="s">
-        <v>203</v>
-      </c>
-      <c r="S165" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="T165" s="98"/>
+      <c r="P165" s="32"/>
+      <c r="Q165" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="R165" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S165" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T165" s="35"/>
     </row>
     <row r="166" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M166" s="71"/>
-      <c r="N166" s="55">
-        <v>49</v>
-      </c>
-      <c r="O166" s="101" t="s">
-        <v>482</v>
-      </c>
-      <c r="P166" s="101"/>
-      <c r="Q166" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="R166" s="90" t="s">
+      <c r="M166" s="44"/>
+      <c r="N166" s="34">
+        <v>57</v>
+      </c>
+      <c r="O166" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="P166" s="32"/>
+      <c r="Q166" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="R166" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="S166" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="T166" s="110" t="s">
-        <v>47</v>
-      </c>
+      <c r="S166" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T166" s="35"/>
     </row>
     <row r="167" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M167" s="44"/>
       <c r="N167" s="34">
-        <v>54</v>
-      </c>
-      <c r="O167" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="P167" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="O167" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="P167" s="32"/>
       <c r="Q167" s="32" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="R167" s="32" t="s">
         <v>24</v>
       </c>
       <c r="S167" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T167" s="54" t="s">
-        <v>47</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="T167" s="35"/>
     </row>
     <row r="168" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M168" s="44"/>
       <c r="N168" s="34">
-        <v>62</v>
-      </c>
-      <c r="O168" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="P168" s="25"/>
+        <v>68</v>
+      </c>
+      <c r="O168" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="P168" s="32"/>
       <c r="Q168" s="32" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="R168" s="32" t="s">
         <v>24</v>
       </c>
       <c r="S168" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T168" s="54" t="s">
-        <v>47</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="T168" s="35"/>
     </row>
     <row r="169" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M169" s="44"/>
       <c r="N169" s="34">
-        <v>50</v>
-      </c>
-      <c r="O169" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="P169" s="25"/>
-      <c r="Q169" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="R169" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="S169" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="O169" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="P169" s="32"/>
+      <c r="Q169" s="94" t="s">
+        <v>433</v>
+      </c>
+      <c r="R169" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="S169" s="95" t="s">
         <v>20</v>
       </c>
       <c r="T169" s="35"/>
     </row>
     <row r="170" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M170" s="44"/>
-      <c r="N170" s="34">
-        <v>51</v>
-      </c>
-      <c r="O170" s="25" t="s">
+      <c r="N170" s="83">
+        <v>61</v>
+      </c>
+      <c r="O170" s="84" t="s">
+        <v>436</v>
+      </c>
+      <c r="P170" s="84" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q170" s="84" t="s">
+        <v>434</v>
+      </c>
+      <c r="R170" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="S170" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T170" s="85"/>
+    </row>
+    <row r="171" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M171" s="45"/>
+      <c r="N171" s="96">
+        <v>61</v>
+      </c>
+      <c r="O171" s="97" t="s">
+        <v>436</v>
+      </c>
+      <c r="P171" s="97" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q171" s="97" t="s">
+        <v>435</v>
+      </c>
+      <c r="R171" s="97" t="s">
+        <v>203</v>
+      </c>
+      <c r="S171" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="T171" s="98"/>
+    </row>
+    <row r="172" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M172" s="71"/>
+      <c r="N172" s="55">
+        <v>49</v>
+      </c>
+      <c r="O172" s="101" t="s">
         <v>482</v>
       </c>
-      <c r="P170" s="25"/>
-      <c r="Q170" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R170" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="S170" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T170" s="35"/>
-    </row>
-    <row r="171" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M171" s="44"/>
-      <c r="N171" s="34">
-        <v>52</v>
-      </c>
-      <c r="O171" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="P171" s="25"/>
-      <c r="Q171" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="R171" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S171" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T171" s="35"/>
-    </row>
-    <row r="172" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M172" s="44"/>
-      <c r="N172" s="34">
-        <v>54</v>
-      </c>
-      <c r="O172" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="P172" s="25"/>
-      <c r="Q172" s="32" t="s">
-        <v>444</v>
-      </c>
-      <c r="R172" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S172" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T172" s="35"/>
+      <c r="P172" s="101"/>
+      <c r="Q172" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="R172" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="S172" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="T172" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="173" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M173" s="44"/>
@@ -19993,50 +20127,54 @@
       </c>
       <c r="P173" s="25"/>
       <c r="Q173" s="32" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="R173" s="32" t="s">
         <v>24</v>
       </c>
       <c r="S173" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T173" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="T173" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="174" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M174" s="44"/>
       <c r="N174" s="34">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="O174" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P174" s="25"/>
       <c r="Q174" s="32" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="R174" s="32" t="s">
-        <v>447</v>
+        <v>24</v>
       </c>
       <c r="S174" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T174" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="T174" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="175" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M175" s="44"/>
       <c r="N175" s="34">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O175" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P175" s="25"/>
       <c r="Q175" s="32" t="s">
-        <v>448</v>
+        <v>18</v>
       </c>
       <c r="R175" s="32" t="s">
-        <v>449</v>
+        <v>19</v>
       </c>
       <c r="S175" s="32" t="s">
         <v>20</v>
@@ -20046,17 +20184,17 @@
     <row r="176" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M176" s="44"/>
       <c r="N176" s="34">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O176" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P176" s="25"/>
       <c r="Q176" s="32" t="s">
-        <v>450</v>
+        <v>21</v>
       </c>
       <c r="R176" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S176" s="32" t="s">
         <v>20</v>
@@ -20066,17 +20204,17 @@
     <row r="177" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M177" s="44"/>
       <c r="N177" s="34">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O177" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P177" s="25"/>
       <c r="Q177" s="32" t="s">
-        <v>451</v>
+        <v>23</v>
       </c>
       <c r="R177" s="32" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="S177" s="32" t="s">
         <v>20</v>
@@ -20086,17 +20224,17 @@
     <row r="178" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M178" s="44"/>
       <c r="N178" s="34">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O178" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P178" s="25"/>
       <c r="Q178" s="32" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="R178" s="32" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="S178" s="32" t="s">
         <v>20</v>
@@ -20106,17 +20244,17 @@
     <row r="179" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M179" s="44"/>
       <c r="N179" s="34">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O179" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P179" s="25"/>
       <c r="Q179" s="32" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="R179" s="32" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="S179" s="32" t="s">
         <v>20</v>
@@ -20125,23 +20263,23 @@
     </row>
     <row r="180" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M180" s="44"/>
-      <c r="N180" s="81">
-        <v>45</v>
-      </c>
-      <c r="O180" s="39" t="s">
+      <c r="N180" s="34">
+        <v>55</v>
+      </c>
+      <c r="O180" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="P180" s="39"/>
+      <c r="P180" s="25"/>
       <c r="Q180" s="32" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="R180" s="32" t="s">
-        <v>218</v>
+        <v>447</v>
       </c>
       <c r="S180" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T180" s="38"/>
+      <c r="T180" s="35"/>
     </row>
     <row r="181" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M181" s="44"/>
@@ -20153,10 +20291,10 @@
       </c>
       <c r="P181" s="25"/>
       <c r="Q181" s="32" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="R181" s="32" t="s">
-        <v>24</v>
+        <v>449</v>
       </c>
       <c r="S181" s="32" t="s">
         <v>20</v>
@@ -20173,7 +20311,7 @@
       </c>
       <c r="P182" s="25"/>
       <c r="Q182" s="32" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="R182" s="32" t="s">
         <v>24</v>
@@ -20193,7 +20331,7 @@
       </c>
       <c r="P183" s="25"/>
       <c r="Q183" s="32" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="R183" s="32" t="s">
         <v>218</v>
@@ -20213,7 +20351,7 @@
       </c>
       <c r="P184" s="25"/>
       <c r="Q184" s="32" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="R184" s="32" t="s">
         <v>218</v>
@@ -20225,15 +20363,15 @@
     </row>
     <row r="185" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M185" s="44"/>
-      <c r="N185" s="66">
-        <v>63</v>
+      <c r="N185" s="34">
+        <v>55</v>
       </c>
       <c r="O185" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P185" s="25"/>
       <c r="Q185" s="32" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="R185" s="32" t="s">
         <v>218</v>
@@ -20245,15 +20383,15 @@
     </row>
     <row r="186" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M186" s="44"/>
-      <c r="N186" s="34">
-        <v>55</v>
-      </c>
-      <c r="O186" s="25" t="s">
+      <c r="N186" s="81">
+        <v>45</v>
+      </c>
+      <c r="O186" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="P186" s="25"/>
+      <c r="P186" s="39"/>
       <c r="Q186" s="32" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="R186" s="32" t="s">
         <v>218</v>
@@ -20261,7 +20399,7 @@
       <c r="S186" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T186" s="35"/>
+      <c r="T186" s="38"/>
     </row>
     <row r="187" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M187" s="44"/>
@@ -20273,10 +20411,10 @@
       </c>
       <c r="P187" s="25"/>
       <c r="Q187" s="32" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="R187" s="32" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="S187" s="32" t="s">
         <v>20</v>
@@ -20293,10 +20431,10 @@
       </c>
       <c r="P188" s="25"/>
       <c r="Q188" s="32" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="R188" s="32" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S188" s="32" t="s">
         <v>20</v>
@@ -20313,7 +20451,7 @@
       </c>
       <c r="P189" s="25"/>
       <c r="Q189" s="32" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="R189" s="32" t="s">
         <v>218</v>
@@ -20326,14 +20464,14 @@
     <row r="190" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M190" s="44"/>
       <c r="N190" s="34">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="O190" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P190" s="25"/>
       <c r="Q190" s="32" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="R190" s="32" t="s">
         <v>218</v>
@@ -20345,15 +20483,15 @@
     </row>
     <row r="191" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M191" s="44"/>
-      <c r="N191" s="34">
-        <v>36</v>
+      <c r="N191" s="66">
+        <v>63</v>
       </c>
       <c r="O191" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P191" s="25"/>
       <c r="Q191" s="32" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="R191" s="32" t="s">
         <v>218</v>
@@ -20366,14 +20504,14 @@
     <row r="192" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M192" s="44"/>
       <c r="N192" s="34">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="O192" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P192" s="25"/>
       <c r="Q192" s="32" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="R192" s="32" t="s">
         <v>218</v>
@@ -20385,15 +20523,15 @@
     </row>
     <row r="193" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M193" s="44"/>
-      <c r="N193" s="81">
-        <v>46</v>
-      </c>
-      <c r="O193" s="39" t="s">
+      <c r="N193" s="34">
+        <v>55</v>
+      </c>
+      <c r="O193" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="P193" s="39"/>
+      <c r="P193" s="25"/>
       <c r="Q193" s="32" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="R193" s="32" t="s">
         <v>218</v>
@@ -20401,22 +20539,22 @@
       <c r="S193" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T193" s="38"/>
+      <c r="T193" s="35"/>
     </row>
     <row r="194" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M194" s="44"/>
       <c r="N194" s="34">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="O194" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P194" s="25"/>
       <c r="Q194" s="32" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="R194" s="32" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="S194" s="32" t="s">
         <v>20</v>
@@ -20426,14 +20564,14 @@
     <row r="195" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M195" s="44"/>
       <c r="N195" s="34">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="O195" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P195" s="25"/>
       <c r="Q195" s="32" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="R195" s="32" t="s">
         <v>218</v>
@@ -20445,81 +20583,75 @@
     </row>
     <row r="196" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M196" s="44"/>
-      <c r="N196" s="83">
-        <v>61</v>
-      </c>
-      <c r="O196" s="89" t="s">
+      <c r="N196" s="34">
+        <v>35</v>
+      </c>
+      <c r="O196" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="P196" s="89" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q196" s="84" t="s">
-        <v>470</v>
-      </c>
-      <c r="R196" s="84" t="s">
+      <c r="P196" s="25"/>
+      <c r="Q196" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="R196" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="S196" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T196" s="85"/>
+      <c r="S196" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T196" s="35"/>
     </row>
     <row r="197" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M197" s="44"/>
-      <c r="N197" s="83">
-        <v>61</v>
-      </c>
-      <c r="O197" s="89" t="s">
+      <c r="N197" s="34">
+        <v>36</v>
+      </c>
+      <c r="O197" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="P197" s="89" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q197" s="84" t="s">
-        <v>471</v>
-      </c>
-      <c r="R197" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="S197" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T197" s="85"/>
+      <c r="P197" s="25"/>
+      <c r="Q197" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="R197" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="S197" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T197" s="35"/>
     </row>
     <row r="198" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M198" s="44"/>
-      <c r="N198" s="83">
-        <v>61</v>
-      </c>
-      <c r="O198" s="89" t="s">
+      <c r="N198" s="34">
+        <v>64</v>
+      </c>
+      <c r="O198" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="P198" s="89" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q198" s="84" t="s">
-        <v>472</v>
-      </c>
-      <c r="R198" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="S198" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T198" s="85"/>
+      <c r="P198" s="25"/>
+      <c r="Q198" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="R198" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="S198" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T198" s="35"/>
     </row>
     <row r="199" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M199" s="44"/>
-      <c r="N199" s="34">
-        <v>7</v>
-      </c>
-      <c r="O199" s="25" t="s">
+      <c r="N199" s="81">
+        <v>46</v>
+      </c>
+      <c r="O199" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="P199" s="25"/>
+      <c r="P199" s="39"/>
       <c r="Q199" s="32" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="R199" s="32" t="s">
         <v>218</v>
@@ -20527,19 +20659,19 @@
       <c r="S199" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T199" s="35"/>
+      <c r="T199" s="38"/>
     </row>
     <row r="200" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M200" s="44"/>
       <c r="N200" s="34">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="O200" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P200" s="25"/>
       <c r="Q200" s="32" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="R200" s="32" t="s">
         <v>218</v>
@@ -20552,14 +20684,14 @@
     <row r="201" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M201" s="44"/>
       <c r="N201" s="34">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O201" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P201" s="25"/>
       <c r="Q201" s="32" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="R201" s="32" t="s">
         <v>218</v>
@@ -20571,184 +20703,184 @@
     </row>
     <row r="202" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M202" s="44"/>
-      <c r="N202" s="34">
-        <v>65</v>
-      </c>
-      <c r="O202" s="25" t="s">
+      <c r="N202" s="83">
+        <v>61</v>
+      </c>
+      <c r="O202" s="89" t="s">
         <v>482</v>
       </c>
-      <c r="P202" s="25"/>
-      <c r="Q202" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="R202" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S202" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T202" s="35"/>
+      <c r="P202" s="89" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q202" s="84" t="s">
+        <v>470</v>
+      </c>
+      <c r="R202" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="S202" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T202" s="85"/>
     </row>
     <row r="203" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M203" s="44"/>
-      <c r="N203" s="34">
-        <v>7</v>
-      </c>
-      <c r="O203" s="25" t="s">
+      <c r="N203" s="83">
+        <v>61</v>
+      </c>
+      <c r="O203" s="89" t="s">
         <v>482</v>
       </c>
-      <c r="P203" s="25"/>
-      <c r="Q203" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="R203" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="S203" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T203" s="35"/>
+      <c r="P203" s="89" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q203" s="84" t="s">
+        <v>471</v>
+      </c>
+      <c r="R203" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="S203" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T203" s="85"/>
     </row>
     <row r="204" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M204" s="44"/>
-      <c r="N204" s="34">
-        <v>38</v>
-      </c>
-      <c r="O204" s="25" t="s">
+      <c r="N204" s="83">
+        <v>61</v>
+      </c>
+      <c r="O204" s="89" t="s">
         <v>482</v>
       </c>
-      <c r="P204" s="25"/>
-      <c r="Q204" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="R204" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="S204" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T204" s="35"/>
+      <c r="P204" s="89" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q204" s="84" t="s">
+        <v>472</v>
+      </c>
+      <c r="R204" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="S204" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T204" s="85"/>
     </row>
     <row r="205" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M205" s="44"/>
-      <c r="N205" s="83">
-        <v>61</v>
-      </c>
-      <c r="O205" s="89" t="s">
+      <c r="N205" s="34">
+        <v>7</v>
+      </c>
+      <c r="O205" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="P205" s="89" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q205" s="84" t="s">
-        <v>479</v>
-      </c>
-      <c r="R205" s="84" t="s">
+      <c r="P205" s="25"/>
+      <c r="Q205" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="R205" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="S205" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T205" s="85"/>
+      <c r="S205" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T205" s="35"/>
     </row>
     <row r="206" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M206" s="44"/>
       <c r="N206" s="34">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="O206" s="25" t="s">
         <v>482</v>
       </c>
       <c r="P206" s="25"/>
       <c r="Q206" s="32" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="R206" s="32" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="S206" s="32" t="s">
         <v>20</v>
       </c>
       <c r="T206" s="35"/>
     </row>
-    <row r="207" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M207" s="45"/>
-      <c r="N207" s="119">
-        <v>48</v>
-      </c>
-      <c r="O207" s="147" t="s">
+    <row r="207" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M207" s="44"/>
+      <c r="N207" s="34">
+        <v>37</v>
+      </c>
+      <c r="O207" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="P207" s="147"/>
-      <c r="Q207" s="78" t="s">
-        <v>481</v>
-      </c>
-      <c r="R207" s="78" t="s">
+      <c r="P207" s="25"/>
+      <c r="Q207" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="R207" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="S207" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="T207" s="120"/>
+      <c r="S207" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T207" s="35"/>
     </row>
     <row r="208" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M208" s="71"/>
-      <c r="N208" s="55">
-        <v>49</v>
-      </c>
-      <c r="O208" s="90" t="s">
-        <v>671</v>
-      </c>
-      <c r="P208" s="90"/>
-      <c r="Q208" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="R208" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="S208" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="T208" s="110" t="s">
-        <v>47</v>
-      </c>
+      <c r="M208" s="44"/>
+      <c r="N208" s="34">
+        <v>65</v>
+      </c>
+      <c r="O208" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="P208" s="25"/>
+      <c r="Q208" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="R208" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S208" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T208" s="35"/>
     </row>
     <row r="209" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M209" s="44"/>
       <c r="N209" s="34">
-        <v>69</v>
-      </c>
-      <c r="O209" s="32" t="s">
-        <v>671</v>
-      </c>
-      <c r="P209" s="32"/>
+        <v>7</v>
+      </c>
+      <c r="O209" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="P209" s="25"/>
       <c r="Q209" s="32" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="R209" s="32" t="s">
-        <v>648</v>
+        <v>218</v>
       </c>
       <c r="S209" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T209" s="54" t="s">
-        <v>47</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="T209" s="35"/>
     </row>
     <row r="210" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M210" s="44"/>
       <c r="N210" s="34">
-        <v>50</v>
-      </c>
-      <c r="O210" s="32" t="s">
-        <v>671</v>
-      </c>
-      <c r="P210" s="32"/>
+        <v>38</v>
+      </c>
+      <c r="O210" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="P210" s="25"/>
       <c r="Q210" s="32" t="s">
-        <v>18</v>
+        <v>478</v>
       </c>
       <c r="R210" s="32" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="S210" s="32" t="s">
         <v>20</v>
@@ -20757,271 +20889,397 @@
     </row>
     <row r="211" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M211" s="44"/>
-      <c r="N211" s="34">
-        <v>51</v>
-      </c>
-      <c r="O211" s="32" t="s">
-        <v>671</v>
-      </c>
-      <c r="P211" s="32"/>
-      <c r="Q211" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R211" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="S211" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T211" s="35"/>
+      <c r="N211" s="83">
+        <v>61</v>
+      </c>
+      <c r="O211" s="89" t="s">
+        <v>482</v>
+      </c>
+      <c r="P211" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q211" s="84" t="s">
+        <v>479</v>
+      </c>
+      <c r="R211" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="S211" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T211" s="85"/>
     </row>
     <row r="212" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M212" s="44"/>
-      <c r="N212" s="163">
-        <v>73</v>
-      </c>
-      <c r="O212" s="156" t="s">
+      <c r="N212" s="34">
+        <v>39</v>
+      </c>
+      <c r="O212" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="P212" s="25"/>
+      <c r="Q212" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="R212" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="S212" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T212" s="35"/>
+    </row>
+    <row r="213" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M213" s="45"/>
+      <c r="N213" s="119">
+        <v>48</v>
+      </c>
+      <c r="O213" s="147" t="s">
+        <v>482</v>
+      </c>
+      <c r="P213" s="147"/>
+      <c r="Q213" s="78" t="s">
+        <v>481</v>
+      </c>
+      <c r="R213" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="S213" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="T213" s="120"/>
+    </row>
+    <row r="214" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M214" s="71"/>
+      <c r="N214" s="55">
+        <v>49</v>
+      </c>
+      <c r="O214" s="90" t="s">
         <v>671</v>
       </c>
-      <c r="P212" s="156"/>
-      <c r="Q212" s="156" t="s">
-        <v>37</v>
-      </c>
-      <c r="R212" s="156" t="s">
-        <v>19</v>
-      </c>
-      <c r="S212" s="156" t="s">
-        <v>20</v>
-      </c>
-      <c r="T212" s="157"/>
-    </row>
-    <row r="213" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M213" s="44"/>
-      <c r="N213" s="34">
-        <v>70</v>
-      </c>
-      <c r="O213" s="32" t="s">
+      <c r="P214" s="90"/>
+      <c r="Q214" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="R214" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="S214" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="T214" s="110" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="215" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M215" s="44"/>
+      <c r="N215" s="34">
+        <v>69</v>
+      </c>
+      <c r="O215" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="P213" s="32"/>
-      <c r="Q213" s="32" t="s">
-        <v>664</v>
-      </c>
-      <c r="R213" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="S213" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T213" s="54" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="214" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M214" s="45"/>
-      <c r="N214" s="132">
-        <v>74</v>
-      </c>
-      <c r="O214" s="133" t="s">
-        <v>671</v>
-      </c>
-      <c r="P214" s="133"/>
-      <c r="Q214" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="R214" s="133" t="s">
-        <v>19</v>
-      </c>
-      <c r="S214" s="133" t="s">
-        <v>20</v>
-      </c>
-      <c r="T214" s="134"/>
-    </row>
-    <row r="215" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M215" s="71"/>
-      <c r="N215" s="55">
-        <v>71</v>
-      </c>
-      <c r="O215" s="50" t="s">
-        <v>678</v>
-      </c>
-      <c r="P215" s="50"/>
-      <c r="Q215" s="59" t="s">
-        <v>672</v>
-      </c>
-      <c r="R215" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="S215" s="59" t="s">
+      <c r="P215" s="32"/>
+      <c r="Q215" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="R215" s="32" t="s">
+        <v>648</v>
+      </c>
+      <c r="S215" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="T215" s="110" t="s">
+      <c r="T215" s="54" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="216" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M216" s="44"/>
       <c r="N216" s="34">
-        <v>49</v>
-      </c>
-      <c r="O216" s="57" t="s">
-        <v>678</v>
-      </c>
-      <c r="P216" s="57"/>
-      <c r="Q216" s="57" t="s">
-        <v>673</v>
-      </c>
-      <c r="R216" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="S216" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="T216" s="54" t="s">
-        <v>47</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="O216" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="P216" s="32"/>
+      <c r="Q216" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="R216" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="S216" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T216" s="35"/>
     </row>
     <row r="217" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M217" s="44"/>
       <c r="N217" s="34">
-        <v>72</v>
-      </c>
-      <c r="O217" s="57" t="s">
-        <v>678</v>
-      </c>
-      <c r="P217" s="57"/>
-      <c r="Q217" s="57" t="s">
-        <v>674</v>
-      </c>
-      <c r="R217" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="S217" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="T217" s="54" t="s">
-        <v>47</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="O217" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="P217" s="32"/>
+      <c r="Q217" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R217" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="S217" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T217" s="35"/>
     </row>
     <row r="218" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M218" s="44"/>
       <c r="N218" s="163">
         <v>73</v>
       </c>
-      <c r="O218" s="149" t="s">
-        <v>678</v>
-      </c>
-      <c r="P218" s="149"/>
-      <c r="Q218" s="149" t="s">
+      <c r="O218" s="156" t="s">
+        <v>671</v>
+      </c>
+      <c r="P218" s="156"/>
+      <c r="Q218" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="R218" s="149" t="s">
+      <c r="R218" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="S218" s="149" t="s">
-        <v>17</v>
+      <c r="S218" s="156" t="s">
+        <v>20</v>
       </c>
       <c r="T218" s="157"/>
     </row>
     <row r="219" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M219" s="44"/>
       <c r="N219" s="34">
-        <v>62</v>
-      </c>
-      <c r="O219" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="O219" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="P219" s="32"/>
+      <c r="Q219" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="R219" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S219" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T219" s="54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="220" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M220" s="45"/>
+      <c r="N220" s="132">
+        <v>74</v>
+      </c>
+      <c r="O220" s="133" t="s">
+        <v>671</v>
+      </c>
+      <c r="P220" s="133"/>
+      <c r="Q220" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="R220" s="133" t="s">
+        <v>19</v>
+      </c>
+      <c r="S220" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="T220" s="134"/>
+    </row>
+    <row r="221" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M221" s="71"/>
+      <c r="N221" s="55">
+        <v>71</v>
+      </c>
+      <c r="O221" s="50" t="s">
         <v>678</v>
       </c>
-      <c r="P219" s="39"/>
-      <c r="Q219" s="57" t="s">
-        <v>675</v>
-      </c>
-      <c r="R219" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="S219" s="57" t="s">
+      <c r="P221" s="50"/>
+      <c r="Q221" s="59" t="s">
+        <v>672</v>
+      </c>
+      <c r="R221" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="S221" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="T219" s="35"/>
-    </row>
-    <row r="220" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M220" s="44"/>
-      <c r="N220" s="34">
-        <v>50</v>
-      </c>
-      <c r="O220" s="39" t="s">
-        <v>678</v>
-      </c>
-      <c r="P220" s="39"/>
-      <c r="Q220" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="R220" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="S220" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="T220" s="35"/>
-    </row>
-    <row r="221" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M221" s="44"/>
-      <c r="N221" s="34">
-        <v>51</v>
-      </c>
-      <c r="O221" s="57" t="s">
-        <v>678</v>
-      </c>
-      <c r="P221" s="57"/>
-      <c r="Q221" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="R221" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="S221" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="T221" s="35"/>
+      <c r="T221" s="110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="222" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M222" s="44"/>
       <c r="N222" s="34">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O222" s="57" t="s">
         <v>678</v>
       </c>
       <c r="P222" s="57"/>
       <c r="Q222" s="57" t="s">
+        <v>673</v>
+      </c>
+      <c r="R222" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="S222" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="T222" s="54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="223" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M223" s="44"/>
+      <c r="N223" s="34">
+        <v>72</v>
+      </c>
+      <c r="O223" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="P223" s="57"/>
+      <c r="Q223" s="57" t="s">
+        <v>674</v>
+      </c>
+      <c r="R223" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="S223" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="T223" s="54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="224" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M224" s="44"/>
+      <c r="N224" s="163">
+        <v>73</v>
+      </c>
+      <c r="O224" s="149" t="s">
+        <v>678</v>
+      </c>
+      <c r="P224" s="149"/>
+      <c r="Q224" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="R224" s="149" t="s">
+        <v>19</v>
+      </c>
+      <c r="S224" s="149" t="s">
+        <v>17</v>
+      </c>
+      <c r="T224" s="157"/>
+    </row>
+    <row r="225" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M225" s="44"/>
+      <c r="N225" s="34">
+        <v>62</v>
+      </c>
+      <c r="O225" s="39" t="s">
+        <v>678</v>
+      </c>
+      <c r="P225" s="39"/>
+      <c r="Q225" s="57" t="s">
+        <v>675</v>
+      </c>
+      <c r="R225" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="S225" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="T225" s="35"/>
+    </row>
+    <row r="226" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M226" s="44"/>
+      <c r="N226" s="34">
+        <v>50</v>
+      </c>
+      <c r="O226" s="39" t="s">
+        <v>678</v>
+      </c>
+      <c r="P226" s="39"/>
+      <c r="Q226" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="R226" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="S226" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="T226" s="35"/>
+    </row>
+    <row r="227" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M227" s="44"/>
+      <c r="N227" s="34">
+        <v>51</v>
+      </c>
+      <c r="O227" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="P227" s="57"/>
+      <c r="Q227" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R227" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="S227" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="T227" s="35"/>
+    </row>
+    <row r="228" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M228" s="44"/>
+      <c r="N228" s="34">
+        <v>52</v>
+      </c>
+      <c r="O228" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="P228" s="57"/>
+      <c r="Q228" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="R222" s="57" t="s">
+      <c r="R228" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="S222" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="T222" s="35"/>
-    </row>
-    <row r="223" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M223" s="45"/>
-      <c r="N223" s="128">
+      <c r="S228" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="T228" s="35"/>
+    </row>
+    <row r="229" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M229" s="45"/>
+      <c r="N229" s="128">
         <v>74</v>
       </c>
-      <c r="O223" s="140" t="s">
+      <c r="O229" s="140" t="s">
         <v>678</v>
       </c>
-      <c r="P223" s="140"/>
-      <c r="Q223" s="131" t="s">
+      <c r="P229" s="140"/>
+      <c r="Q229" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="R223" s="131" t="s">
+      <c r="R229" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="S223" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="T223" s="130"/>
+      <c r="S229" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="T229" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -21044,8 +21302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T89"/>
   <sheetViews>
-    <sheetView topLeftCell="L13" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68"/>
+    <sheetView tabSelected="1" topLeftCell="L43" workbookViewId="0">
+      <selection activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21087,17 +21345,17 @@
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="175" t="s">
+      <c r="E2" s="176" t="s">
         <v>337</v>
       </c>
-      <c r="F2" s="176"/>
-      <c r="G2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="178"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="178" t="s">
+      <c r="I2" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="179"/>
-      <c r="K2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -21105,9 +21363,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="183"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="184"/>
       <c r="H3" s="10"/>
       <c r="I3" s="62"/>
       <c r="J3" s="25" t="s">
@@ -21121,11 +21379,11 @@
       </c>
       <c r="C4" s="143"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="184" t="s">
+      <c r="E4" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="185"/>
-      <c r="G4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="187"/>
       <c r="H4" s="7"/>
       <c r="I4" s="148"/>
       <c r="J4" s="25" t="s">
@@ -21139,11 +21397,11 @@
       </c>
       <c r="C5" s="143"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="184" t="s">
+      <c r="E5" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="185"/>
-      <c r="G5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="187"/>
       <c r="H5" s="7"/>
       <c r="I5" s="149"/>
       <c r="J5" s="29" t="s">
@@ -21161,30 +21419,30 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="189" t="s">
+      <c r="J7" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="190"/>
-      <c r="L7" s="191"/>
+      <c r="K7" s="191"/>
+      <c r="L7" s="192"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="173" t="s">
+      <c r="N7" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="174"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="174"/>
-      <c r="R7" s="174"/>
-      <c r="S7" s="174"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="175"/>
+      <c r="R7" s="175"/>
+      <c r="S7" s="175"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -22551,7 +22809,7 @@
         <v>20</v>
       </c>
       <c r="S64" s="35"/>
-      <c r="T64" s="195"/>
+      <c r="T64" s="173"/>
     </row>
     <row r="65" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M65" s="74"/>
@@ -22571,7 +22829,7 @@
         <v>20</v>
       </c>
       <c r="S65" s="35"/>
-      <c r="T65" s="195"/>
+      <c r="T65" s="173"/>
     </row>
     <row r="66" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M66" s="74"/>
@@ -22591,7 +22849,7 @@
         <v>20</v>
       </c>
       <c r="S66" s="35"/>
-      <c r="T66" s="195"/>
+      <c r="T66" s="173"/>
     </row>
     <row r="67" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M67" s="74"/>
@@ -22611,7 +22869,7 @@
         <v>20</v>
       </c>
       <c r="S67" s="35"/>
-      <c r="T67" s="195"/>
+      <c r="T67" s="173"/>
     </row>
     <row r="68" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M68" s="74"/>
@@ -22625,13 +22883,13 @@
         <v>733</v>
       </c>
       <c r="Q68" s="32" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="R68" s="32" t="s">
         <v>20</v>
       </c>
       <c r="S68" s="35"/>
-      <c r="T68" s="195"/>
+      <c r="T68" s="173"/>
     </row>
     <row r="69" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M69" s="74"/>
@@ -22651,7 +22909,7 @@
         <v>20</v>
       </c>
       <c r="S69" s="35"/>
-      <c r="T69" s="195"/>
+      <c r="T69" s="173"/>
     </row>
     <row r="70" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M70" s="74"/>
@@ -22671,7 +22929,7 @@
         <v>20</v>
       </c>
       <c r="S70" s="35"/>
-      <c r="T70" s="195"/>
+      <c r="T70" s="173"/>
     </row>
     <row r="71" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M71" s="74"/>
@@ -22691,7 +22949,7 @@
         <v>20</v>
       </c>
       <c r="S71" s="35"/>
-      <c r="T71" s="195"/>
+      <c r="T71" s="173"/>
     </row>
     <row r="72" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M72" s="74"/>
@@ -23108,26 +23366,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="175" t="s">
+      <c r="D2" s="176" t="s">
         <v>571</v>
       </c>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="178"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="178" t="s">
+      <c r="H2" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="179"/>
-      <c r="J2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="181"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="183"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="184"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -23140,11 +23398,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="184" t="s">
+      <c r="D4" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="185"/>
-      <c r="F4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="187"/>
       <c r="G4" s="7"/>
       <c r="H4" s="148"/>
       <c r="I4" s="25" t="s">
@@ -23157,11 +23415,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="184" t="s">
+      <c r="D5" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="185"/>
-      <c r="F5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="187"/>
       <c r="G5" s="7"/>
       <c r="H5" s="149"/>
       <c r="I5" s="29" t="s">
@@ -23178,29 +23436,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="189" t="s">
+      <c r="I7" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="190"/>
-      <c r="K7" s="191"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="192"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="173" t="s">
+      <c r="M7" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="174"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="174"/>
-      <c r="R7" s="174"/>
+      <c r="N7" s="175"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="175"/>
+      <c r="R7" s="175"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -23945,26 +24203,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="175" t="s">
+      <c r="D2" s="176" t="s">
         <v>608</v>
       </c>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="178"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="178" t="s">
+      <c r="H2" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="179"/>
-      <c r="J2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="181"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="183"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="184"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -23977,11 +24235,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="184" t="s">
+      <c r="D4" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="185"/>
-      <c r="F4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="187"/>
       <c r="G4" s="7"/>
       <c r="H4" s="148"/>
       <c r="I4" s="25" t="s">
@@ -23994,11 +24252,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="184" t="s">
+      <c r="D5" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="185"/>
-      <c r="F5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="187"/>
       <c r="G5" s="7"/>
       <c r="H5" s="149"/>
       <c r="I5" s="29" t="s">
@@ -24015,29 +24273,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="189" t="s">
+      <c r="I7" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="190"/>
-      <c r="K7" s="191"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="192"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="173" t="s">
+      <c r="M7" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="174"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="174"/>
-      <c r="R7" s="174"/>
+      <c r="N7" s="175"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="175"/>
+      <c r="R7" s="175"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -24567,17 +24825,17 @@
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="175" t="s">
+      <c r="E2" s="176" t="s">
         <v>620</v>
       </c>
-      <c r="F2" s="176"/>
-      <c r="G2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="178"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="178" t="s">
+      <c r="I2" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="179"/>
-      <c r="K2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -24585,9 +24843,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="183"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="184"/>
       <c r="H3" s="10"/>
       <c r="I3" s="62"/>
       <c r="J3" s="25" t="s">
@@ -24601,11 +24859,11 @@
       </c>
       <c r="C4" s="143"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="184" t="s">
+      <c r="E4" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="185"/>
-      <c r="G4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="187"/>
       <c r="H4" s="7"/>
       <c r="I4" s="148"/>
       <c r="J4" s="25" t="s">
@@ -24619,11 +24877,11 @@
       </c>
       <c r="C5" s="143"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="184" t="s">
+      <c r="E5" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="185"/>
-      <c r="G5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="187"/>
       <c r="H5" s="7"/>
       <c r="I5" s="149"/>
       <c r="J5" s="29" t="s">
@@ -24641,33 +24899,33 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="189" t="s">
+      <c r="J7" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="190"/>
-      <c r="L7" s="191"/>
+      <c r="K7" s="191"/>
+      <c r="L7" s="192"/>
       <c r="M7" s="11" t="s">
         <v>662</v>
       </c>
-      <c r="N7" s="173" t="s">
+      <c r="N7" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="174"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="174"/>
-      <c r="R7" s="174"/>
-      <c r="S7" s="174"/>
-      <c r="T7" s="174"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="175"/>
+      <c r="R7" s="175"/>
+      <c r="S7" s="175"/>
+      <c r="T7" s="175"/>
     </row>
     <row r="8" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">

--- a/Cnl/Mapeos_CON_CNL_V1.xlsx
+++ b/Cnl/Mapeos_CON_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="915" windowWidth="9225" windowHeight="4110" tabRatio="583" activeTab="3"/>
+    <workbookView xWindow="285" yWindow="975" windowWidth="9225" windowHeight="4050" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="T65SOLICITUD" sheetId="36" r:id="rId1"/>
@@ -1276,7 +1276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4192" uniqueCount="770">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3508,16 +3508,101 @@
   </si>
   <si>
     <t>NUMERIC(8,4)</t>
+  </si>
+  <si>
+    <t>ID_PROD</t>
+  </si>
+  <si>
+    <t>VLR_RECM</t>
+  </si>
+  <si>
+    <t>NUMERIC(16,4)</t>
+  </si>
+  <si>
+    <t>VLR_APR</t>
+  </si>
+  <si>
+    <t>FEC_APR</t>
+  </si>
+  <si>
+    <t>DESC_CAU_ARR</t>
+  </si>
+  <si>
+    <t>PI_ANT</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>VLR_PE</t>
+  </si>
+  <si>
+    <t>FEC_VENC_PI</t>
+  </si>
+  <si>
+    <t>PI_MRC</t>
+  </si>
+  <si>
+    <t>PDI_MRC</t>
+  </si>
+  <si>
+    <t>PROV_MRC</t>
+  </si>
+  <si>
+    <t>CAT_RSF_MRC</t>
+  </si>
+  <si>
+    <t>ALTER_DEF</t>
+  </si>
+  <si>
+    <t>SEG_MRC</t>
+  </si>
+  <si>
+    <t>PI_OTORG_ANT_ARR</t>
+  </si>
+  <si>
+    <t>PI_OTORG_DEF</t>
+  </si>
+  <si>
+    <t>PI_OTORG_MOD_REF</t>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
+  </si>
+  <si>
+    <t>NUMERIC(18,10)</t>
+  </si>
+  <si>
+    <t>NUMERIC(18,2)</t>
+  </si>
+  <si>
+    <t>VARCHAR(2)</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>ID_MON</t>
+  </si>
+  <si>
+    <t>COMIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3695,6 +3780,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -3868,7 +3959,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -4506,248 +4597,322 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="132">
+  <cellStyleXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4756,11 +4921,11 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4770,168 +4935,175 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="28" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="28" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="28" borderId="0" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="28" borderId="0" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="33" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="33" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="87" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="87" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="30" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="28" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="30" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="28" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="134" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="132" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4940,50 +5112,82 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="51" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="52" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="5" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="5" fillId="28" borderId="32" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="5" fillId="28" borderId="31" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="132">
+  <cellStyles count="182">
     <cellStyle name="20% - Accent1" xfId="1"/>
     <cellStyle name="20% - Accent2" xfId="2"/>
     <cellStyle name="20% - Accent3" xfId="3"/>
@@ -4992,16 +5196,22 @@
     <cellStyle name="20% - Accent6" xfId="6"/>
     <cellStyle name="20% - Énfasis1" xfId="7" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis1 2" xfId="90"/>
+    <cellStyle name="20% - Énfasis1 3" xfId="137"/>
     <cellStyle name="20% - Énfasis2" xfId="8" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2 2" xfId="91"/>
+    <cellStyle name="20% - Énfasis2 3" xfId="138"/>
     <cellStyle name="20% - Énfasis3" xfId="9" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3 2" xfId="92"/>
+    <cellStyle name="20% - Énfasis3 3" xfId="139"/>
     <cellStyle name="20% - Énfasis4" xfId="10" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis4 2" xfId="93"/>
+    <cellStyle name="20% - Énfasis4 3" xfId="140"/>
     <cellStyle name="20% - Énfasis5" xfId="11" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis5 2" xfId="94"/>
+    <cellStyle name="20% - Énfasis5 3" xfId="141"/>
     <cellStyle name="20% - Énfasis6" xfId="12" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis6 2" xfId="95"/>
+    <cellStyle name="20% - Énfasis6 3" xfId="142"/>
     <cellStyle name="40% - Accent1" xfId="13"/>
     <cellStyle name="40% - Accent2" xfId="14"/>
     <cellStyle name="40% - Accent3" xfId="15"/>
@@ -5010,16 +5220,22 @@
     <cellStyle name="40% - Accent6" xfId="18"/>
     <cellStyle name="40% - Énfasis1" xfId="19" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis1 2" xfId="96"/>
+    <cellStyle name="40% - Énfasis1 3" xfId="143"/>
     <cellStyle name="40% - Énfasis2" xfId="20" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis2 2" xfId="97"/>
+    <cellStyle name="40% - Énfasis2 3" xfId="144"/>
     <cellStyle name="40% - Énfasis3" xfId="21" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis3 2" xfId="98"/>
+    <cellStyle name="40% - Énfasis3 3" xfId="145"/>
     <cellStyle name="40% - Énfasis4" xfId="22" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis4 2" xfId="99"/>
+    <cellStyle name="40% - Énfasis4 3" xfId="146"/>
     <cellStyle name="40% - Énfasis5" xfId="23" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis5 2" xfId="100"/>
+    <cellStyle name="40% - Énfasis5 3" xfId="147"/>
     <cellStyle name="40% - Énfasis6" xfId="24" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis6 2" xfId="101"/>
+    <cellStyle name="40% - Énfasis6 3" xfId="148"/>
     <cellStyle name="60% - Accent1" xfId="25"/>
     <cellStyle name="60% - Accent2" xfId="26"/>
     <cellStyle name="60% - Accent3" xfId="27"/>
@@ -5028,16 +5244,22 @@
     <cellStyle name="60% - Accent6" xfId="30"/>
     <cellStyle name="60% - Énfasis1" xfId="31" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis1 2" xfId="102"/>
+    <cellStyle name="60% - Énfasis1 3" xfId="149"/>
     <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis2 2" xfId="103"/>
+    <cellStyle name="60% - Énfasis2 3" xfId="150"/>
     <cellStyle name="60% - Énfasis3" xfId="33" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis3 2" xfId="104"/>
+    <cellStyle name="60% - Énfasis3 3" xfId="151"/>
     <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis4 2" xfId="105"/>
+    <cellStyle name="60% - Énfasis4 3" xfId="152"/>
     <cellStyle name="60% - Énfasis5" xfId="35" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5 2" xfId="106"/>
+    <cellStyle name="60% - Énfasis5 3" xfId="153"/>
     <cellStyle name="60% - Énfasis6" xfId="36" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6 2" xfId="107"/>
+    <cellStyle name="60% - Énfasis6 3" xfId="154"/>
     <cellStyle name="Accent1" xfId="37"/>
     <cellStyle name="Accent2" xfId="38"/>
     <cellStyle name="Accent3" xfId="39"/>
@@ -5047,30 +5269,42 @@
     <cellStyle name="Bad" xfId="43"/>
     <cellStyle name="Buena" xfId="44" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Buena 2" xfId="108"/>
+    <cellStyle name="Buena 3" xfId="155"/>
     <cellStyle name="Calculation" xfId="45"/>
     <cellStyle name="Cálculo" xfId="46" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cálculo 2" xfId="109"/>
+    <cellStyle name="Cálculo 3" xfId="156"/>
     <cellStyle name="Celda de comprobación" xfId="47" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación 2" xfId="110"/>
+    <cellStyle name="Celda de comprobación 3" xfId="157"/>
     <cellStyle name="Celda vinculada" xfId="48" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Celda vinculada 2" xfId="111"/>
+    <cellStyle name="Celda vinculada 3" xfId="158"/>
     <cellStyle name="Check Cell" xfId="49"/>
     <cellStyle name="Encabezado 4" xfId="50" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Encabezado 4 2" xfId="112"/>
+    <cellStyle name="Encabezado 4 3" xfId="159"/>
     <cellStyle name="Énfasis1" xfId="51" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis1 2" xfId="113"/>
+    <cellStyle name="Énfasis1 3" xfId="160"/>
     <cellStyle name="Énfasis2" xfId="52" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Énfasis2 2" xfId="114"/>
+    <cellStyle name="Énfasis2 3" xfId="161"/>
     <cellStyle name="Énfasis3" xfId="53" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Énfasis3 2" xfId="115"/>
+    <cellStyle name="Énfasis3 3" xfId="162"/>
     <cellStyle name="Énfasis4" xfId="54" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Énfasis4 2" xfId="116"/>
+    <cellStyle name="Énfasis4 3" xfId="163"/>
     <cellStyle name="Énfasis5" xfId="55" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis5 2" xfId="117"/>
+    <cellStyle name="Énfasis5 3" xfId="164"/>
     <cellStyle name="Énfasis6" xfId="56" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Énfasis6 2" xfId="118"/>
+    <cellStyle name="Énfasis6 3" xfId="165"/>
     <cellStyle name="Entrada" xfId="57" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Entrada 2" xfId="119"/>
+    <cellStyle name="Entrada 3" xfId="166"/>
     <cellStyle name="Explanatory Text" xfId="58"/>
     <cellStyle name="Good" xfId="59"/>
     <cellStyle name="Heading 1" xfId="60"/>
@@ -5079,42 +5313,62 @@
     <cellStyle name="Heading 4" xfId="63"/>
     <cellStyle name="Incorrecto" xfId="64" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Incorrecto 2" xfId="120"/>
+    <cellStyle name="Incorrecto 3" xfId="167"/>
     <cellStyle name="Input" xfId="65"/>
     <cellStyle name="l]_x000d__x000a_MultiplesUnidades=True_x000d__x000a_log=2_x000d__x000a_DistribucionForm=False_x000d__x000a_Novedades=proxy:8080/data/sim/sim44htm" xfId="66"/>
     <cellStyle name="Linked Cell" xfId="67"/>
     <cellStyle name="Neutral" xfId="68" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Neutral 2" xfId="121"/>
+    <cellStyle name="Neutral 3" xfId="168"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="69"/>
     <cellStyle name="Normal 2 2" xfId="87"/>
+    <cellStyle name="Normal 2 3" xfId="169"/>
+    <cellStyle name="Normal 2 4" xfId="134"/>
     <cellStyle name="Normal 3" xfId="85"/>
     <cellStyle name="Normal 4" xfId="86"/>
     <cellStyle name="Normal 4 2" xfId="131"/>
+    <cellStyle name="Normal 4 2 2" xfId="181"/>
+    <cellStyle name="Normal 4 3" xfId="179"/>
+    <cellStyle name="Normal 4 4" xfId="133"/>
     <cellStyle name="Normal 5" xfId="89"/>
     <cellStyle name="Normal 6" xfId="88"/>
+    <cellStyle name="Normal 6 2" xfId="180"/>
+    <cellStyle name="Normal 7" xfId="136"/>
+    <cellStyle name="Normal 8" xfId="132"/>
     <cellStyle name="Normal_Libro1" xfId="70"/>
     <cellStyle name="Normal_Planilla_Mapeo_CCCLTEMT" xfId="71"/>
     <cellStyle name="Notas" xfId="72" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Notas 2" xfId="122"/>
+    <cellStyle name="Notas 3" xfId="170"/>
     <cellStyle name="Note" xfId="73"/>
     <cellStyle name="Output" xfId="74"/>
+    <cellStyle name="Porcentaje 2" xfId="135"/>
     <cellStyle name="Salida" xfId="75" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Salida 2" xfId="123"/>
+    <cellStyle name="Salida 3" xfId="171"/>
     <cellStyle name="Texto de advertencia" xfId="76" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia 2" xfId="124"/>
+    <cellStyle name="Texto de advertencia 3" xfId="172"/>
     <cellStyle name="Texto explicativo" xfId="77" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Texto explicativo 2" xfId="125"/>
+    <cellStyle name="Texto explicativo 3" xfId="173"/>
     <cellStyle name="Title" xfId="78"/>
     <cellStyle name="Título" xfId="79" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 1" xfId="80"/>
     <cellStyle name="Título 1 2" xfId="127"/>
+    <cellStyle name="Título 1 3" xfId="175"/>
     <cellStyle name="Título 2" xfId="81" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 2 2" xfId="128"/>
+    <cellStyle name="Título 2 3" xfId="176"/>
     <cellStyle name="Título 3" xfId="82" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Título 3 2" xfId="129"/>
+    <cellStyle name="Título 3 3" xfId="177"/>
     <cellStyle name="Título 4" xfId="126"/>
+    <cellStyle name="Título 5" xfId="174"/>
     <cellStyle name="Total" xfId="83" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Total 2" xfId="130"/>
+    <cellStyle name="Total 3" xfId="178"/>
     <cellStyle name="Warning Text" xfId="84"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5516,30 +5770,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S96"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S57" sqref="S57"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="48.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="84.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="86.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2" style="2" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="32.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="11.42578125" style="2"/>
   </cols>
@@ -5557,29 +5811,29 @@
       <c r="B2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="176" t="s">
+      <c r="C2" s="141"/>
+      <c r="D2" s="192" t="s">
         <v>318</v>
       </c>
-      <c r="F2" s="177"/>
-      <c r="G2" s="178"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="179" t="s">
+      <c r="I2" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="180"/>
-      <c r="K2" s="181"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="184"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="197"/>
       <c r="H3" s="10"/>
       <c r="I3" s="62"/>
       <c r="J3" s="25" t="s">
@@ -5591,15 +5845,15 @@
       <c r="B4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="185" t="s">
+      <c r="C4" s="142"/>
+      <c r="D4" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="186"/>
-      <c r="G4" s="187"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="200"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="148"/>
+      <c r="I4" s="147"/>
       <c r="J4" s="25" t="s">
         <v>717</v>
       </c>
@@ -5609,15 +5863,15 @@
       <c r="B5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="185" t="s">
+      <c r="C5" s="142"/>
+      <c r="D5" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="186"/>
-      <c r="G5" s="187"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="200"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="149"/>
+      <c r="I5" s="148"/>
       <c r="J5" s="29" t="s">
         <v>718</v>
       </c>
@@ -5632,37 +5886,37 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="188" t="s">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="190" t="s">
+      <c r="J7" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="191"/>
-      <c r="L7" s="192"/>
+      <c r="K7" s="190"/>
+      <c r="L7" s="191"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="174" t="s">
+      <c r="N7" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="175"/>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="175"/>
-      <c r="R7" s="175"/>
-      <c r="S7" s="175"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="183"/>
+      <c r="Q7" s="183"/>
+      <c r="R7" s="183"/>
+      <c r="S7" s="183"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="144" t="s">
+      <c r="C8" s="143" t="s">
         <v>712</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -5735,23 +5989,23 @@
       <c r="K9" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="L9" s="160" t="s">
+      <c r="L9" s="159" t="s">
         <v>547</v>
       </c>
-      <c r="M9" s="112"/>
-      <c r="N9" s="37">
+      <c r="M9" s="180"/>
+      <c r="N9" s="48">
         <v>90</v>
       </c>
-      <c r="O9" s="90" t="s">
+      <c r="O9" s="50" t="s">
         <v>530</v>
       </c>
-      <c r="P9" s="90" t="s">
+      <c r="P9" s="50" t="s">
         <v>495</v>
       </c>
-      <c r="Q9" s="90" t="s">
+      <c r="Q9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="90" t="s">
+      <c r="R9" s="50" t="s">
         <v>17</v>
       </c>
       <c r="S9" s="42" t="s">
@@ -5786,20 +6040,20 @@
       <c r="L10" s="126" t="s">
         <v>548</v>
       </c>
-      <c r="M10" s="112"/>
-      <c r="N10" s="81">
+      <c r="M10" s="180"/>
+      <c r="N10" s="49">
         <v>91</v>
       </c>
-      <c r="O10" s="32" t="s">
+      <c r="O10" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P10" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="Q10" s="32" t="s">
+      <c r="Q10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="R10" s="39" t="s">
         <v>20</v>
       </c>
       <c r="S10" s="77"/>
@@ -5832,23 +6086,23 @@
       <c r="L11" s="126" t="s">
         <v>549</v>
       </c>
-      <c r="M11" s="112"/>
-      <c r="N11" s="81">
+      <c r="M11" s="180"/>
+      <c r="N11" s="49">
         <v>92</v>
       </c>
-      <c r="O11" s="32" t="s">
+      <c r="O11" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P11" s="32" t="s">
+      <c r="P11" s="39" t="s">
         <v>497</v>
       </c>
-      <c r="Q11" s="32" t="s">
+      <c r="Q11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11" s="38"/>
+      <c r="R11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="77"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="49">
@@ -5878,23 +6132,23 @@
       <c r="L12" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="112"/>
+      <c r="M12" s="180"/>
       <c r="N12" s="24">
         <v>18</v>
       </c>
-      <c r="O12" s="32" t="s">
+      <c r="O12" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P12" s="32" t="s">
+      <c r="P12" s="39" t="s">
         <v>604</v>
       </c>
-      <c r="Q12" s="32" t="s">
+      <c r="Q12" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S12" s="38"/>
+      <c r="R12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="77"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" s="66">
@@ -5924,23 +6178,23 @@
       <c r="L13" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="155">
+      <c r="M13" s="74"/>
+      <c r="N13" s="154">
         <v>110</v>
       </c>
-      <c r="O13" s="156" t="s">
+      <c r="O13" s="176" t="s">
         <v>530</v>
       </c>
-      <c r="P13" s="156" t="s">
+      <c r="P13" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="Q13" s="156" t="s">
+      <c r="Q13" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="156" t="s">
-        <v>20</v>
-      </c>
-      <c r="S13" s="157"/>
+      <c r="R13" s="176" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="163"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" s="49">
@@ -5967,26 +6221,26 @@
       <c r="K14" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="161" t="s">
+      <c r="L14" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="44"/>
+      <c r="M14" s="74"/>
       <c r="N14" s="24">
         <v>93</v>
       </c>
-      <c r="O14" s="32" t="s">
+      <c r="O14" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P14" s="32" t="s">
+      <c r="P14" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="Q14" s="32" t="s">
+      <c r="Q14" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S14" s="38"/>
+      <c r="R14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="77"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15" s="49">
@@ -6013,26 +6267,26 @@
       <c r="K15" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="161" t="s">
+      <c r="L15" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="44"/>
+      <c r="M15" s="74"/>
       <c r="N15" s="49">
         <v>94</v>
       </c>
-      <c r="O15" s="32" t="s">
+      <c r="O15" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P15" s="32" t="s">
+      <c r="P15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Q15" s="32" t="s">
+      <c r="Q15" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S15" s="38"/>
+      <c r="R15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="77"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="66">
@@ -6062,23 +6316,23 @@
       <c r="L16" s="126" t="s">
         <v>550</v>
       </c>
-      <c r="M16" s="44"/>
+      <c r="M16" s="74"/>
       <c r="N16" s="49">
         <v>81</v>
       </c>
-      <c r="O16" s="32" t="s">
+      <c r="O16" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P16" s="32" t="s">
+      <c r="P16" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="Q16" s="32" t="s">
+      <c r="Q16" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="R16" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S16" s="38"/>
+      <c r="R16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="77"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="49">
@@ -6108,20 +6362,20 @@
       <c r="L17" s="126" t="s">
         <v>551</v>
       </c>
-      <c r="M17" s="44"/>
+      <c r="M17" s="74"/>
       <c r="N17" s="49">
         <v>35</v>
       </c>
-      <c r="O17" s="32" t="s">
+      <c r="O17" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P17" s="32" t="s">
+      <c r="P17" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="Q17" s="32" t="s">
+      <c r="Q17" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R17" s="32" t="s">
+      <c r="R17" s="39" t="s">
         <v>20</v>
       </c>
       <c r="S17" s="77"/>
@@ -6154,23 +6408,23 @@
       <c r="L18" s="126" t="s">
         <v>552</v>
       </c>
-      <c r="M18" s="44"/>
+      <c r="M18" s="74"/>
       <c r="N18" s="49">
         <v>10</v>
       </c>
-      <c r="O18" s="32" t="s">
+      <c r="O18" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P18" s="32" t="s">
+      <c r="P18" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="Q18" s="32" t="s">
+      <c r="Q18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R18" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S18" s="38"/>
+      <c r="R18" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="77"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="66">
@@ -6200,23 +6454,23 @@
       <c r="L19" s="126" t="s">
         <v>553</v>
       </c>
-      <c r="M19" s="44"/>
+      <c r="M19" s="74"/>
       <c r="N19" s="49">
         <v>97</v>
       </c>
-      <c r="O19" s="32" t="s">
+      <c r="O19" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P19" s="32" t="s">
+      <c r="P19" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="Q19" s="32" t="s">
+      <c r="Q19" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R19" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S19" s="38"/>
+      <c r="R19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="77"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="49">
@@ -6246,20 +6500,20 @@
       <c r="L20" s="126" t="s">
         <v>554</v>
       </c>
-      <c r="M20" s="44"/>
+      <c r="M20" s="74"/>
       <c r="N20" s="49">
         <v>83</v>
       </c>
-      <c r="O20" s="32" t="s">
+      <c r="O20" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P20" s="32" t="s">
+      <c r="P20" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="Q20" s="32" t="s">
+      <c r="Q20" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="R20" s="32" t="s">
+      <c r="R20" s="39" t="s">
         <v>20</v>
       </c>
       <c r="S20" s="77"/>
@@ -6292,20 +6546,20 @@
       <c r="L21" s="126" t="s">
         <v>555</v>
       </c>
-      <c r="M21" s="44"/>
+      <c r="M21" s="74"/>
       <c r="N21" s="49">
         <v>98</v>
       </c>
-      <c r="O21" s="32" t="s">
+      <c r="O21" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P21" s="32" t="s">
+      <c r="P21" s="39" t="s">
         <v>504</v>
       </c>
-      <c r="Q21" s="32" t="s">
+      <c r="Q21" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="32" t="s">
+      <c r="R21" s="39" t="s">
         <v>20</v>
       </c>
       <c r="S21" s="77"/>
@@ -6335,26 +6589,26 @@
       <c r="K22" s="29" t="s">
         <v>541</v>
       </c>
-      <c r="L22" s="161" t="s">
+      <c r="L22" s="160" t="s">
         <v>556</v>
       </c>
-      <c r="M22" s="44"/>
-      <c r="N22" s="34">
+      <c r="M22" s="74"/>
+      <c r="N22" s="66">
         <v>99</v>
       </c>
-      <c r="O22" s="32" t="s">
+      <c r="O22" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P22" s="32" t="s">
+      <c r="P22" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="Q22" s="32" t="s">
+      <c r="Q22" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R22" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S22" s="38"/>
+      <c r="R22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="77"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="49">
@@ -6381,26 +6635,26 @@
       <c r="K23" s="25" t="s">
         <v>684</v>
       </c>
-      <c r="L23" s="161" t="s">
+      <c r="L23" s="160" t="s">
         <v>686</v>
       </c>
-      <c r="M23" s="44"/>
+      <c r="M23" s="74"/>
       <c r="N23" s="49">
         <v>100</v>
       </c>
-      <c r="O23" s="32" t="s">
+      <c r="O23" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P23" s="32" t="s">
+      <c r="P23" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="Q23" s="32" t="s">
+      <c r="Q23" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R23" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S23" s="38"/>
+      <c r="R23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="77"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="49">
@@ -6427,26 +6681,26 @@
       <c r="K24" s="25" t="s">
         <v>685</v>
       </c>
-      <c r="L24" s="161" t="s">
+      <c r="L24" s="160" t="s">
         <v>687</v>
       </c>
-      <c r="M24" s="44"/>
-      <c r="N24" s="34">
+      <c r="M24" s="74"/>
+      <c r="N24" s="66">
         <v>101</v>
       </c>
-      <c r="O24" s="32" t="s">
+      <c r="O24" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P24" s="32" t="s">
+      <c r="P24" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="Q24" s="32" t="s">
+      <c r="Q24" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R24" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S24" s="38"/>
+      <c r="R24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="77"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="66">
@@ -6473,26 +6727,26 @@
       <c r="K25" s="25" t="s">
         <v>689</v>
       </c>
-      <c r="L25" s="161" t="s">
+      <c r="L25" s="160" t="s">
         <v>695</v>
       </c>
-      <c r="M25" s="44"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="49">
         <v>102</v>
       </c>
-      <c r="O25" s="32" t="s">
+      <c r="O25" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P25" s="32" t="s">
+      <c r="P25" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="Q25" s="32" t="s">
+      <c r="Q25" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R25" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S25" s="38"/>
+      <c r="R25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="77"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="49">
@@ -6521,26 +6775,26 @@
       <c r="K26" s="25" t="s">
         <v>690</v>
       </c>
-      <c r="L26" s="161" t="s">
+      <c r="L26" s="160" t="s">
         <v>696</v>
       </c>
-      <c r="M26" s="44"/>
-      <c r="N26" s="34">
+      <c r="M26" s="74"/>
+      <c r="N26" s="66">
         <v>95</v>
       </c>
-      <c r="O26" s="32" t="s">
+      <c r="O26" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P26" s="32" t="s">
+      <c r="P26" s="39" t="s">
         <v>509</v>
       </c>
-      <c r="Q26" s="32" t="s">
+      <c r="Q26" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R26" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S26" s="38"/>
+      <c r="R26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="77"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="49">
@@ -6567,26 +6821,26 @@
       <c r="K27" s="25" t="s">
         <v>692</v>
       </c>
-      <c r="L27" s="161" t="s">
+      <c r="L27" s="160" t="s">
         <v>697</v>
       </c>
-      <c r="M27" s="44"/>
+      <c r="M27" s="74"/>
       <c r="N27" s="49">
         <v>57</v>
       </c>
-      <c r="O27" s="32" t="s">
+      <c r="O27" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P27" s="32" t="s">
+      <c r="P27" s="39" t="s">
         <v>510</v>
       </c>
-      <c r="Q27" s="32" t="s">
+      <c r="Q27" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="R27" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S27" s="38"/>
+      <c r="R27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="77"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="66">
@@ -6613,23 +6867,23 @@
       <c r="K28" s="25" t="s">
         <v>693</v>
       </c>
-      <c r="L28" s="161" t="s">
+      <c r="L28" s="160" t="s">
         <v>698</v>
       </c>
-      <c r="M28" s="44"/>
-      <c r="N28" s="34">
+      <c r="M28" s="74"/>
+      <c r="N28" s="66">
         <v>54</v>
       </c>
-      <c r="O28" s="32" t="s">
+      <c r="O28" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P28" s="32" t="s">
+      <c r="P28" s="39" t="s">
         <v>511</v>
       </c>
-      <c r="Q28" s="32" t="s">
+      <c r="Q28" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="R28" s="32" t="s">
+      <c r="R28" s="39" t="s">
         <v>20</v>
       </c>
       <c r="S28" s="77"/>
@@ -6662,23 +6916,23 @@
       <c r="L29" s="126" t="s">
         <v>714</v>
       </c>
-      <c r="M29" s="44"/>
+      <c r="M29" s="74"/>
       <c r="N29" s="49">
         <v>55</v>
       </c>
-      <c r="O29" s="32" t="s">
+      <c r="O29" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P29" s="32" t="s">
+      <c r="P29" s="39" t="s">
         <v>512</v>
       </c>
-      <c r="Q29" s="32" t="s">
+      <c r="Q29" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="R29" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S29" s="38"/>
+      <c r="R29" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="77"/>
     </row>
     <row r="30" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="49">
@@ -6698,33 +6952,33 @@
       </c>
       <c r="G30" s="67"/>
       <c r="H30" s="68"/>
-      <c r="I30" s="159"/>
+      <c r="I30" s="158"/>
       <c r="J30" s="33">
         <v>111</v>
       </c>
       <c r="K30" s="105" t="s">
         <v>715</v>
       </c>
-      <c r="L30" s="162" t="s">
+      <c r="L30" s="161" t="s">
         <v>716</v>
       </c>
-      <c r="M30" s="44"/>
-      <c r="N30" s="34">
+      <c r="M30" s="74"/>
+      <c r="N30" s="66">
         <v>103</v>
       </c>
-      <c r="O30" s="32" t="s">
+      <c r="O30" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P30" s="32" t="s">
+      <c r="P30" s="39" t="s">
         <v>513</v>
       </c>
-      <c r="Q30" s="32" t="s">
+      <c r="Q30" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="R30" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S30" s="38"/>
+      <c r="R30" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="77"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="66">
@@ -6744,20 +6998,20 @@
       </c>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
-      <c r="M31" s="44"/>
+      <c r="M31" s="74"/>
       <c r="N31" s="49">
         <v>48</v>
       </c>
-      <c r="O31" s="32" t="s">
+      <c r="O31" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P31" s="32" t="s">
+      <c r="P31" s="39" t="s">
         <v>514</v>
       </c>
-      <c r="Q31" s="32" t="s">
+      <c r="Q31" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="R31" s="32" t="s">
+      <c r="R31" s="39" t="s">
         <v>20</v>
       </c>
       <c r="S31" s="77"/>
@@ -6780,20 +7034,20 @@
       </c>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="34">
+      <c r="M32" s="74"/>
+      <c r="N32" s="66">
         <v>96</v>
       </c>
-      <c r="O32" s="32" t="s">
+      <c r="O32" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P32" s="32" t="s">
+      <c r="P32" s="39" t="s">
         <v>515</v>
       </c>
-      <c r="Q32" s="32" t="s">
+      <c r="Q32" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R32" s="32" t="s">
+      <c r="R32" s="39" t="s">
         <v>20</v>
       </c>
       <c r="S32" s="77"/>
@@ -6816,23 +7070,23 @@
       </c>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="34">
+      <c r="M33" s="74"/>
+      <c r="N33" s="66">
         <v>96</v>
       </c>
-      <c r="O33" s="32" t="s">
+      <c r="O33" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P33" s="32" t="s">
+      <c r="P33" s="39" t="s">
         <v>516</v>
       </c>
-      <c r="Q33" s="32" t="s">
+      <c r="Q33" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R33" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S33" s="38"/>
+      <c r="R33" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S33" s="77"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="66">
@@ -6852,23 +7106,23 @@
       </c>
       <c r="G34" s="67"/>
       <c r="H34" s="68"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="34">
+      <c r="M34" s="74"/>
+      <c r="N34" s="66">
         <v>96</v>
       </c>
-      <c r="O34" s="32" t="s">
+      <c r="O34" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P34" s="32" t="s">
+      <c r="P34" s="39" t="s">
         <v>517</v>
       </c>
-      <c r="Q34" s="32" t="s">
+      <c r="Q34" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R34" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S34" s="35"/>
+      <c r="R34" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="54"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="49">
@@ -6888,23 +7142,23 @@
       </c>
       <c r="G35" s="67"/>
       <c r="H35" s="68"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="34">
+      <c r="M35" s="74"/>
+      <c r="N35" s="66">
         <v>96</v>
       </c>
-      <c r="O35" s="32" t="s">
+      <c r="O35" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P35" s="32" t="s">
+      <c r="P35" s="39" t="s">
         <v>518</v>
       </c>
-      <c r="Q35" s="32" t="s">
+      <c r="Q35" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S35" s="35"/>
+      <c r="R35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S35" s="54"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="49">
@@ -6924,23 +7178,23 @@
       </c>
       <c r="G36" s="67"/>
       <c r="H36" s="68"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="70">
+      <c r="M36" s="74"/>
+      <c r="N36" s="175">
         <v>111</v>
       </c>
-      <c r="O36" s="86" t="s">
+      <c r="O36" s="173" t="s">
         <v>530</v>
       </c>
-      <c r="P36" s="86" t="s">
+      <c r="P36" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="Q36" s="86" t="s">
+      <c r="Q36" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="R36" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="S36" s="124"/>
+      <c r="R36" s="173" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36" s="87"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="66">
@@ -6960,23 +7214,23 @@
       </c>
       <c r="G37" s="67"/>
       <c r="H37" s="68"/>
-      <c r="M37" s="44"/>
+      <c r="M37" s="74"/>
       <c r="N37" s="49">
         <v>90</v>
       </c>
-      <c r="O37" s="32" t="s">
+      <c r="O37" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P37" s="32" t="s">
+      <c r="P37" s="39" t="s">
         <v>519</v>
       </c>
-      <c r="Q37" s="32" t="s">
+      <c r="Q37" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R37" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S37" s="38"/>
+      <c r="R37" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" s="77"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="49">
@@ -6996,23 +7250,23 @@
       </c>
       <c r="G38" s="67"/>
       <c r="H38" s="68"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="34">
+      <c r="M38" s="74"/>
+      <c r="N38" s="66">
         <v>29</v>
       </c>
-      <c r="O38" s="32" t="s">
+      <c r="O38" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P38" s="32" t="s">
+      <c r="P38" s="39" t="s">
         <v>520</v>
       </c>
-      <c r="Q38" s="32" t="s">
+      <c r="Q38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R38" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S38" s="35"/>
+      <c r="R38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S38" s="54"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B39" s="49">
@@ -7032,20 +7286,20 @@
       </c>
       <c r="G39" s="67"/>
       <c r="H39" s="68"/>
-      <c r="M39" s="44"/>
+      <c r="M39" s="74"/>
       <c r="N39" s="49">
         <v>28</v>
       </c>
-      <c r="O39" s="32" t="s">
+      <c r="O39" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P39" s="32" t="s">
+      <c r="P39" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="Q39" s="32" t="s">
+      <c r="Q39" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R39" s="32" t="s">
+      <c r="R39" s="39" t="s">
         <v>20</v>
       </c>
       <c r="S39" s="54"/>
@@ -7068,23 +7322,23 @@
       </c>
       <c r="G40" s="67"/>
       <c r="H40" s="68"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="34">
+      <c r="M40" s="74"/>
+      <c r="N40" s="66">
         <v>36</v>
       </c>
-      <c r="O40" s="32" t="s">
+      <c r="O40" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P40" s="32" t="s">
+      <c r="P40" s="39" t="s">
         <v>521</v>
       </c>
-      <c r="Q40" s="32" t="s">
+      <c r="Q40" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R40" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S40" s="38"/>
+      <c r="R40" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S40" s="77"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="49">
@@ -7104,23 +7358,23 @@
       </c>
       <c r="G41" s="67"/>
       <c r="H41" s="68"/>
-      <c r="M41" s="44"/>
+      <c r="M41" s="74"/>
       <c r="N41" s="49">
         <v>41</v>
       </c>
-      <c r="O41" s="32" t="s">
+      <c r="O41" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P41" s="32" t="s">
+      <c r="P41" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="Q41" s="32" t="s">
+      <c r="Q41" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="R41" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S41" s="35"/>
+      <c r="R41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S41" s="54"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="49">
@@ -7140,20 +7394,20 @@
       </c>
       <c r="G42" s="67"/>
       <c r="H42" s="68"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="34">
-        <v>43</v>
-      </c>
-      <c r="O42" s="32" t="s">
+      <c r="M42" s="74"/>
+      <c r="N42" s="49">
+        <v>95</v>
+      </c>
+      <c r="O42" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P42" s="32" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q42" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="R42" s="32" t="s">
+      <c r="P42" s="179" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q42" s="178" t="s">
+        <v>16</v>
+      </c>
+      <c r="R42" s="39" t="s">
         <v>20</v>
       </c>
       <c r="S42" s="54"/>
@@ -7176,20 +7430,20 @@
       </c>
       <c r="G43" s="67"/>
       <c r="H43" s="68"/>
-      <c r="M43" s="44"/>
+      <c r="M43" s="74"/>
       <c r="N43" s="49">
-        <v>19</v>
-      </c>
-      <c r="O43" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="O43" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P43" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q43" s="32" t="s">
-        <v>524</v>
-      </c>
-      <c r="R43" s="32" t="s">
+      <c r="P43" s="178" t="s">
+        <v>744</v>
+      </c>
+      <c r="Q43" s="178" t="s">
+        <v>24</v>
+      </c>
+      <c r="R43" s="39" t="s">
         <v>20</v>
       </c>
       <c r="S43" s="54"/>
@@ -7212,25 +7466,25 @@
       </c>
       <c r="G44" s="67"/>
       <c r="H44" s="68"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="34">
-        <v>77</v>
-      </c>
-      <c r="O44" s="32" t="s">
+      <c r="M44" s="74"/>
+      <c r="N44" s="66">
+        <v>96</v>
+      </c>
+      <c r="O44" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P44" s="32" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q44" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="R44" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S44" s="35"/>
-    </row>
-    <row r="45" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P44" s="178" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q44" s="178" t="s">
+        <v>746</v>
+      </c>
+      <c r="R44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S44" s="54"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="49">
         <v>37</v>
       </c>
@@ -7248,23 +7502,23 @@
       </c>
       <c r="G45" s="67"/>
       <c r="H45" s="68"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="135">
-        <v>30</v>
-      </c>
-      <c r="O45" s="78" t="s">
+      <c r="M45" s="74"/>
+      <c r="N45" s="66">
+        <v>96</v>
+      </c>
+      <c r="O45" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="P45" s="78" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q45" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="R45" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="S45" s="73"/>
+      <c r="P45" s="178" t="s">
+        <v>747</v>
+      </c>
+      <c r="Q45" s="178" t="s">
+        <v>746</v>
+      </c>
+      <c r="R45" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="54"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="66">
@@ -7284,25 +7538,23 @@
       </c>
       <c r="G46" s="67"/>
       <c r="H46" s="68"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="55">
-        <v>90</v>
-      </c>
-      <c r="O46" s="90" t="s">
-        <v>688</v>
-      </c>
-      <c r="P46" s="90" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q46" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="R46" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="S46" s="69" t="s">
-        <v>47</v>
-      </c>
+      <c r="M46" s="74"/>
+      <c r="N46" s="66">
+        <v>96</v>
+      </c>
+      <c r="O46" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P46" s="178" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q46" s="178" t="s">
+        <v>19</v>
+      </c>
+      <c r="R46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S46" s="54"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" s="49">
@@ -7322,25 +7574,23 @@
       </c>
       <c r="G47" s="67"/>
       <c r="H47" s="68"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="34">
-        <v>104</v>
-      </c>
-      <c r="O47" s="32" t="s">
-        <v>688</v>
-      </c>
-      <c r="P47" s="32" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q47" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="R47" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="S47" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="M47" s="74"/>
+      <c r="N47" s="66">
+        <v>96</v>
+      </c>
+      <c r="O47" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P47" s="181" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q47" s="39" t="s">
+        <v>763</v>
+      </c>
+      <c r="R47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" s="54"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="49">
@@ -7360,23 +7610,23 @@
       </c>
       <c r="G48" s="67"/>
       <c r="H48" s="68"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="34">
-        <v>93</v>
-      </c>
-      <c r="O48" s="32" t="s">
-        <v>688</v>
-      </c>
-      <c r="P48" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q48" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="R48" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S48" s="35"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="66">
+        <v>96</v>
+      </c>
+      <c r="O48" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P48" s="181" t="s">
+        <v>750</v>
+      </c>
+      <c r="Q48" s="178" t="s">
+        <v>764</v>
+      </c>
+      <c r="R48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" s="54"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="66">
@@ -7396,23 +7646,23 @@
       </c>
       <c r="G49" s="67"/>
       <c r="H49" s="68"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="34">
-        <v>94</v>
-      </c>
-      <c r="O49" s="32" t="s">
-        <v>688</v>
-      </c>
-      <c r="P49" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q49" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="R49" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S49" s="35"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="66">
+        <v>96</v>
+      </c>
+      <c r="O49" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P49" s="181" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q49" s="178" t="s">
+        <v>764</v>
+      </c>
+      <c r="R49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" s="54"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B50" s="49">
@@ -7432,23 +7682,23 @@
       </c>
       <c r="G50" s="67"/>
       <c r="H50" s="68"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="163">
-        <v>110</v>
-      </c>
-      <c r="O50" s="156" t="s">
-        <v>688</v>
-      </c>
-      <c r="P50" s="156" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q50" s="156" t="s">
-        <v>19</v>
-      </c>
-      <c r="R50" s="156" t="s">
-        <v>20</v>
-      </c>
-      <c r="S50" s="157"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="66">
+        <v>96</v>
+      </c>
+      <c r="O50" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P50" s="181" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q50" s="178" t="s">
+        <v>765</v>
+      </c>
+      <c r="R50" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S50" s="54"/>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B51" s="49">
@@ -7468,27 +7718,25 @@
       </c>
       <c r="G51" s="67"/>
       <c r="H51" s="68"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="34">
-        <v>105</v>
-      </c>
-      <c r="O51" s="32" t="s">
-        <v>688</v>
-      </c>
-      <c r="P51" s="32" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q51" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="R51" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S51" s="35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M51" s="74"/>
+      <c r="N51" s="66">
+        <v>96</v>
+      </c>
+      <c r="O51" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P51" s="181" t="s">
+        <v>753</v>
+      </c>
+      <c r="Q51" s="178" t="s">
+        <v>19</v>
+      </c>
+      <c r="R51" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" s="54"/>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B52" s="66">
         <v>44</v>
       </c>
@@ -7506,23 +7754,23 @@
       </c>
       <c r="G52" s="67"/>
       <c r="H52" s="68"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="132">
-        <v>111</v>
-      </c>
-      <c r="O52" s="133" t="s">
-        <v>688</v>
-      </c>
-      <c r="P52" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q52" s="133" t="s">
-        <v>19</v>
-      </c>
-      <c r="R52" s="133" t="s">
-        <v>20</v>
-      </c>
-      <c r="S52" s="134"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="66">
+        <v>96</v>
+      </c>
+      <c r="O52" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P52" s="181" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q52" s="178" t="s">
+        <v>764</v>
+      </c>
+      <c r="R52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S52" s="54"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B53" s="49">
@@ -7542,23 +7790,23 @@
       </c>
       <c r="G53" s="67"/>
       <c r="H53" s="68"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="55">
-        <v>90</v>
-      </c>
-      <c r="O53" s="90" t="s">
-        <v>691</v>
-      </c>
-      <c r="P53" s="90" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q53" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="R53" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="S53" s="69"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="66">
+        <v>96</v>
+      </c>
+      <c r="O53" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P53" s="181" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q53" s="178" t="s">
+        <v>764</v>
+      </c>
+      <c r="R53" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S53" s="54"/>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B54" s="49">
@@ -7578,23 +7826,23 @@
       </c>
       <c r="G54" s="67"/>
       <c r="H54" s="68"/>
-      <c r="M54" s="44"/>
-      <c r="N54" s="34">
-        <v>106</v>
-      </c>
-      <c r="O54" s="32" t="s">
-        <v>691</v>
-      </c>
-      <c r="P54" s="32" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q54" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="R54" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="S54" s="35"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="66">
+        <v>96</v>
+      </c>
+      <c r="O54" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P54" s="181" t="s">
+        <v>756</v>
+      </c>
+      <c r="Q54" s="178" t="s">
+        <v>765</v>
+      </c>
+      <c r="R54" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" s="54"/>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B55" s="66">
@@ -7614,23 +7862,23 @@
       </c>
       <c r="G55" s="67"/>
       <c r="H55" s="68"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="34">
-        <v>93</v>
-      </c>
-      <c r="O55" s="32" t="s">
-        <v>691</v>
-      </c>
-      <c r="P55" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q55" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="R55" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S55" s="35"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="66">
+        <v>96</v>
+      </c>
+      <c r="O55" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P55" s="181" t="s">
+        <v>757</v>
+      </c>
+      <c r="Q55" s="178" t="s">
+        <v>766</v>
+      </c>
+      <c r="R55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S55" s="54"/>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B56" s="49">
@@ -7650,23 +7898,23 @@
       </c>
       <c r="G56" s="67"/>
       <c r="H56" s="68"/>
-      <c r="M56" s="44"/>
-      <c r="N56" s="34">
-        <v>94</v>
-      </c>
-      <c r="O56" s="32" t="s">
-        <v>691</v>
-      </c>
-      <c r="P56" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q56" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="R56" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S56" s="35"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="66">
+        <v>96</v>
+      </c>
+      <c r="O56" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P56" s="181" t="s">
+        <v>758</v>
+      </c>
+      <c r="Q56" s="178" t="s">
+        <v>767</v>
+      </c>
+      <c r="R56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" s="54"/>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B57" s="49">
@@ -7686,23 +7934,23 @@
       </c>
       <c r="G57" s="67"/>
       <c r="H57" s="68"/>
-      <c r="M57" s="44"/>
-      <c r="N57" s="163">
-        <v>110</v>
-      </c>
-      <c r="O57" s="156" t="s">
-        <v>691</v>
-      </c>
-      <c r="P57" s="156" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q57" s="156" t="s">
-        <v>19</v>
-      </c>
-      <c r="R57" s="156" t="s">
-        <v>20</v>
-      </c>
-      <c r="S57" s="157"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="66">
+        <v>96</v>
+      </c>
+      <c r="O57" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P57" s="181" t="s">
+        <v>759</v>
+      </c>
+      <c r="Q57" s="178" t="s">
+        <v>766</v>
+      </c>
+      <c r="R57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" s="54"/>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B58" s="66">
@@ -7722,25 +7970,25 @@
       </c>
       <c r="G58" s="67"/>
       <c r="H58" s="68"/>
-      <c r="M58" s="44"/>
-      <c r="N58" s="34">
-        <v>107</v>
-      </c>
-      <c r="O58" s="32" t="s">
-        <v>691</v>
-      </c>
-      <c r="P58" s="32" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q58" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="R58" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S58" s="35"/>
-    </row>
-    <row r="59" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M58" s="74"/>
+      <c r="N58" s="66">
+        <v>96</v>
+      </c>
+      <c r="O58" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P58" s="177" t="s">
+        <v>760</v>
+      </c>
+      <c r="Q58" s="178" t="s">
+        <v>764</v>
+      </c>
+      <c r="R58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S58" s="54"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B59" s="49">
         <v>51</v>
       </c>
@@ -7758,23 +8006,23 @@
       </c>
       <c r="G59" s="67"/>
       <c r="H59" s="68"/>
-      <c r="M59" s="45"/>
-      <c r="N59" s="132">
-        <v>111</v>
-      </c>
-      <c r="O59" s="133" t="s">
-        <v>691</v>
-      </c>
-      <c r="P59" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q59" s="133" t="s">
-        <v>19</v>
-      </c>
-      <c r="R59" s="133" t="s">
-        <v>20</v>
-      </c>
-      <c r="S59" s="134"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="66">
+        <v>96</v>
+      </c>
+      <c r="O59" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P59" s="177" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q59" s="178" t="s">
+        <v>764</v>
+      </c>
+      <c r="R59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S59" s="54"/>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B60" s="49">
@@ -7794,25 +8042,23 @@
       </c>
       <c r="G60" s="67"/>
       <c r="H60" s="68"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="55">
-        <v>90</v>
-      </c>
-      <c r="O60" s="90" t="s">
-        <v>694</v>
-      </c>
-      <c r="P60" s="90" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q60" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="R60" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="S60" s="69" t="s">
-        <v>47</v>
-      </c>
+      <c r="M60" s="74"/>
+      <c r="N60" s="66">
+        <v>96</v>
+      </c>
+      <c r="O60" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P60" s="177" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q60" s="178" t="s">
+        <v>764</v>
+      </c>
+      <c r="R60" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S60" s="54"/>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B61" s="66">
@@ -7832,25 +8078,23 @@
       </c>
       <c r="G61" s="67"/>
       <c r="H61" s="68"/>
-      <c r="M61" s="44"/>
-      <c r="N61" s="34">
-        <v>108</v>
-      </c>
-      <c r="O61" s="32" t="s">
-        <v>694</v>
-      </c>
-      <c r="P61" s="32" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q61" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="R61" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="S61" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="M61" s="74"/>
+      <c r="N61" s="66">
+        <v>43</v>
+      </c>
+      <c r="O61" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P61" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q61" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="R61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="54"/>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B62" s="49">
@@ -7870,23 +8114,23 @@
       </c>
       <c r="G62" s="67"/>
       <c r="H62" s="68"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="34">
-        <v>93</v>
-      </c>
-      <c r="O62" s="32" t="s">
-        <v>694</v>
-      </c>
-      <c r="P62" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q62" s="32" t="s">
+      <c r="M62" s="74"/>
+      <c r="N62" s="49">
         <v>19</v>
       </c>
-      <c r="R62" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S62" s="35"/>
+      <c r="O62" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P62" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q62" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="R62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" s="54"/>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B63" s="49">
@@ -7906,23 +8150,23 @@
       </c>
       <c r="G63" s="67"/>
       <c r="H63" s="68"/>
-      <c r="M63" s="44"/>
-      <c r="N63" s="34">
-        <v>94</v>
-      </c>
-      <c r="O63" s="32" t="s">
-        <v>694</v>
-      </c>
-      <c r="P63" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q63" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="R63" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S63" s="35"/>
+      <c r="M63" s="74"/>
+      <c r="N63" s="66">
+        <v>77</v>
+      </c>
+      <c r="O63" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P63" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q63" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R63" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S63" s="54"/>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B64" s="66">
@@ -7942,23 +8186,23 @@
       </c>
       <c r="G64" s="67"/>
       <c r="H64" s="68"/>
-      <c r="M64" s="44"/>
-      <c r="N64" s="163">
-        <v>110</v>
-      </c>
-      <c r="O64" s="156" t="s">
-        <v>694</v>
-      </c>
-      <c r="P64" s="156" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q64" s="156" t="s">
-        <v>19</v>
-      </c>
-      <c r="R64" s="156" t="s">
-        <v>20</v>
-      </c>
-      <c r="S64" s="157"/>
+      <c r="M64" s="74"/>
+      <c r="N64" s="211">
+        <v>95</v>
+      </c>
+      <c r="O64" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P64" s="146" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q64" s="146" t="s">
+        <v>24</v>
+      </c>
+      <c r="R64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S64" s="212"/>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B65" s="49">
@@ -7978,25 +8222,23 @@
       </c>
       <c r="G65" s="67"/>
       <c r="H65" s="68"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="34">
-        <v>109</v>
-      </c>
-      <c r="O65" s="32" t="s">
-        <v>694</v>
-      </c>
-      <c r="P65" s="32" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q65" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="R65" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S65" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="M65" s="74"/>
+      <c r="N65" s="211">
+        <v>96</v>
+      </c>
+      <c r="O65" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="P65" s="146" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q65" s="146" t="s">
+        <v>385</v>
+      </c>
+      <c r="R65" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S65" s="212"/>
     </row>
     <row r="66" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B66" s="49">
@@ -8016,23 +8258,23 @@
       </c>
       <c r="G66" s="67"/>
       <c r="H66" s="68"/>
-      <c r="M66" s="45"/>
-      <c r="N66" s="128">
-        <v>111</v>
-      </c>
-      <c r="O66" s="129" t="s">
-        <v>694</v>
-      </c>
-      <c r="P66" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q66" s="129" t="s">
-        <v>19</v>
-      </c>
-      <c r="R66" s="129" t="s">
-        <v>20</v>
-      </c>
-      <c r="S66" s="130"/>
+      <c r="M66" s="75"/>
+      <c r="N66" s="52">
+        <v>30</v>
+      </c>
+      <c r="O66" s="53" t="s">
+        <v>530</v>
+      </c>
+      <c r="P66" s="53" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q66" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="R66" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="S66" s="61"/>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B67" s="66">
@@ -8052,6 +8294,25 @@
       </c>
       <c r="G67" s="67"/>
       <c r="H67" s="68"/>
+      <c r="M67" s="71"/>
+      <c r="N67" s="168">
+        <v>90</v>
+      </c>
+      <c r="O67" s="167" t="s">
+        <v>688</v>
+      </c>
+      <c r="P67" s="167" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q67" s="167" t="s">
+        <v>16</v>
+      </c>
+      <c r="R67" s="167" t="s">
+        <v>17</v>
+      </c>
+      <c r="S67" s="174" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B68" s="49">
@@ -8071,6 +8332,25 @@
       </c>
       <c r="G68" s="67"/>
       <c r="H68" s="68"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="34">
+        <v>104</v>
+      </c>
+      <c r="O68" s="32" t="s">
+        <v>688</v>
+      </c>
+      <c r="P68" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q68" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="R68" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S68" s="35" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B69" s="49">
@@ -8090,6 +8370,23 @@
       </c>
       <c r="G69" s="67"/>
       <c r="H69" s="68"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="34">
+        <v>93</v>
+      </c>
+      <c r="O69" s="32" t="s">
+        <v>688</v>
+      </c>
+      <c r="P69" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q69" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="R69" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S69" s="35"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B70" s="66">
@@ -8109,6 +8406,23 @@
       </c>
       <c r="G70" s="67"/>
       <c r="H70" s="68"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="34">
+        <v>94</v>
+      </c>
+      <c r="O70" s="32" t="s">
+        <v>688</v>
+      </c>
+      <c r="P70" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q70" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="R70" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S70" s="35"/>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B71" s="49">
@@ -8128,6 +8442,23 @@
       </c>
       <c r="G71" s="67"/>
       <c r="H71" s="68"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="162">
+        <v>110</v>
+      </c>
+      <c r="O71" s="155" t="s">
+        <v>688</v>
+      </c>
+      <c r="P71" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q71" s="155" t="s">
+        <v>19</v>
+      </c>
+      <c r="R71" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="S71" s="156"/>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B72" s="49">
@@ -8147,8 +8478,27 @@
       </c>
       <c r="G72" s="67"/>
       <c r="H72" s="68"/>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="M72" s="44"/>
+      <c r="N72" s="34">
+        <v>105</v>
+      </c>
+      <c r="O72" s="32" t="s">
+        <v>688</v>
+      </c>
+      <c r="P72" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q72" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="R72" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S72" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="66">
         <v>65</v>
       </c>
@@ -8166,6 +8516,23 @@
       </c>
       <c r="G73" s="67"/>
       <c r="H73" s="68"/>
+      <c r="M73" s="45"/>
+      <c r="N73" s="132">
+        <v>111</v>
+      </c>
+      <c r="O73" s="133" t="s">
+        <v>688</v>
+      </c>
+      <c r="P73" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q73" s="133" t="s">
+        <v>19</v>
+      </c>
+      <c r="R73" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="S73" s="134"/>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B74" s="49">
@@ -8185,6 +8552,23 @@
       </c>
       <c r="G74" s="67"/>
       <c r="H74" s="68"/>
+      <c r="M74" s="71"/>
+      <c r="N74" s="55">
+        <v>90</v>
+      </c>
+      <c r="O74" s="90" t="s">
+        <v>691</v>
+      </c>
+      <c r="P74" s="90" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q74" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="R74" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="S74" s="69"/>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B75" s="49">
@@ -8204,6 +8588,23 @@
       </c>
       <c r="G75" s="67"/>
       <c r="H75" s="68"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="34">
+        <v>106</v>
+      </c>
+      <c r="O75" s="32" t="s">
+        <v>691</v>
+      </c>
+      <c r="P75" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q75" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="R75" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S75" s="35"/>
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B76" s="66">
@@ -8223,6 +8624,23 @@
       </c>
       <c r="G76" s="67"/>
       <c r="H76" s="68"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="34">
+        <v>93</v>
+      </c>
+      <c r="O76" s="32" t="s">
+        <v>691</v>
+      </c>
+      <c r="P76" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q76" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="R76" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S76" s="35"/>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B77" s="49">
@@ -8242,6 +8660,23 @@
       </c>
       <c r="G77" s="67"/>
       <c r="H77" s="68"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="34">
+        <v>94</v>
+      </c>
+      <c r="O77" s="32" t="s">
+        <v>691</v>
+      </c>
+      <c r="P77" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q77" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="R77" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S77" s="35"/>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B78" s="49">
@@ -8261,6 +8696,23 @@
       </c>
       <c r="G78" s="67"/>
       <c r="H78" s="68"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="162">
+        <v>110</v>
+      </c>
+      <c r="O78" s="155" t="s">
+        <v>691</v>
+      </c>
+      <c r="P78" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q78" s="155" t="s">
+        <v>19</v>
+      </c>
+      <c r="R78" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="S78" s="156"/>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="66">
@@ -8280,8 +8732,25 @@
       </c>
       <c r="G79" s="67"/>
       <c r="H79" s="68"/>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="M79" s="44"/>
+      <c r="N79" s="34">
+        <v>107</v>
+      </c>
+      <c r="O79" s="32" t="s">
+        <v>691</v>
+      </c>
+      <c r="P79" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q79" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="R79" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S79" s="35"/>
+    </row>
+    <row r="80" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B80" s="49">
         <v>72</v>
       </c>
@@ -8299,8 +8768,25 @@
       </c>
       <c r="G80" s="67"/>
       <c r="H80" s="68"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="M80" s="45"/>
+      <c r="N80" s="132">
+        <v>111</v>
+      </c>
+      <c r="O80" s="133" t="s">
+        <v>691</v>
+      </c>
+      <c r="P80" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q80" s="133" t="s">
+        <v>19</v>
+      </c>
+      <c r="R80" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="S80" s="134"/>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B81" s="49">
         <v>73</v>
       </c>
@@ -8318,8 +8804,27 @@
       </c>
       <c r="G81" s="67"/>
       <c r="H81" s="68"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="M81" s="71"/>
+      <c r="N81" s="55">
+        <v>90</v>
+      </c>
+      <c r="O81" s="90" t="s">
+        <v>694</v>
+      </c>
+      <c r="P81" s="90" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q81" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="R81" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="S81" s="69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B82" s="66">
         <v>74</v>
       </c>
@@ -8337,8 +8842,27 @@
       </c>
       <c r="G82" s="67"/>
       <c r="H82" s="68"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="M82" s="44"/>
+      <c r="N82" s="34">
+        <v>108</v>
+      </c>
+      <c r="O82" s="32" t="s">
+        <v>694</v>
+      </c>
+      <c r="P82" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q82" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="R82" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S82" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B83" s="49">
         <v>75</v>
       </c>
@@ -8356,8 +8880,25 @@
       </c>
       <c r="G83" s="67"/>
       <c r="H83" s="68"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="M83" s="44"/>
+      <c r="N83" s="34">
+        <v>93</v>
+      </c>
+      <c r="O83" s="32" t="s">
+        <v>694</v>
+      </c>
+      <c r="P83" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q83" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="R83" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S83" s="35"/>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B84" s="49">
         <v>76</v>
       </c>
@@ -8375,8 +8916,25 @@
       </c>
       <c r="G84" s="67"/>
       <c r="H84" s="68"/>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="M84" s="44"/>
+      <c r="N84" s="34">
+        <v>94</v>
+      </c>
+      <c r="O84" s="32" t="s">
+        <v>694</v>
+      </c>
+      <c r="P84" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q84" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="R84" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S84" s="35"/>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B85" s="66">
         <v>77</v>
       </c>
@@ -8394,8 +8952,25 @@
       </c>
       <c r="G85" s="67"/>
       <c r="H85" s="68"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="M85" s="44"/>
+      <c r="N85" s="162">
+        <v>110</v>
+      </c>
+      <c r="O85" s="155" t="s">
+        <v>694</v>
+      </c>
+      <c r="P85" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q85" s="155" t="s">
+        <v>19</v>
+      </c>
+      <c r="R85" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="S85" s="156"/>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B86" s="49">
         <v>78</v>
       </c>
@@ -8413,8 +8988,27 @@
       </c>
       <c r="G86" s="67"/>
       <c r="H86" s="68"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="M86" s="44"/>
+      <c r="N86" s="34">
+        <v>109</v>
+      </c>
+      <c r="O86" s="32" t="s">
+        <v>694</v>
+      </c>
+      <c r="P86" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q86" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="R86" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S86" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="49">
         <v>79</v>
       </c>
@@ -8432,8 +9026,25 @@
       </c>
       <c r="G87" s="67"/>
       <c r="H87" s="68"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="M87" s="45"/>
+      <c r="N87" s="128">
+        <v>111</v>
+      </c>
+      <c r="O87" s="129" t="s">
+        <v>694</v>
+      </c>
+      <c r="P87" s="129" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q87" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="R87" s="129" t="s">
+        <v>20</v>
+      </c>
+      <c r="S87" s="130"/>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B88" s="66">
         <v>80</v>
       </c>
@@ -8452,7 +9063,7 @@
       <c r="G88" s="67"/>
       <c r="H88" s="68"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B89" s="49">
         <v>81</v>
       </c>
@@ -8471,7 +9082,7 @@
       <c r="G89" s="67"/>
       <c r="H89" s="68"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B90" s="49">
         <v>82</v>
       </c>
@@ -8490,7 +9101,7 @@
       <c r="G90" s="67"/>
       <c r="H90" s="68"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B91" s="66">
         <v>83</v>
       </c>
@@ -8509,7 +9120,7 @@
       <c r="G91" s="67"/>
       <c r="H91" s="68"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B92" s="49">
         <v>84</v>
       </c>
@@ -8528,7 +9139,7 @@
       <c r="G92" s="67"/>
       <c r="H92" s="68"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B93" s="49">
         <v>85</v>
       </c>
@@ -8547,7 +9158,7 @@
       <c r="G93" s="67"/>
       <c r="H93" s="68"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B94" s="66">
         <v>86</v>
       </c>
@@ -8566,7 +9177,7 @@
       <c r="G94" s="67"/>
       <c r="H94" s="68"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B95" s="49">
         <v>87</v>
       </c>
@@ -8585,20 +9196,20 @@
       <c r="G95" s="67"/>
       <c r="H95" s="68"/>
     </row>
-    <row r="96" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B96" s="47">
         <v>88</v>
       </c>
-      <c r="C96" s="153" t="s">
+      <c r="C96" s="152" t="s">
         <v>720</v>
       </c>
-      <c r="D96" s="153" t="s">
+      <c r="D96" s="152" t="s">
         <v>719</v>
       </c>
-      <c r="E96" s="153" t="s">
+      <c r="E96" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="F96" s="153">
+      <c r="F96" s="152">
         <v>22</v>
       </c>
       <c r="G96" s="113"/>
@@ -8607,13 +9218,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="N7:S7"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8667,19 +9278,19 @@
       <c r="B2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="142"/>
+      <c r="C2" s="141"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="176" t="s">
+      <c r="E2" s="204" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="177"/>
-      <c r="G2" s="178"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="205"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="179" t="s">
+      <c r="I2" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="180"/>
-      <c r="K2" s="181"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -8687,11 +9298,11 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="184"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="208"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="139"/>
+      <c r="I3" s="138"/>
       <c r="J3" s="101" t="s">
         <v>44</v>
       </c>
@@ -8701,15 +9312,15 @@
       <c r="B4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="143"/>
+      <c r="C4" s="142"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="185" t="s">
+      <c r="E4" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="186"/>
-      <c r="G4" s="187"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="210"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="148"/>
+      <c r="I4" s="147"/>
       <c r="J4" s="25" t="s">
         <v>717</v>
       </c>
@@ -8719,40 +9330,40 @@
       <c r="B5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="143"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="185" t="s">
+      <c r="E5" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="186"/>
-      <c r="G5" s="187"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="210"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="149"/>
+      <c r="I5" s="148"/>
       <c r="J5" s="29" t="s">
         <v>718</v>
       </c>
       <c r="K5" s="29"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8765,37 +9376,37 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="188" t="s">
+      <c r="B9" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="188"/>
+      <c r="H9" s="188"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="190" t="s">
+      <c r="J9" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="191"/>
-      <c r="L9" s="192"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="191"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="193" t="s">
+      <c r="N9" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="194"/>
-      <c r="P9" s="194"/>
-      <c r="Q9" s="194"/>
-      <c r="R9" s="194"/>
-      <c r="S9" s="194"/>
-      <c r="T9" s="195"/>
+      <c r="O9" s="202"/>
+      <c r="P9" s="202"/>
+      <c r="Q9" s="202"/>
+      <c r="R9" s="202"/>
+      <c r="S9" s="202"/>
+      <c r="T9" s="203"/>
     </row>
     <row r="10" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="144" t="s">
+      <c r="C10" s="143" t="s">
         <v>712</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -10702,23 +11313,23 @@
       <c r="G54" s="67"/>
       <c r="H54" s="68"/>
       <c r="M54" s="74"/>
-      <c r="N54" s="163">
+      <c r="N54" s="162">
         <v>148</v>
       </c>
-      <c r="O54" s="156" t="s">
+      <c r="O54" s="155" t="s">
         <v>317</v>
       </c>
-      <c r="P54" s="156"/>
-      <c r="Q54" s="156" t="s">
+      <c r="P54" s="155"/>
+      <c r="Q54" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="R54" s="156" t="s">
+      <c r="R54" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="S54" s="156" t="s">
+      <c r="S54" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="T54" s="164" t="s">
+      <c r="T54" s="163" t="s">
         <v>47</v>
       </c>
     </row>
@@ -13738,7 +14349,7 @@
       <c r="E136" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F136" s="145" t="s">
+      <c r="F136" s="144" t="s">
         <v>557</v>
       </c>
       <c r="G136" s="67"/>
@@ -13751,7 +14362,7 @@
         <v>408</v>
       </c>
       <c r="P136" s="32"/>
-      <c r="Q136" s="141" t="s">
+      <c r="Q136" s="140" t="s">
         <v>700</v>
       </c>
       <c r="R136" s="32" t="s">
@@ -13775,7 +14386,7 @@
       <c r="E137" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F137" s="145" t="s">
+      <c r="F137" s="144" t="s">
         <v>557</v>
       </c>
       <c r="G137" s="67"/>
@@ -13788,7 +14399,7 @@
         <v>408</v>
       </c>
       <c r="P137" s="32"/>
-      <c r="Q137" s="141" t="s">
+      <c r="Q137" s="140" t="s">
         <v>737</v>
       </c>
       <c r="R137" s="32" t="s">
@@ -13812,7 +14423,7 @@
       <c r="E138" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="F138" s="146" t="s">
+      <c r="F138" s="145" t="s">
         <v>559</v>
       </c>
       <c r="G138" s="113"/>
@@ -13825,7 +14436,7 @@
         <v>408</v>
       </c>
       <c r="P138" s="32"/>
-      <c r="Q138" s="141" t="s">
+      <c r="Q138" s="140" t="s">
         <v>738</v>
       </c>
       <c r="R138" s="32" t="s">
@@ -13845,7 +14456,7 @@
         <v>408</v>
       </c>
       <c r="P139" s="32"/>
-      <c r="Q139" s="141" t="s">
+      <c r="Q139" s="140" t="s">
         <v>739</v>
       </c>
       <c r="R139" s="32" t="s">
@@ -13865,7 +14476,7 @@
         <v>408</v>
       </c>
       <c r="P140" s="32"/>
-      <c r="Q140" s="141" t="s">
+      <c r="Q140" s="140" t="s">
         <v>500</v>
       </c>
       <c r="R140" s="32" t="s">
@@ -13885,7 +14496,7 @@
         <v>408</v>
       </c>
       <c r="P141" s="32"/>
-      <c r="Q141" s="141" t="s">
+      <c r="Q141" s="140" t="s">
         <v>740</v>
       </c>
       <c r="R141" s="32" t="s">
@@ -13905,7 +14516,7 @@
         <v>408</v>
       </c>
       <c r="P142" s="32"/>
-      <c r="Q142" s="141" t="s">
+      <c r="Q142" s="140" t="s">
         <v>741</v>
       </c>
       <c r="R142" s="32" t="s">
@@ -13925,7 +14536,7 @@
         <v>408</v>
       </c>
       <c r="P143" s="32"/>
-      <c r="Q143" s="141" t="s">
+      <c r="Q143" s="140" t="s">
         <v>701</v>
       </c>
       <c r="R143" s="32" t="s">
@@ -13945,7 +14556,7 @@
         <v>408</v>
       </c>
       <c r="P144" s="32"/>
-      <c r="Q144" s="141" t="s">
+      <c r="Q144" s="140" t="s">
         <v>702</v>
       </c>
       <c r="R144" s="32" t="s">
@@ -15484,23 +16095,23 @@
     </row>
     <row r="220" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M220" s="44"/>
-      <c r="N220" s="163">
+      <c r="N220" s="162">
         <v>148</v>
       </c>
-      <c r="O220" s="156" t="s">
+      <c r="O220" s="155" t="s">
         <v>671</v>
       </c>
-      <c r="P220" s="156"/>
-      <c r="Q220" s="156" t="s">
+      <c r="P220" s="155"/>
+      <c r="Q220" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="R220" s="156" t="s">
+      <c r="R220" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="S220" s="156" t="s">
-        <v>20</v>
-      </c>
-      <c r="T220" s="157"/>
+      <c r="S220" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="T220" s="156"/>
     </row>
     <row r="221" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M221" s="44"/>
@@ -15608,19 +16219,19 @@
       <c r="B2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="142"/>
+      <c r="C2" s="141"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="176" t="s">
+      <c r="E2" s="204" t="s">
         <v>321</v>
       </c>
-      <c r="F2" s="177"/>
-      <c r="G2" s="178"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="205"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="179" t="s">
+      <c r="I2" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="180"/>
-      <c r="K2" s="181"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -15628,11 +16239,11 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="184"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="208"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="139"/>
+      <c r="I3" s="138"/>
       <c r="J3" s="101" t="s">
         <v>44</v>
       </c>
@@ -15642,15 +16253,15 @@
       <c r="B4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="143"/>
+      <c r="C4" s="142"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="185" t="s">
+      <c r="E4" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="186"/>
-      <c r="G4" s="187"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="210"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="148"/>
+      <c r="I4" s="147"/>
       <c r="J4" s="25" t="s">
         <v>717</v>
       </c>
@@ -15660,31 +16271,31 @@
       <c r="B5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="143"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="185" t="s">
+      <c r="E5" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="186"/>
-      <c r="G5" s="187"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="210"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="149"/>
+      <c r="I5" s="148"/>
       <c r="J5" s="29" t="s">
         <v>718</v>
       </c>
       <c r="K5" s="29"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="151"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="150"/>
     </row>
     <row r="7" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
@@ -15696,37 +16307,37 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="188" t="s">
+      <c r="B8" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="190" t="s">
+      <c r="J8" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="191"/>
-      <c r="L8" s="192"/>
+      <c r="K8" s="190"/>
+      <c r="L8" s="191"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="174" t="s">
+      <c r="N8" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="175"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="175"/>
-      <c r="R8" s="175"/>
-      <c r="S8" s="175"/>
-      <c r="T8" s="175"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="183"/>
+      <c r="Q8" s="183"/>
+      <c r="R8" s="183"/>
+      <c r="S8" s="183"/>
+      <c r="T8" s="183"/>
     </row>
     <row r="9" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="143" t="s">
         <v>712</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -15804,7 +16415,7 @@
       <c r="K10" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="L10" s="160" t="s">
+      <c r="L10" s="159" t="s">
         <v>334</v>
       </c>
       <c r="M10" s="112"/>
@@ -15947,7 +16558,7 @@
       <c r="K13" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="161" t="s">
+      <c r="L13" s="160" t="s">
         <v>335</v>
       </c>
       <c r="M13" s="112"/>
@@ -15994,7 +16605,7 @@
       <c r="K14" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="L14" s="161" t="s">
+      <c r="L14" s="160" t="s">
         <v>336</v>
       </c>
       <c r="M14" s="44"/>
@@ -16041,7 +16652,7 @@
       <c r="K15" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="161" t="s">
+      <c r="L15" s="160" t="s">
         <v>31</v>
       </c>
       <c r="M15" s="44"/>
@@ -16090,7 +16701,7 @@
       <c r="K16" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="161" t="s">
+      <c r="L16" s="160" t="s">
         <v>39</v>
       </c>
       <c r="M16" s="44"/>
@@ -16137,7 +16748,7 @@
       <c r="K17" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="L17" s="161" t="s">
+      <c r="L17" s="160" t="s">
         <v>440</v>
       </c>
       <c r="M17" s="44"/>
@@ -16184,7 +16795,7 @@
       <c r="K18" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="L18" s="161" t="s">
+      <c r="L18" s="160" t="s">
         <v>441</v>
       </c>
       <c r="M18" s="44"/>
@@ -16231,7 +16842,7 @@
       <c r="K19" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="L19" s="161" t="s">
+      <c r="L19" s="160" t="s">
         <v>722</v>
       </c>
       <c r="M19" s="44"/>
@@ -16325,7 +16936,7 @@
       <c r="K21" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="L21" s="161" t="s">
+      <c r="L21" s="160" t="s">
         <v>484</v>
       </c>
       <c r="M21" s="44"/>
@@ -16372,7 +16983,7 @@
       <c r="K22" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="L22" s="161" t="s">
+      <c r="L22" s="160" t="s">
         <v>723</v>
       </c>
       <c r="M22" s="44"/>
@@ -16419,7 +17030,7 @@
       <c r="K23" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="L23" s="161" t="s">
+      <c r="L23" s="160" t="s">
         <v>724</v>
       </c>
       <c r="M23" s="44"/>
@@ -16466,7 +17077,7 @@
       <c r="K24" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="L24" s="161" t="s">
+      <c r="L24" s="160" t="s">
         <v>725</v>
       </c>
       <c r="M24" s="44"/>
@@ -16513,7 +17124,7 @@
       <c r="K25" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="L25" s="161" t="s">
+      <c r="L25" s="160" t="s">
         <v>726</v>
       </c>
       <c r="M25" s="44"/>
@@ -16560,7 +17171,7 @@
       <c r="K26" s="29" t="s">
         <v>534</v>
       </c>
-      <c r="L26" s="161" t="s">
+      <c r="L26" s="160" t="s">
         <v>727</v>
       </c>
       <c r="M26" s="44"/>
@@ -16607,7 +17218,7 @@
       <c r="K27" s="29" t="s">
         <v>535</v>
       </c>
-      <c r="L27" s="161" t="s">
+      <c r="L27" s="160" t="s">
         <v>728</v>
       </c>
       <c r="M27" s="44"/>
@@ -16654,7 +17265,7 @@
       <c r="K28" s="25" t="s">
         <v>665</v>
       </c>
-      <c r="L28" s="161" t="s">
+      <c r="L28" s="160" t="s">
         <v>729</v>
       </c>
       <c r="M28" s="44"/>
@@ -16701,7 +17312,7 @@
       <c r="K29" s="25" t="s">
         <v>666</v>
       </c>
-      <c r="L29" s="161" t="s">
+      <c r="L29" s="160" t="s">
         <v>730</v>
       </c>
       <c r="M29" s="44"/>
@@ -16748,7 +17359,7 @@
       <c r="K30" s="25" t="s">
         <v>676</v>
       </c>
-      <c r="L30" s="161" t="s">
+      <c r="L30" s="160" t="s">
         <v>731</v>
       </c>
       <c r="M30" s="44"/>
@@ -16795,7 +17406,7 @@
       <c r="K31" s="25" t="s">
         <v>677</v>
       </c>
-      <c r="L31" s="161" t="s">
+      <c r="L31" s="160" t="s">
         <v>732</v>
       </c>
       <c r="M31" s="44"/>
@@ -16882,14 +17493,14 @@
       </c>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
-      <c r="I33" s="158"/>
+      <c r="I33" s="157"/>
       <c r="J33" s="80">
         <v>74</v>
       </c>
       <c r="K33" s="105" t="s">
         <v>715</v>
       </c>
-      <c r="L33" s="162" t="s">
+      <c r="L33" s="161" t="s">
         <v>716</v>
       </c>
       <c r="M33" s="44"/>
@@ -17775,29 +18386,29 @@
       <c r="E57" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="146" t="s">
+      <c r="F57" s="145" t="s">
         <v>559</v>
       </c>
       <c r="G57" s="113"/>
       <c r="H57" s="114"/>
       <c r="M57" s="44"/>
-      <c r="N57" s="163">
+      <c r="N57" s="162">
         <v>22</v>
       </c>
-      <c r="O57" s="156" t="s">
+      <c r="O57" s="155" t="s">
         <v>317</v>
       </c>
-      <c r="P57" s="156"/>
-      <c r="Q57" s="156" t="s">
+      <c r="P57" s="155"/>
+      <c r="Q57" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="R57" s="156" t="s">
+      <c r="R57" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="S57" s="156" t="s">
-        <v>20</v>
-      </c>
-      <c r="T57" s="164" t="s">
+      <c r="S57" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="T57" s="163" t="s">
         <v>47</v>
       </c>
     </row>
@@ -18122,8 +18733,8 @@
       <c r="T73" s="73"/>
     </row>
     <row r="74" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M74" s="170"/>
-      <c r="N74" s="171">
+      <c r="M74" s="169"/>
+      <c r="N74" s="170">
         <v>49</v>
       </c>
       <c r="O74" s="50" t="s">
@@ -19316,7 +19927,7 @@
         <v>408</v>
       </c>
       <c r="P133" s="32"/>
-      <c r="Q133" s="141" t="s">
+      <c r="Q133" s="140" t="s">
         <v>737</v>
       </c>
       <c r="R133" s="32" t="s">
@@ -19336,7 +19947,7 @@
         <v>408</v>
       </c>
       <c r="P134" s="32"/>
-      <c r="Q134" s="141" t="s">
+      <c r="Q134" s="140" t="s">
         <v>738</v>
       </c>
       <c r="R134" s="32" t="s">
@@ -19356,7 +19967,7 @@
         <v>408</v>
       </c>
       <c r="P135" s="32"/>
-      <c r="Q135" s="141" t="s">
+      <c r="Q135" s="140" t="s">
         <v>739</v>
       </c>
       <c r="R135" s="32" t="s">
@@ -19376,7 +19987,7 @@
         <v>408</v>
       </c>
       <c r="P136" s="32"/>
-      <c r="Q136" s="141" t="s">
+      <c r="Q136" s="140" t="s">
         <v>500</v>
       </c>
       <c r="R136" s="32" t="s">
@@ -19396,7 +20007,7 @@
         <v>408</v>
       </c>
       <c r="P137" s="32"/>
-      <c r="Q137" s="141" t="s">
+      <c r="Q137" s="140" t="s">
         <v>740</v>
       </c>
       <c r="R137" s="32" t="s">
@@ -19416,7 +20027,7 @@
         <v>408</v>
       </c>
       <c r="P138" s="32"/>
-      <c r="Q138" s="141" t="s">
+      <c r="Q138" s="140" t="s">
         <v>741</v>
       </c>
       <c r="R138" s="32" t="s">
@@ -19496,7 +20107,7 @@
         <v>408</v>
       </c>
       <c r="P142" s="39"/>
-      <c r="Q142" s="167" t="s">
+      <c r="Q142" s="166" t="s">
         <v>700</v>
       </c>
       <c r="R142" s="39" t="s">
@@ -19516,7 +20127,7 @@
         <v>408</v>
       </c>
       <c r="P143" s="39"/>
-      <c r="Q143" s="167" t="s">
+      <c r="Q143" s="166" t="s">
         <v>701</v>
       </c>
       <c r="R143" s="39" t="s">
@@ -19536,7 +20147,7 @@
         <v>408</v>
       </c>
       <c r="P144" s="53"/>
-      <c r="Q144" s="166" t="s">
+      <c r="Q144" s="165" t="s">
         <v>702</v>
       </c>
       <c r="R144" s="53" t="s">
@@ -19545,27 +20156,27 @@
       <c r="S144" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="T144" s="165"/>
+      <c r="T144" s="164"/>
     </row>
     <row r="145" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M145" s="71"/>
-      <c r="N145" s="169">
+      <c r="N145" s="168">
         <v>49</v>
       </c>
-      <c r="O145" s="168" t="s">
+      <c r="O145" s="167" t="s">
         <v>436</v>
       </c>
-      <c r="P145" s="168"/>
-      <c r="Q145" s="168" t="s">
+      <c r="P145" s="167"/>
+      <c r="Q145" s="167" t="s">
         <v>409</v>
       </c>
-      <c r="R145" s="168" t="s">
+      <c r="R145" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="S145" s="168" t="s">
+      <c r="S145" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="T145" s="172" t="s">
+      <c r="T145" s="171" t="s">
         <v>47</v>
       </c>
     </row>
@@ -20934,10 +21545,10 @@
       <c r="N213" s="119">
         <v>48</v>
       </c>
-      <c r="O213" s="147" t="s">
+      <c r="O213" s="146" t="s">
         <v>482</v>
       </c>
-      <c r="P213" s="147"/>
+      <c r="P213" s="146"/>
       <c r="Q213" s="78" t="s">
         <v>481</v>
       </c>
@@ -21035,23 +21646,23 @@
     </row>
     <row r="218" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M218" s="44"/>
-      <c r="N218" s="163">
+      <c r="N218" s="162">
         <v>73</v>
       </c>
-      <c r="O218" s="156" t="s">
+      <c r="O218" s="155" t="s">
         <v>671</v>
       </c>
-      <c r="P218" s="156"/>
-      <c r="Q218" s="156" t="s">
+      <c r="P218" s="155"/>
+      <c r="Q218" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="R218" s="156" t="s">
+      <c r="R218" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="S218" s="156" t="s">
-        <v>20</v>
-      </c>
-      <c r="T218" s="157"/>
+      <c r="S218" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="T218" s="156"/>
     </row>
     <row r="219" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M219" s="44"/>
@@ -21163,23 +21774,23 @@
     </row>
     <row r="224" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M224" s="44"/>
-      <c r="N224" s="163">
+      <c r="N224" s="162">
         <v>73</v>
       </c>
-      <c r="O224" s="149" t="s">
+      <c r="O224" s="148" t="s">
         <v>678</v>
       </c>
-      <c r="P224" s="149"/>
-      <c r="Q224" s="149" t="s">
+      <c r="P224" s="148"/>
+      <c r="Q224" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="R224" s="149" t="s">
+      <c r="R224" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="S224" s="149" t="s">
+      <c r="S224" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="T224" s="157"/>
+      <c r="T224" s="156"/>
     </row>
     <row r="225" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M225" s="44"/>
@@ -21266,10 +21877,10 @@
       <c r="N229" s="128">
         <v>74</v>
       </c>
-      <c r="O229" s="140" t="s">
+      <c r="O229" s="139" t="s">
         <v>678</v>
       </c>
-      <c r="P229" s="140"/>
+      <c r="P229" s="139"/>
       <c r="Q229" s="131" t="s">
         <v>25</v>
       </c>
@@ -21302,7 +21913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L43" workbookViewId="0">
+    <sheetView topLeftCell="L7" workbookViewId="0">
       <selection activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
@@ -21343,19 +21954,19 @@
       <c r="B2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="142"/>
+      <c r="C2" s="141"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="176" t="s">
+      <c r="E2" s="204" t="s">
         <v>337</v>
       </c>
-      <c r="F2" s="177"/>
-      <c r="G2" s="178"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="205"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="179" t="s">
+      <c r="I2" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="180"/>
-      <c r="K2" s="181"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -21363,9 +21974,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="184"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="208"/>
       <c r="H3" s="10"/>
       <c r="I3" s="62"/>
       <c r="J3" s="25" t="s">
@@ -21377,15 +21988,15 @@
       <c r="B4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="143"/>
+      <c r="C4" s="142"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="185" t="s">
+      <c r="E4" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="186"/>
-      <c r="G4" s="187"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="210"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="148"/>
+      <c r="I4" s="147"/>
       <c r="J4" s="25" t="s">
         <v>717</v>
       </c>
@@ -21395,15 +22006,15 @@
       <c r="B5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="143"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="185" t="s">
+      <c r="E5" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="186"/>
-      <c r="G5" s="187"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="210"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="149"/>
+      <c r="I5" s="148"/>
       <c r="J5" s="29" t="s">
         <v>718</v>
       </c>
@@ -21419,36 +22030,36 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="188" t="s">
+      <c r="B7" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="190" t="s">
+      <c r="J7" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="191"/>
-      <c r="L7" s="192"/>
+      <c r="K7" s="190"/>
+      <c r="L7" s="191"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="174" t="s">
+      <c r="N7" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="175"/>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="175"/>
-      <c r="R7" s="175"/>
-      <c r="S7" s="175"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="183"/>
+      <c r="Q7" s="183"/>
+      <c r="R7" s="183"/>
+      <c r="S7" s="183"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="144" t="s">
+      <c r="C8" s="143" t="s">
         <v>712</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -21734,7 +22345,7 @@
       <c r="B14" s="52">
         <v>6</v>
       </c>
-      <c r="C14" s="153" t="s">
+      <c r="C14" s="152" t="s">
         <v>225</v>
       </c>
       <c r="D14" s="104" t="s">
@@ -21743,7 +22354,7 @@
       <c r="E14" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="154" t="s">
+      <c r="F14" s="153" t="s">
         <v>559</v>
       </c>
       <c r="G14" s="64"/>
@@ -22563,22 +23174,22 @@
     </row>
     <row r="52" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M52" s="74"/>
-      <c r="N52" s="163">
+      <c r="N52" s="162">
         <v>19</v>
       </c>
-      <c r="O52" s="156" t="s">
+      <c r="O52" s="155" t="s">
         <v>317</v>
       </c>
-      <c r="P52" s="156" t="s">
+      <c r="P52" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="Q52" s="156" t="s">
+      <c r="Q52" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="R52" s="156" t="s">
+      <c r="R52" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="S52" s="164" t="s">
+      <c r="S52" s="163" t="s">
         <v>47</v>
       </c>
     </row>
@@ -22809,7 +23420,7 @@
         <v>20</v>
       </c>
       <c r="S64" s="35"/>
-      <c r="T64" s="173"/>
+      <c r="T64" s="172"/>
     </row>
     <row r="65" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M65" s="74"/>
@@ -22829,7 +23440,7 @@
         <v>20</v>
       </c>
       <c r="S65" s="35"/>
-      <c r="T65" s="173"/>
+      <c r="T65" s="172"/>
     </row>
     <row r="66" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M66" s="74"/>
@@ -22849,7 +23460,7 @@
         <v>20</v>
       </c>
       <c r="S66" s="35"/>
-      <c r="T66" s="173"/>
+      <c r="T66" s="172"/>
     </row>
     <row r="67" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M67" s="74"/>
@@ -22869,7 +23480,7 @@
         <v>20</v>
       </c>
       <c r="S67" s="35"/>
-      <c r="T67" s="173"/>
+      <c r="T67" s="172"/>
     </row>
     <row r="68" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M68" s="74"/>
@@ -22889,7 +23500,7 @@
         <v>20</v>
       </c>
       <c r="S68" s="35"/>
-      <c r="T68" s="173"/>
+      <c r="T68" s="172"/>
     </row>
     <row r="69" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M69" s="74"/>
@@ -22909,7 +23520,7 @@
         <v>20</v>
       </c>
       <c r="S69" s="35"/>
-      <c r="T69" s="173"/>
+      <c r="T69" s="172"/>
     </row>
     <row r="70" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M70" s="74"/>
@@ -22929,7 +23540,7 @@
         <v>20</v>
       </c>
       <c r="S70" s="35"/>
-      <c r="T70" s="173"/>
+      <c r="T70" s="172"/>
     </row>
     <row r="71" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M71" s="74"/>
@@ -22949,7 +23560,7 @@
         <v>20</v>
       </c>
       <c r="S71" s="35"/>
-      <c r="T71" s="173"/>
+      <c r="T71" s="172"/>
     </row>
     <row r="72" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M72" s="74"/>
@@ -23071,22 +23682,22 @@
     </row>
     <row r="78" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M78" s="44"/>
-      <c r="N78" s="163">
+      <c r="N78" s="162">
         <v>19</v>
       </c>
-      <c r="O78" s="156" t="s">
+      <c r="O78" s="155" t="s">
         <v>671</v>
       </c>
-      <c r="P78" s="156" t="s">
+      <c r="P78" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="Q78" s="156" t="s">
+      <c r="Q78" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="R78" s="156" t="s">
-        <v>20</v>
-      </c>
-      <c r="S78" s="157"/>
+      <c r="R78" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="S78" s="156"/>
     </row>
     <row r="79" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M79" s="44"/>
@@ -23193,22 +23804,22 @@
     </row>
     <row r="84" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M84" s="44"/>
-      <c r="N84" s="163">
+      <c r="N84" s="162">
         <v>19</v>
       </c>
-      <c r="O84" s="149" t="s">
+      <c r="O84" s="148" t="s">
         <v>678</v>
       </c>
-      <c r="P84" s="149" t="s">
+      <c r="P84" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="Q84" s="149" t="s">
+      <c r="Q84" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="R84" s="149" t="s">
+      <c r="R84" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="S84" s="157"/>
+      <c r="S84" s="156"/>
     </row>
     <row r="85" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M85" s="44"/>
@@ -23366,26 +23977,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="176" t="s">
+      <c r="D2" s="204" t="s">
         <v>571</v>
       </c>
-      <c r="E2" s="177"/>
-      <c r="F2" s="178"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="205"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="179" t="s">
+      <c r="H2" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="180"/>
-      <c r="J2" s="181"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="186"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="184"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -23398,13 +24009,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="185" t="s">
+      <c r="D4" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="186"/>
-      <c r="F4" s="187"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="210"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="148"/>
+      <c r="H4" s="147"/>
       <c r="I4" s="25" t="s">
         <v>717</v>
       </c>
@@ -23415,13 +24026,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="185" t="s">
+      <c r="D5" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="186"/>
-      <c r="F5" s="187"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="210"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="149"/>
+      <c r="H5" s="148"/>
       <c r="I5" s="29" t="s">
         <v>718</v>
       </c>
@@ -23436,29 +24047,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="188" t="s">
+      <c r="B7" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="190" t="s">
+      <c r="I7" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="191"/>
-      <c r="K7" s="192"/>
+      <c r="J7" s="190"/>
+      <c r="K7" s="191"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="174" t="s">
+      <c r="M7" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="175"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="175"/>
-      <c r="R7" s="175"/>
+      <c r="N7" s="183"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="183"/>
+      <c r="Q7" s="183"/>
+      <c r="R7" s="183"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -24203,26 +24814,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="176" t="s">
+      <c r="D2" s="204" t="s">
         <v>608</v>
       </c>
-      <c r="E2" s="177"/>
-      <c r="F2" s="178"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="205"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="179" t="s">
+      <c r="H2" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="180"/>
-      <c r="J2" s="181"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="186"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="184"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -24235,13 +24846,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="185" t="s">
+      <c r="D4" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="186"/>
-      <c r="F4" s="187"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="210"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="148"/>
+      <c r="H4" s="147"/>
       <c r="I4" s="25" t="s">
         <v>717</v>
       </c>
@@ -24252,13 +24863,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="185" t="s">
+      <c r="D5" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="186"/>
-      <c r="F5" s="187"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="210"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="149"/>
+      <c r="H5" s="148"/>
       <c r="I5" s="29" t="s">
         <v>718</v>
       </c>
@@ -24273,29 +24884,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="188" t="s">
+      <c r="B7" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="190" t="s">
+      <c r="I7" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="191"/>
-      <c r="K7" s="192"/>
+      <c r="J7" s="190"/>
+      <c r="K7" s="191"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="174" t="s">
+      <c r="M7" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="175"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="175"/>
-      <c r="R7" s="175"/>
+      <c r="N7" s="183"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="183"/>
+      <c r="Q7" s="183"/>
+      <c r="R7" s="183"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -24823,19 +25434,19 @@
       <c r="B2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="142"/>
+      <c r="C2" s="141"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="176" t="s">
+      <c r="E2" s="204" t="s">
         <v>620</v>
       </c>
-      <c r="F2" s="177"/>
-      <c r="G2" s="178"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="205"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="179" t="s">
+      <c r="I2" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="180"/>
-      <c r="K2" s="181"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -24843,9 +25454,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="184"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="208"/>
       <c r="H3" s="10"/>
       <c r="I3" s="62"/>
       <c r="J3" s="25" t="s">
@@ -24857,15 +25468,15 @@
       <c r="B4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="143"/>
+      <c r="C4" s="142"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="185" t="s">
+      <c r="E4" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="186"/>
-      <c r="G4" s="187"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="210"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="148"/>
+      <c r="I4" s="147"/>
       <c r="J4" s="25" t="s">
         <v>717</v>
       </c>
@@ -24875,15 +25486,15 @@
       <c r="B5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="143"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="185" t="s">
+      <c r="E5" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="186"/>
-      <c r="G5" s="187"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="210"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="149"/>
+      <c r="I5" s="148"/>
       <c r="J5" s="29" t="s">
         <v>718</v>
       </c>
@@ -24899,39 +25510,39 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="188" t="s">
+      <c r="B7" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="190" t="s">
+      <c r="J7" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="191"/>
-      <c r="L7" s="192"/>
+      <c r="K7" s="190"/>
+      <c r="L7" s="191"/>
       <c r="M7" s="11" t="s">
         <v>662</v>
       </c>
-      <c r="N7" s="174" t="s">
+      <c r="N7" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="175"/>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="175"/>
-      <c r="R7" s="175"/>
-      <c r="S7" s="175"/>
-      <c r="T7" s="175"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="183"/>
+      <c r="Q7" s="183"/>
+      <c r="R7" s="183"/>
+      <c r="S7" s="183"/>
+      <c r="T7" s="183"/>
     </row>
     <row r="8" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="144" t="s">
+      <c r="C8" s="143" t="s">
         <v>712</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -25007,7 +25618,7 @@
       <c r="K9" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="L9" s="160" t="s">
+      <c r="L9" s="159" t="s">
         <v>663</v>
       </c>
       <c r="M9" s="44"/>
@@ -25152,27 +25763,27 @@
       <c r="K12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="161" t="s">
+      <c r="L12" s="160" t="s">
         <v>31</v>
       </c>
       <c r="M12" s="44"/>
-      <c r="N12" s="163">
+      <c r="N12" s="162">
         <v>28</v>
       </c>
-      <c r="O12" s="156" t="s">
+      <c r="O12" s="155" t="s">
         <v>661</v>
       </c>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="156" t="s">
+      <c r="P12" s="155"/>
+      <c r="Q12" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="R12" s="156" t="s">
+      <c r="R12" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="S12" s="156" t="s">
-        <v>20</v>
-      </c>
-      <c r="T12" s="164" t="s">
+      <c r="S12" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="163" t="s">
         <v>47</v>
       </c>
     </row>
@@ -25201,7 +25812,7 @@
       <c r="K13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="161" t="s">
+      <c r="L13" s="160" t="s">
         <v>39</v>
       </c>
       <c r="M13" s="44"/>
@@ -25291,7 +25902,7 @@
       <c r="K15" s="25" t="s">
         <v>660</v>
       </c>
-      <c r="L15" s="161" t="s">
+      <c r="L15" s="160" t="s">
         <v>721</v>
       </c>
       <c r="M15" s="44"/>
@@ -25378,14 +25989,14 @@
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="35"/>
-      <c r="I17" s="158"/>
+      <c r="I17" s="157"/>
       <c r="J17" s="80">
         <v>29</v>
       </c>
       <c r="K17" s="105" t="s">
         <v>715</v>
       </c>
-      <c r="L17" s="162" t="s">
+      <c r="L17" s="161" t="s">
         <v>716</v>
       </c>
       <c r="M17" s="44"/>
@@ -25746,7 +26357,7 @@
       <c r="B27" s="33">
         <v>19</v>
       </c>
-      <c r="C27" s="153" t="s">
+      <c r="C27" s="152" t="s">
         <v>225</v>
       </c>
       <c r="D27" s="127" t="s">

--- a/Cnl/Mapeos_CON_CNL_V1.xlsx
+++ b/Cnl/Mapeos_CON_CNL_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="975" windowWidth="9225" windowHeight="4050" tabRatio="583"/>
+    <workbookView xWindow="285" yWindow="975" windowWidth="9225" windowHeight="4050" tabRatio="583" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T65SOLICITUD" sheetId="36" r:id="rId1"/>
@@ -1276,7 +1276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4192" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4204" uniqueCount="770">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -5097,6 +5097,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5184,8 +5186,6 @@
     <xf numFmtId="3" fontId="5" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="182">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -5760,7 +5760,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5770,7 +5770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
@@ -5812,28 +5812,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="141"/>
-      <c r="D2" s="192" t="s">
+      <c r="D2" s="194" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="196"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="184" t="s">
+      <c r="I2" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="188"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="199"/>
       <c r="H3" s="10"/>
       <c r="I3" s="62"/>
       <c r="J3" s="25" t="s">
@@ -5846,12 +5846,12 @@
         <v>9</v>
       </c>
       <c r="C4" s="142"/>
-      <c r="D4" s="198" t="s">
+      <c r="D4" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="200"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="202"/>
       <c r="H4" s="7"/>
       <c r="I4" s="147"/>
       <c r="J4" s="25" t="s">
@@ -5864,12 +5864,12 @@
         <v>5</v>
       </c>
       <c r="C5" s="142"/>
-      <c r="D5" s="198" t="s">
+      <c r="D5" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="200"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="202"/>
       <c r="H5" s="7"/>
       <c r="I5" s="148"/>
       <c r="J5" s="29" t="s">
@@ -5887,30 +5887,30 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="189" t="s">
+      <c r="J7" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="190"/>
-      <c r="L7" s="191"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="193"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="182" t="s">
+      <c r="N7" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183"/>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
-      <c r="S7" s="183"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -8187,7 +8187,7 @@
       <c r="G64" s="67"/>
       <c r="H64" s="68"/>
       <c r="M64" s="74"/>
-      <c r="N64" s="211">
+      <c r="N64" s="182">
         <v>95</v>
       </c>
       <c r="O64" s="39" t="s">
@@ -8202,7 +8202,7 @@
       <c r="R64" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="S64" s="212"/>
+      <c r="S64" s="183"/>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B65" s="49">
@@ -8223,7 +8223,7 @@
       <c r="G65" s="67"/>
       <c r="H65" s="68"/>
       <c r="M65" s="74"/>
-      <c r="N65" s="211">
+      <c r="N65" s="182">
         <v>96</v>
       </c>
       <c r="O65" s="39" t="s">
@@ -8238,7 +8238,7 @@
       <c r="R65" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="S65" s="212"/>
+      <c r="S65" s="183"/>
     </row>
     <row r="66" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B66" s="49">
@@ -9234,10 +9234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T222"/>
+  <dimension ref="B1:T223"/>
   <sheetViews>
-    <sheetView topLeftCell="M58" workbookViewId="0">
-      <selection activeCell="R72" sqref="R72"/>
+    <sheetView topLeftCell="E206" workbookViewId="0">
+      <selection activeCell="O218" sqref="O218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9280,17 +9280,17 @@
       </c>
       <c r="C2" s="141"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="204" t="s">
+      <c r="E2" s="206" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="192"/>
-      <c r="G2" s="205"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="207"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="184" t="s">
+      <c r="I2" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="188"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -9298,9 +9298,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="210"/>
       <c r="H3" s="10"/>
       <c r="I3" s="138"/>
       <c r="J3" s="101" t="s">
@@ -9314,11 +9314,11 @@
       </c>
       <c r="C4" s="142"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="209" t="s">
+      <c r="E4" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="198"/>
-      <c r="G4" s="210"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="212"/>
       <c r="H4" s="7"/>
       <c r="I4" s="147"/>
       <c r="J4" s="25" t="s">
@@ -9332,11 +9332,11 @@
       </c>
       <c r="C5" s="142"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="209" t="s">
+      <c r="E5" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="210"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="212"/>
       <c r="H5" s="7"/>
       <c r="I5" s="148"/>
       <c r="J5" s="29" t="s">
@@ -9376,31 +9376,31 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="187" t="s">
+      <c r="B9" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="188"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="188"/>
-      <c r="F9" s="188"/>
-      <c r="G9" s="188"/>
-      <c r="H9" s="188"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="190"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="189" t="s">
+      <c r="J9" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="190"/>
-      <c r="L9" s="191"/>
+      <c r="K9" s="192"/>
+      <c r="L9" s="193"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="201" t="s">
+      <c r="N9" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="202"/>
-      <c r="P9" s="202"/>
-      <c r="Q9" s="202"/>
-      <c r="R9" s="202"/>
-      <c r="S9" s="202"/>
-      <c r="T9" s="203"/>
+      <c r="O9" s="204"/>
+      <c r="P9" s="204"/>
+      <c r="Q9" s="204"/>
+      <c r="R9" s="204"/>
+      <c r="S9" s="204"/>
+      <c r="T9" s="205"/>
     </row>
     <row r="10" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
@@ -16095,65 +16095,85 @@
     </row>
     <row r="220" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M220" s="44"/>
-      <c r="N220" s="162">
-        <v>148</v>
-      </c>
-      <c r="O220" s="155" t="s">
+      <c r="N220" s="43">
+        <v>153</v>
+      </c>
+      <c r="O220" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="P220" s="155"/>
-      <c r="Q220" s="155" t="s">
-        <v>37</v>
-      </c>
-      <c r="R220" s="155" t="s">
-        <v>19</v>
-      </c>
-      <c r="S220" s="155" t="s">
-        <v>20</v>
-      </c>
-      <c r="T220" s="156"/>
+      <c r="P220" s="32"/>
+      <c r="Q220" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="R220" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S220" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T220" s="35"/>
     </row>
     <row r="221" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M221" s="44"/>
-      <c r="N221" s="34">
+      <c r="N221" s="162">
+        <v>148</v>
+      </c>
+      <c r="O221" s="155" t="s">
+        <v>671</v>
+      </c>
+      <c r="P221" s="155"/>
+      <c r="Q221" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="R221" s="155" t="s">
+        <v>19</v>
+      </c>
+      <c r="S221" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="T221" s="156"/>
+    </row>
+    <row r="222" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M222" s="44"/>
+      <c r="N222" s="34">
         <v>146</v>
       </c>
-      <c r="O221" s="32" t="s">
+      <c r="O222" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="P221" s="32"/>
-      <c r="Q221" s="32" t="s">
+      <c r="P222" s="32"/>
+      <c r="Q222" s="32" t="s">
         <v>664</v>
       </c>
-      <c r="R221" s="32" t="s">
+      <c r="R222" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="S221" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T221" s="54" t="s">
+      <c r="S222" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T222" s="54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="222" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M222" s="45"/>
-      <c r="N222" s="128">
+    <row r="223" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M223" s="45"/>
+      <c r="N223" s="128">
         <v>149</v>
       </c>
-      <c r="O222" s="129" t="s">
+      <c r="O223" s="129" t="s">
         <v>671</v>
       </c>
-      <c r="P222" s="129"/>
-      <c r="Q222" s="129" t="s">
+      <c r="P223" s="129"/>
+      <c r="Q223" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="R222" s="129" t="s">
+      <c r="R223" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="S222" s="129" t="s">
-        <v>20</v>
-      </c>
-      <c r="T222" s="130"/>
+      <c r="S223" s="129" t="s">
+        <v>20</v>
+      </c>
+      <c r="T223" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -16174,10 +16194,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T229"/>
+  <dimension ref="B1:T230"/>
   <sheetViews>
-    <sheetView topLeftCell="M34" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView topLeftCell="M206" workbookViewId="0">
+      <selection activeCell="Q217" sqref="Q217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16221,17 +16241,17 @@
       </c>
       <c r="C2" s="141"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="204" t="s">
+      <c r="E2" s="206" t="s">
         <v>321</v>
       </c>
-      <c r="F2" s="192"/>
-      <c r="G2" s="205"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="207"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="184" t="s">
+      <c r="I2" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="188"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -16239,9 +16259,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="210"/>
       <c r="H3" s="10"/>
       <c r="I3" s="138"/>
       <c r="J3" s="101" t="s">
@@ -16255,11 +16275,11 @@
       </c>
       <c r="C4" s="142"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="209" t="s">
+      <c r="E4" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="198"/>
-      <c r="G4" s="210"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="212"/>
       <c r="H4" s="7"/>
       <c r="I4" s="147"/>
       <c r="J4" s="25" t="s">
@@ -16273,11 +16293,11 @@
       </c>
       <c r="C5" s="142"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="209" t="s">
+      <c r="E5" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="210"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="212"/>
       <c r="H5" s="7"/>
       <c r="I5" s="148"/>
       <c r="J5" s="29" t="s">
@@ -16307,31 +16327,31 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="187" t="s">
+      <c r="B8" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="188"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="189" t="s">
+      <c r="J8" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="190"/>
-      <c r="L8" s="191"/>
+      <c r="K8" s="192"/>
+      <c r="L8" s="193"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="182" t="s">
+      <c r="N8" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="183"/>
-      <c r="P8" s="183"/>
-      <c r="Q8" s="183"/>
-      <c r="R8" s="183"/>
-      <c r="S8" s="183"/>
-      <c r="T8" s="183"/>
+      <c r="O8" s="185"/>
+      <c r="P8" s="185"/>
+      <c r="Q8" s="185"/>
+      <c r="R8" s="185"/>
+      <c r="S8" s="185"/>
+      <c r="T8" s="185"/>
     </row>
     <row r="9" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
@@ -21627,17 +21647,17 @@
     <row r="217" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M217" s="44"/>
       <c r="N217" s="34">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O217" s="32" t="s">
         <v>671</v>
       </c>
       <c r="P217" s="32"/>
       <c r="Q217" s="32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R217" s="32" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="S217" s="32" t="s">
         <v>20</v>
@@ -21646,124 +21666,122 @@
     </row>
     <row r="218" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M218" s="44"/>
-      <c r="N218" s="162">
-        <v>73</v>
-      </c>
-      <c r="O218" s="155" t="s">
+      <c r="N218" s="34">
+        <v>51</v>
+      </c>
+      <c r="O218" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="P218" s="155"/>
-      <c r="Q218" s="155" t="s">
-        <v>37</v>
-      </c>
-      <c r="R218" s="155" t="s">
-        <v>19</v>
-      </c>
-      <c r="S218" s="155" t="s">
-        <v>20</v>
-      </c>
-      <c r="T218" s="156"/>
+      <c r="P218" s="32"/>
+      <c r="Q218" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R218" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="S218" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T218" s="35"/>
     </row>
     <row r="219" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M219" s="44"/>
-      <c r="N219" s="34">
+      <c r="N219" s="162">
+        <v>73</v>
+      </c>
+      <c r="O219" s="155" t="s">
+        <v>671</v>
+      </c>
+      <c r="P219" s="155"/>
+      <c r="Q219" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="R219" s="155" t="s">
+        <v>19</v>
+      </c>
+      <c r="S219" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="T219" s="156"/>
+    </row>
+    <row r="220" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M220" s="44"/>
+      <c r="N220" s="34">
         <v>70</v>
       </c>
-      <c r="O219" s="32" t="s">
+      <c r="O220" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="P219" s="32"/>
-      <c r="Q219" s="32" t="s">
+      <c r="P220" s="32"/>
+      <c r="Q220" s="32" t="s">
         <v>664</v>
       </c>
-      <c r="R219" s="32" t="s">
+      <c r="R220" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="S219" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T219" s="54" t="s">
+      <c r="S220" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T220" s="54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="220" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M220" s="45"/>
-      <c r="N220" s="132">
+    <row r="221" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M221" s="45"/>
+      <c r="N221" s="132">
         <v>74</v>
       </c>
-      <c r="O220" s="133" t="s">
+      <c r="O221" s="133" t="s">
         <v>671</v>
       </c>
-      <c r="P220" s="133"/>
-      <c r="Q220" s="133" t="s">
+      <c r="P221" s="133"/>
+      <c r="Q221" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="R220" s="133" t="s">
+      <c r="R221" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="S220" s="133" t="s">
-        <v>20</v>
-      </c>
-      <c r="T220" s="134"/>
-    </row>
-    <row r="221" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M221" s="71"/>
-      <c r="N221" s="55">
+      <c r="S221" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="T221" s="134"/>
+    </row>
+    <row r="222" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M222" s="71"/>
+      <c r="N222" s="55">
         <v>71</v>
       </c>
-      <c r="O221" s="50" t="s">
+      <c r="O222" s="50" t="s">
         <v>678</v>
       </c>
-      <c r="P221" s="50"/>
-      <c r="Q221" s="59" t="s">
+      <c r="P222" s="50"/>
+      <c r="Q222" s="59" t="s">
         <v>672</v>
       </c>
-      <c r="R221" s="59" t="s">
+      <c r="R222" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="S221" s="59" t="s">
+      <c r="S222" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="T221" s="110" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="222" spans="13:20" x14ac:dyDescent="0.2">
-      <c r="M222" s="44"/>
-      <c r="N222" s="34">
-        <v>49</v>
-      </c>
-      <c r="O222" s="57" t="s">
-        <v>678</v>
-      </c>
-      <c r="P222" s="57"/>
-      <c r="Q222" s="57" t="s">
-        <v>673</v>
-      </c>
-      <c r="R222" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="S222" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="T222" s="54" t="s">
+      <c r="T222" s="110" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="223" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M223" s="44"/>
       <c r="N223" s="34">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="O223" s="57" t="s">
         <v>678</v>
       </c>
       <c r="P223" s="57"/>
       <c r="Q223" s="57" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="R223" s="57" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="S223" s="57" t="s">
         <v>17</v>
@@ -21774,78 +21792,80 @@
     </row>
     <row r="224" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M224" s="44"/>
-      <c r="N224" s="162">
-        <v>73</v>
-      </c>
-      <c r="O224" s="148" t="s">
+      <c r="N224" s="34">
+        <v>72</v>
+      </c>
+      <c r="O224" s="57" t="s">
         <v>678</v>
       </c>
-      <c r="P224" s="148"/>
-      <c r="Q224" s="148" t="s">
-        <v>37</v>
-      </c>
-      <c r="R224" s="148" t="s">
-        <v>19</v>
-      </c>
-      <c r="S224" s="148" t="s">
+      <c r="P224" s="57"/>
+      <c r="Q224" s="57" t="s">
+        <v>674</v>
+      </c>
+      <c r="R224" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="S224" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="T224" s="156"/>
+      <c r="T224" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="225" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M225" s="44"/>
-      <c r="N225" s="34">
-        <v>62</v>
-      </c>
-      <c r="O225" s="39" t="s">
+      <c r="N225" s="162">
+        <v>73</v>
+      </c>
+      <c r="O225" s="148" t="s">
         <v>678</v>
       </c>
-      <c r="P225" s="39"/>
-      <c r="Q225" s="57" t="s">
-        <v>675</v>
-      </c>
-      <c r="R225" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="S225" s="57" t="s">
+      <c r="P225" s="148"/>
+      <c r="Q225" s="148" t="s">
+        <v>37</v>
+      </c>
+      <c r="R225" s="148" t="s">
+        <v>19</v>
+      </c>
+      <c r="S225" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="T225" s="35"/>
+      <c r="T225" s="156"/>
     </row>
     <row r="226" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M226" s="44"/>
       <c r="N226" s="34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O226" s="39" t="s">
         <v>678</v>
       </c>
       <c r="P226" s="39"/>
       <c r="Q226" s="57" t="s">
-        <v>18</v>
+        <v>675</v>
       </c>
       <c r="R226" s="57" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S226" s="57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="T226" s="35"/>
     </row>
     <row r="227" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M227" s="44"/>
       <c r="N227" s="34">
-        <v>51</v>
-      </c>
-      <c r="O227" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="O227" s="39" t="s">
         <v>678</v>
       </c>
-      <c r="P227" s="57"/>
+      <c r="P227" s="39"/>
       <c r="Q227" s="57" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R227" s="57" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S227" s="57" t="s">
         <v>20</v>
@@ -21855,42 +21875,62 @@
     <row r="228" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M228" s="44"/>
       <c r="N228" s="34">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O228" s="57" t="s">
         <v>678</v>
       </c>
       <c r="P228" s="57"/>
       <c r="Q228" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R228" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="S228" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="T228" s="35"/>
+    </row>
+    <row r="229" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M229" s="44"/>
+      <c r="N229" s="34">
+        <v>52</v>
+      </c>
+      <c r="O229" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="P229" s="57"/>
+      <c r="Q229" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="R228" s="57" t="s">
+      <c r="R229" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="S228" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="T228" s="35"/>
-    </row>
-    <row r="229" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M229" s="45"/>
-      <c r="N229" s="128">
+      <c r="S229" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="T229" s="35"/>
+    </row>
+    <row r="230" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M230" s="45"/>
+      <c r="N230" s="128">
         <v>74</v>
       </c>
-      <c r="O229" s="139" t="s">
+      <c r="O230" s="139" t="s">
         <v>678</v>
       </c>
-      <c r="P229" s="139"/>
-      <c r="Q229" s="131" t="s">
+      <c r="P230" s="139"/>
+      <c r="Q230" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="R229" s="131" t="s">
+      <c r="R230" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="S229" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="T229" s="130"/>
+      <c r="S230" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="T230" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -21911,10 +21951,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T89"/>
+  <dimension ref="B1:T90"/>
   <sheetViews>
-    <sheetView topLeftCell="L7" workbookViewId="0">
-      <selection activeCell="Q68" sqref="Q68"/>
+    <sheetView tabSelected="1" topLeftCell="J58" workbookViewId="0">
+      <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21956,17 +21996,17 @@
       </c>
       <c r="C2" s="141"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="204" t="s">
+      <c r="E2" s="206" t="s">
         <v>337</v>
       </c>
-      <c r="F2" s="192"/>
-      <c r="G2" s="205"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="207"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="184" t="s">
+      <c r="I2" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="188"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -21974,9 +22014,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="210"/>
       <c r="H3" s="10"/>
       <c r="I3" s="62"/>
       <c r="J3" s="25" t="s">
@@ -21990,11 +22030,11 @@
       </c>
       <c r="C4" s="142"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="209" t="s">
+      <c r="E4" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="198"/>
-      <c r="G4" s="210"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="212"/>
       <c r="H4" s="7"/>
       <c r="I4" s="147"/>
       <c r="J4" s="25" t="s">
@@ -22008,11 +22048,11 @@
       </c>
       <c r="C5" s="142"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="209" t="s">
+      <c r="E5" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="210"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="212"/>
       <c r="H5" s="7"/>
       <c r="I5" s="148"/>
       <c r="J5" s="29" t="s">
@@ -22030,30 +22070,30 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="189" t="s">
+      <c r="J7" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="190"/>
-      <c r="L7" s="191"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="193"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="182" t="s">
+      <c r="N7" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183"/>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
-      <c r="S7" s="183"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -23664,16 +23704,16 @@
     <row r="77" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M77" s="44"/>
       <c r="N77" s="34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O77" s="32" t="s">
         <v>671</v>
       </c>
       <c r="P77" s="32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q77" s="32" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R77" s="32" t="s">
         <v>20</v>
@@ -23682,118 +23722,116 @@
     </row>
     <row r="78" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M78" s="44"/>
-      <c r="N78" s="162">
-        <v>19</v>
-      </c>
-      <c r="O78" s="155" t="s">
+      <c r="N78" s="34">
+        <v>9</v>
+      </c>
+      <c r="O78" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="P78" s="155" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q78" s="155" t="s">
-        <v>19</v>
-      </c>
-      <c r="R78" s="155" t="s">
-        <v>20</v>
-      </c>
-      <c r="S78" s="156"/>
+      <c r="P78" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q78" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="R78" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S78" s="35"/>
     </row>
     <row r="79" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M79" s="44"/>
-      <c r="N79" s="34">
+      <c r="N79" s="162">
+        <v>19</v>
+      </c>
+      <c r="O79" s="155" t="s">
+        <v>671</v>
+      </c>
+      <c r="P79" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q79" s="155" t="s">
+        <v>19</v>
+      </c>
+      <c r="R79" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="S79" s="156"/>
+    </row>
+    <row r="80" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M80" s="44"/>
+      <c r="N80" s="34">
         <v>15</v>
       </c>
-      <c r="O79" s="32" t="s">
+      <c r="O80" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="P79" s="32" t="s">
+      <c r="P80" s="32" t="s">
         <v>664</v>
       </c>
-      <c r="Q79" s="32" t="s">
+      <c r="Q80" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R79" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S79" s="54" t="s">
+      <c r="R80" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S80" s="54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="13:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M80" s="45"/>
-      <c r="N80" s="132">
-        <v>20</v>
-      </c>
-      <c r="O80" s="133" t="s">
+    <row r="81" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M81" s="45"/>
+      <c r="N81" s="132">
+        <v>20</v>
+      </c>
+      <c r="O81" s="133" t="s">
         <v>671</v>
       </c>
-      <c r="P80" s="133" t="s">
+      <c r="P81" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="Q80" s="133" t="s">
+      <c r="Q81" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="R80" s="133" t="s">
-        <v>20</v>
-      </c>
-      <c r="S80" s="134"/>
-    </row>
-    <row r="81" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M81" s="71"/>
-      <c r="N81" s="55">
+      <c r="R81" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="S81" s="134"/>
+    </row>
+    <row r="82" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M82" s="71"/>
+      <c r="N82" s="55">
         <v>16</v>
       </c>
-      <c r="O81" s="59" t="s">
+      <c r="O82" s="59" t="s">
         <v>678</v>
       </c>
-      <c r="P81" s="59" t="s">
+      <c r="P82" s="59" t="s">
         <v>672</v>
       </c>
-      <c r="Q81" s="59" t="s">
+      <c r="Q82" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="R81" s="59" t="s">
+      <c r="R82" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="S81" s="110" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="82" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M82" s="44"/>
-      <c r="N82" s="34">
-        <v>7</v>
-      </c>
-      <c r="O82" s="57" t="s">
-        <v>678</v>
-      </c>
-      <c r="P82" s="57" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q82" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="R82" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="S82" s="54" t="s">
+      <c r="S82" s="110" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="83" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M83" s="44"/>
       <c r="N83" s="34">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="O83" s="57" t="s">
         <v>678</v>
       </c>
       <c r="P83" s="57" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Q83" s="57" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R83" s="57" t="s">
         <v>17</v>
@@ -23804,74 +23842,76 @@
     </row>
     <row r="84" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M84" s="44"/>
-      <c r="N84" s="162">
-        <v>19</v>
-      </c>
-      <c r="O84" s="148" t="s">
+      <c r="N84" s="34">
+        <v>17</v>
+      </c>
+      <c r="O84" s="57" t="s">
         <v>678</v>
       </c>
-      <c r="P84" s="148" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q84" s="148" t="s">
-        <v>19</v>
-      </c>
-      <c r="R84" s="148" t="s">
+      <c r="P84" s="57" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q84" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="R84" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="S84" s="156"/>
+      <c r="S84" s="54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="85" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M85" s="44"/>
-      <c r="N85" s="34">
-        <v>18</v>
-      </c>
-      <c r="O85" s="57" t="s">
+      <c r="N85" s="162">
+        <v>19</v>
+      </c>
+      <c r="O85" s="148" t="s">
         <v>678</v>
       </c>
-      <c r="P85" s="57" t="s">
-        <v>675</v>
-      </c>
-      <c r="Q85" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="R85" s="57" t="s">
+      <c r="P85" s="148" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q85" s="148" t="s">
+        <v>19</v>
+      </c>
+      <c r="R85" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="S85" s="35"/>
+      <c r="S85" s="156"/>
     </row>
     <row r="86" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M86" s="44"/>
       <c r="N86" s="34">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="O86" s="57" t="s">
         <v>678</v>
       </c>
       <c r="P86" s="57" t="s">
-        <v>18</v>
+        <v>675</v>
       </c>
       <c r="Q86" s="57" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R86" s="57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S86" s="35"/>
     </row>
     <row r="87" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M87" s="44"/>
       <c r="N87" s="34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O87" s="57" t="s">
         <v>678</v>
       </c>
       <c r="P87" s="57" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q87" s="57" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R87" s="57" t="s">
         <v>20</v>
@@ -23881,40 +23921,59 @@
     <row r="88" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M88" s="44"/>
       <c r="N88" s="34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O88" s="57" t="s">
         <v>678</v>
       </c>
       <c r="P88" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q88" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="R88" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="S88" s="35"/>
+    </row>
+    <row r="89" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M89" s="44"/>
+      <c r="N89" s="34">
+        <v>10</v>
+      </c>
+      <c r="O89" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="P89" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="Q88" s="57" t="s">
+      <c r="Q89" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="R88" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="S88" s="35"/>
-    </row>
-    <row r="89" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M89" s="45"/>
-      <c r="N89" s="128">
-        <v>20</v>
-      </c>
-      <c r="O89" s="131" t="s">
+      <c r="R89" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="S89" s="35"/>
+    </row>
+    <row r="90" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M90" s="45"/>
+      <c r="N90" s="128">
+        <v>20</v>
+      </c>
+      <c r="O90" s="131" t="s">
         <v>678</v>
       </c>
-      <c r="P89" s="131" t="s">
+      <c r="P90" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="Q89" s="131" t="s">
+      <c r="Q90" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="R89" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="S89" s="130"/>
+      <c r="R90" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="S90" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -23977,26 +24036,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="206" t="s">
         <v>571</v>
       </c>
-      <c r="E2" s="192"/>
-      <c r="F2" s="205"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="207"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="184" t="s">
+      <c r="H2" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="186"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="188"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="210"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -24009,11 +24068,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="209" t="s">
+      <c r="D4" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="198"/>
-      <c r="F4" s="210"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="212"/>
       <c r="G4" s="7"/>
       <c r="H4" s="147"/>
       <c r="I4" s="25" t="s">
@@ -24026,11 +24085,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="198"/>
-      <c r="F5" s="210"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="212"/>
       <c r="G5" s="7"/>
       <c r="H5" s="148"/>
       <c r="I5" s="29" t="s">
@@ -24047,29 +24106,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="189" t="s">
+      <c r="I7" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="190"/>
-      <c r="K7" s="191"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="193"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="182" t="s">
+      <c r="M7" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183"/>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -24814,26 +24873,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="206" t="s">
         <v>608</v>
       </c>
-      <c r="E2" s="192"/>
-      <c r="F2" s="205"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="207"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="184" t="s">
+      <c r="H2" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="186"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="188"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="210"/>
       <c r="G3" s="10"/>
       <c r="H3" s="62"/>
       <c r="I3" s="25" t="s">
@@ -24846,11 +24905,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="209" t="s">
+      <c r="D4" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="198"/>
-      <c r="F4" s="210"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="212"/>
       <c r="G4" s="7"/>
       <c r="H4" s="147"/>
       <c r="I4" s="25" t="s">
@@ -24863,11 +24922,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="198"/>
-      <c r="F5" s="210"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="212"/>
       <c r="G5" s="7"/>
       <c r="H5" s="148"/>
       <c r="I5" s="29" t="s">
@@ -24884,29 +24943,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="189" t="s">
+      <c r="I7" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="190"/>
-      <c r="K7" s="191"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="193"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="182" t="s">
+      <c r="M7" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183"/>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -25436,17 +25495,17 @@
       </c>
       <c r="C2" s="141"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="204" t="s">
+      <c r="E2" s="206" t="s">
         <v>620</v>
       </c>
-      <c r="F2" s="192"/>
-      <c r="G2" s="205"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="207"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="184" t="s">
+      <c r="I2" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="188"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
@@ -25454,9 +25513,9 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="210"/>
       <c r="H3" s="10"/>
       <c r="I3" s="62"/>
       <c r="J3" s="25" t="s">
@@ -25470,11 +25529,11 @@
       </c>
       <c r="C4" s="142"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="209" t="s">
+      <c r="E4" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="198"/>
-      <c r="G4" s="210"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="212"/>
       <c r="H4" s="7"/>
       <c r="I4" s="147"/>
       <c r="J4" s="25" t="s">
@@ -25488,11 +25547,11 @@
       </c>
       <c r="C5" s="142"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="209" t="s">
+      <c r="E5" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="210"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="212"/>
       <c r="H5" s="7"/>
       <c r="I5" s="148"/>
       <c r="J5" s="29" t="s">
@@ -25510,33 +25569,33 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="189" t="s">
+      <c r="J7" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="190"/>
-      <c r="L7" s="191"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="193"/>
       <c r="M7" s="11" t="s">
         <v>662</v>
       </c>
-      <c r="N7" s="182" t="s">
+      <c r="N7" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183"/>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
-      <c r="S7" s="183"/>
-      <c r="T7" s="183"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
     </row>
     <row r="8" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
